--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -11,16 +11,17 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
-    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
-    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
+    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
+    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
+    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
+    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="81">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -58,10 +59,13 @@
     <t>cman</t>
   </si>
   <si>
-    <t>0-1-0</t>
-  </si>
-  <si>
-    <t>1-0-0</t>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
+  </si>
+  <si>
+    <t>2-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -82,43 +86,127 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Place 1</t>
-  </si>
-  <si>
-    <t>Place 2</t>
-  </si>
-  <si>
-    <t>Place 3</t>
-  </si>
-  <si>
-    <t>Place 4</t>
-  </si>
-  <si>
-    <t>Place 5</t>
-  </si>
-  <si>
-    <t>Place 6</t>
-  </si>
-  <si>
-    <t>Place 7</t>
-  </si>
-  <si>
-    <t>Place 8</t>
-  </si>
-  <si>
-    <t>Place 9</t>
-  </si>
-  <si>
-    <t>Place 10</t>
-  </si>
-  <si>
-    <t>Place 11</t>
-  </si>
-  <si>
-    <t>Place 12</t>
-  </si>
-  <si>
-    <t>Chance of making playoffs</t>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>11.7-2.3</t>
+  </si>
+  <si>
+    <t>9.5-4.5</t>
+  </si>
+  <si>
+    <t>9.1-4.9</t>
+  </si>
+  <si>
+    <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>8.8-5.2</t>
+  </si>
+  <si>
+    <t>7.1-6.9</t>
+  </si>
+  <si>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>5.7-8.3</t>
+  </si>
+  <si>
+    <t>4.5-9.5</t>
+  </si>
+  <si>
+    <t>4.4-9.6</t>
+  </si>
+  <si>
+    <t>0.9-13.1</t>
+  </si>
+  <si>
+    <t>12-2</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>1-13</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
@@ -127,7 +215,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -564,31 +679,31 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -596,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -605,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -614,10 +729,10 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -626,10 +741,10 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -637,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -646,19 +761,19 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -667,10 +782,10 @@
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -687,19 +802,19 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -708,10 +823,10 @@
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -719,40 +834,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -801,7 +916,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -810,31 +925,31 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -842,40 +957,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -883,40 +998,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -924,40 +1039,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -965,40 +1080,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1006,40 +1121,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1057,13 +1172,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1071,13 +1186,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0.08333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1085,10 +1200,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1099,13 +1214,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1113,10 +1228,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1127,10 +1242,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>0.4166666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1141,13 +1256,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1155,13 +1270,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1169,10 +1284,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>0.6666666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1183,13 +1298,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>0.6666666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1197,13 +1312,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>0.75</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1211,13 +1326,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>0.8333333333333334</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1225,13 +1340,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0.9166666666666666</v>
+        <v>1.5</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1249,16 +1364,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1266,16 +1381,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1283,16 +1398,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.9166666666666666</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.08333333333333337</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1300,16 +1415,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>0.8333333333333334</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D4">
-        <v>-0.1666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1317,16 +1432,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D5">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1334,16 +1449,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>1.25</v>
       </c>
       <c r="D6">
-        <v>-0.3333333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1351,13 +1466,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.08333333333333326</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1368,16 +1483,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>-0.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1385,13 +1500,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.4166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D9">
-        <v>0.4166666666666667</v>
+        <v>-0.1666666666666666</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1402,13 +1517,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1419,16 +1534,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D11">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1436,13 +1551,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0.08333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D12">
-        <v>0.08333333333333333</v>
+        <v>-0.4166666666666666</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1453,16 +1568,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1480,69 +1595,69 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>64.66</v>
+        <v>77.8</v>
       </c>
       <c r="C2">
-        <v>33.28</v>
+        <v>14.3</v>
       </c>
       <c r="D2">
-        <v>2.05</v>
+        <v>4.8</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>2.4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1568,81 +1683,81 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>26.47</v>
+        <v>7.8</v>
       </c>
       <c r="C3">
-        <v>31.19</v>
+        <v>28.6</v>
       </c>
       <c r="D3">
-        <v>27.73</v>
+        <v>20.3</v>
       </c>
       <c r="E3">
-        <v>10.79</v>
+        <v>14.9</v>
       </c>
       <c r="F3">
-        <v>3.14</v>
+        <v>11.8</v>
       </c>
       <c r="G3">
-        <v>0.63</v>
+        <v>8.6</v>
       </c>
       <c r="H3">
-        <v>0.05</v>
+        <v>5.5</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>6.97</v>
+        <v>3.4</v>
       </c>
       <c r="C4">
-        <v>20.19</v>
+        <v>17.2</v>
       </c>
       <c r="D4">
-        <v>30.17</v>
+        <v>24.9</v>
       </c>
       <c r="E4">
-        <v>24.06</v>
+        <v>21.9</v>
       </c>
       <c r="F4">
-        <v>12.47</v>
+        <v>15.2</v>
       </c>
       <c r="G4">
-        <v>4.82</v>
+        <v>8.9</v>
       </c>
       <c r="H4">
-        <v>1.11</v>
+        <v>5.5</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1651,42 +1766,42 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.79000000000001</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1.63</v>
+        <v>2.9</v>
       </c>
       <c r="C5">
-        <v>10.31</v>
+        <v>10.1</v>
       </c>
       <c r="D5">
-        <v>21.93</v>
+        <v>16.2</v>
       </c>
       <c r="E5">
-        <v>25.3</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>20.99</v>
+        <v>20.9</v>
       </c>
       <c r="G5">
-        <v>12.89</v>
+        <v>16.5</v>
       </c>
       <c r="H5">
-        <v>5.149999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="I5">
-        <v>1.48</v>
+        <v>4.3</v>
       </c>
       <c r="J5">
-        <v>0.27</v>
+        <v>1.5</v>
       </c>
       <c r="K5">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1695,232 +1810,232 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>98.2</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.24</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3.83</v>
+        <v>19.3</v>
       </c>
       <c r="D6">
-        <v>11.26</v>
+        <v>18.8</v>
       </c>
       <c r="E6">
-        <v>20.41</v>
+        <v>15.7</v>
       </c>
       <c r="F6">
-        <v>23.74</v>
+        <v>15.7</v>
       </c>
       <c r="G6">
-        <v>20.26</v>
+        <v>10.7</v>
       </c>
       <c r="H6">
-        <v>12.84</v>
+        <v>6.3</v>
       </c>
       <c r="I6">
-        <v>5.600000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="J6">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="K6">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L6">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>92.58000000000001</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03</v>
+        <v>1.4</v>
       </c>
       <c r="C7">
-        <v>0.95</v>
+        <v>5.6</v>
       </c>
       <c r="D7">
-        <v>5.220000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="E7">
-        <v>12.27</v>
+        <v>9.6</v>
       </c>
       <c r="F7">
-        <v>20.03</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>22.57</v>
+        <v>15.5</v>
       </c>
       <c r="H7">
-        <v>19.38</v>
+        <v>14.5</v>
       </c>
       <c r="I7">
-        <v>12.46</v>
+        <v>13.4</v>
       </c>
       <c r="J7">
-        <v>5.38</v>
+        <v>10.8</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="L7">
-        <v>0.21</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>80.45</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>0.21</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1.36</v>
+        <v>5.9</v>
       </c>
       <c r="E8">
-        <v>5.07</v>
+        <v>9.6</v>
       </c>
       <c r="F8">
-        <v>12.36</v>
+        <v>11.4</v>
       </c>
       <c r="G8">
-        <v>19.89</v>
+        <v>17.7</v>
       </c>
       <c r="H8">
-        <v>23.07</v>
+        <v>16.9</v>
       </c>
       <c r="I8">
-        <v>20.2</v>
+        <v>15.5</v>
       </c>
       <c r="J8">
-        <v>11.84</v>
+        <v>10.7</v>
       </c>
       <c r="K8">
-        <v>4.96</v>
+        <v>5.4</v>
       </c>
       <c r="L8">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>61.96</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.04</v>
+        <v>1.4</v>
       </c>
       <c r="D9">
-        <v>0.23</v>
+        <v>2.8</v>
       </c>
       <c r="E9">
-        <v>1.65</v>
+        <v>4.3</v>
       </c>
       <c r="F9">
-        <v>5.489999999999999</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>12.08</v>
+        <v>12.6</v>
       </c>
       <c r="H9">
-        <v>20.56</v>
+        <v>22.7</v>
       </c>
       <c r="I9">
-        <v>24.1</v>
+        <v>21</v>
       </c>
       <c r="J9">
-        <v>20.84</v>
+        <v>14.9</v>
       </c>
       <c r="K9">
-        <v>11.25</v>
+        <v>7.4</v>
       </c>
       <c r="L9">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="N9">
-        <v>40.05</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0.41</v>
+        <v>1.4</v>
       </c>
       <c r="F10">
-        <v>1.57</v>
+        <v>3.7</v>
       </c>
       <c r="G10">
-        <v>5.37</v>
+        <v>6.8</v>
       </c>
       <c r="H10">
-        <v>12.38</v>
+        <v>12.3</v>
       </c>
       <c r="I10">
-        <v>21.42</v>
+        <v>17.9</v>
       </c>
       <c r="J10">
-        <v>25.49</v>
+        <v>22.8</v>
       </c>
       <c r="K10">
-        <v>21.34</v>
+        <v>18.9</v>
       </c>
       <c r="L10">
-        <v>10.44</v>
+        <v>14.8</v>
       </c>
       <c r="M10">
-        <v>1.53</v>
+        <v>0.1</v>
       </c>
       <c r="N10">
-        <v>19.78</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1932,39 +2047,39 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="F11">
-        <v>0.21</v>
+        <v>0.7</v>
       </c>
       <c r="G11">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="H11">
-        <v>4.98</v>
+        <v>6.5</v>
       </c>
       <c r="I11">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="J11">
-        <v>23.68</v>
+        <v>19.5</v>
       </c>
       <c r="K11">
-        <v>30.12</v>
+        <v>27.9</v>
       </c>
       <c r="L11">
-        <v>20.32</v>
+        <v>30.6</v>
       </c>
       <c r="M11">
-        <v>7.51</v>
+        <v>0.6</v>
       </c>
       <c r="N11">
-        <v>6.67</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1973,42 +2088,42 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G12">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
       <c r="H12">
-        <v>0.48</v>
+        <v>2.6</v>
       </c>
       <c r="I12">
-        <v>2.84</v>
+        <v>7.2</v>
       </c>
       <c r="J12">
-        <v>11.01</v>
+        <v>16.7</v>
       </c>
       <c r="K12">
-        <v>28.2</v>
+        <v>30.9</v>
       </c>
       <c r="L12">
-        <v>30.53</v>
+        <v>41.7</v>
       </c>
       <c r="M12">
-        <v>26.9</v>
+        <v>0.1</v>
       </c>
       <c r="N12">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2035,16 +2150,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K13">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>33.91</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>63.81</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2056,6 +2171,357 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>131</v>
+      </c>
+      <c r="E2">
+        <v>262</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>121.48</v>
+      </c>
+      <c r="E3">
+        <v>242.96</v>
+      </c>
+      <c r="F3">
+        <v>97.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>120.84</v>
+      </c>
+      <c r="E4">
+        <v>241.68</v>
+      </c>
+      <c r="F4">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>118.51</v>
+      </c>
+      <c r="E5">
+        <v>237.02</v>
+      </c>
+      <c r="F5">
+        <v>93.8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>124.61</v>
+      </c>
+      <c r="E6">
+        <v>249.22</v>
+      </c>
+      <c r="F6">
+        <v>92.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>113.15</v>
+      </c>
+      <c r="E7">
+        <v>226.3</v>
+      </c>
+      <c r="F7">
+        <v>65.10000000000001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>113.74</v>
+      </c>
+      <c r="E8">
+        <v>227.48</v>
+      </c>
+      <c r="F8">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>110.2</v>
+      </c>
+      <c r="E9">
+        <v>220.4</v>
+      </c>
+      <c r="F9">
+        <v>52.90000000000001</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>103.89</v>
+      </c>
+      <c r="E10">
+        <v>207.78</v>
+      </c>
+      <c r="F10">
+        <v>25.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>105.34</v>
+      </c>
+      <c r="E11">
+        <v>210.68</v>
+      </c>
+      <c r="F11">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>100.75</v>
+      </c>
+      <c r="E12">
+        <v>201.5</v>
+      </c>
+      <c r="F12">
+        <v>3.4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>80.93000000000001</v>
+      </c>
+      <c r="E13">
+        <v>161.86</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -2065,16 +2531,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2085,13 +2551,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2099,16 +2565,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2119,13 +2585,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2133,16 +2599,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2150,16 +2616,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2167,16 +2633,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2184,16 +2650,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2201,16 +2667,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2218,16 +2684,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2235,16 +2701,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2252,16 +2718,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2269,169 +2735,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>-3</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>-3</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>-6</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>-8</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2441,33 +2754,303 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>-8</v>
+      </c>
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>-3</v>
+      </c>
+      <c r="C12">
+        <v>-7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>-3</v>
+      </c>
+      <c r="C13">
+        <v>-9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>-2</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-7</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-6</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="95">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -161,28 +161,31 @@
     <t>9.5-4.5</t>
   </si>
   <si>
-    <t>9.1-4.9</t>
-  </si>
-  <si>
-    <t>8.6-5.4</t>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
   </si>
   <si>
     <t>8.8-5.2</t>
   </si>
   <si>
-    <t>7.1-6.9</t>
-  </si>
-  <si>
-    <t>6.7-7.3</t>
-  </si>
-  <si>
-    <t>5.7-8.3</t>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>5.8-8.2</t>
   </si>
   <si>
     <t>4.5-9.5</t>
   </si>
   <si>
-    <t>4.4-9.6</t>
+    <t>4.3-9.7</t>
   </si>
   <si>
     <t>0.9-13.1</t>
@@ -200,7 +203,7 @@
     <t>7-7</t>
   </si>
   <si>
-    <t>5-9</t>
+    <t>6-8</t>
   </si>
   <si>
     <t>4-10</t>
@@ -209,10 +212,49 @@
     <t>1-13</t>
   </si>
   <si>
+    <t>Owners</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Shane Leiphart</t>
+  </si>
+  <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
+    <t>Eli Brinker</t>
+  </si>
+  <si>
+    <t>Colman Closser</t>
+  </si>
+  <si>
+    <t>Zachary Sparano</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
+    <t>PJ Vogric</t>
   </si>
   <si>
     <t>↑3</t>
@@ -1642,22 +1684,22 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>77.8</v>
+        <v>77.3</v>
       </c>
       <c r="C2">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="D2">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="E2">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1686,43 +1728,43 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C3">
-        <v>28.6</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>20.3</v>
+        <v>22.3</v>
       </c>
       <c r="E3">
-        <v>14.9</v>
+        <v>16.4</v>
       </c>
       <c r="F3">
-        <v>11.8</v>
+        <v>13.1</v>
       </c>
       <c r="G3">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="H3">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="I3">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="J3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K3">
         <v>0.2</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>92</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1730,34 +1772,34 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="C4">
-        <v>17.2</v>
+        <v>17.7</v>
       </c>
       <c r="D4">
-        <v>24.9</v>
+        <v>21.9</v>
       </c>
       <c r="E4">
-        <v>21.9</v>
+        <v>21.3</v>
       </c>
       <c r="F4">
-        <v>15.2</v>
+        <v>16.7</v>
       </c>
       <c r="G4">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="J4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1766,42 +1808,42 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>91.5</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="C5">
-        <v>10.1</v>
+        <v>19.1</v>
       </c>
       <c r="D5">
-        <v>16.2</v>
+        <v>19.3</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>17.4</v>
       </c>
       <c r="F5">
-        <v>20.9</v>
+        <v>14.9</v>
       </c>
       <c r="G5">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="H5">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="I5">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="J5">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1810,42 +1852,42 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>86.59999999999999</v>
+        <v>87.7</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="C6">
-        <v>19.3</v>
+        <v>12.2</v>
       </c>
       <c r="D6">
-        <v>18.8</v>
+        <v>15.7</v>
       </c>
       <c r="E6">
+        <v>20.6</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
         <v>15.7</v>
       </c>
-      <c r="F6">
-        <v>15.7</v>
-      </c>
-      <c r="G6">
-        <v>10.7</v>
-      </c>
       <c r="H6">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="I6">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="J6">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K6">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1854,95 +1896,95 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>86.2</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="C7">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="D7">
+        <v>5.7</v>
+      </c>
+      <c r="E7">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F7">
+        <v>11.3</v>
+      </c>
+      <c r="G7">
+        <v>16.3</v>
+      </c>
+      <c r="H7">
+        <v>16.9</v>
+      </c>
+      <c r="I7">
+        <v>14.5</v>
+      </c>
+      <c r="J7">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K7">
         <v>5.4</v>
       </c>
-      <c r="E7">
-        <v>9.6</v>
-      </c>
-      <c r="F7">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>15.5</v>
-      </c>
-      <c r="H7">
-        <v>14.5</v>
-      </c>
-      <c r="I7">
-        <v>13.4</v>
-      </c>
-      <c r="J7">
-        <v>10.8</v>
-      </c>
-      <c r="K7">
-        <v>7.8</v>
-      </c>
       <c r="L7">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>48.5</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="D8">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="E8">
-        <v>9.6</v>
+        <v>5.4</v>
       </c>
       <c r="F8">
-        <v>11.4</v>
+        <v>12.9</v>
       </c>
       <c r="G8">
-        <v>17.7</v>
+        <v>14.2</v>
       </c>
       <c r="H8">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="I8">
-        <v>15.5</v>
+        <v>13.2</v>
       </c>
       <c r="J8">
-        <v>10.7</v>
+        <v>12.2</v>
       </c>
       <c r="K8">
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N8">
-        <v>48.2</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1950,43 +1992,43 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D9">
         <v>2.8</v>
       </c>
       <c r="E9">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="G9">
-        <v>12.6</v>
+        <v>14.7</v>
       </c>
       <c r="H9">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="I9">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="J9">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="K9">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1997,40 +2039,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G10">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="H10">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="I10">
-        <v>17.9</v>
+        <v>21.3</v>
       </c>
       <c r="J10">
-        <v>22.8</v>
+        <v>21.6</v>
       </c>
       <c r="K10">
-        <v>18.9</v>
+        <v>17.5</v>
       </c>
       <c r="L10">
-        <v>14.8</v>
+        <v>13.9</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N10">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2047,34 +2089,34 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>2.6</v>
+      </c>
+      <c r="H11">
+        <v>5.5</v>
+      </c>
+      <c r="I11">
+        <v>12.3</v>
+      </c>
+      <c r="J11">
+        <v>21.1</v>
+      </c>
+      <c r="K11">
+        <v>29.2</v>
+      </c>
+      <c r="L11">
+        <v>28.1</v>
+      </c>
+      <c r="M11">
         <v>0.2</v>
       </c>
-      <c r="F11">
-        <v>0.7</v>
-      </c>
-      <c r="G11">
-        <v>1.9</v>
-      </c>
-      <c r="H11">
-        <v>6.5</v>
-      </c>
-      <c r="I11">
-        <v>12.1</v>
-      </c>
-      <c r="J11">
-        <v>19.5</v>
-      </c>
-      <c r="K11">
-        <v>27.9</v>
-      </c>
-      <c r="L11">
-        <v>30.6</v>
-      </c>
-      <c r="M11">
-        <v>0.6</v>
-      </c>
       <c r="N11">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2088,37 +2130,37 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G12">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H12">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I12">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="J12">
-        <v>16.7</v>
+        <v>15.2</v>
       </c>
       <c r="K12">
-        <v>30.9</v>
+        <v>30.2</v>
       </c>
       <c r="L12">
-        <v>41.7</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N12">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2150,16 +2192,16 @@
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>0.1</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M13">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2227,7 +2269,7 @@
         <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2247,13 +2289,13 @@
         <v>242.96</v>
       </c>
       <c r="F3">
-        <v>97.5</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2273,13 +2315,13 @@
         <v>241.68</v>
       </c>
       <c r="F4">
-        <v>97</v>
+        <v>95.8</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2299,13 +2341,13 @@
         <v>237.02</v>
       </c>
       <c r="F5">
-        <v>93.8</v>
+        <v>94.5</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2325,13 +2367,13 @@
         <v>249.22</v>
       </c>
       <c r="F6">
-        <v>92.5</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
         <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2351,13 +2393,13 @@
         <v>226.3</v>
       </c>
       <c r="F7">
-        <v>65.10000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2377,13 +2419,13 @@
         <v>227.48</v>
       </c>
       <c r="F8">
-        <v>63</v>
+        <v>61.7</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2403,13 +2445,13 @@
         <v>220.4</v>
       </c>
       <c r="F9">
-        <v>52.90000000000001</v>
+        <v>52.8</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2429,13 +2471,13 @@
         <v>207.78</v>
       </c>
       <c r="F10">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2455,13 +2497,13 @@
         <v>210.68</v>
       </c>
       <c r="F11">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2481,13 +2523,13 @@
         <v>201.5</v>
       </c>
       <c r="F12">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2510,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2523,228 +2565,267 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7">
         <v>-1</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
       <c r="E7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8">
         <v>-1</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9">
         <v>-2</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10">
         <v>-2</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11">
         <v>-6</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
       <c r="E11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12">
         <v>-7</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
       <c r="E12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13">
         <v>-9</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2762,13 +2843,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2782,7 +2863,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2796,7 +2877,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2810,7 +2891,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2824,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2838,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2852,7 +2933,7 @@
         <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2866,7 +2947,7 @@
         <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2880,7 +2961,7 @@
         <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2894,7 +2975,7 @@
         <v>-2</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2908,7 +2989,7 @@
         <v>-6</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2922,7 +3003,7 @@
         <v>-7</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2936,7 +3017,7 @@
         <v>-9</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2954,25 +3035,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="100">
   <si>
     <t>Daddy's Home</t>
   </si>
@@ -59,13 +59,16 @@
     <t>cman</t>
   </si>
   <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
-  </si>
-  <si>
-    <t>2-0-0</t>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
+  </si>
+  <si>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -146,52 +149,49 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>11.7-2.3</t>
-  </si>
-  <si>
-    <t>9.5-4.5</t>
-  </si>
-  <si>
-    <t>9.0-5.0</t>
-  </si>
-  <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>8.8-5.2</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>9.3-4.7</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>8.9-5.1</t>
+  </si>
+  <si>
+    <t>7.8-6.2</t>
   </si>
   <si>
     <t>7.0-7.0</t>
   </si>
   <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>5.8-8.2</t>
-  </si>
-  <si>
-    <t>4.5-9.5</t>
-  </si>
-  <si>
-    <t>4.3-9.7</t>
-  </si>
-  <si>
-    <t>0.9-13.1</t>
-  </si>
-  <si>
-    <t>12-2</t>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>5.9-8.1</t>
+  </si>
+  <si>
+    <t>5.1-8.9</t>
+  </si>
+  <si>
+    <t>4.7-9.3</t>
+  </si>
+  <si>
+    <t>3.8-10.2</t>
   </si>
   <si>
     <t>10-4</t>
@@ -200,6 +200,9 @@
     <t>9-5</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>7-7</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
     <t>4-10</t>
   </si>
   <si>
-    <t>1-13</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -221,70 +221,85 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Shane Leiphart</t>
+  </si>
+  <si>
     <t>Robbie Wilston</t>
   </si>
   <si>
+    <t>Colman Closser</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Shane Leiphart</t>
-  </si>
-  <si>
     <t>Chris Carbone</t>
   </si>
   <si>
     <t>Chris Holloway</t>
   </si>
   <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
     <t>Eli Brinker</t>
   </si>
   <si>
-    <t>Colman Closser</t>
+    <t>Marvin Ta</t>
   </si>
   <si>
     <t>Zachary Sparano</t>
   </si>
   <si>
-    <t>Marvin Ta</t>
+    <t>PJ Vogric</t>
   </si>
   <si>
     <t>Louis Rodriguez</t>
   </si>
   <si>
-    <t>Michael  Celoni</t>
-  </si>
-  <si>
-    <t>PJ Vogric</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑1</t>
+    <t>↑8</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -721,7 +736,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -739,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -794,40 +809,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -838,19 +853,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -862,10 +877,10 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
         <v>12</v>
@@ -876,22 +891,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -903,10 +918,10 @@
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
@@ -926,7 +941,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -967,13 +982,13 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -985,7 +1000,7 @@
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
@@ -999,40 +1014,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1040,22 +1055,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1067,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1090,13 +1105,13 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -1108,7 +1123,7 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
@@ -1122,25 +1137,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -1149,10 +1164,10 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
         <v>12</v>
@@ -1163,25 +1178,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1190,10 +1205,10 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
         <v>12</v>
@@ -1214,13 +1229,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1231,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1242,10 +1257,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.5833333333333334</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1256,13 +1271,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.8333333333333334</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1270,13 +1285,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0.8333333333333334</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1284,13 +1299,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>0.9166666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1298,13 +1313,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1312,13 +1327,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1.083333333333333</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1326,10 +1341,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>1.166666666666667</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1340,13 +1355,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>1.166666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1354,13 +1369,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>1.166666666666667</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1368,13 +1383,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1.416666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1382,13 +1397,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1406,16 +1421,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1423,13 +1438,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.25</v>
+        <v>0.3333333333333335</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1440,16 +1455,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1.416666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D3">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333335</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1460,13 +1475,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1.333333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D4">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1477,13 +1492,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="D5">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1491,16 +1506,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1.25</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1508,13 +1523,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1.083333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
-        <v>0.08333333333333326</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1525,16 +1540,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-0.5833333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1542,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.8333333333333334</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.1666666666666666</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1559,13 +1574,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>0.75</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.25</v>
+        <v>0.08333333333333326</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1579,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1593,13 +1608,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.5833333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D12">
-        <v>-0.4166666666666666</v>
+        <v>-0.1666666666666666</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1613,13 +1628,13 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>0.08333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D13">
-        <v>0.08333333333333333</v>
+        <v>-0.3333333333333334</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1637,46 +1652,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1684,31 +1699,31 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>77.3</v>
+        <v>42.2</v>
       </c>
       <c r="C2">
-        <v>14.8</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>4.9</v>
+        <v>15.5</v>
       </c>
       <c r="E2">
-        <v>1.4</v>
+        <v>7.3</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="G2">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1720,183 +1735,183 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>8.800000000000001</v>
+        <v>26.6</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>21.3</v>
       </c>
       <c r="D3">
-        <v>22.3</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>16.4</v>
+        <v>13.9</v>
       </c>
       <c r="F3">
-        <v>13.1</v>
+        <v>8.4</v>
       </c>
       <c r="G3">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="I3">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="J3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K3">
         <v>0.2</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>93.09999999999999</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2.9</v>
+        <v>13.5</v>
       </c>
       <c r="C4">
-        <v>17.7</v>
+        <v>18.2</v>
       </c>
       <c r="D4">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="E4">
-        <v>21.3</v>
+        <v>19.6</v>
       </c>
       <c r="F4">
-        <v>16.7</v>
+        <v>12.4</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="H4">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="J4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K4">
         <v>0.3</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>90.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>6.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C5">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="D5">
-        <v>19.3</v>
+        <v>22.1</v>
       </c>
       <c r="E5">
-        <v>17.4</v>
+        <v>21.9</v>
       </c>
       <c r="F5">
-        <v>14.9</v>
+        <v>12.1</v>
       </c>
       <c r="G5">
-        <v>10.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H5">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="I5">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="J5">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>87.7</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="C6">
-        <v>12.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D6">
-        <v>15.7</v>
+        <v>9.9</v>
       </c>
       <c r="E6">
-        <v>20.6</v>
+        <v>11.2</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="G6">
-        <v>15.7</v>
+        <v>13.6</v>
       </c>
       <c r="H6">
-        <v>8.6</v>
+        <v>10.7</v>
       </c>
       <c r="I6">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="J6">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>2.7</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>85.90000000000001</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1904,224 +1919,224 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="E7">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F7">
-        <v>11.3</v>
+        <v>12</v>
       </c>
       <c r="G7">
+        <v>15.9</v>
+      </c>
+      <c r="H7">
         <v>16.3</v>
       </c>
-      <c r="H7">
-        <v>16.9</v>
-      </c>
       <c r="I7">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="J7">
-        <v>9.699999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="K7">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="L7">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N7">
-        <v>49.3</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="E8">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>12.9</v>
+        <v>9.6</v>
       </c>
       <c r="G8">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="I8">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="J8">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="K8">
-        <v>7.9</v>
+        <v>9.6</v>
       </c>
       <c r="L8">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>44.7</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
         <v>1.7</v>
       </c>
       <c r="D9">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="E9">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="F9">
-        <v>5.7</v>
+        <v>7.7</v>
       </c>
       <c r="G9">
-        <v>14.7</v>
+        <v>10.2</v>
       </c>
       <c r="H9">
-        <v>22.4</v>
+        <v>13.6</v>
       </c>
       <c r="I9">
-        <v>20.3</v>
+        <v>13.2</v>
       </c>
       <c r="J9">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="K9">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>10.1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="N9">
-        <v>30.4</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D10">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F10">
-        <v>3.6</v>
+        <v>7.9</v>
       </c>
       <c r="G10">
-        <v>7.1</v>
+        <v>12.4</v>
       </c>
       <c r="H10">
-        <v>11.7</v>
+        <v>15.4</v>
       </c>
       <c r="I10">
-        <v>21.3</v>
+        <v>16.5</v>
       </c>
       <c r="J10">
-        <v>21.6</v>
+        <v>15.4</v>
       </c>
       <c r="K10">
-        <v>17.5</v>
+        <v>13.8</v>
       </c>
       <c r="L10">
-        <v>13.9</v>
+        <v>8.4</v>
       </c>
       <c r="M10">
-        <v>0.3</v>
+        <v>4.5</v>
       </c>
       <c r="N10">
-        <v>13.7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="G11">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H11">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="J11">
-        <v>21.1</v>
+        <v>17.6</v>
       </c>
       <c r="K11">
-        <v>29.2</v>
+        <v>18.3</v>
       </c>
       <c r="L11">
-        <v>28.1</v>
+        <v>18.3</v>
       </c>
       <c r="M11">
-        <v>0.2</v>
+        <v>16.2</v>
       </c>
       <c r="N11">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2130,42 +2145,42 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G12">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H12">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="I12">
-        <v>5.6</v>
+        <v>7.7</v>
       </c>
       <c r="J12">
-        <v>15.2</v>
+        <v>11.5</v>
       </c>
       <c r="K12">
-        <v>30.2</v>
+        <v>18</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>24.4</v>
       </c>
       <c r="M12">
-        <v>0.4</v>
+        <v>26.8</v>
       </c>
       <c r="N12">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2177,34 +2192,34 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K13">
-        <v>0.1</v>
+        <v>15.8</v>
       </c>
       <c r="L13">
-        <v>0.9</v>
+        <v>26.3</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>37.7</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -2222,28 +2237,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2251,74 +2266,74 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>130.7266666666667</v>
       </c>
       <c r="E2">
-        <v>262</v>
+        <v>392.18</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>121.48</v>
+        <v>130.0533333333333</v>
       </c>
       <c r="E3">
-        <v>242.96</v>
+        <v>390.16</v>
       </c>
       <c r="F3">
-        <v>96.89999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>120.84</v>
+        <v>120.5266666666667</v>
       </c>
       <c r="E4">
-        <v>241.68</v>
+        <v>361.58</v>
       </c>
       <c r="F4">
-        <v>95.8</v>
+        <v>97.3</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -2326,25 +2341,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>118.51</v>
+        <v>124.1666666666667</v>
       </c>
       <c r="E5">
-        <v>237.02</v>
+        <v>372.5</v>
       </c>
       <c r="F5">
-        <v>94.5</v>
+        <v>97.2</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
         <v>58</v>
@@ -2352,28 +2367,28 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>124.61</v>
+        <v>117.5666666666667</v>
       </c>
       <c r="E6">
-        <v>249.22</v>
+        <v>352.7</v>
       </c>
       <c r="F6">
-        <v>94</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2384,123 +2399,123 @@
         <v>42</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D7">
-        <v>113.15</v>
+        <v>109.5533333333333</v>
       </c>
       <c r="E7">
-        <v>226.3</v>
+        <v>328.66</v>
       </c>
       <c r="F7">
-        <v>66.2</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>113.74</v>
+        <v>113.5866666666667</v>
       </c>
       <c r="E8">
-        <v>227.48</v>
+        <v>340.76</v>
       </c>
       <c r="F8">
-        <v>61.7</v>
+        <v>53.3</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>110.2</v>
+        <v>110.2466666666667</v>
       </c>
       <c r="E9">
-        <v>220.4</v>
+        <v>330.74</v>
       </c>
       <c r="F9">
-        <v>52.8</v>
+        <v>41.4</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>103.89</v>
+        <v>106.2</v>
       </c>
       <c r="E10">
-        <v>207.78</v>
+        <v>318.6</v>
       </c>
       <c r="F10">
-        <v>25.4</v>
+        <v>39.7</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>105.34</v>
+        <v>102.1866666666667</v>
       </c>
       <c r="E11">
-        <v>210.68</v>
+        <v>306.56</v>
       </c>
       <c r="F11">
-        <v>9.1</v>
+        <v>17.2</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
         <v>61</v>
@@ -2508,51 +2523,51 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>100.75</v>
+        <v>95.66000000000001</v>
       </c>
       <c r="E12">
-        <v>201.5</v>
+        <v>286.98</v>
       </c>
       <c r="F12">
-        <v>3.6</v>
+        <v>11.6</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>80.93000000000001</v>
+        <v>105.3</v>
       </c>
       <c r="E13">
-        <v>161.86</v>
+        <v>315.9</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
         <v>62</v>
@@ -2573,7 +2588,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>63</v>
@@ -2582,7 +2597,7 @@
         <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>65</v>
@@ -2593,13 +2608,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -2613,16 +2628,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>79</v>
@@ -2633,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -2653,7 +2668,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -2662,7 +2677,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>81</v>
@@ -2673,19 +2688,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2693,19 +2708,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2713,19 +2728,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2733,19 +2748,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2759,13 +2774,13 @@
         <v>74</v>
       </c>
       <c r="D10">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2773,19 +2788,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
       </c>
       <c r="D11">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2793,19 +2808,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
       </c>
       <c r="D12">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2813,19 +2828,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
       </c>
       <c r="D13">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2835,136 +2850,163 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>5</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>-1</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>-1</v>
       </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2974,50 +3016,62 @@
       <c r="C10">
         <v>-2</v>
       </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>-6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-2</v>
+      </c>
+      <c r="D11">
+        <v>-9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>-3</v>
       </c>
       <c r="C12">
-        <v>-7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-9</v>
+      </c>
+      <c r="D12">
+        <v>-11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="C13">
-        <v>-9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
+        <v>-6</v>
+      </c>
+      <c r="D13">
+        <v>-14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3027,7 +3081,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3035,25 +3089,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3061,25 +3115,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3087,22 +3141,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -3116,21 +3170,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>-2</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-7</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>-1</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>-6</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s">
         <v>5</v>
       </c>
     </row>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -21,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="100">
-  <si>
-    <t>Daddy's Home</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="98">
+  <si>
+    <t>Daddy's Finally Home</t>
   </si>
   <si>
     <t>1900 Sleepers</t>
@@ -59,16 +59,19 @@
     <t>cman</t>
   </si>
   <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
-  </si>
-  <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -149,52 +152,46 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>10.0-4.0</t>
-  </si>
-  <si>
-    <t>9.3-4.7</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>9.5-4.5</t>
   </si>
   <si>
     <t>8.9-5.1</t>
   </si>
   <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>7.0-7.0</t>
+    <t>8.2-5.8</t>
+  </si>
+  <si>
+    <t>7.6-6.4</t>
+  </si>
+  <si>
+    <t>7.7-6.3</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
   </si>
   <si>
     <t>6.4-7.6</t>
   </si>
   <si>
-    <t>5.9-8.1</t>
+    <t>6.3-7.7</t>
+  </si>
+  <si>
+    <t>5.3-8.7</t>
   </si>
   <si>
     <t>5.1-8.9</t>
   </si>
   <si>
-    <t>4.7-9.3</t>
-  </si>
-  <si>
-    <t>3.8-10.2</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>4.6-9.4</t>
   </si>
   <si>
     <t>9-5</t>
@@ -209,7 +206,7 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>4-10</t>
+    <t>5-9</t>
   </si>
   <si>
     <t>Owners</t>
@@ -227,19 +224,25 @@
     <t>Robbie Wilston</t>
   </si>
   <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
     <t>Colman Closser</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Chris Carbone</t>
-  </si>
-  <si>
-    <t>Chris Holloway</t>
-  </si>
-  <si>
-    <t>Michael  Celoni</t>
+    <t>Zachary Sparano</t>
+  </si>
+  <si>
+    <t>PJ Vogric</t>
   </si>
   <si>
     <t>Eli Brinker</t>
@@ -248,51 +251,39 @@
     <t>Marvin Ta</t>
   </si>
   <si>
-    <t>Zachary Sparano</t>
-  </si>
-  <si>
-    <t>PJ Vogric</t>
-  </si>
-  <si>
     <t>Louis Rodriguez</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
     <t>↑9</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -300,6 +291,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -733,19 +727,19 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -754,10 +748,10 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
@@ -771,25 +765,25 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -798,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
         <v>12</v>
@@ -812,19 +806,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -833,13 +827,13 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
         <v>12</v>
@@ -850,19 +844,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -871,19 +865,19 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -891,22 +885,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -915,16 +909,16 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -932,37 +926,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -973,7 +967,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -982,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -1014,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1023,31 +1017,31 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1058,31 +1052,31 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
@@ -1096,19 +1090,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1123,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
@@ -1140,19 +1134,19 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -1161,13 +1155,13 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M12" t="s">
         <v>12</v>
@@ -1178,37 +1172,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
         <v>12</v>
@@ -1229,13 +1223,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1246,10 +1240,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>1.25</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1257,10 +1251,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1271,13 +1265,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1.083333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1285,10 +1279,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1.083333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1299,13 +1293,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1.166666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1313,10 +1307,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1327,10 +1321,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>1.583333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1341,10 +1335,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>1.583333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1355,13 +1349,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1372,10 +1366,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1386,10 +1380,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1400,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2.333333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1421,16 +1415,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1438,16 +1432,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>2.333333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D2">
-        <v>0.3333333333333335</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1455,16 +1449,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>2.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D3">
-        <v>0.3333333333333335</v>
+        <v>0.8333333333333335</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1472,16 +1466,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2.083333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D4">
-        <v>0.08333333333333348</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1489,13 +1483,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="D5">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1506,16 +1500,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.583333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.4166666666666667</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1523,16 +1517,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1543,13 +1537,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1.416666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D8">
-        <v>-0.5833333333333333</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1557,16 +1551,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1.416666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D9">
-        <v>0.4166666666666667</v>
+        <v>-1.25</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1574,13 +1568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>1.083333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="D10">
-        <v>0.08333333333333326</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1591,16 +1585,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1608,16 +1602,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>0.8333333333333334</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D12">
-        <v>-0.1666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1628,13 +1622,13 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>-0.3333333333333334</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1652,46 +1646,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1699,34 +1693,34 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>42.2</v>
+        <v>43.8</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>21.4</v>
       </c>
       <c r="D2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="E2">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F2">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="G2">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H2">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
         <v>0.2</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1735,359 +1729,359 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>98.2</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>26.6</v>
+        <v>27.6</v>
       </c>
       <c r="C3">
-        <v>21.3</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>14.8</v>
       </c>
       <c r="E3">
-        <v>13.9</v>
+        <v>11.8</v>
       </c>
       <c r="F3">
         <v>8.4</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="H3">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="I3">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="J3">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N3">
-        <v>95.2</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>13.5</v>
+        <v>10.7</v>
       </c>
       <c r="C4">
-        <v>18.2</v>
+        <v>19.8</v>
       </c>
       <c r="D4">
-        <v>21.2</v>
+        <v>16.4</v>
       </c>
       <c r="E4">
-        <v>19.6</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>12.4</v>
+        <v>11.6</v>
       </c>
       <c r="G4">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="I4">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="J4">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="L4">
+        <v>1.2</v>
+      </c>
+      <c r="M4">
         <v>0.1</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>94</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>9.699999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="C5">
-        <v>18.8</v>
+        <v>8.9</v>
       </c>
       <c r="D5">
-        <v>22.1</v>
+        <v>13.5</v>
       </c>
       <c r="E5">
-        <v>21.9</v>
+        <v>14.3</v>
       </c>
       <c r="F5">
-        <v>12.1</v>
+        <v>15.3</v>
       </c>
       <c r="G5">
-        <v>8.300000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="H5">
-        <v>4.3</v>
+        <v>9.1</v>
       </c>
       <c r="I5">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>92.90000000000001</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="C6">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="D6">
-        <v>9.9</v>
+        <v>11</v>
       </c>
       <c r="E6">
+        <v>11.4</v>
+      </c>
+      <c r="F6">
+        <v>12.9</v>
+      </c>
+      <c r="G6">
+        <v>12.2</v>
+      </c>
+      <c r="H6">
         <v>11.2</v>
       </c>
-      <c r="F6">
-        <v>19.2</v>
-      </c>
-      <c r="G6">
-        <v>13.6</v>
-      </c>
-      <c r="H6">
-        <v>10.7</v>
-      </c>
       <c r="I6">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="J6">
-        <v>4.9</v>
+        <v>7.7</v>
       </c>
       <c r="K6">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="L6">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>67.90000000000001</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>8.4</v>
       </c>
       <c r="D7">
-        <v>4.4</v>
+        <v>10.3</v>
       </c>
       <c r="E7">
-        <v>9.300000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="G7">
-        <v>15.9</v>
+        <v>10.4</v>
       </c>
       <c r="H7">
-        <v>16.3</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>14.3</v>
+        <v>10.5</v>
       </c>
       <c r="J7">
-        <v>10.3</v>
+        <v>7.4</v>
       </c>
       <c r="K7">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N7">
-        <v>45.7</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="D8">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="F8">
-        <v>9.6</v>
+        <v>10.7</v>
       </c>
       <c r="G8">
         <v>13.9</v>
       </c>
       <c r="H8">
-        <v>15.9</v>
+        <v>12.2</v>
       </c>
       <c r="I8">
-        <v>13.7</v>
+        <v>12.8</v>
       </c>
       <c r="J8">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="K8">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="L8">
-        <v>6.3</v>
+        <v>4.4</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>37.4</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>1.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E9">
-        <v>4.2</v>
+        <v>7.7</v>
       </c>
       <c r="F9">
+        <v>8.9</v>
+      </c>
+      <c r="G9">
+        <v>10.7</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>12.3</v>
+      </c>
+      <c r="J9">
+        <v>10.2</v>
+      </c>
+      <c r="K9">
+        <v>11.9</v>
+      </c>
+      <c r="L9">
         <v>7.7</v>
       </c>
-      <c r="G9">
-        <v>10.2</v>
-      </c>
-      <c r="H9">
-        <v>13.6</v>
-      </c>
-      <c r="I9">
-        <v>13.2</v>
-      </c>
-      <c r="J9">
-        <v>15.5</v>
-      </c>
-      <c r="K9">
-        <v>13</v>
-      </c>
-      <c r="L9">
-        <v>10.1</v>
-      </c>
       <c r="M9">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="N9">
-        <v>26.1</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0.2</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="D10">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="E10">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="F10">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="G10">
-        <v>12.4</v>
+        <v>9.9</v>
       </c>
       <c r="H10">
-        <v>15.4</v>
+        <v>12.7</v>
       </c>
       <c r="I10">
-        <v>16.5</v>
+        <v>13.1</v>
       </c>
       <c r="J10">
-        <v>15.4</v>
+        <v>14.6</v>
       </c>
       <c r="K10">
-        <v>13.8</v>
+        <v>11.7</v>
       </c>
       <c r="L10">
-        <v>8.4</v>
+        <v>11.2</v>
       </c>
       <c r="M10">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N10">
-        <v>26</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2095,131 +2089,131 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F11">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G11">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="I11">
-        <v>12.4</v>
+        <v>10.3</v>
       </c>
       <c r="J11">
-        <v>17.6</v>
+        <v>12</v>
       </c>
       <c r="K11">
-        <v>18.3</v>
+        <v>18.9</v>
       </c>
       <c r="L11">
-        <v>18.3</v>
+        <v>21.3</v>
       </c>
       <c r="M11">
         <v>16.2</v>
       </c>
       <c r="N11">
-        <v>8.199999999999999</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G12">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H12">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="I12">
-        <v>7.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J12">
-        <v>11.5</v>
+        <v>13.6</v>
       </c>
       <c r="K12">
-        <v>18</v>
+        <v>15.7</v>
       </c>
       <c r="L12">
-        <v>24.4</v>
+        <v>19.8</v>
       </c>
       <c r="M12">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="N12">
-        <v>6.2</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G13">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H13">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="I13">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K13">
-        <v>15.8</v>
+        <v>12.2</v>
       </c>
       <c r="L13">
-        <v>26.3</v>
+        <v>25.4</v>
       </c>
       <c r="M13">
-        <v>37.7</v>
+        <v>38.6</v>
       </c>
       <c r="N13">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
     </row>
   </sheetData>
@@ -2237,28 +2231,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2266,19 +2260,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>130.7266666666667</v>
+        <v>129.415</v>
       </c>
       <c r="E2">
-        <v>392.18</v>
+        <v>517.66</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
@@ -2289,48 +2283,48 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>130.0533333333333</v>
+        <v>128.555</v>
       </c>
       <c r="E3">
-        <v>390.16</v>
+        <v>514.22</v>
       </c>
       <c r="F3">
-        <v>97.5</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>120.5266666666667</v>
+        <v>126.09</v>
       </c>
       <c r="E4">
-        <v>361.58</v>
+        <v>504.36</v>
       </c>
       <c r="F4">
-        <v>97.3</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G4" t="s">
         <v>48</v>
@@ -2341,22 +2335,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>124.1666666666667</v>
+        <v>123.465</v>
       </c>
       <c r="E5">
-        <v>372.5</v>
+        <v>493.86</v>
       </c>
       <c r="F5">
-        <v>97.2</v>
+        <v>80.7</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
@@ -2367,22 +2361,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D6">
-        <v>117.5666666666667</v>
+        <v>111.715</v>
       </c>
       <c r="E6">
-        <v>352.7</v>
+        <v>446.86</v>
       </c>
       <c r="F6">
-        <v>78.60000000000001</v>
+        <v>71.5</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -2393,106 +2387,106 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D7">
-        <v>109.5533333333333</v>
+        <v>111.765</v>
       </c>
       <c r="E7">
-        <v>328.66</v>
+        <v>447.06</v>
       </c>
       <c r="F7">
-        <v>62</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>113.5866666666667</v>
+        <v>115.315</v>
       </c>
       <c r="E8">
-        <v>340.76</v>
+        <v>461.26</v>
       </c>
       <c r="F8">
-        <v>53.3</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D9">
-        <v>110.2466666666667</v>
+        <v>122.715</v>
       </c>
       <c r="E9">
-        <v>330.74</v>
+        <v>490.86</v>
       </c>
       <c r="F9">
-        <v>41.4</v>
+        <v>54.3</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>106.2</v>
+        <v>108.73</v>
       </c>
       <c r="E10">
-        <v>318.6</v>
+        <v>434.92</v>
       </c>
       <c r="F10">
-        <v>39.7</v>
+        <v>41.2</v>
       </c>
       <c r="G10" t="s">
         <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2500,19 +2494,19 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>102.1866666666667</v>
+        <v>108.365</v>
       </c>
       <c r="E11">
-        <v>306.56</v>
+        <v>433.46</v>
       </c>
       <c r="F11">
-        <v>17.2</v>
+        <v>21.3</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
@@ -2523,54 +2517,54 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
-        <v>95.66000000000001</v>
+        <v>102.22</v>
       </c>
       <c r="E12">
-        <v>286.98</v>
+        <v>408.88</v>
       </c>
       <c r="F12">
-        <v>11.6</v>
+        <v>15.6</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>105.3</v>
+        <v>100.065</v>
       </c>
       <c r="E13">
-        <v>315.9</v>
+        <v>400.26</v>
       </c>
       <c r="F13">
-        <v>4.8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2588,19 +2582,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2611,16 +2605,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2631,16 +2625,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2648,19 +2642,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2668,19 +2662,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2688,19 +2682,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2708,19 +2702,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2728,19 +2722,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2748,19 +2742,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2768,19 +2762,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2788,19 +2782,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>-9</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2808,19 +2802,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2831,16 +2825,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2850,27 +2844,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2883,11 +2880,14 @@
       <c r="D2">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2900,164 +2900,194 @@
       <c r="D3">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>-3</v>
+      </c>
+      <c r="C5">
+        <v>-7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <v>-9</v>
+      </c>
+      <c r="E9">
+        <v>-6</v>
+      </c>
+      <c r="F9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
         <v>-3</v>
       </c>
-      <c r="C8">
+      <c r="C10">
+        <v>-9</v>
+      </c>
+      <c r="D10">
+        <v>-11</v>
+      </c>
+      <c r="E10">
+        <v>-8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
         <v>-7</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E11">
+        <v>-9</v>
+      </c>
+      <c r="F11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>-6</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
         <v>-7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E12">
+        <v>-17</v>
+      </c>
+      <c r="F12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>-2</v>
-      </c>
-      <c r="D11">
-        <v>-9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>-3</v>
-      </c>
-      <c r="C12">
-        <v>-9</v>
-      </c>
-      <c r="D12">
-        <v>-11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3070,8 +3100,11 @@
       <c r="D13">
         <v>-14</v>
       </c>
-      <c r="E13" t="s">
-        <v>89</v>
+      <c r="E13">
+        <v>-19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3081,7 +3114,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3089,25 +3122,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3115,25 +3148,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3144,22 +3177,22 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3167,25 +3200,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3196,22 +3229,22 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F5">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3222,22 +3255,74 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>-1</v>
       </c>
       <c r="F6">
+        <v>-7</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
         <v>-6</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -161,37 +161,37 @@
     <t>1-3</t>
   </si>
   <si>
-    <t>9.5-4.5</t>
-  </si>
-  <si>
-    <t>8.9-5.1</t>
-  </si>
-  <si>
-    <t>8.2-5.8</t>
-  </si>
-  <si>
-    <t>7.6-6.4</t>
-  </si>
-  <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>6.8-7.2</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>6.3-7.7</t>
-  </si>
-  <si>
-    <t>5.3-8.7</t>
-  </si>
-  <si>
-    <t>5.1-8.9</t>
-  </si>
-  <si>
-    <t>4.6-9.4</t>
+    <t>9.5-4.4-0.1</t>
+  </si>
+  <si>
+    <t>8.9-5.1-0.1</t>
+  </si>
+  <si>
+    <t>8.3-5.6-0.1</t>
+  </si>
+  <si>
+    <t>7.6-6.3-0.1</t>
+  </si>
+  <si>
+    <t>7.5-6.4-0.1</t>
+  </si>
+  <si>
+    <t>6.8-7.1-0.1</t>
+  </si>
+  <si>
+    <t>6.3-7.6-0.1</t>
+  </si>
+  <si>
+    <t>5.2-8.8-0.1</t>
+  </si>
+  <si>
+    <t>5.1-8.8-0.1</t>
+  </si>
+  <si>
+    <t>4.6-9.4-0.1</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
@@ -1693,34 +1693,34 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>43.8</v>
+        <v>41.2</v>
       </c>
       <c r="C2">
-        <v>21.4</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="E2">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G2">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H2">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.40000000000001</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1740,40 +1740,40 @@
         <v>27.6</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="D3">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>11.8</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G3">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H3">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I3">
+        <v>3.4</v>
+      </c>
+      <c r="J3">
         <v>2.9</v>
       </c>
-      <c r="J3">
-        <v>2.7</v>
-      </c>
       <c r="K3">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>88.2</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1781,43 +1781,43 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="C4">
-        <v>19.8</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>16.4</v>
+        <v>18.9</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>16.2</v>
       </c>
       <c r="F4">
-        <v>11.6</v>
+        <v>10.6</v>
       </c>
       <c r="G4">
-        <v>9.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="H4">
         <v>5.7</v>
       </c>
       <c r="I4">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L4">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="M4">
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>82.7</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1825,131 +1825,131 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="C5">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D5">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
       <c r="E5">
-        <v>14.3</v>
+        <v>12.6</v>
       </c>
       <c r="F5">
-        <v>15.3</v>
+        <v>12.4</v>
       </c>
       <c r="G5">
-        <v>13.2</v>
+        <v>12.4</v>
       </c>
       <c r="H5">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="I5">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="L5">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N5">
-        <v>71.59999999999999</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="C6">
+        <v>7.9</v>
+      </c>
+      <c r="D6">
         <v>9.1</v>
       </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
       <c r="E6">
-        <v>11.4</v>
+        <v>13</v>
       </c>
       <c r="F6">
+        <v>11.2</v>
+      </c>
+      <c r="G6">
         <v>12.9</v>
       </c>
-      <c r="G6">
-        <v>12.2</v>
-      </c>
       <c r="H6">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="I6">
-        <v>10.8</v>
+        <v>10.2</v>
       </c>
       <c r="J6">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="N6">
-        <v>60.3</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="C7">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="D7">
-        <v>10.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E7">
-        <v>12.8</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>12.4</v>
+        <v>13.8</v>
       </c>
       <c r="G7">
+        <v>12.5</v>
+      </c>
+      <c r="H7">
+        <v>13.2</v>
+      </c>
+      <c r="I7">
         <v>10.4</v>
       </c>
-      <c r="H7">
-        <v>12</v>
-      </c>
-      <c r="I7">
-        <v>10.5</v>
-      </c>
       <c r="J7">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="N7">
-        <v>57.6</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1957,43 +1957,43 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="C8">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D8">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="E8">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>10.7</v>
       </c>
       <c r="G8">
-        <v>13.9</v>
+        <v>12.6</v>
       </c>
       <c r="H8">
-        <v>12.2</v>
+        <v>13.8</v>
       </c>
       <c r="I8">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="J8">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="K8">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="L8">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="M8">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="N8">
-        <v>44.2</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2001,43 +2001,43 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D9">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="E9">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="F9">
-        <v>8.9</v>
+        <v>10.5</v>
       </c>
       <c r="G9">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>11.4</v>
       </c>
       <c r="I9">
         <v>12.3</v>
       </c>
       <c r="J9">
-        <v>10.2</v>
+        <v>12.6</v>
       </c>
       <c r="K9">
-        <v>11.9</v>
+        <v>10.5</v>
       </c>
       <c r="L9">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="M9">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="N9">
-        <v>41.3</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2045,43 +2045,43 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="D10">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="E10">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="F10">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G10">
-        <v>9.9</v>
+        <v>7.9</v>
       </c>
       <c r="H10">
-        <v>12.7</v>
+        <v>11.5</v>
       </c>
       <c r="I10">
+        <v>13.9</v>
+      </c>
+      <c r="J10">
+        <v>13.2</v>
+      </c>
+      <c r="K10">
         <v>13.1</v>
-      </c>
-      <c r="J10">
-        <v>14.6</v>
-      </c>
-      <c r="K10">
-        <v>11.7</v>
       </c>
       <c r="L10">
         <v>11.2</v>
       </c>
       <c r="M10">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="N10">
-        <v>28.5</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2092,40 +2092,40 @@
         <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="E11">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="F11">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="G11">
+        <v>4.9</v>
+      </c>
+      <c r="H11">
         <v>6.4</v>
       </c>
-      <c r="H11">
-        <v>7.7</v>
-      </c>
       <c r="I11">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="K11">
-        <v>18.9</v>
+        <v>17</v>
       </c>
       <c r="L11">
-        <v>21.3</v>
+        <v>22.5</v>
       </c>
       <c r="M11">
-        <v>16.2</v>
+        <v>19.1</v>
       </c>
       <c r="N11">
-        <v>13.6</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2133,43 +2133,43 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C12">
         <v>0.7</v>
       </c>
       <c r="D12">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="F12">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="G12">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="H12">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="I12">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J12">
-        <v>13.6</v>
+        <v>10.9</v>
       </c>
       <c r="K12">
-        <v>15.7</v>
+        <v>18.1</v>
       </c>
       <c r="L12">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="M12">
-        <v>26.5</v>
+        <v>25.7</v>
       </c>
       <c r="N12">
-        <v>8.9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2180,40 +2180,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
         <v>0.3</v>
       </c>
       <c r="E13">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F13">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="G13">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H13">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="J13">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="K13">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="L13">
-        <v>25.4</v>
+        <v>23.9</v>
       </c>
       <c r="M13">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="N13">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
     </row>
   </sheetData>
@@ -2272,13 +2272,13 @@
         <v>517.66</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2298,7 +2298,7 @@
         <v>514.22</v>
       </c>
       <c r="F3">
-        <v>92.90000000000001</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
@@ -2324,7 +2324,7 @@
         <v>504.36</v>
       </c>
       <c r="F4">
-        <v>88.40000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="G4" t="s">
         <v>48</v>
@@ -2350,7 +2350,7 @@
         <v>493.86</v>
       </c>
       <c r="F5">
-        <v>80.7</v>
+        <v>78.7</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
@@ -2376,7 +2376,7 @@
         <v>446.86</v>
       </c>
       <c r="F6">
-        <v>71.5</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -2402,13 +2402,13 @@
         <v>447.06</v>
       </c>
       <c r="F7">
-        <v>69.59999999999999</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2428,7 +2428,7 @@
         <v>461.26</v>
       </c>
       <c r="F8">
-        <v>56.39999999999999</v>
+        <v>59.3</v>
       </c>
       <c r="G8" t="s">
         <v>51</v>
@@ -2454,7 +2454,7 @@
         <v>490.86</v>
       </c>
       <c r="F9">
-        <v>54.3</v>
+        <v>52.2</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -2480,13 +2480,13 @@
         <v>434.92</v>
       </c>
       <c r="F10">
-        <v>41.2</v>
+        <v>41.9</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2506,10 +2506,10 @@
         <v>433.46</v>
       </c>
       <c r="F11">
-        <v>21.3</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
         <v>61</v>
@@ -2532,10 +2532,10 @@
         <v>408.88</v>
       </c>
       <c r="F12">
-        <v>15.6</v>
+        <v>17.3</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
         <v>61</v>
@@ -2561,7 +2561,7 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
         <v>61</v>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="102">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -59,19 +59,22 @@
     <t>cman</t>
   </si>
   <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -152,40 +155,49 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>9.5-4.4-0.1</t>
-  </si>
-  <si>
-    <t>8.9-5.1-0.1</t>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>9.6-4.3-0.1</t>
+  </si>
+  <si>
+    <t>8.4-5.5-0.1</t>
   </si>
   <si>
     <t>8.3-5.6-0.1</t>
   </si>
   <si>
-    <t>7.6-6.3-0.1</t>
-  </si>
-  <si>
-    <t>7.5-6.4-0.1</t>
-  </si>
-  <si>
-    <t>6.8-7.1-0.1</t>
-  </si>
-  <si>
-    <t>6.3-7.6-0.1</t>
-  </si>
-  <si>
-    <t>5.2-8.8-0.1</t>
-  </si>
-  <si>
-    <t>5.1-8.8-0.1</t>
+    <t>7.9-6.0-0.1</t>
+  </si>
+  <si>
+    <t>8.0-5.9-0.1</t>
+  </si>
+  <si>
+    <t>7.0-6.9-0.1</t>
+  </si>
+  <si>
+    <t>6.6-7.3-0.1</t>
+  </si>
+  <si>
+    <t>6.1-7.8-0.1</t>
+  </si>
+  <si>
+    <t>6.0-8.0-0.1</t>
+  </si>
+  <si>
+    <t>5.4-8.6</t>
+  </si>
+  <si>
+    <t>5.7-8.2-0.1</t>
   </si>
   <si>
     <t>4.6-9.4-0.1</t>
@@ -218,70 +230,67 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
     <t>Shane Leiphart</t>
   </si>
   <si>
-    <t>Robbie Wilston</t>
-  </si>
-  <si>
-    <t>Chris Holloway</t>
-  </si>
-  <si>
-    <t>Michael  Celoni</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Chris Carbone</t>
-  </si>
-  <si>
     <t>Colman Closser</t>
   </si>
   <si>
     <t>Zachary Sparano</t>
   </si>
   <si>
+    <t>Eli Brinker</t>
+  </si>
+  <si>
     <t>PJ Vogric</t>
   </si>
   <si>
-    <t>Eli Brinker</t>
-  </si>
-  <si>
     <t>Marvin Ta</t>
   </si>
   <si>
     <t>Louis Rodriguez</t>
   </si>
   <si>
-    <t>↓4</t>
+    <t>↑1</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -294,6 +303,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -771,16 +783,16 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -806,37 +818,37 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -847,37 +859,37 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -894,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -918,7 +930,7 @@
         <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -929,37 +941,37 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -967,40 +979,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1011,37 +1023,37 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1055,19 +1067,19 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -1082,7 +1094,7 @@
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1108,7 +1120,7 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -1140,7 +1152,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1149,7 +1161,7 @@
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -1175,25 +1187,25 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -1205,7 +1217,7 @@
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1223,13 +1235,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1240,10 +1252,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1.25</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1251,10 +1263,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.416666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1265,13 +1277,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1.666666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1279,10 +1291,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>1.666666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1293,10 +1305,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1307,10 +1319,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1.916666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1321,13 +1333,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1.916666666666667</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1335,10 +1347,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>1.916666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1352,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1363,13 +1375,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1377,13 +1389,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1394,10 +1406,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>3.166666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1415,16 +1427,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1432,16 +1444,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>2.916666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.08333333333333348</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1449,16 +1461,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>2.833333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D3">
-        <v>0.8333333333333335</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1466,13 +1478,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.583333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D4">
-        <v>0.5833333333333335</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1483,13 +1495,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1500,13 +1512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2.166666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D6">
-        <v>0.1666666666666665</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1517,13 +1529,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1534,16 +1546,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1.916666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D8">
-        <v>-1.083333333333333</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1551,16 +1563,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>1.75</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D9">
-        <v>-1.25</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1568,13 +1580,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1.75</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.25</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1585,16 +1597,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>1.416666666666667</v>
-      </c>
-      <c r="D11">
-        <v>0.4166666666666667</v>
-      </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1602,13 +1614,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>1.166666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D12">
-        <v>0.1666666666666667</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1619,16 +1631,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1646,46 +1658,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1693,351 +1705,351 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>41.2</v>
+        <v>49.5</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>22.1</v>
       </c>
       <c r="D2">
-        <v>13.5</v>
+        <v>11.4</v>
       </c>
       <c r="E2">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="F2">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="G2">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="J2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>96.7</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>27.6</v>
+        <v>14.6</v>
       </c>
       <c r="C3">
-        <v>20.3</v>
+        <v>18.9</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>20.5</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>14.9</v>
       </c>
       <c r="F3">
-        <v>9.199999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="G3">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="H3">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="I3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="K3">
+        <v>1.1</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>0.5</v>
-      </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>87.5</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>10.9</v>
+        <v>7.6</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>14.3</v>
       </c>
       <c r="D4">
-        <v>18.9</v>
+        <v>14.9</v>
       </c>
       <c r="E4">
-        <v>16.2</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>10.6</v>
+        <v>12.7</v>
       </c>
       <c r="G4">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="H4">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="K4">
+        <v>2.7</v>
+      </c>
+      <c r="L4">
         <v>1.6</v>
       </c>
-      <c r="L4">
-        <v>0.9</v>
-      </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
-        <v>85.7</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>7.9</v>
+        <v>10.8</v>
       </c>
       <c r="C5">
-        <v>9.699999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="D5">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>12.6</v>
+        <v>13.6</v>
       </c>
       <c r="F5">
         <v>12.4</v>
       </c>
       <c r="G5">
-        <v>12.4</v>
+        <v>11.7</v>
       </c>
       <c r="H5">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="I5">
-        <v>7.7</v>
+        <v>5.7</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="K5">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="M5">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="N5">
-        <v>68.8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>15.9</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>14.2</v>
+      </c>
+      <c r="F6">
+        <v>10.9</v>
+      </c>
+      <c r="G6">
+        <v>7.9</v>
+      </c>
+      <c r="H6">
+        <v>7.7</v>
+      </c>
+      <c r="I6">
+        <v>5.7</v>
+      </c>
+      <c r="J6">
+        <v>4.8</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>4.1</v>
-      </c>
-      <c r="C6">
-        <v>7.9</v>
-      </c>
-      <c r="D6">
-        <v>9.1</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>11.2</v>
-      </c>
-      <c r="G6">
-        <v>12.9</v>
-      </c>
-      <c r="H6">
-        <v>11.8</v>
-      </c>
-      <c r="I6">
-        <v>10.2</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>7</v>
-      </c>
       <c r="L6">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="M6">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="N6">
-        <v>58.2</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="C7">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="D7">
-        <v>9.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="F7">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="G7">
-        <v>12.5</v>
+        <v>13.9</v>
       </c>
       <c r="H7">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="I7">
-        <v>10.4</v>
+        <v>12.8</v>
       </c>
       <c r="J7">
+        <v>9.5</v>
+      </c>
+      <c r="K7">
         <v>8.199999999999999</v>
       </c>
-      <c r="K7">
-        <v>5.8</v>
-      </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="M7">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="N7">
-        <v>58.2</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D8">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="F8">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
       <c r="G8">
+        <v>11.6</v>
+      </c>
+      <c r="H8">
+        <v>10.4</v>
+      </c>
+      <c r="I8">
         <v>12.6</v>
       </c>
-      <c r="H8">
-        <v>13.8</v>
-      </c>
-      <c r="I8">
-        <v>13</v>
-      </c>
       <c r="J8">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="K8">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L8">
+        <v>6.3</v>
+      </c>
+      <c r="M8">
         <v>4.9</v>
       </c>
-      <c r="M8">
-        <v>1.6</v>
-      </c>
       <c r="N8">
-        <v>45.5</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
+        <v>2.1</v>
+      </c>
+      <c r="D9">
+        <v>2.8</v>
+      </c>
+      <c r="E9">
         <v>4.6</v>
       </c>
-      <c r="D9">
-        <v>4.9</v>
-      </c>
-      <c r="E9">
-        <v>8.4</v>
-      </c>
       <c r="F9">
-        <v>10.5</v>
+        <v>6.9</v>
       </c>
       <c r="G9">
-        <v>10.8</v>
+        <v>9.1</v>
       </c>
       <c r="H9">
-        <v>11.4</v>
+        <v>12.7</v>
       </c>
       <c r="I9">
-        <v>12.3</v>
+        <v>13.7</v>
       </c>
       <c r="J9">
-        <v>12.6</v>
+        <v>13.8</v>
       </c>
       <c r="K9">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="L9">
-        <v>7.5</v>
+        <v>11.6</v>
       </c>
       <c r="M9">
-        <v>4.9</v>
+        <v>8</v>
       </c>
       <c r="N9">
-        <v>40.8</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2045,92 +2057,92 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
         <v>2.1</v>
       </c>
       <c r="D10">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="E10">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
       <c r="F10">
+        <v>6.2</v>
+      </c>
+      <c r="G10">
+        <v>9.4</v>
+      </c>
+      <c r="H10">
+        <v>11.2</v>
+      </c>
+      <c r="I10">
+        <v>12.9</v>
+      </c>
+      <c r="J10">
+        <v>15.3</v>
+      </c>
+      <c r="K10">
+        <v>13.7</v>
+      </c>
+      <c r="L10">
+        <v>13.8</v>
+      </c>
+      <c r="M10">
         <v>9.199999999999999</v>
       </c>
-      <c r="G10">
-        <v>7.9</v>
-      </c>
-      <c r="H10">
-        <v>11.5</v>
-      </c>
-      <c r="I10">
-        <v>13.9</v>
-      </c>
-      <c r="J10">
-        <v>13.2</v>
-      </c>
-      <c r="K10">
-        <v>13.1</v>
-      </c>
-      <c r="L10">
-        <v>11.2</v>
-      </c>
-      <c r="M10">
-        <v>6.7</v>
-      </c>
       <c r="N10">
-        <v>30.4</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="D11">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="E11">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="G11">
-        <v>4.9</v>
+        <v>6.9</v>
       </c>
       <c r="H11">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="J11">
-        <v>12.4</v>
+        <v>10.6</v>
       </c>
       <c r="K11">
-        <v>17</v>
+        <v>13.7</v>
       </c>
       <c r="L11">
-        <v>22.5</v>
+        <v>18.4</v>
       </c>
       <c r="M11">
-        <v>19.1</v>
+        <v>17.9</v>
       </c>
       <c r="N11">
-        <v>12.6</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>0.1</v>
@@ -2139,45 +2151,45 @@
         <v>0.7</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E12">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="F12">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="G12">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="H12">
-        <v>6.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I12">
-        <v>8.300000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="J12">
-        <v>10.9</v>
+        <v>13.9</v>
       </c>
       <c r="K12">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="L12">
-        <v>19.7</v>
+        <v>19.1</v>
       </c>
       <c r="M12">
-        <v>25.7</v>
+        <v>13.6</v>
       </c>
       <c r="N12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
         <v>0.1</v>
@@ -2186,34 +2198,34 @@
         <v>0.3</v>
       </c>
       <c r="E13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F13">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="G13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H13">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I13">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J13">
-        <v>9.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K13">
-        <v>12.7</v>
+        <v>14.1</v>
       </c>
       <c r="L13">
-        <v>23.9</v>
+        <v>20.1</v>
       </c>
       <c r="M13">
-        <v>38.4</v>
+        <v>42.9</v>
       </c>
       <c r="N13">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -2231,28 +2243,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2260,129 +2272,129 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>129.415</v>
+        <v>129.756</v>
       </c>
       <c r="E2">
-        <v>517.66</v>
+        <v>648.78</v>
       </c>
       <c r="F2">
-        <v>97.7</v>
+        <v>98.5</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
-        <v>128.555</v>
+        <v>127.564</v>
       </c>
       <c r="E3">
-        <v>514.22</v>
+        <v>637.8200000000001</v>
       </c>
       <c r="F3">
-        <v>92.10000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>126.09</v>
+        <v>116.412</v>
       </c>
       <c r="E4">
-        <v>504.36</v>
+        <v>582.0599999999999</v>
       </c>
       <c r="F4">
-        <v>91.40000000000001</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>123.465</v>
+        <v>124.02</v>
       </c>
       <c r="E5">
-        <v>493.86</v>
+        <v>620.1</v>
       </c>
       <c r="F5">
-        <v>78.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>111.715</v>
+        <v>125.932</v>
       </c>
       <c r="E6">
-        <v>446.86</v>
+        <v>629.6600000000001</v>
       </c>
       <c r="F6">
-        <v>71.39999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2390,77 +2402,77 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>111.765</v>
+        <v>112.86</v>
       </c>
       <c r="E7">
-        <v>447.06</v>
+        <v>564.3</v>
       </c>
       <c r="F7">
-        <v>70</v>
+        <v>61.5</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>115.315</v>
+        <v>117.492</v>
       </c>
       <c r="E8">
-        <v>461.26</v>
+        <v>587.4599999999999</v>
       </c>
       <c r="F8">
-        <v>59.3</v>
+        <v>53.3</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>122.715</v>
+        <v>113.356</v>
       </c>
       <c r="E9">
-        <v>490.86</v>
+        <v>566.78</v>
       </c>
       <c r="F9">
-        <v>52.2</v>
+        <v>38.9</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2468,103 +2480,103 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>108.73</v>
+        <v>112.284</v>
       </c>
       <c r="E10">
-        <v>434.92</v>
+        <v>561.42</v>
       </c>
       <c r="F10">
-        <v>41.9</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>108.365</v>
+        <v>114.796</v>
       </c>
       <c r="E11">
-        <v>433.46</v>
+        <v>573.98</v>
       </c>
       <c r="F11">
-        <v>19</v>
+        <v>29.1</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <v>102.22</v>
+        <v>106.708</v>
       </c>
       <c r="E12">
-        <v>408.88</v>
+        <v>533.54</v>
       </c>
       <c r="F12">
-        <v>17.3</v>
+        <v>25.7</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>100.065</v>
+        <v>101.94</v>
       </c>
       <c r="E13">
-        <v>400.26</v>
+        <v>509.7</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2582,19 +2594,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2602,19 +2614,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2622,19 +2634,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2642,19 +2654,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2665,16 +2677,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2682,19 +2694,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2702,19 +2714,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2725,16 +2737,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2745,16 +2757,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2762,19 +2774,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2782,19 +2794,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D11">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2805,16 +2817,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D12">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2825,16 +2837,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2844,90 +2856,102 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>4</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2943,19 +2967,22 @@
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -2963,31 +2990,37 @@
       <c r="E6">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
       <c r="D7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3003,11 +3036,14 @@
       <c r="E8">
         <v>-2</v>
       </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -3023,51 +3059,60 @@
       <c r="E9">
         <v>-6</v>
       </c>
-      <c r="F9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>-3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-9</v>
+      </c>
+      <c r="F10">
+        <v>-5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>-3</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-9</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-11</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-8</v>
       </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
-        <v>-7</v>
-      </c>
-      <c r="E11">
-        <v>-9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>-8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -3083,11 +3128,14 @@
       <c r="E12">
         <v>-17</v>
       </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>-15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3103,8 +3151,11 @@
       <c r="E13">
         <v>-19</v>
       </c>
-      <c r="F13" t="s">
-        <v>86</v>
+      <c r="F13">
+        <v>-20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3114,7 +3165,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3122,25 +3173,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3174,22 +3225,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -3203,22 +3254,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3226,25 +3277,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3255,22 +3306,22 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F6">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3281,22 +3332,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>-1</v>
       </c>
       <c r="F7">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3304,24 +3355,76 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>2</v>
       </c>
     </row>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="107">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -134,6 +135,24 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -167,46 +186,43 @@
     <t>1-4</t>
   </si>
   <si>
-    <t>9.6-4.3-0.1</t>
+    <t>9.7-4.2-0.1</t>
   </si>
   <si>
     <t>8.4-5.5-0.1</t>
   </si>
   <si>
+    <t>8.1-5.9</t>
+  </si>
+  <si>
     <t>8.3-5.6-0.1</t>
   </si>
   <si>
     <t>7.9-6.0-0.1</t>
   </si>
   <si>
-    <t>8.0-5.9-0.1</t>
-  </si>
-  <si>
-    <t>7.0-6.9-0.1</t>
-  </si>
-  <si>
-    <t>6.6-7.3-0.1</t>
-  </si>
-  <si>
-    <t>6.1-7.8-0.1</t>
+    <t>7.0-7.0-0.1</t>
+  </si>
+  <si>
+    <t>6.5-7.4-0.1</t>
+  </si>
+  <si>
+    <t>6.1-7.9-0.1</t>
   </si>
   <si>
     <t>6.0-8.0-0.1</t>
   </si>
   <si>
-    <t>5.4-8.6</t>
-  </si>
-  <si>
-    <t>5.7-8.2-0.1</t>
-  </si>
-  <si>
-    <t>4.6-9.4-0.1</t>
+    <t>5.7-8.3-0.1</t>
+  </si>
+  <si>
+    <t>5.3-8.7-0.1</t>
+  </si>
+  <si>
+    <t>4.7-9.3-0.1</t>
   </si>
   <si>
     <t>10-4</t>
-  </si>
-  <si>
-    <t>9-5</t>
   </si>
   <si>
     <t>8-6</t>
@@ -1705,34 +1721,34 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="C2">
-        <v>22.1</v>
+        <v>21.6</v>
       </c>
       <c r="D2">
-        <v>11.4</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="F2">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="G2">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="I2">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
         <v>0.3</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
         <v>0.1</v>
@@ -1741,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1749,87 +1765,87 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>14.6</v>
+        <v>13.9</v>
       </c>
       <c r="C3">
-        <v>18.9</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>20.5</v>
+        <v>18.8</v>
       </c>
       <c r="E3">
-        <v>14.9</v>
+        <v>14.1</v>
       </c>
       <c r="F3">
-        <v>10.6</v>
+        <v>13.6</v>
       </c>
       <c r="G3">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="H3">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J3">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K3">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>86.7</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>7.6</v>
+        <v>13.9</v>
       </c>
       <c r="C4">
-        <v>14.3</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>15.1</v>
       </c>
       <c r="F4">
-        <v>12.7</v>
+        <v>10.7</v>
       </c>
       <c r="G4">
-        <v>12.1</v>
+        <v>9.4</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J4">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="M4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N4">
-        <v>78.59999999999999</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1837,87 +1853,87 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="C5">
-        <v>14.5</v>
+        <v>13.8</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>13.6</v>
+        <v>14.4</v>
       </c>
       <c r="F5">
-        <v>12.4</v>
+        <v>13.8</v>
       </c>
       <c r="G5">
-        <v>11.7</v>
+        <v>10.1</v>
       </c>
       <c r="H5">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="I5">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="J5">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="K5">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="N5">
-        <v>78</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C6">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>13.9</v>
       </c>
       <c r="E6">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="F6">
-        <v>10.9</v>
+        <v>12.8</v>
       </c>
       <c r="G6">
-        <v>7.9</v>
+        <v>11.7</v>
       </c>
       <c r="H6">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="J6">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="M6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N6">
-        <v>76.90000000000001</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1925,43 +1941,43 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D7">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="E7">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="F7">
-        <v>12.1</v>
+        <v>10.1</v>
       </c>
       <c r="G7">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I7">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="J7">
         <v>9.5</v>
       </c>
       <c r="K7">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L7">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="M7">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N7">
-        <v>48.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1969,43 +1985,43 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D8">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="E8">
+        <v>8.9</v>
+      </c>
+      <c r="F8">
+        <v>10.4</v>
+      </c>
+      <c r="G8">
+        <v>12.5</v>
+      </c>
+      <c r="H8">
+        <v>12.6</v>
+      </c>
+      <c r="I8">
+        <v>13.7</v>
+      </c>
+      <c r="J8">
+        <v>9.6</v>
+      </c>
+      <c r="K8">
         <v>8.6</v>
       </c>
-      <c r="F8">
-        <v>11.6</v>
-      </c>
-      <c r="G8">
-        <v>11.6</v>
-      </c>
-      <c r="H8">
-        <v>10.4</v>
-      </c>
-      <c r="I8">
-        <v>12.6</v>
-      </c>
-      <c r="J8">
-        <v>13.1</v>
-      </c>
-      <c r="K8">
-        <v>9.800000000000001</v>
-      </c>
       <c r="L8">
-        <v>6.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M8">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="N8">
-        <v>42.9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2013,43 +2029,43 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="C9">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="D9">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="E9">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="F9">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="G9">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H9">
-        <v>12.7</v>
+        <v>10.6</v>
       </c>
       <c r="I9">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="J9">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="K9">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="L9">
-        <v>11.6</v>
+        <v>12.6</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="N9">
-        <v>26.2</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2057,131 +2073,131 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="D10">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="E10">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="F10">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="G10">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H10">
-        <v>11.2</v>
+        <v>12.6</v>
       </c>
       <c r="I10">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="J10">
         <v>15.3</v>
       </c>
       <c r="K10">
-        <v>13.7</v>
+        <v>14.8</v>
       </c>
       <c r="L10">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="M10">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="N10">
-        <v>23.9</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="D11">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="E11">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="F11">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="G11">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="H11">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="I11">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="J11">
-        <v>10.6</v>
+        <v>14.3</v>
       </c>
       <c r="K11">
-        <v>13.7</v>
+        <v>17.4</v>
       </c>
       <c r="L11">
-        <v>18.4</v>
+        <v>15.1</v>
       </c>
       <c r="M11">
-        <v>17.9</v>
+        <v>17.3</v>
       </c>
       <c r="N11">
-        <v>20.3</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0.7</v>
       </c>
       <c r="D12">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E12">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="F12">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="G12">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="H12">
-        <v>9.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I12">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="J12">
-        <v>13.9</v>
+        <v>13.4</v>
       </c>
       <c r="K12">
-        <v>17.8</v>
+        <v>15.3</v>
       </c>
       <c r="L12">
-        <v>19.1</v>
+        <v>17.4</v>
       </c>
       <c r="M12">
-        <v>13.6</v>
+        <v>18.7</v>
       </c>
       <c r="N12">
-        <v>16</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2189,43 +2205,43 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F13">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="G13">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H13">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="I13">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="J13">
-        <v>8.300000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K13">
-        <v>14.1</v>
+        <v>13.1</v>
       </c>
       <c r="L13">
-        <v>20.1</v>
+        <v>22.9</v>
       </c>
       <c r="M13">
-        <v>42.9</v>
+        <v>38.4</v>
       </c>
       <c r="N13">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>
@@ -2234,6 +2250,315 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E2">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F2">
+        <v>98.2</v>
+      </c>
+      <c r="G2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>92</v>
+      </c>
+      <c r="C3">
+        <v>95.3</v>
+      </c>
+      <c r="D3">
+        <v>97</v>
+      </c>
+      <c r="E3">
+        <v>88.8</v>
+      </c>
+      <c r="F3">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="G3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>13.1</v>
+      </c>
+      <c r="C4">
+        <v>4.7</v>
+      </c>
+      <c r="D4">
+        <v>80.30000000000001</v>
+      </c>
+      <c r="E4">
+        <v>92.7</v>
+      </c>
+      <c r="F4">
+        <v>87.5</v>
+      </c>
+      <c r="G4">
+        <v>86.59999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C5">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="D5">
+        <v>64.60000000000001</v>
+      </c>
+      <c r="E5">
+        <v>69</v>
+      </c>
+      <c r="F5">
+        <v>88</v>
+      </c>
+      <c r="G5">
+        <v>86.09999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>63.1</v>
+      </c>
+      <c r="C6">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D6">
+        <v>46.9</v>
+      </c>
+      <c r="E6">
+        <v>61.1</v>
+      </c>
+      <c r="F6">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="G6">
+        <v>84.89999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>76.2</v>
+      </c>
+      <c r="C7">
+        <v>96.5</v>
+      </c>
+      <c r="D7">
+        <v>97</v>
+      </c>
+      <c r="E7">
+        <v>70.3</v>
+      </c>
+      <c r="F7">
+        <v>60.9</v>
+      </c>
+      <c r="G7">
+        <v>56.89999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>91.5</v>
+      </c>
+      <c r="D8">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="E8">
+        <v>82.89999999999999</v>
+      </c>
+      <c r="F8">
+        <v>51.8</v>
+      </c>
+      <c r="G8">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>18.7</v>
+      </c>
+      <c r="C9">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>14.3</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>42.6</v>
+      </c>
+      <c r="G9">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C10">
+        <v>23.5</v>
+      </c>
+      <c r="D10">
+        <v>51.6</v>
+      </c>
+      <c r="E10">
+        <v>38.3</v>
+      </c>
+      <c r="F10">
+        <v>34.7</v>
+      </c>
+      <c r="G10">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1.2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>10.9</v>
+      </c>
+      <c r="E11">
+        <v>9.4</v>
+      </c>
+      <c r="F11">
+        <v>24.3</v>
+      </c>
+      <c r="G11">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>50.8</v>
+      </c>
+      <c r="C12">
+        <v>6.4</v>
+      </c>
+      <c r="D12">
+        <v>3.2</v>
+      </c>
+      <c r="E12">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>25.3</v>
+      </c>
+      <c r="G12">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>1.1</v>
+      </c>
+      <c r="C13">
+        <v>61.3</v>
+      </c>
+      <c r="D13">
+        <v>38.9</v>
+      </c>
+      <c r="E13">
+        <v>15.4</v>
+      </c>
+      <c r="F13">
+        <v>8.4</v>
+      </c>
+      <c r="G13">
+        <v>11.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -2246,25 +2571,25 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2272,7 +2597,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -2284,13 +2609,13 @@
         <v>648.78</v>
       </c>
       <c r="F2">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2298,7 +2623,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>0.6</v>
@@ -2310,91 +2635,91 @@
         <v>637.8200000000001</v>
       </c>
       <c r="F3">
-        <v>92.2</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>116.412</v>
+        <v>125.932</v>
       </c>
       <c r="E4">
-        <v>582.0599999999999</v>
+        <v>629.6600000000001</v>
       </c>
       <c r="F4">
-        <v>86.90000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
-        <v>124.02</v>
+        <v>116.412</v>
       </c>
       <c r="E5">
-        <v>620.1</v>
+        <v>582.0599999999999</v>
       </c>
       <c r="F5">
-        <v>85.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>0.6</v>
       </c>
       <c r="D6">
-        <v>125.932</v>
+        <v>124.02</v>
       </c>
       <c r="E6">
-        <v>629.6600000000001</v>
+        <v>620.1</v>
       </c>
       <c r="F6">
-        <v>84.59999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2402,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0.6</v>
@@ -2414,13 +2739,13 @@
         <v>564.3</v>
       </c>
       <c r="F7">
-        <v>61.5</v>
+        <v>59.5</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2428,7 +2753,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0.4</v>
@@ -2440,13 +2765,13 @@
         <v>587.4599999999999</v>
       </c>
       <c r="F8">
-        <v>53.3</v>
+        <v>54.6</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2454,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>0.4</v>
@@ -2466,13 +2791,13 @@
         <v>566.78</v>
       </c>
       <c r="F9">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2480,7 +2805,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>0.4</v>
@@ -2492,65 +2817,65 @@
         <v>561.42</v>
       </c>
       <c r="F10">
-        <v>35.09999999999999</v>
+        <v>35.4</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>114.796</v>
+        <v>106.708</v>
       </c>
       <c r="E11">
-        <v>573.98</v>
+        <v>533.54</v>
       </c>
       <c r="F11">
-        <v>29.1</v>
+        <v>25.4</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>106.708</v>
+        <v>114.796</v>
       </c>
       <c r="E12">
-        <v>533.54</v>
+        <v>573.98</v>
       </c>
       <c r="F12">
-        <v>25.7</v>
+        <v>24.6</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2558,7 +2883,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>0.2</v>
@@ -2570,13 +2895,13 @@
         <v>509.7</v>
       </c>
       <c r="F13">
-        <v>8.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2584,7 +2909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2597,16 +2922,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2617,7 +2942,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -2626,7 +2951,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2637,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -2646,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2657,7 +2982,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2666,7 +2991,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2677,7 +3002,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -2686,7 +3011,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2697,7 +3022,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -2706,7 +3031,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2717,7 +3042,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -2726,7 +3051,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2737,7 +3062,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -2746,7 +3071,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2757,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>-3</v>
@@ -2766,7 +3091,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2777,7 +3102,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <v>-5</v>
@@ -2786,7 +3111,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2797,7 +3122,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>-8</v>
@@ -2806,7 +3131,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2817,7 +3142,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <v>-15</v>
@@ -2826,7 +3151,7 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2837,7 +3162,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D13">
         <v>-20</v>
@@ -2846,7 +3171,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2854,7 +3179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -2864,22 +3189,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2902,7 +3227,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2925,7 +3250,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2948,7 +3273,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2971,7 +3296,7 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2994,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3017,7 +3342,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3040,7 +3365,7 @@
         <v>-1</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3063,7 +3388,7 @@
         <v>-3</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3086,7 +3411,7 @@
         <v>-5</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3109,7 +3434,7 @@
         <v>-8</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3132,7 +3457,7 @@
         <v>-15</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3155,7 +3480,7 @@
         <v>-20</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -3173,25 +3498,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="108">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -60,22 +60,25 @@
     <t>cman</t>
   </si>
   <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -153,6 +156,9 @@
     <t>Week_6</t>
   </si>
   <si>
+    <t>Week_7</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -174,55 +180,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>9.7-4.2-0.1</t>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
   </si>
   <si>
     <t>8.4-5.5-0.1</t>
   </si>
   <si>
-    <t>8.1-5.9</t>
-  </si>
-  <si>
-    <t>8.3-5.6-0.1</t>
-  </si>
-  <si>
-    <t>7.9-6.0-0.1</t>
-  </si>
-  <si>
-    <t>7.0-7.0-0.1</t>
-  </si>
-  <si>
-    <t>6.5-7.4-0.1</t>
-  </si>
-  <si>
-    <t>6.1-7.9-0.1</t>
+    <t>8.5-5.4</t>
+  </si>
+  <si>
+    <t>7.8-6.1-0.1</t>
+  </si>
+  <si>
+    <t>7.5-6.5-0.1</t>
+  </si>
+  <si>
+    <t>7.3-6.6-0.1</t>
+  </si>
+  <si>
+    <t>7.2-6.8-0.1</t>
+  </si>
+  <si>
+    <t>6.8-7.2-0.1</t>
+  </si>
+  <si>
+    <t>6.0-7.9</t>
+  </si>
+  <si>
+    <t>6.4-7.6-0.1</t>
   </si>
   <si>
     <t>6.0-8.0-0.1</t>
   </si>
   <si>
-    <t>5.7-8.3-0.1</t>
-  </si>
-  <si>
-    <t>5.3-8.7-0.1</t>
-  </si>
-  <si>
-    <t>4.7-9.3-0.1</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>4.0-9.9-0.1</t>
+  </si>
+  <si>
+    <t>9-5</t>
   </si>
   <si>
     <t>8-6</t>
@@ -234,7 +237,7 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
+    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -246,30 +249,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
     <t>Chris Holloway</t>
   </si>
   <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
+    <t>Shane Leiphart</t>
+  </si>
+  <si>
+    <t>Zachary Sparano</t>
+  </si>
+  <si>
     <t>Robbie Wilston</t>
   </si>
   <si>
-    <t>Michael  Celoni</t>
-  </si>
-  <si>
-    <t>Chris Carbone</t>
-  </si>
-  <si>
-    <t>Shane Leiphart</t>
-  </si>
-  <si>
     <t>Colman Closser</t>
   </si>
   <si>
-    <t>Zachary Sparano</t>
-  </si>
-  <si>
     <t>Eli Brinker</t>
   </si>
   <si>
@@ -282,31 +285,28 @@
     <t>Louis Rodriguez</t>
   </si>
   <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -755,34 +758,34 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -793,37 +796,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -831,40 +834,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -872,37 +875,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
@@ -913,37 +916,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
@@ -954,40 +957,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -998,37 +1001,37 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1036,40 +1039,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1077,40 +1080,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1118,37 +1121,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
@@ -1162,31 +1165,31 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -1200,40 +1203,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1251,13 +1254,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1268,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1.333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1279,13 +1282,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.083333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1293,10 +1296,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.166666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1307,13 +1310,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1321,10 +1324,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>2.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1335,13 +1338,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>2.333333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1349,13 +1352,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>2.416666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1363,10 +1366,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2.666666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1380,10 +1383,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.833333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1394,10 +1397,10 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1408,10 +1411,10 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>3.25</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1422,10 +1425,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>3.333333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1443,16 +1446,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1460,16 +1463,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>3.666666666666667</v>
       </c>
       <c r="D2">
-        <v>0.6666666666666665</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1477,16 +1480,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1494,13 +1497,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3.166666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D4">
-        <v>0.1666666666666665</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1511,16 +1514,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.833333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>-1.166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1531,13 +1534,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2.75</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>-0.5833333333333335</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1545,13 +1548,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2.666666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D7">
-        <v>0.6666666666666665</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1562,16 +1565,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>2.166666666666667</v>
-      </c>
-      <c r="D8">
-        <v>0.1666666666666665</v>
-      </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1582,13 +1585,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2.166666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D9">
-        <v>0.1666666666666665</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1596,16 +1599,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2.083333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.9166666666666665</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1613,16 +1616,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1633,13 +1636,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>1.666666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D12">
-        <v>-0.3333333333333333</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1650,13 +1653,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1.333333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D13">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1674,46 +1677,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1721,395 +1724,395 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>49.4</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>21.6</v>
+        <v>18.8</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14.2</v>
       </c>
       <c r="E2">
+        <v>11.4</v>
+      </c>
+      <c r="F2">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G2">
         <v>7.4</v>
       </c>
-      <c r="F2">
-        <v>3.8</v>
-      </c>
-      <c r="G2">
-        <v>2.3</v>
-      </c>
       <c r="H2">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="J2">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="L2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.5</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>13.9</v>
+        <v>29.7</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>18.8</v>
+        <v>13.5</v>
       </c>
       <c r="E3">
-        <v>14.1</v>
+        <v>10.2</v>
       </c>
       <c r="F3">
-        <v>13.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G3">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="I3">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J3">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>88.3</v>
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>13.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>15.4</v>
+        <v>12.4</v>
       </c>
       <c r="E4">
-        <v>15.1</v>
+        <v>10.4</v>
       </c>
       <c r="F4">
-        <v>10.7</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>9.4</v>
+        <v>11.2</v>
       </c>
       <c r="H4">
-        <v>6.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I4">
-        <v>4.8</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="L4">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="N4">
-        <v>80.5</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>10.4</v>
+        <v>9.4</v>
       </c>
       <c r="C5">
-        <v>13.8</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="E5">
-        <v>14.4</v>
+        <v>11.5</v>
       </c>
       <c r="F5">
-        <v>13.8</v>
+        <v>9.5</v>
       </c>
       <c r="G5">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H5">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="I5">
-        <v>4.6</v>
+        <v>7.8</v>
       </c>
       <c r="J5">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>5.6</v>
       </c>
       <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
         <v>0.8</v>
       </c>
-      <c r="M5">
-        <v>0.6</v>
-      </c>
       <c r="N5">
-        <v>78.5</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="C6">
-        <v>15.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D6">
-        <v>13.9</v>
+        <v>10.8</v>
       </c>
       <c r="E6">
-        <v>13.9</v>
+        <v>12.6</v>
       </c>
       <c r="F6">
-        <v>12.8</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>11.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="I6">
-        <v>6.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J6">
+        <v>6.1</v>
+      </c>
+      <c r="K6">
+        <v>5.1</v>
+      </c>
+      <c r="L6">
         <v>3.3</v>
       </c>
-      <c r="K6">
-        <v>3.1</v>
-      </c>
-      <c r="L6">
-        <v>1.4</v>
-      </c>
       <c r="M6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
-        <v>76.40000000000001</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="C7">
-        <v>3.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D7">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="E7">
-        <v>9.5</v>
+        <v>10.7</v>
       </c>
       <c r="F7">
-        <v>10.1</v>
+        <v>8.5</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>11.2</v>
       </c>
       <c r="H7">
-        <v>13.5</v>
+        <v>10.7</v>
       </c>
       <c r="I7">
-        <v>13.5</v>
+        <v>9.9</v>
       </c>
       <c r="J7">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K7">
-        <v>8.300000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="L7">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="M7">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>46</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="E8">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>10.4</v>
+        <v>11.7</v>
       </c>
       <c r="G8">
-        <v>12.5</v>
+        <v>9.9</v>
       </c>
       <c r="H8">
-        <v>12.6</v>
+        <v>11.4</v>
       </c>
       <c r="I8">
-        <v>13.7</v>
+        <v>9.4</v>
       </c>
       <c r="J8">
-        <v>9.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K8">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="L8">
-        <v>8.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="M8">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="N8">
-        <v>42</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="C9">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="D9">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="E9">
-        <v>5.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F9">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G9">
-        <v>8.699999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="H9">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="I9">
-        <v>12.4</v>
+        <v>11.1</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="K9">
-        <v>14.1</v>
+        <v>11.4</v>
       </c>
       <c r="L9">
-        <v>12.6</v>
+        <v>9.1</v>
       </c>
       <c r="M9">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>28.5</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="C10">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="D10">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="F10">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="G10">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="H10">
-        <v>12.6</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>12.4</v>
+        <v>10.5</v>
       </c>
       <c r="J10">
-        <v>15.3</v>
+        <v>14</v>
       </c>
       <c r="K10">
+        <v>13.9</v>
+      </c>
+      <c r="L10">
         <v>14.8</v>
       </c>
-      <c r="L10">
-        <v>13.5</v>
-      </c>
       <c r="M10">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="N10">
-        <v>22.8</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2117,87 +2120,87 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="D11">
         <v>2.4</v>
       </c>
       <c r="E11">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="F11">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="G11">
-        <v>5.8</v>
+        <v>8.1</v>
       </c>
       <c r="H11">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I11">
-        <v>10.5</v>
+        <v>12.2</v>
       </c>
       <c r="J11">
-        <v>14.3</v>
+        <v>12.4</v>
       </c>
       <c r="K11">
-        <v>17.4</v>
+        <v>15.4</v>
       </c>
       <c r="L11">
-        <v>15.1</v>
+        <v>19.2</v>
       </c>
       <c r="M11">
-        <v>17.3</v>
+        <v>5.7</v>
       </c>
       <c r="N11">
-        <v>16.5</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C12">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="E12">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="F12">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="G12">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="H12">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I12">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="J12">
-        <v>13.4</v>
+        <v>15</v>
       </c>
       <c r="K12">
-        <v>15.3</v>
+        <v>17.1</v>
       </c>
       <c r="L12">
-        <v>17.4</v>
+        <v>15.6</v>
       </c>
       <c r="M12">
-        <v>18.7</v>
+        <v>7.7</v>
       </c>
       <c r="N12">
-        <v>16.4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2208,40 +2211,40 @@
         <v>0</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
         <v>0.4</v>
       </c>
-      <c r="D13">
-        <v>0.5</v>
-      </c>
-      <c r="E13">
-        <v>0.8</v>
-      </c>
       <c r="F13">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="G13">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H13">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="I13">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="J13">
-        <v>9.300000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K13">
-        <v>13.1</v>
+        <v>7.7</v>
       </c>
       <c r="L13">
-        <v>22.9</v>
+        <v>16.7</v>
       </c>
       <c r="M13">
-        <v>38.4</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="N13">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -2251,306 +2254,345 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>11.1</v>
+      </c>
+      <c r="C2">
+        <v>5.2</v>
+      </c>
+      <c r="D2">
+        <v>80.2</v>
+      </c>
+      <c r="E2">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="F2">
+        <v>86.5</v>
+      </c>
+      <c r="G2">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="H2">
+        <v>90.90000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>96</v>
-      </c>
-      <c r="C2">
+      <c r="B3">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="D2">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="E2">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="F2">
-        <v>98.2</v>
-      </c>
-      <c r="G2">
+      <c r="D3">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>92</v>
-      </c>
-      <c r="C3">
-        <v>95.3</v>
-      </c>
-      <c r="D3">
-        <v>97</v>
-      </c>
       <c r="E3">
-        <v>88.8</v>
+        <v>98</v>
       </c>
       <c r="F3">
-        <v>94.19999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="H3">
+        <v>90.40000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>13.1</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C4">
-        <v>4.7</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="D4">
-        <v>80.30000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="E4">
-        <v>92.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F4">
-        <v>87.5</v>
+        <v>59.2</v>
       </c>
       <c r="G4">
-        <v>86.59999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="C5">
-        <v>65.90000000000001</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>64.60000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="E5">
-        <v>69</v>
+        <v>71.8</v>
       </c>
       <c r="F5">
-        <v>88</v>
+        <v>87.3</v>
       </c>
       <c r="G5">
-        <v>86.09999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="H5">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>63.1</v>
+        <v>64.7</v>
       </c>
       <c r="C6">
-        <v>92.90000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D6">
-        <v>46.9</v>
+        <v>43.9</v>
       </c>
       <c r="E6">
-        <v>61.1</v>
+        <v>62</v>
       </c>
       <c r="F6">
-        <v>84.09999999999999</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="G6">
-        <v>84.89999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>73.2</v>
+      </c>
+      <c r="H6">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>76.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C7">
-        <v>96.5</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="D7">
-        <v>97</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="E7">
-        <v>70.3</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="F7">
-        <v>60.9</v>
+        <v>54.1</v>
       </c>
       <c r="G7">
-        <v>56.89999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>68.2</v>
+      </c>
+      <c r="H7">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C8">
-        <v>91.5</v>
+        <v>96.8</v>
       </c>
       <c r="D8">
-        <v>96.39999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E8">
-        <v>82.89999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="F8">
-        <v>51.8</v>
+        <v>94</v>
       </c>
       <c r="G8">
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>64.60000000000001</v>
+      </c>
+      <c r="H8">
+        <v>64.60000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>18.7</v>
+        <v>87.8</v>
       </c>
       <c r="C9">
-        <v>62</v>
+        <v>24.1</v>
       </c>
       <c r="D9">
-        <v>14.3</v>
+        <v>51</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>38.8</v>
       </c>
       <c r="F9">
-        <v>42.6</v>
+        <v>33.6</v>
       </c>
       <c r="G9">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>53.1</v>
+      </c>
+      <c r="H9">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>88.40000000000001</v>
+        <v>48.9</v>
       </c>
       <c r="C10">
-        <v>23.5</v>
+        <v>4.3</v>
       </c>
       <c r="D10">
-        <v>51.6</v>
+        <v>3.1</v>
       </c>
       <c r="E10">
-        <v>38.3</v>
+        <v>52.5</v>
       </c>
       <c r="F10">
-        <v>34.7</v>
+        <v>26.4</v>
       </c>
       <c r="G10">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>38.9</v>
+      </c>
+      <c r="H10">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E11">
-        <v>9.4</v>
+        <v>7.9</v>
       </c>
       <c r="F11">
         <v>24.3</v>
       </c>
       <c r="G11">
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>36.5</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>50.8</v>
+        <v>20.1</v>
       </c>
       <c r="C12">
-        <v>6.4</v>
+        <v>58.4</v>
       </c>
       <c r="D12">
-        <v>3.2</v>
+        <v>14.5</v>
       </c>
       <c r="E12">
-        <v>54</v>
+        <v>19.9</v>
       </c>
       <c r="F12">
-        <v>25.3</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="G12">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>35.09999999999999</v>
+      </c>
+      <c r="H12">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>61.3</v>
+        <v>67.30000000000001</v>
       </c>
       <c r="D13">
-        <v>38.9</v>
+        <v>40.2</v>
       </c>
       <c r="E13">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F13">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>11.9</v>
+        <v>2.1</v>
+      </c>
+      <c r="H13">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -2568,28 +2610,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2597,48 +2639,48 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>129.756</v>
+        <v>124.2</v>
       </c>
       <c r="E2">
-        <v>648.78</v>
+        <v>745.2</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>127.564</v>
+        <v>125.5866666666667</v>
       </c>
       <c r="E3">
-        <v>637.8200000000001</v>
+        <v>753.52</v>
       </c>
       <c r="F3">
-        <v>93.30000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
         <v>67</v>
@@ -2646,155 +2688,155 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>125.932</v>
+        <v>114.93</v>
       </c>
       <c r="E4">
-        <v>629.6600000000001</v>
+        <v>689.5799999999999</v>
       </c>
       <c r="F4">
-        <v>87.2</v>
+        <v>75.8</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>116.412</v>
+        <v>122.54</v>
       </c>
       <c r="E5">
-        <v>582.0599999999999</v>
+        <v>735.24</v>
       </c>
       <c r="F5">
-        <v>87</v>
+        <v>74.8</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>124.02</v>
+        <v>113.5833333333333</v>
       </c>
       <c r="E6">
-        <v>620.1</v>
+        <v>681.5</v>
       </c>
       <c r="F6">
-        <v>85.39999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>112.86</v>
+        <v>119.9466666666667</v>
       </c>
       <c r="E7">
-        <v>564.3</v>
+        <v>719.6799999999999</v>
       </c>
       <c r="F7">
-        <v>59.5</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>117.492</v>
+        <v>119.2433333333333</v>
       </c>
       <c r="E8">
-        <v>587.4599999999999</v>
+        <v>715.46</v>
       </c>
       <c r="F8">
-        <v>54.6</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>113.356</v>
+        <v>114.66</v>
       </c>
       <c r="E9">
-        <v>566.78</v>
+        <v>687.96</v>
       </c>
       <c r="F9">
-        <v>39.1</v>
+        <v>51.5</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
         <v>69</v>
@@ -2802,28 +2844,28 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>112.284</v>
+        <v>118.5133333333333</v>
       </c>
       <c r="E10">
-        <v>561.42</v>
+        <v>711.08</v>
       </c>
       <c r="F10">
-        <v>35.4</v>
+        <v>37.9</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2831,22 +2873,22 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>106.708</v>
+        <v>108.2466666666667</v>
       </c>
       <c r="E11">
-        <v>533.54</v>
+        <v>649.48</v>
       </c>
       <c r="F11">
-        <v>25.4</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
         <v>70</v>
@@ -2854,28 +2896,28 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>114.796</v>
+        <v>116.1466666666667</v>
       </c>
       <c r="E12">
-        <v>573.98</v>
+        <v>696.88</v>
       </c>
       <c r="F12">
-        <v>24.6</v>
+        <v>33.4</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2883,25 +2925,25 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D13">
-        <v>101.94</v>
+        <v>100.8266666666667</v>
       </c>
       <c r="E13">
-        <v>509.7</v>
+        <v>604.96</v>
       </c>
       <c r="F13">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2919,19 +2961,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2939,19 +2981,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2959,10 +3001,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -2971,7 +3013,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2979,19 +3021,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2999,19 +3041,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3019,19 +3061,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3039,19 +3081,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3059,19 +3101,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3079,19 +3121,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3102,16 +3144,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3122,13 +3164,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>93</v>
@@ -3142,16 +3184,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3162,16 +3204,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13">
-        <v>-20</v>
+        <v>-26</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3181,13 +3223,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
@@ -3204,194 +3246,221 @@
         <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="C7">
+        <v>-2</v>
+      </c>
+      <c r="D7">
+        <v>-9</v>
+      </c>
+      <c r="E7">
+        <v>-6</v>
+      </c>
+      <c r="F7">
         <v>-3</v>
       </c>
-      <c r="C5">
-        <v>-7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E9">
+        <v>-2</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>-2</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9">
-        <v>-9</v>
-      </c>
-      <c r="E9">
-        <v>-6</v>
-      </c>
-      <c r="F9">
-        <v>-3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3410,11 +3479,14 @@
       <c r="F10">
         <v>-5</v>
       </c>
-      <c r="G10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10">
+        <v>-6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3433,11 +3505,14 @@
       <c r="F11">
         <v>-8</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>-12</v>
+      </c>
+      <c r="H11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -3456,11 +3531,14 @@
       <c r="F12">
         <v>-15</v>
       </c>
-      <c r="G12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12">
+        <v>-17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3479,8 +3557,11 @@
       <c r="F13">
         <v>-20</v>
       </c>
-      <c r="G13" t="s">
-        <v>89</v>
+      <c r="G13">
+        <v>-26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3498,25 +3579,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3524,25 +3605,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>-9</v>
-      </c>
       <c r="F2">
-        <v>11</v>
+        <v>-17</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3550,25 +3631,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3576,22 +3657,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -3605,22 +3686,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3628,25 +3709,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3657,22 +3738,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F7">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3683,22 +3764,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>-1</v>
       </c>
       <c r="F8">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3706,25 +3787,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>-1</v>
       </c>
       <c r="F9">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3732,25 +3813,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="112">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -60,25 +60,25 @@
     <t>cman</t>
   </si>
   <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -159,6 +159,9 @@
     <t>Week_7</t>
   </si>
   <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -180,49 +183,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>8.4-5.5-0.1</t>
-  </si>
-  <si>
-    <t>8.5-5.4</t>
-  </si>
-  <si>
-    <t>7.8-6.1-0.1</t>
-  </si>
-  <si>
-    <t>7.5-6.5-0.1</t>
-  </si>
-  <si>
-    <t>7.3-6.6-0.1</t>
-  </si>
-  <si>
-    <t>7.2-6.8-0.1</t>
-  </si>
-  <si>
-    <t>6.8-7.2-0.1</t>
-  </si>
-  <si>
-    <t>6.0-7.9</t>
-  </si>
-  <si>
-    <t>6.4-7.6-0.1</t>
-  </si>
-  <si>
-    <t>6.0-8.0-0.1</t>
-  </si>
-  <si>
-    <t>4.0-9.9-0.1</t>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>8.9-5.0-0.1</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>8.0-6.0-0.1</t>
+  </si>
+  <si>
+    <t>7.8-6.2-0.1</t>
+  </si>
+  <si>
+    <t>6.6-7.3</t>
+  </si>
+  <si>
+    <t>7.1-6.8-0.1</t>
+  </si>
+  <si>
+    <t>6.4-7.5</t>
+  </si>
+  <si>
+    <t>5.8-8.2</t>
+  </si>
+  <si>
+    <t>5.4-8.5</t>
+  </si>
+  <si>
+    <t>3.5-10.5</t>
   </si>
   <si>
     <t>9-5</t>
@@ -237,6 +243,9 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
@@ -255,24 +264,24 @@
     <t>Chris Holloway</t>
   </si>
   <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
     <t>Michael  Celoni</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
     <t>Shane Leiphart</t>
   </si>
   <si>
+    <t>Colman Closser</t>
+  </si>
+  <si>
     <t>Zachary Sparano</t>
   </si>
   <si>
-    <t>Robbie Wilston</t>
-  </si>
-  <si>
-    <t>Colman Closser</t>
-  </si>
-  <si>
     <t>Eli Brinker</t>
   </si>
   <si>
@@ -285,28 +294,28 @@
     <t>Louis Rodriguez</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑1</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -325,6 +334,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -761,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -796,19 +808,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -817,16 +829,16 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -837,37 +849,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -878,37 +890,37 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -919,37 +931,37 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -957,40 +969,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
         <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1001,20 +1013,20 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
@@ -1022,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -1031,7 +1043,7 @@
         <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1048,13 +1060,13 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1063,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -1072,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1089,13 +1101,13 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -1130,13 +1142,13 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -1145,7 +1157,7 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -1154,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1212,13 +1224,13 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -1227,7 +1239,7 @@
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
@@ -1236,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1283,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1285,10 +1297,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1296,13 +1308,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>2.666666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1310,10 +1322,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1324,13 +1336,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2.833333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1338,13 +1350,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>2.916666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1352,10 +1364,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3.083333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1366,10 +1378,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>3.166666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1380,13 +1392,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>3.333333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1394,13 +1406,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>3.583333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1408,13 +1420,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>3.583333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1422,10 +1434,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>4.083333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1463,16 +1475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>3.666666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.3333333333333335</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1480,16 +1492,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D3">
-        <v>0.6666666666666665</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1497,13 +1509,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.583333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D4">
-        <v>0.5833333333333335</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1514,13 +1526,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1531,13 +1543,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>3.416666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.5833333333333335</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1548,16 +1560,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>3.083333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.9166666666666665</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1565,13 +1577,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1582,16 +1594,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2.916666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="D9">
-        <v>-0.08333333333333348</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1602,13 +1614,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2.916666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D10">
-        <v>0.9166666666666665</v>
+        <v>1.25</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1619,13 +1631,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>2.666666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D11">
-        <v>-1.333333333333333</v>
+        <v>-1.25</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1636,13 +1648,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>2.166666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D12">
-        <v>-0.8333333333333335</v>
+        <v>-0.6666666666666665</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1659,7 +1671,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1724,219 +1736,219 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>32.4</v>
       </c>
       <c r="C2">
-        <v>18.8</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>14.2</v>
+        <v>15.4</v>
       </c>
       <c r="E2">
-        <v>11.4</v>
+        <v>12.9</v>
       </c>
       <c r="F2">
-        <v>9.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="G2">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="H2">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="I2">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="J2">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="K2">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N2">
-        <v>85.5</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>29.7</v>
+        <v>16.7</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>14.6</v>
       </c>
       <c r="D3">
-        <v>13.5</v>
+        <v>15.7</v>
       </c>
       <c r="E3">
-        <v>10.2</v>
+        <v>12.1</v>
       </c>
       <c r="F3">
-        <v>8.300000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="G3">
-        <v>5.7</v>
+        <v>9.5</v>
       </c>
       <c r="H3">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="J3">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="M3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N3">
-        <v>85.40000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>8.300000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="D4">
-        <v>12.4</v>
+        <v>16.1</v>
       </c>
       <c r="E4">
-        <v>10.4</v>
+        <v>12.2</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="G4">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="J4">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="N4">
-        <v>66.3</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>9.4</v>
+        <v>11.9</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="D5">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="E5">
-        <v>11.5</v>
+        <v>12.8</v>
       </c>
       <c r="F5">
-        <v>9.5</v>
+        <v>12.6</v>
       </c>
       <c r="G5">
-        <v>9.800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="H5">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I5">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="M5">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="N5">
-        <v>65.7</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>8.6</v>
+        <v>12.6</v>
       </c>
       <c r="C6">
-        <v>9.699999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="D6">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="E6">
-        <v>12.6</v>
+        <v>15.5</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>11.9</v>
       </c>
       <c r="G6">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H6">
-        <v>11.4</v>
+        <v>9.9</v>
       </c>
       <c r="I6">
-        <v>9.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="J6">
-        <v>6.1</v>
+        <v>3.4</v>
       </c>
       <c r="K6">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="M6">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
-        <v>64.40000000000001</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1944,19 +1956,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="C7">
-        <v>9.300000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="D7">
-        <v>10.5</v>
+        <v>11.7</v>
       </c>
       <c r="E7">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="F7">
-        <v>8.5</v>
+        <v>13.7</v>
       </c>
       <c r="G7">
         <v>11.2</v>
@@ -1965,154 +1977,154 @@
         <v>10.7</v>
       </c>
       <c r="I7">
-        <v>9.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J7">
-        <v>8.300000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="K7">
-        <v>7.1</v>
+        <v>3.9</v>
       </c>
       <c r="L7">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>57.3</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="C8">
-        <v>8.300000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="D8">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>6.1</v>
       </c>
       <c r="F8">
-        <v>11.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G8">
-        <v>9.9</v>
+        <v>11.4</v>
       </c>
       <c r="H8">
-        <v>11.4</v>
+        <v>12.5</v>
       </c>
       <c r="I8">
-        <v>9.4</v>
+        <v>12.7</v>
       </c>
       <c r="J8">
-        <v>8.699999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="K8">
-        <v>7.6</v>
+        <v>10.6</v>
       </c>
       <c r="L8">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="N8">
-        <v>54.2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D9">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="E9">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="F9">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G9">
-        <v>10.9</v>
+        <v>10.2</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>13.1</v>
       </c>
       <c r="I9">
-        <v>11.1</v>
+        <v>15.1</v>
       </c>
       <c r="J9">
-        <v>13.4</v>
+        <v>14.3</v>
       </c>
       <c r="K9">
         <v>11.4</v>
       </c>
       <c r="L9">
-        <v>9.1</v>
+        <v>6.8</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="N9">
-        <v>40.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="F10">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="G10">
-        <v>8.4</v>
+        <v>10.4</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>11.8</v>
       </c>
       <c r="I10">
-        <v>10.5</v>
+        <v>15.4</v>
       </c>
       <c r="J10">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="K10">
-        <v>13.9</v>
+        <v>15.8</v>
       </c>
       <c r="L10">
-        <v>14.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M10">
-        <v>8.9</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2120,43 +2132,43 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="E11">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="F11">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="G11">
-        <v>8.1</v>
+        <v>4.9</v>
       </c>
       <c r="H11">
-        <v>9.699999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="I11">
-        <v>12.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J11">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="K11">
-        <v>15.4</v>
+        <v>21.7</v>
       </c>
       <c r="L11">
-        <v>19.2</v>
+        <v>28.7</v>
       </c>
       <c r="M11">
-        <v>5.7</v>
+        <v>6.9</v>
       </c>
       <c r="N11">
-        <v>25.4</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2164,43 +2176,43 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="E12">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="F12">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>8.1</v>
+        <v>4.5</v>
       </c>
       <c r="H12">
-        <v>9.4</v>
+        <v>7.7</v>
       </c>
       <c r="I12">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="K12">
-        <v>17.1</v>
+        <v>18.9</v>
       </c>
       <c r="L12">
-        <v>15.6</v>
+        <v>26.6</v>
       </c>
       <c r="M12">
-        <v>7.7</v>
+        <v>9.1</v>
       </c>
       <c r="N12">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2214,37 +2226,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0.2</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="I13">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="K13">
-        <v>7.7</v>
+        <v>5.4</v>
       </c>
       <c r="L13">
-        <v>16.7</v>
+        <v>13.9</v>
       </c>
       <c r="M13">
-        <v>67.90000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="N13">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -2254,13 +2266,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2282,138 +2294,156 @@
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>96.8</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E2">
+        <v>97.8</v>
+      </c>
+      <c r="F2">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G2">
+        <v>91.3</v>
+      </c>
+      <c r="H2">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="I2">
+        <v>95.89999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>65.60000000000001</v>
+      </c>
+      <c r="C3">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="D3">
+        <v>44.6</v>
+      </c>
+      <c r="E3">
+        <v>60.9</v>
+      </c>
+      <c r="F3">
+        <v>84.5</v>
+      </c>
+      <c r="G3">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="H3">
+        <v>88.3</v>
+      </c>
+      <c r="I3">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>11.1</v>
-      </c>
-      <c r="C2">
-        <v>5.2</v>
-      </c>
-      <c r="D2">
-        <v>80.2</v>
-      </c>
-      <c r="E2">
-        <v>93.10000000000001</v>
-      </c>
-      <c r="F2">
-        <v>86.5</v>
-      </c>
-      <c r="G2">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="H2">
-        <v>90.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>95.89999999999999</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>99</v>
-      </c>
-      <c r="E3">
-        <v>98</v>
-      </c>
-      <c r="F3">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="G3">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="H3">
-        <v>90.40000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B4">
-        <v>76.59999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="C4">
-        <v>95.39999999999999</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>97.7</v>
+        <v>79</v>
       </c>
       <c r="E4">
-        <v>69.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F4">
-        <v>59.2</v>
+        <v>86.8</v>
       </c>
       <c r="G4">
-        <v>72.59999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="H4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>82.89999999999999</v>
+      </c>
+      <c r="I4">
+        <v>86.59999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>63.8</v>
       </c>
       <c r="D5">
-        <v>63.9</v>
+        <v>63.6</v>
       </c>
       <c r="E5">
-        <v>71.8</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="F5">
-        <v>87.3</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G5">
-        <v>74.40000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="H5">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I5">
+        <v>84.39999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>64.7</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="C6">
-        <v>90.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="D6">
-        <v>43.9</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>90.2</v>
       </c>
       <c r="F6">
-        <v>84.39999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G6">
-        <v>73.2</v>
+        <v>61.8</v>
       </c>
       <c r="H6">
-        <v>74.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>84.89999999999999</v>
+      </c>
+      <c r="I6">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2421,155 +2451,173 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C7">
-        <v>93.10000000000001</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="D7">
-        <v>97.89999999999999</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="E7">
-        <v>79.90000000000001</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="F7">
-        <v>54.1</v>
+        <v>50.2</v>
       </c>
       <c r="G7">
-        <v>68.2</v>
+        <v>70.5</v>
       </c>
       <c r="H7">
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I7">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>94.09999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C8">
-        <v>96.8</v>
+        <v>96.2</v>
       </c>
       <c r="D8">
         <v>97.5</v>
       </c>
       <c r="E8">
-        <v>91.3</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="F8">
-        <v>94</v>
+        <v>59.9</v>
       </c>
       <c r="G8">
-        <v>64.60000000000001</v>
+        <v>73</v>
       </c>
       <c r="H8">
-        <v>64.60000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>52.2</v>
+      </c>
+      <c r="I8">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>51.4</v>
+      </c>
+      <c r="C9">
+        <v>5.5</v>
+      </c>
+      <c r="D9">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="E9">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>26.8</v>
+      </c>
+      <c r="G9">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="H9">
+        <v>47.59999999999999</v>
+      </c>
+      <c r="I9">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>87.8</v>
-      </c>
-      <c r="C9">
-        <v>24.1</v>
-      </c>
-      <c r="D9">
-        <v>51</v>
-      </c>
-      <c r="E9">
-        <v>38.8</v>
-      </c>
-      <c r="F9">
-        <v>33.6</v>
-      </c>
-      <c r="G9">
-        <v>53.1</v>
-      </c>
-      <c r="H9">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B10">
-        <v>48.9</v>
+        <v>87.3</v>
       </c>
       <c r="C10">
-        <v>4.3</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>3.1</v>
+        <v>49.3</v>
       </c>
       <c r="E10">
-        <v>52.5</v>
+        <v>39.8</v>
       </c>
       <c r="F10">
-        <v>26.4</v>
+        <v>37.2</v>
       </c>
       <c r="G10">
-        <v>38.9</v>
+        <v>51.4</v>
       </c>
       <c r="H10">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>41.8</v>
+      </c>
+      <c r="I10">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.8999999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E11">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>24.3</v>
+        <v>23.8</v>
       </c>
       <c r="G11">
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="H11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>17.1</v>
+      </c>
+      <c r="I11">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12">
+        <v>18.7</v>
+      </c>
+      <c r="C12">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="D12">
+        <v>15.1</v>
+      </c>
+      <c r="E12">
         <v>20.1</v>
       </c>
-      <c r="C12">
-        <v>58.4</v>
-      </c>
-      <c r="D12">
-        <v>14.5</v>
-      </c>
-      <c r="E12">
-        <v>19.9</v>
-      </c>
       <c r="F12">
-        <v>41.09999999999999</v>
+        <v>41.8</v>
       </c>
       <c r="G12">
-        <v>35.09999999999999</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22.8</v>
+      </c>
+      <c r="I12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2577,22 +2625,25 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>67.30000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="D13">
-        <v>40.2</v>
+        <v>39.8</v>
       </c>
       <c r="E13">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G13">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H13">
-        <v>2.4</v>
+        <v>0.3</v>
+      </c>
+      <c r="I13">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -2613,25 +2664,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2639,129 +2690,129 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2">
-        <v>124.2</v>
+        <v>125.6628571428571</v>
       </c>
       <c r="E2">
-        <v>745.2</v>
+        <v>879.6399999999999</v>
       </c>
       <c r="F2">
-        <v>90.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D3">
-        <v>125.5866666666667</v>
+        <v>128.3257142857143</v>
       </c>
       <c r="E3">
-        <v>753.52</v>
+        <v>898.28</v>
       </c>
       <c r="F3">
-        <v>89.2</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D4">
-        <v>114.93</v>
+        <v>123.5314285714286</v>
       </c>
       <c r="E4">
-        <v>689.5799999999999</v>
+        <v>864.7200000000001</v>
       </c>
       <c r="F4">
-        <v>75.8</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D5">
-        <v>122.54</v>
+        <v>115.2885714285714</v>
       </c>
       <c r="E5">
-        <v>735.24</v>
+        <v>807.02</v>
       </c>
       <c r="F5">
-        <v>74.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>113.5833333333333</v>
+        <v>125.8971428571429</v>
       </c>
       <c r="E6">
-        <v>681.5</v>
+        <v>881.28</v>
       </c>
       <c r="F6">
-        <v>74.59999999999999</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2769,103 +2820,103 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D7">
-        <v>119.9466666666667</v>
+        <v>120.3314285714286</v>
       </c>
       <c r="E7">
-        <v>719.6799999999999</v>
+        <v>842.3199999999999</v>
       </c>
       <c r="F7">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D8">
-        <v>119.2433333333333</v>
+        <v>117.9628571428571</v>
       </c>
       <c r="E8">
-        <v>715.46</v>
+        <v>825.74</v>
       </c>
       <c r="F8">
-        <v>65.60000000000001</v>
+        <v>51.5</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D9">
-        <v>114.66</v>
+        <v>108.9742857142857</v>
       </c>
       <c r="E9">
-        <v>687.96</v>
+        <v>762.8199999999999</v>
       </c>
       <c r="F9">
-        <v>51.5</v>
+        <v>51.1</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>118.5133333333333</v>
+        <v>116.6457142857143</v>
       </c>
       <c r="E10">
-        <v>711.08</v>
+        <v>816.52</v>
       </c>
       <c r="F10">
-        <v>37.9</v>
+        <v>41.6</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2873,25 +2924,25 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D11">
-        <v>108.2466666666667</v>
+        <v>107.2857142857143</v>
       </c>
       <c r="E11">
-        <v>649.48</v>
+        <v>751</v>
       </c>
       <c r="F11">
-        <v>35.09999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2899,25 +2950,25 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D12">
-        <v>116.1466666666667</v>
+        <v>115.7457142857143</v>
       </c>
       <c r="E12">
-        <v>696.88</v>
+        <v>810.22</v>
       </c>
       <c r="F12">
-        <v>33.4</v>
+        <v>18.7</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2925,25 +2976,25 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D13">
-        <v>100.8266666666667</v>
+        <v>95.83142857142857</v>
       </c>
       <c r="E13">
-        <v>604.96</v>
+        <v>670.8200000000001</v>
       </c>
       <c r="F13">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2964,16 +3015,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2984,16 +3035,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3004,16 +3055,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3021,19 +3072,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3044,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -3053,7 +3104,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3061,19 +3112,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3081,19 +3132,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3101,19 +3152,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3121,19 +3172,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3144,7 +3195,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>-6</v>
@@ -3153,7 +3204,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3164,16 +3215,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3184,16 +3235,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>-17</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3204,16 +3255,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D13">
-        <v>-26</v>
+        <v>-28</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3223,7 +3274,394 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
+        <v>-7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>-2</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <v>-9</v>
+      </c>
+      <c r="E9">
+        <v>-6</v>
+      </c>
+      <c r="F9">
+        <v>-3</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-9</v>
+      </c>
+      <c r="F10">
+        <v>-5</v>
+      </c>
+      <c r="G10">
+        <v>-6</v>
+      </c>
+      <c r="H10">
+        <v>-6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <v>-9</v>
+      </c>
+      <c r="D11">
+        <v>-11</v>
+      </c>
+      <c r="E11">
+        <v>-8</v>
+      </c>
+      <c r="F11">
+        <v>-8</v>
+      </c>
+      <c r="G11">
+        <v>-12</v>
+      </c>
+      <c r="H11">
+        <v>-15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>-6</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <v>-7</v>
+      </c>
+      <c r="E12">
+        <v>-17</v>
+      </c>
+      <c r="F12">
+        <v>-15</v>
+      </c>
+      <c r="G12">
+        <v>-17</v>
+      </c>
+      <c r="H12">
+        <v>-17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>-8</v>
+      </c>
+      <c r="C13">
+        <v>-6</v>
+      </c>
+      <c r="D13">
+        <v>-14</v>
+      </c>
+      <c r="E13">
+        <v>-19</v>
+      </c>
+      <c r="F13">
+        <v>-20</v>
+      </c>
+      <c r="G13">
+        <v>-26</v>
+      </c>
+      <c r="H13">
+        <v>-28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3231,373 +3669,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>-3</v>
-      </c>
-      <c r="C4">
-        <v>-7</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
-      <c r="D7">
-        <v>-9</v>
-      </c>
-      <c r="E7">
-        <v>-6</v>
-      </c>
-      <c r="F7">
-        <v>-3</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>-2</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>-9</v>
-      </c>
-      <c r="F10">
-        <v>-5</v>
-      </c>
-      <c r="G10">
-        <v>-6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>-3</v>
-      </c>
-      <c r="C11">
-        <v>-9</v>
-      </c>
-      <c r="D11">
-        <v>-11</v>
-      </c>
-      <c r="E11">
-        <v>-8</v>
-      </c>
-      <c r="F11">
-        <v>-8</v>
-      </c>
-      <c r="G11">
-        <v>-12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>-6</v>
-      </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-      <c r="D12">
-        <v>-7</v>
-      </c>
-      <c r="E12">
-        <v>-17</v>
-      </c>
-      <c r="F12">
-        <v>-15</v>
-      </c>
-      <c r="G12">
-        <v>-17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>-8</v>
-      </c>
-      <c r="C13">
-        <v>-6</v>
-      </c>
-      <c r="D13">
-        <v>-14</v>
-      </c>
-      <c r="E13">
-        <v>-19</v>
-      </c>
-      <c r="F13">
-        <v>-20</v>
-      </c>
-      <c r="G13">
-        <v>-26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3735,25 +3825,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-6</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>-2</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
       <c r="G7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3764,22 +3854,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F8">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3790,22 +3880,22 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>-1</v>
       </c>
       <c r="F9">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3813,24 +3903,50 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>-6</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>7</v>
       </c>
     </row>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="114">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -177,6 +177,9 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
@@ -198,37 +201,40 @@
     <t>1-6</t>
   </si>
   <si>
-    <t>8.9-5.0-0.1</t>
-  </si>
-  <si>
-    <t>8.0-6.0</t>
-  </si>
-  <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
-    <t>8.0-6.0-0.1</t>
+    <t>8.9-5.1-0.1</t>
+  </si>
+  <si>
+    <t>8.1-5.9</t>
+  </si>
+  <si>
+    <t>8.4-5.6-0.1</t>
+  </si>
+  <si>
+    <t>7.9-6.0-0.1</t>
+  </si>
+  <si>
+    <t>8.0-5.9-0.1</t>
   </si>
   <si>
     <t>7.8-6.2-0.1</t>
   </si>
   <si>
-    <t>6.6-7.3</t>
-  </si>
-  <si>
-    <t>7.1-6.8-0.1</t>
-  </si>
-  <si>
-    <t>6.4-7.5</t>
-  </si>
-  <si>
-    <t>5.8-8.2</t>
-  </si>
-  <si>
-    <t>5.4-8.5</t>
-  </si>
-  <si>
-    <t>3.5-10.5</t>
+    <t>7.1-6.9-0.1</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>6.5-7.5-0.1</t>
+  </si>
+  <si>
+    <t>5.5-8.4-0.1</t>
+  </si>
+  <si>
+    <t>5.8-8.2-0.1</t>
+  </si>
+  <si>
+    <t>3.4-10.6</t>
   </si>
   <si>
     <t>9-5</t>
@@ -246,7 +252,7 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
+    <t>3-11</t>
   </si>
   <si>
     <t>Owners</t>
@@ -1736,43 +1742,43 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>32.4</v>
+        <v>30.7</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>20.1</v>
       </c>
       <c r="D2">
-        <v>15.4</v>
+        <v>14.6</v>
       </c>
       <c r="E2">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="F2">
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="G2">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H2">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I2">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="J2">
         <v>1.5</v>
       </c>
       <c r="K2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
+        <v>0.1</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0.1</v>
-      </c>
       <c r="N2">
-        <v>91.8</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1780,131 +1786,131 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>16.7</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>14.6</v>
+        <v>16.3</v>
       </c>
       <c r="D3">
-        <v>15.7</v>
+        <v>14.2</v>
       </c>
       <c r="E3">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F3">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="G3">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="I3">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K3">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L3">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>80</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>13.3</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="D4">
-        <v>16.1</v>
+        <v>14.6</v>
       </c>
       <c r="E4">
-        <v>12.2</v>
+        <v>13.5</v>
       </c>
       <c r="F4">
-        <v>10.5</v>
+        <v>14.4</v>
       </c>
       <c r="G4">
-        <v>11.1</v>
+        <v>8.9</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I4">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K4">
         <v>2.6</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>77.7</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>13.8</v>
+      </c>
+      <c r="D5">
+        <v>14.2</v>
+      </c>
+      <c r="E5">
+        <v>12.2</v>
+      </c>
+      <c r="F5">
+        <v>11.3</v>
+      </c>
+      <c r="G5">
+        <v>9.9</v>
+      </c>
+      <c r="H5">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>11.9</v>
-      </c>
-      <c r="C5">
-        <v>14.5</v>
-      </c>
-      <c r="D5">
-        <v>12.3</v>
-      </c>
-      <c r="E5">
-        <v>12.8</v>
-      </c>
-      <c r="F5">
-        <v>12.6</v>
-      </c>
-      <c r="G5">
-        <v>11.8</v>
-      </c>
-      <c r="H5">
-        <v>9.199999999999999</v>
-      </c>
       <c r="I5">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>75.90000000000001</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1912,43 +1918,43 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C6">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="D6">
-        <v>11.1</v>
+        <v>13.5</v>
       </c>
       <c r="E6">
-        <v>15.5</v>
+        <v>13.6</v>
       </c>
       <c r="F6">
-        <v>11.9</v>
+        <v>11.3</v>
       </c>
       <c r="G6">
+        <v>10.1</v>
+      </c>
+      <c r="H6">
         <v>9.199999999999999</v>
       </c>
-      <c r="H6">
-        <v>9.9</v>
-      </c>
       <c r="I6">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="J6">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="K6">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>75.7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1956,131 +1962,131 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="C7">
-        <v>12.8</v>
+        <v>11.8</v>
       </c>
       <c r="D7">
-        <v>11.7</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="F7">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="G7">
-        <v>11.2</v>
+        <v>10.2</v>
       </c>
       <c r="H7">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>8.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J7">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="K7">
         <v>3.9</v>
       </c>
       <c r="L7">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="M7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N7">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
+        <v>1.5</v>
+      </c>
+      <c r="C8">
         <v>3.2</v>
       </c>
-      <c r="C8">
-        <v>3.9</v>
-      </c>
       <c r="D8">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="E8">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="F8">
-        <v>8.800000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="G8">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
       <c r="H8">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="I8">
-        <v>12.7</v>
+        <v>15.7</v>
       </c>
       <c r="J8">
-        <v>14.2</v>
+        <v>12</v>
       </c>
       <c r="K8">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="L8">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="M8">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="N8">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D9">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="E9">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="F9">
-        <v>9.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="G9">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="H9">
-        <v>13.1</v>
+        <v>11.7</v>
       </c>
       <c r="I9">
-        <v>15.1</v>
+        <v>13.4</v>
       </c>
       <c r="J9">
-        <v>14.3</v>
+        <v>16.4</v>
       </c>
       <c r="K9">
-        <v>11.4</v>
+        <v>12.9</v>
       </c>
       <c r="L9">
-        <v>6.8</v>
+        <v>10.6</v>
       </c>
       <c r="M9">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="N9">
-        <v>38</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2088,131 +2094,131 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="C10">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="E10">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="F10">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="G10">
-        <v>10.4</v>
+        <v>11.5</v>
       </c>
       <c r="H10">
-        <v>11.8</v>
+        <v>12.8</v>
       </c>
       <c r="I10">
-        <v>15.4</v>
+        <v>14.7</v>
       </c>
       <c r="J10">
-        <v>16.5</v>
+        <v>15.1</v>
       </c>
       <c r="K10">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="L10">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N10">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0.3</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D11">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="F11">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G11">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="H11">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>9.199999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="J11">
-        <v>13.1</v>
+        <v>15.3</v>
       </c>
       <c r="K11">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="L11">
-        <v>28.7</v>
+        <v>23.4</v>
       </c>
       <c r="M11">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="N11">
-        <v>12.6</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C12">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D12">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="E12">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="G12">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="H12">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="I12">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="J12">
-        <v>15.1</v>
+        <v>12.8</v>
       </c>
       <c r="K12">
-        <v>18.9</v>
+        <v>20.3</v>
       </c>
       <c r="L12">
-        <v>26.6</v>
+        <v>30.6</v>
       </c>
       <c r="M12">
-        <v>9.1</v>
+        <v>6.8</v>
       </c>
       <c r="N12">
-        <v>11</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2232,31 +2238,31 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.3</v>
+      </c>
+      <c r="H13">
         <v>0.2</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>1.7</v>
+      </c>
+      <c r="K13">
+        <v>4.7</v>
+      </c>
+      <c r="L13">
+        <v>11.8</v>
+      </c>
+      <c r="M13">
+        <v>80.8</v>
+      </c>
+      <c r="N13">
         <v>0.3</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1.3</v>
-      </c>
-      <c r="K13">
-        <v>5.4</v>
-      </c>
-      <c r="L13">
-        <v>13.9</v>
-      </c>
-      <c r="M13">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -2303,144 +2309,144 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>96.8</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="E2">
-        <v>97.8</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G2">
-        <v>91.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="H2">
-        <v>96.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="I2">
-        <v>95.89999999999999</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>65.60000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C3">
-        <v>92.40000000000001</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="D3">
-        <v>44.6</v>
+        <v>61.9</v>
       </c>
       <c r="E3">
-        <v>60.9</v>
+        <v>71.8</v>
       </c>
       <c r="F3">
-        <v>84.5</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="G3">
-        <v>75.59999999999999</v>
+        <v>74</v>
       </c>
       <c r="H3">
-        <v>88.3</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="I3">
-        <v>87.3</v>
+        <v>87.7</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>12.7</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>97.5</v>
       </c>
       <c r="E4">
-        <v>91.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="F4">
-        <v>86.8</v>
+        <v>93.8</v>
       </c>
       <c r="G4">
-        <v>88.8</v>
+        <v>63.7</v>
       </c>
       <c r="H4">
-        <v>82.89999999999999</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="I4">
-        <v>86.59999999999999</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>99.09999999999999</v>
+        <v>63.5</v>
       </c>
       <c r="C5">
-        <v>63.8</v>
+        <v>91.7</v>
       </c>
       <c r="D5">
-        <v>63.6</v>
+        <v>43.4</v>
       </c>
       <c r="E5">
-        <v>70.19999999999999</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="F5">
-        <v>86.59999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="G5">
-        <v>73.7</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H5">
-        <v>87</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="I5">
-        <v>84.39999999999999</v>
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>92.10000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="C6">
-        <v>96.3</v>
+        <v>2.8</v>
       </c>
       <c r="D6">
-        <v>98.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="E6">
-        <v>90.2</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="F6">
-        <v>94.09999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="G6">
-        <v>61.8</v>
+        <v>90.3</v>
       </c>
       <c r="H6">
         <v>84.89999999999999</v>
       </c>
       <c r="I6">
-        <v>83.2</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2448,28 +2454,28 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="C7">
-        <v>90.10000000000001</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="D7">
-        <v>97.39999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E7">
-        <v>80.60000000000001</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="F7">
-        <v>50.2</v>
+        <v>51.3</v>
       </c>
       <c r="G7">
-        <v>70.5</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="H7">
-        <v>79</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="I7">
-        <v>80.2</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2477,28 +2483,28 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>74.09999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="C8">
-        <v>96.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D8">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="E8">
-        <v>69.89999999999999</v>
+        <v>68.89999999999999</v>
       </c>
       <c r="F8">
-        <v>59.9</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="G8">
-        <v>73</v>
+        <v>71.5</v>
       </c>
       <c r="H8">
-        <v>52.2</v>
+        <v>48.3</v>
       </c>
       <c r="I8">
-        <v>51.8</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2506,28 +2512,28 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>51.4</v>
+        <v>50.3</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="D9">
-        <v>4.399999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>53.7</v>
       </c>
       <c r="F9">
-        <v>26.8</v>
+        <v>29.5</v>
       </c>
       <c r="G9">
-        <v>40.40000000000001</v>
+        <v>37.8</v>
       </c>
       <c r="H9">
-        <v>47.59999999999999</v>
+        <v>51.6</v>
       </c>
       <c r="I9">
-        <v>50.2</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2535,86 +2541,86 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>87.3</v>
+        <v>88.7</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>25.1</v>
       </c>
       <c r="D10">
-        <v>49.3</v>
+        <v>52.90000000000001</v>
       </c>
       <c r="E10">
-        <v>39.8</v>
+        <v>42.6</v>
       </c>
       <c r="F10">
-        <v>37.2</v>
+        <v>35.4</v>
       </c>
       <c r="G10">
-        <v>51.4</v>
+        <v>54</v>
       </c>
       <c r="H10">
-        <v>41.8</v>
+        <v>41</v>
       </c>
       <c r="I10">
-        <v>43.9</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>1.6</v>
+        <v>22.6</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>62.7</v>
       </c>
       <c r="D11">
-        <v>11.3</v>
+        <v>15.4</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>19.6</v>
       </c>
       <c r="F11">
-        <v>23.8</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>34.4</v>
       </c>
       <c r="H11">
-        <v>17.1</v>
+        <v>23.4</v>
       </c>
       <c r="I11">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>18.7</v>
+        <v>1.5</v>
       </c>
       <c r="C12">
-        <v>60.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>15.1</v>
+        <v>11.7</v>
       </c>
       <c r="E12">
-        <v>20.1</v>
+        <v>11.1</v>
       </c>
       <c r="F12">
-        <v>41.8</v>
+        <v>25.7</v>
       </c>
       <c r="G12">
-        <v>33</v>
+        <v>36.4</v>
       </c>
       <c r="H12">
-        <v>22.8</v>
+        <v>19.8</v>
       </c>
       <c r="I12">
-        <v>16</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2622,28 +2628,28 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C13">
-        <v>63.6</v>
+        <v>63.5</v>
       </c>
       <c r="D13">
-        <v>39.8</v>
+        <v>40.6</v>
       </c>
       <c r="E13">
-        <v>15.6</v>
+        <v>16.4</v>
       </c>
       <c r="F13">
-        <v>9.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="G13">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I13">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2653,13 +2659,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2684,13 +2690,16 @@
       <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>0.7142857142857143</v>
@@ -2702,21 +2711,24 @@
         <v>879.6399999999999</v>
       </c>
       <c r="F2">
-        <v>95.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
+        <v>95.8</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>0.5714285714285714</v>
@@ -2728,99 +2740,111 @@
         <v>898.28</v>
       </c>
       <c r="F3">
-        <v>86</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
+        <v>87.90000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D4">
-        <v>123.5314285714286</v>
+        <v>115.2885714285714</v>
       </c>
       <c r="E4">
-        <v>864.7200000000001</v>
+        <v>807.02</v>
       </c>
       <c r="F4">
         <v>85.59999999999999</v>
       </c>
-      <c r="G4" t="s">
-        <v>59</v>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D5">
-        <v>115.2885714285714</v>
+        <v>125.8971428571429</v>
       </c>
       <c r="E5">
-        <v>807.02</v>
+        <v>881.28</v>
       </c>
       <c r="F5">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
+        <v>85.39999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>125.8971428571429</v>
+        <v>123.5314285714286</v>
       </c>
       <c r="E6">
-        <v>881.28</v>
+        <v>864.7200000000001</v>
       </c>
       <c r="F6">
-        <v>85</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
+        <v>85.2</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -2832,73 +2856,82 @@
         <v>842.3199999999999</v>
       </c>
       <c r="F7">
-        <v>79</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
+        <v>79.2</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
       </c>
       <c r="C8">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D8">
+        <v>108.9742857142857</v>
+      </c>
+      <c r="E8">
+        <v>762.8199999999999</v>
+      </c>
+      <c r="F8">
+        <v>52.3</v>
+      </c>
+      <c r="G8">
+        <v>1.1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
         <v>0.4285714285714285</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>117.9628571428571</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>825.74</v>
       </c>
-      <c r="F8">
-        <v>51.5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="D9">
-        <v>108.9742857142857</v>
-      </c>
-      <c r="E9">
-        <v>762.8199999999999</v>
-      </c>
       <c r="F9">
-        <v>51.1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
+        <v>45.1</v>
+      </c>
+      <c r="G9">
+        <v>1.6</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -2910,73 +2943,82 @@
         <v>816.52</v>
       </c>
       <c r="F10">
-        <v>41.6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
+        <v>43.2</v>
+      </c>
+      <c r="G10">
+        <v>1.8</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D11">
+        <v>115.7457142857143</v>
+      </c>
+      <c r="E11">
+        <v>810.22</v>
+      </c>
+      <c r="F11">
+        <v>21.5</v>
+      </c>
+      <c r="G11">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="D11">
-        <v>107.2857142857143</v>
-      </c>
-      <c r="E11">
-        <v>751</v>
-      </c>
-      <c r="F11">
-        <v>20.4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
       </c>
       <c r="C12">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D12">
-        <v>115.7457142857143</v>
+        <v>107.2857142857143</v>
       </c>
       <c r="E12">
-        <v>810.22</v>
+        <v>751</v>
       </c>
       <c r="F12">
-        <v>18.7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
+        <v>18.3</v>
+      </c>
+      <c r="G12">
+        <v>6.800000000000001</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>0.1428571428571428</v>
@@ -2990,11 +3032,14 @@
       <c r="F13">
         <v>0.5</v>
       </c>
-      <c r="G13" t="s">
-        <v>68</v>
+      <c r="G13">
+        <v>80.80000000000001</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3015,16 +3060,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3035,7 +3080,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>16</v>
@@ -3044,7 +3089,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3055,7 +3100,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -3064,7 +3109,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3075,7 +3120,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -3084,7 +3129,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3095,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -3104,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3115,7 +3160,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3124,7 +3169,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3135,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3144,7 +3189,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3155,7 +3200,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -3164,7 +3209,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3175,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -3184,7 +3229,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3195,7 +3240,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>-6</v>
@@ -3204,7 +3249,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3215,7 +3260,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>-15</v>
@@ -3224,7 +3269,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3235,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>-17</v>
@@ -3244,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3255,7 +3300,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>-28</v>
@@ -3264,7 +3309,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3282,28 +3327,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3332,7 +3377,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3361,7 +3406,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3390,7 +3435,7 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3419,7 +3464,7 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3448,7 +3493,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3477,7 +3522,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3506,7 +3551,7 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3535,7 +3580,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3564,7 +3609,7 @@
         <v>-6</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3593,7 +3638,7 @@
         <v>-15</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3622,7 +3667,7 @@
         <v>-17</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3651,7 +3696,7 @@
         <v>-28</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3669,25 +3714,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="118">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -60,25 +60,25 @@
     <t>cman</t>
   </si>
   <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -162,6 +162,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -186,55 +189,55 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>8.9-5.1-0.1</t>
-  </si>
-  <si>
-    <t>8.1-5.9</t>
-  </si>
-  <si>
-    <t>8.4-5.6-0.1</t>
-  </si>
-  <si>
-    <t>7.9-6.0-0.1</t>
-  </si>
-  <si>
-    <t>8.0-5.9-0.1</t>
-  </si>
-  <si>
-    <t>7.8-6.2-0.1</t>
-  </si>
-  <si>
-    <t>7.1-6.9-0.1</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>6.5-7.5-0.1</t>
-  </si>
-  <si>
-    <t>5.5-8.4-0.1</t>
-  </si>
-  <si>
-    <t>5.8-8.2-0.1</t>
-  </si>
-  <si>
-    <t>3.4-10.6</t>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>9.1-4.8</t>
+  </si>
+  <si>
+    <t>8.6-5.3</t>
+  </si>
+  <si>
+    <t>8.3-5.6-0.1</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>7.9-6.0</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>7.1-6.8</t>
+  </si>
+  <si>
+    <t>7.0-6.9</t>
+  </si>
+  <si>
+    <t>5.8-8.2</t>
+  </si>
+  <si>
+    <t>5.1-8.9-0.1</t>
+  </si>
+  <si>
+    <t>5.4-8.5-0.1</t>
+  </si>
+  <si>
+    <t>3.9-10.0</t>
   </si>
   <si>
     <t>9-5</t>
@@ -252,7 +255,7 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>3-11</t>
+    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -264,30 +267,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
+    <t>Zachary Sparano</t>
+  </si>
+  <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
     <t>Chris Carbone</t>
   </si>
   <si>
-    <t>Chris Holloway</t>
-  </si>
-  <si>
-    <t>Robbie Wilston</t>
-  </si>
-  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Michael  Celoni</t>
+    <t>Colman Closser</t>
   </si>
   <si>
     <t>Shane Leiphart</t>
   </si>
   <si>
-    <t>Colman Closser</t>
-  </si>
-  <si>
-    <t>Zachary Sparano</t>
-  </si>
-  <si>
     <t>Eli Brinker</t>
   </si>
   <si>
@@ -300,28 +303,34 @@
     <t>Louis Rodriguez</t>
   </si>
   <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↓3</t>
+    <t>↓7</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -343,6 +352,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -773,16 +785,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -794,13 +806,13 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -817,31 +829,31 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
         <v>12</v>
@@ -864,13 +876,13 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -899,7 +911,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -911,7 +923,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -920,13 +932,13 @@
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -943,31 +955,31 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -978,22 +990,22 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -1002,13 +1014,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
         <v>16</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1016,37 +1028,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -1057,19 +1069,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1078,16 +1090,16 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1101,16 +1113,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1119,16 +1131,16 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
@@ -1142,7 +1154,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1151,7 +1163,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1180,40 +1192,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1224,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1233,19 +1245,19 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
@@ -1289,10 +1301,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2.166666666666667</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1303,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1314,13 +1326,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3.166666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1328,13 +1340,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1342,13 +1354,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3.583333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1356,13 +1368,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>3.583333333333333</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1370,13 +1382,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>3.666666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1384,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1398,13 +1410,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1412,13 +1424,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>3.833333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1426,13 +1438,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>4.166666666666667</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1440,13 +1452,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>4.166666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1481,13 +1493,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1498,16 +1510,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1515,13 +1527,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4.416666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D4">
-        <v>0.416666666666667</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1532,16 +1544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>4.25</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1552,10 +1564,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
-        <v>-1.333333333333333</v>
+        <v>-1.5</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1566,16 +1578,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>3.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D7">
-        <v>-0.3333333333333335</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1586,10 +1598,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.583333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D8">
-        <v>0.5833333333333335</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1600,16 +1612,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1617,16 +1629,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>3.25</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D10">
-        <v>1.25</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1634,16 +1646,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>2.75</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D11">
-        <v>-1.25</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1654,13 +1666,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>2.333333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="D12">
-        <v>-0.6666666666666665</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1671,13 +1683,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1.416666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D13">
-        <v>0.4166666666666667</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1739,134 +1751,134 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>30.7</v>
+        <v>26.3</v>
       </c>
       <c r="C2">
-        <v>20.1</v>
+        <v>19.1</v>
       </c>
       <c r="D2">
-        <v>14.6</v>
+        <v>19.1</v>
       </c>
       <c r="E2">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="F2">
-        <v>8.9</v>
+        <v>10.1</v>
       </c>
       <c r="G2">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H2">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I2">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="J2">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>92.2</v>
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="C3">
-        <v>16.3</v>
+        <v>18.8</v>
       </c>
       <c r="D3">
-        <v>14.2</v>
+        <v>16.4</v>
       </c>
       <c r="E3">
-        <v>12.2</v>
+        <v>10.5</v>
       </c>
       <c r="F3">
-        <v>10.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G3">
-        <v>10.5</v>
+        <v>5.9</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>5.2</v>
       </c>
       <c r="I3">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="J3">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="L3">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>80.59999999999999</v>
+        <v>90.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14.6</v>
       </c>
       <c r="C4">
-        <v>13.9</v>
+        <v>19.7</v>
       </c>
       <c r="D4">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>13.5</v>
+        <v>16.4</v>
       </c>
       <c r="F4">
-        <v>14.4</v>
+        <v>11.5</v>
       </c>
       <c r="G4">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="I4">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="J4">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="K4">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>77.3</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1874,87 +1886,87 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>15.9</v>
       </c>
       <c r="C5">
-        <v>13.8</v>
+        <v>17.6</v>
       </c>
       <c r="D5">
-        <v>14.2</v>
+        <v>12.5</v>
       </c>
       <c r="E5">
-        <v>12.2</v>
+        <v>12.9</v>
       </c>
       <c r="F5">
-        <v>11.3</v>
+        <v>12.6</v>
       </c>
       <c r="G5">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="J5">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="L5">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="M5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>76.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
+        <v>5.9</v>
+      </c>
+      <c r="C6">
+        <v>10.4</v>
+      </c>
+      <c r="D6">
+        <v>10.5</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>15.2</v>
+      </c>
+      <c r="G6">
         <v>12.7</v>
       </c>
-      <c r="C6">
-        <v>14.8</v>
-      </c>
-      <c r="D6">
-        <v>13.5</v>
-      </c>
-      <c r="E6">
-        <v>13.6</v>
-      </c>
-      <c r="F6">
-        <v>11.3</v>
-      </c>
-      <c r="G6">
-        <v>10.1</v>
-      </c>
       <c r="H6">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>6.6</v>
+        <v>10.8</v>
       </c>
       <c r="J6">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L6">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="M6">
         <v>0.2</v>
       </c>
       <c r="N6">
-        <v>76</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1962,175 +1974,175 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7.4</v>
+        <v>1.7</v>
       </c>
       <c r="C7">
-        <v>11.8</v>
+        <v>5.1</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>11.3</v>
       </c>
       <c r="F7">
+        <v>11.1</v>
+      </c>
+      <c r="G7">
+        <v>14.3</v>
+      </c>
+      <c r="H7">
+        <v>16.1</v>
+      </c>
+      <c r="I7">
         <v>12.3</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>10.2</v>
       </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>7.6</v>
-      </c>
-      <c r="J7">
-        <v>7.5</v>
-      </c>
       <c r="K7">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="L7">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="M7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
-        <v>68.2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1.6</v>
+      </c>
+      <c r="C8">
+        <v>2.9</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>14.8</v>
+      </c>
+      <c r="H8">
+        <v>14.7</v>
+      </c>
+      <c r="I8">
+        <v>15.2</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>8.4</v>
+      </c>
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>1.5</v>
-      </c>
-      <c r="C8">
-        <v>3.2</v>
-      </c>
-      <c r="D8">
-        <v>4.7</v>
-      </c>
-      <c r="E8">
-        <v>8.1</v>
-      </c>
-      <c r="F8">
-        <v>10.6</v>
-      </c>
-      <c r="G8">
-        <v>11.9</v>
-      </c>
-      <c r="H8">
-        <v>12.3</v>
-      </c>
-      <c r="I8">
-        <v>15.7</v>
-      </c>
-      <c r="J8">
-        <v>12</v>
-      </c>
-      <c r="K8">
-        <v>10.3</v>
-      </c>
-      <c r="L8">
-        <v>8.6</v>
-      </c>
       <c r="M8">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="N8">
-        <v>40</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="C9">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="D9">
-        <v>4.6</v>
+        <v>7.7</v>
       </c>
       <c r="E9">
-        <v>5.9</v>
+        <v>9.5</v>
       </c>
       <c r="F9">
-        <v>7.5</v>
+        <v>10.8</v>
       </c>
       <c r="G9">
-        <v>10.6</v>
+        <v>13</v>
       </c>
       <c r="H9">
-        <v>11.7</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>13.4</v>
+        <v>12.4</v>
       </c>
       <c r="J9">
-        <v>16.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K9">
-        <v>12.9</v>
+        <v>7.1</v>
       </c>
       <c r="L9">
-        <v>10.6</v>
+        <v>5.4</v>
       </c>
       <c r="M9">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="N9">
-        <v>33.4</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="E10">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="F10">
-        <v>7.3</v>
+        <v>4.3</v>
       </c>
       <c r="G10">
-        <v>11.5</v>
+        <v>6.6</v>
       </c>
       <c r="H10">
-        <v>12.8</v>
+        <v>8.4</v>
       </c>
       <c r="I10">
-        <v>14.7</v>
+        <v>11.8</v>
       </c>
       <c r="J10">
-        <v>15.1</v>
+        <v>18.3</v>
       </c>
       <c r="K10">
-        <v>16.6</v>
+        <v>20.7</v>
       </c>
       <c r="L10">
-        <v>8.6</v>
+        <v>17.4</v>
       </c>
       <c r="M10">
-        <v>1.8</v>
+        <v>6.9</v>
       </c>
       <c r="N10">
-        <v>30.4</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2138,43 +2150,43 @@
         <v>1</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0.3</v>
       </c>
-      <c r="C11">
-        <v>0.9</v>
-      </c>
-      <c r="D11">
-        <v>0.9</v>
-      </c>
       <c r="E11">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="F11">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="G11">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="I11">
-        <v>10.9</v>
+        <v>10.4</v>
       </c>
       <c r="J11">
-        <v>15.3</v>
+        <v>19.5</v>
       </c>
       <c r="K11">
-        <v>21.9</v>
+        <v>22.5</v>
       </c>
       <c r="L11">
-        <v>23.4</v>
+        <v>24.8</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>11.2</v>
       </c>
       <c r="N11">
-        <v>13.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2182,43 +2194,43 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="F12">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="G12">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="H12">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="I12">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="J12">
-        <v>12.8</v>
+        <v>16.9</v>
       </c>
       <c r="K12">
-        <v>20.3</v>
+        <v>23.5</v>
       </c>
       <c r="L12">
-        <v>30.6</v>
+        <v>28.5</v>
       </c>
       <c r="M12">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="N12">
-        <v>11.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2241,28 +2253,28 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H13">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="K13">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>11.8</v>
+        <v>16.9</v>
       </c>
       <c r="M13">
-        <v>80.8</v>
+        <v>70.5</v>
       </c>
       <c r="N13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2272,13 +2284,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2303,352 +2315,391 @@
       <c r="I1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C2">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D2">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="E2">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="F2">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="G2">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="H2">
+        <v>84</v>
+      </c>
+      <c r="I2">
+        <v>95.7</v>
+      </c>
+      <c r="J2">
+        <v>95.89999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12.7</v>
+      </c>
+      <c r="C3">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="D3">
+        <v>78.5</v>
+      </c>
+      <c r="E3">
+        <v>92.60000000000001</v>
+      </c>
+      <c r="F3">
+        <v>85.8</v>
+      </c>
+      <c r="G3">
+        <v>90.5</v>
+      </c>
+      <c r="H3">
+        <v>83.7</v>
+      </c>
+      <c r="I3">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="J3">
+        <v>94.69999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="C2">
+      <c r="B4">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="C4">
         <v>100</v>
       </c>
-      <c r="D2">
-        <v>99.3</v>
-      </c>
-      <c r="E2">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="F2">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G2">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="H2">
-        <v>93</v>
-      </c>
-      <c r="I2">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>99.5</v>
-      </c>
-      <c r="C3">
-        <v>64.60000000000001</v>
-      </c>
-      <c r="D3">
-        <v>61.9</v>
-      </c>
-      <c r="E3">
-        <v>71.8</v>
-      </c>
-      <c r="F3">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="G3">
-        <v>74</v>
-      </c>
-      <c r="H3">
-        <v>84.89999999999999</v>
-      </c>
-      <c r="I3">
-        <v>87.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>92.60000000000001</v>
-      </c>
-      <c r="C4">
-        <v>96</v>
-      </c>
       <c r="D4">
-        <v>97.5</v>
+        <v>99.8</v>
       </c>
       <c r="E4">
-        <v>88.3</v>
+        <v>98.5</v>
       </c>
       <c r="F4">
-        <v>93.8</v>
+        <v>97.7</v>
       </c>
       <c r="G4">
-        <v>63.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H4">
-        <v>84.39999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="I4">
-        <v>85.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>91.7</v>
+      </c>
+      <c r="J4">
+        <v>93.60000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>63.5</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="C5">
-        <v>91.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D5">
-        <v>43.4</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>56.59999999999999</v>
+        <v>60.2</v>
       </c>
       <c r="F5">
-        <v>85.2</v>
+        <v>84.5</v>
       </c>
       <c r="G5">
-        <v>73.40000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="H5">
-        <v>88.09999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="I5">
-        <v>84.59999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J5">
+        <v>90.60000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>11.4</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C6">
-        <v>2.8</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="D6">
-        <v>77.8</v>
+        <v>97.7</v>
       </c>
       <c r="E6">
-        <v>92.80000000000001</v>
+        <v>70</v>
       </c>
       <c r="F6">
-        <v>85.39999999999999</v>
+        <v>60.2</v>
       </c>
       <c r="G6">
-        <v>90.3</v>
+        <v>68.5</v>
       </c>
       <c r="H6">
-        <v>84.89999999999999</v>
+        <v>50.3</v>
       </c>
       <c r="I6">
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>78.2</v>
+      </c>
+      <c r="J6">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>99.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C7">
-        <v>92.60000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D7">
         <v>97.59999999999999</v>
       </c>
       <c r="E7">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="F7">
+        <v>95.3</v>
+      </c>
+      <c r="G7">
+        <v>64.60000000000001</v>
+      </c>
+      <c r="H7">
+        <v>85.3</v>
+      </c>
+      <c r="I7">
+        <v>64.2</v>
+      </c>
+      <c r="J7">
+        <v>68.30000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>99.7</v>
+      </c>
+      <c r="C8">
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E8">
+        <v>80.5</v>
+      </c>
+      <c r="F8">
+        <v>49.6</v>
+      </c>
+      <c r="G8">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="H8">
         <v>80.30000000000001</v>
       </c>
-      <c r="F7">
-        <v>51.3</v>
-      </c>
-      <c r="G7">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="H7">
-        <v>80.10000000000001</v>
-      </c>
-      <c r="I7">
-        <v>79.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>72.5</v>
-      </c>
-      <c r="C8">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="D8">
-        <v>97.3</v>
-      </c>
-      <c r="E8">
-        <v>68.89999999999999</v>
-      </c>
-      <c r="F8">
-        <v>59.09999999999999</v>
-      </c>
-      <c r="G8">
-        <v>71.5</v>
-      </c>
-      <c r="H8">
-        <v>48.3</v>
-      </c>
       <c r="I8">
-        <v>52.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>62.6</v>
+      </c>
+      <c r="J8">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C9">
+        <v>26.2</v>
+      </c>
+      <c r="D9">
+        <v>51.7</v>
+      </c>
+      <c r="E9">
+        <v>42.6</v>
+      </c>
+      <c r="F9">
+        <v>34.1</v>
+      </c>
+      <c r="G9">
+        <v>50.4</v>
+      </c>
+      <c r="H9">
+        <v>38.6</v>
+      </c>
+      <c r="I9">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="J9">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>50.3</v>
-      </c>
-      <c r="C9">
-        <v>5.4</v>
-      </c>
-      <c r="D9">
-        <v>4.6</v>
-      </c>
-      <c r="E9">
-        <v>53.7</v>
-      </c>
-      <c r="F9">
-        <v>29.5</v>
-      </c>
-      <c r="G9">
-        <v>37.8</v>
-      </c>
-      <c r="H9">
-        <v>51.6</v>
-      </c>
-      <c r="I9">
-        <v>45.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B10">
-        <v>88.7</v>
+        <v>49.9</v>
       </c>
       <c r="C10">
-        <v>25.1</v>
+        <v>6.1</v>
       </c>
       <c r="D10">
-        <v>52.90000000000001</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>42.6</v>
+        <v>54.90000000000001</v>
       </c>
       <c r="F10">
-        <v>35.4</v>
+        <v>29.3</v>
       </c>
       <c r="G10">
-        <v>54</v>
+        <v>39.8</v>
       </c>
       <c r="H10">
-        <v>41</v>
+        <v>49.8</v>
       </c>
       <c r="I10">
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>30.2</v>
+      </c>
+      <c r="J10">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>22.6</v>
+        <v>20.2</v>
       </c>
       <c r="C11">
-        <v>62.7</v>
+        <v>58.9</v>
       </c>
       <c r="D11">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E11">
-        <v>19.6</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="G11">
-        <v>34.4</v>
+        <v>36.5</v>
       </c>
       <c r="H11">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="I11">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>14.6</v>
+      </c>
+      <c r="J11">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.7</v>
+        <v>12.9</v>
       </c>
       <c r="E12">
-        <v>11.1</v>
+        <v>9.5</v>
       </c>
       <c r="F12">
-        <v>25.7</v>
+        <v>26.9</v>
       </c>
       <c r="G12">
-        <v>36.4</v>
+        <v>37.3</v>
       </c>
       <c r="H12">
-        <v>19.8</v>
+        <v>21.9</v>
       </c>
       <c r="I12">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>11.8</v>
+      </c>
+      <c r="J12">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="C13">
-        <v>63.5</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="D13">
-        <v>40.6</v>
+        <v>39</v>
       </c>
       <c r="E13">
-        <v>16.4</v>
+        <v>13.5</v>
       </c>
       <c r="F13">
-        <v>10.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I13">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="J13">
         <v>0.6</v>
       </c>
     </row>
@@ -2670,45 +2721,45 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>125.6628571428571</v>
+        <v>117.9675</v>
       </c>
       <c r="E2">
-        <v>879.6399999999999</v>
+        <v>943.74</v>
       </c>
       <c r="F2">
         <v>95.8</v>
@@ -2717,36 +2768,36 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D3">
-        <v>128.3257142857143</v>
+        <v>129.945</v>
       </c>
       <c r="E3">
-        <v>898.28</v>
+        <v>1039.56</v>
       </c>
       <c r="F3">
-        <v>87.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
         <v>72</v>
@@ -2754,31 +2805,31 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="D4">
-        <v>115.2885714285714</v>
+        <v>124.6075</v>
       </c>
       <c r="E4">
-        <v>807.02</v>
+        <v>996.8599999999999</v>
       </c>
       <c r="F4">
-        <v>85.59999999999999</v>
+        <v>93</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2786,57 +2837,57 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D5">
-        <v>125.8971428571429</v>
+        <v>123.145</v>
       </c>
       <c r="E5">
-        <v>881.28</v>
+        <v>985.16</v>
       </c>
       <c r="F5">
-        <v>85.39999999999999</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D6">
-        <v>123.5314285714286</v>
+        <v>115.135</v>
       </c>
       <c r="E6">
-        <v>864.7200000000001</v>
+        <v>921.0799999999999</v>
       </c>
       <c r="F6">
-        <v>85.2</v>
+        <v>79.7</v>
       </c>
       <c r="G6">
         <v>0.2</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2844,115 +2895,115 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>120.3314285714286</v>
+        <v>117.81</v>
       </c>
       <c r="E7">
-        <v>842.3199999999999</v>
+        <v>942.4799999999999</v>
       </c>
       <c r="F7">
-        <v>79.2</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>108.9742857142857</v>
+        <v>117.205</v>
       </c>
       <c r="E8">
-        <v>762.8199999999999</v>
+        <v>937.64</v>
       </c>
       <c r="F8">
-        <v>52.3</v>
+        <v>64.8</v>
       </c>
       <c r="G8">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>117.9628571428571</v>
+        <v>120.1075</v>
       </c>
       <c r="E9">
-        <v>825.74</v>
+        <v>960.86</v>
       </c>
       <c r="F9">
-        <v>45.1</v>
+        <v>64.5</v>
       </c>
       <c r="G9">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D10">
-        <v>116.6457142857143</v>
+        <v>112.2575</v>
       </c>
       <c r="E10">
-        <v>816.52</v>
+        <v>898.0599999999999</v>
       </c>
       <c r="F10">
-        <v>43.2</v>
+        <v>24.9</v>
       </c>
       <c r="G10">
-        <v>1.8</v>
+        <v>6.9</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2960,28 +3011,28 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>115.7457142857143</v>
+        <v>116.0475</v>
       </c>
       <c r="E11">
-        <v>810.22</v>
+        <v>928.38</v>
       </c>
       <c r="F11">
-        <v>21.5</v>
+        <v>11.6</v>
       </c>
       <c r="G11">
-        <v>7.000000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2989,28 +3040,28 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D12">
-        <v>107.2857142857143</v>
+        <v>107.11</v>
       </c>
       <c r="E12">
-        <v>751</v>
+        <v>856.88</v>
       </c>
       <c r="F12">
-        <v>18.3</v>
+        <v>10.8</v>
       </c>
       <c r="G12">
-        <v>6.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3018,28 +3069,28 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13">
-        <v>0.1428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>95.83142857142857</v>
+        <v>95.2675</v>
       </c>
       <c r="E13">
-        <v>670.8200000000001</v>
+        <v>762.1400000000001</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="G13">
-        <v>80.80000000000001</v>
+        <v>70.5</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3060,16 +3111,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3077,19 +3128,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3097,19 +3148,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3117,19 +3168,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3137,19 +3188,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3157,19 +3208,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3177,19 +3228,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3200,16 +3251,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3217,19 +3268,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3240,16 +3291,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3260,16 +3311,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3280,16 +3331,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12">
-        <v>-17</v>
+        <v>-12</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3300,16 +3351,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13">
-        <v>-28</v>
+        <v>-35</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3319,213 +3370,234 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-3</v>
+      </c>
+      <c r="C3">
+        <v>-7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>-9</v>
+      </c>
+      <c r="E4">
+        <v>-6</v>
+      </c>
+      <c r="F4">
+        <v>-3</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>-1</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>2</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
         <v>9</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>-3</v>
-      </c>
-      <c r="C6">
-        <v>-7</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <v>9</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3550,40 +3622,46 @@
       <c r="H8">
         <v>5</v>
       </c>
-      <c r="I8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3608,11 +3686,14 @@
       <c r="H10">
         <v>-6</v>
       </c>
-      <c r="I10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3637,11 +3718,14 @@
       <c r="H11">
         <v>-15</v>
       </c>
-      <c r="I11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11">
+        <v>-12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -3666,11 +3750,14 @@
       <c r="H12">
         <v>-17</v>
       </c>
-      <c r="I12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12">
+        <v>-12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3695,8 +3782,11 @@
       <c r="H13">
         <v>-28</v>
       </c>
-      <c r="I13" t="s">
-        <v>92</v>
+      <c r="I13">
+        <v>-35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3706,7 +3796,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3714,25 +3804,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3740,25 +3830,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2">
-        <v>4</v>
+        <v>-35</v>
       </c>
       <c r="F2">
-        <v>-17</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3766,25 +3856,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>-9</v>
-      </c>
       <c r="F3">
-        <v>11</v>
+        <v>-17</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3792,25 +3882,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3818,22 +3908,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -3847,22 +3937,22 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3870,22 +3960,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
       <c r="E7">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -3896,25 +3986,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3922,25 +4012,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F9">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3951,22 +4041,22 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F10">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3974,25 +4064,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-7</v>
+      </c>
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>-6</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="119">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -60,25 +60,25 @@
     <t>cman</t>
   </si>
   <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -165,6 +165,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -189,55 +192,61 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>9.1-4.8</t>
-  </si>
-  <si>
-    <t>8.6-5.3</t>
-  </si>
-  <si>
-    <t>8.3-5.6-0.1</t>
-  </si>
-  <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
-    <t>7.9-6.0</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
-  </si>
-  <si>
-    <t>7.1-6.8</t>
-  </si>
-  <si>
-    <t>7.0-6.9</t>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>9.7-4.3</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>7.6-6.3</t>
+  </si>
+  <si>
+    <t>7.7-6.3</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>6.5-7.4</t>
+  </si>
+  <si>
+    <t>6.3-7.6</t>
   </si>
   <si>
     <t>5.8-8.2</t>
   </si>
   <si>
-    <t>5.1-8.9-0.1</t>
-  </si>
-  <si>
-    <t>5.4-8.5-0.1</t>
-  </si>
-  <si>
-    <t>3.9-10.0</t>
+    <t>4.9-9.0</t>
+  </si>
+  <si>
+    <t>3.7-10.3</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
@@ -255,7 +264,7 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
+    <t>3-11</t>
   </si>
   <si>
     <t>Owners</t>
@@ -267,30 +276,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
     <t>Robbie Wilston</t>
   </si>
   <si>
-    <t>Michael  Celoni</t>
+    <t>Chris Carbone</t>
   </si>
   <si>
     <t>Zachary Sparano</t>
   </si>
   <si>
+    <t>Colman Closser</t>
+  </si>
+  <si>
     <t>Chris Holloway</t>
   </si>
   <si>
-    <t>Chris Carbone</t>
+    <t>Shane Leiphart</t>
   </si>
   <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Colman Closser</t>
-  </si>
-  <si>
-    <t>Shane Leiphart</t>
-  </si>
-  <si>
     <t>Eli Brinker</t>
   </si>
   <si>
@@ -303,34 +312,25 @@
     <t>Louis Rodriguez</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -788,34 +791,34 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -826,10 +829,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -838,13 +841,13 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -876,13 +879,13 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -905,37 +908,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
@@ -949,10 +952,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -964,16 +967,16 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -987,37 +990,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -1028,10 +1031,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1043,16 +1046,16 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
         <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -1081,25 +1084,25 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1113,37 +1116,37 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1154,7 +1157,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1163,16 +1166,16 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
         <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -1195,37 +1198,37 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
         <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
         <v>12</v>
       </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1236,7 +1239,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1248,10 +1251,10 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1301,10 +1304,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1315,10 +1318,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.083333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1326,13 +1329,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3.583333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1340,13 +1343,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1354,13 +1357,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>3.833333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1368,13 +1371,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1385,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.083333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1396,13 +1399,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1413,10 +1416,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1424,13 +1427,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4.583333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1438,13 +1441,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>4.583333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1452,13 +1455,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>4.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1493,13 +1496,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1510,16 +1513,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>4.833333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D3">
-        <v>-0.166666666666667</v>
+        <v>-1.75</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1527,13 +1530,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.666666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="D4">
-        <v>-0.333333333333333</v>
+        <v>-0.75</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1544,13 +1547,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>4.666666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="D5">
-        <v>0.666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1561,16 +1564,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="D6">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1581,13 +1584,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1595,16 +1598,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>4.333333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D8">
-        <v>0.333333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1615,13 +1618,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.833333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D9">
-        <v>1.833333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1629,16 +1632,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3.666666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D10">
-        <v>-1.333333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1646,16 +1649,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>3.583333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D11">
-        <v>0.5833333333333335</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1666,10 +1669,10 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>2.75</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D12">
-        <v>-0.25</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1683,13 +1686,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1.666666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D13">
-        <v>-0.3333333333333333</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1754,34 +1757,34 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>26.3</v>
+        <v>42.4</v>
       </c>
       <c r="C2">
-        <v>19.1</v>
+        <v>24.5</v>
       </c>
       <c r="D2">
-        <v>19.1</v>
+        <v>15.7</v>
       </c>
       <c r="E2">
-        <v>11.6</v>
+        <v>7.7</v>
       </c>
       <c r="F2">
-        <v>10.1</v>
+        <v>5.9</v>
       </c>
       <c r="G2">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="H2">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="J2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1790,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>92.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1798,263 +1801,263 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>30.5</v>
+        <v>31.9</v>
       </c>
       <c r="C3">
-        <v>18.8</v>
+        <v>29.3</v>
       </c>
       <c r="D3">
-        <v>16.4</v>
+        <v>17.5</v>
       </c>
       <c r="E3">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="F3">
-        <v>8.300000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="G3">
-        <v>5.9</v>
+        <v>3.8</v>
       </c>
       <c r="H3">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="I3">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="J3">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>90.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>14.6</v>
+        <v>16.1</v>
       </c>
       <c r="C4">
         <v>19.7</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>21.1</v>
       </c>
       <c r="E4">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="F4">
-        <v>11.5</v>
+        <v>12.6</v>
       </c>
       <c r="G4">
-        <v>9.300000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="H4">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="I4">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="J4">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>86.5</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>15.9</v>
+        <v>4.6</v>
       </c>
       <c r="C5">
-        <v>17.6</v>
+        <v>8.9</v>
       </c>
       <c r="D5">
-        <v>12.5</v>
+        <v>14.1</v>
       </c>
       <c r="E5">
-        <v>12.9</v>
+        <v>17.7</v>
       </c>
       <c r="F5">
-        <v>12.6</v>
+        <v>15.2</v>
       </c>
       <c r="G5">
-        <v>10.4</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
       <c r="J5">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="K5">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="L5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N5">
-        <v>81.90000000000001</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="C6">
-        <v>10.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D6">
-        <v>10.5</v>
+        <v>12.4</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>15.7</v>
       </c>
       <c r="F6">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="G6">
-        <v>12.7</v>
+        <v>15.3</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>13.3</v>
       </c>
       <c r="I6">
-        <v>10.8</v>
+        <v>7.9</v>
       </c>
       <c r="J6">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="K6">
         <v>2.3</v>
       </c>
       <c r="L6">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="M6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
-        <v>67.7</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="C7">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="D7">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
       <c r="E7">
-        <v>11.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F7">
-        <v>11.1</v>
+        <v>14.9</v>
       </c>
       <c r="G7">
-        <v>14.3</v>
+        <v>13.4</v>
       </c>
       <c r="H7">
-        <v>16.1</v>
+        <v>13.8</v>
       </c>
       <c r="I7">
-        <v>12.3</v>
+        <v>15.7</v>
       </c>
       <c r="J7">
-        <v>10.2</v>
+        <v>11.5</v>
       </c>
       <c r="K7">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="L7">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="M7">
         <v>0.4</v>
       </c>
       <c r="N7">
-        <v>52</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="E8">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>9.9</v>
       </c>
       <c r="G8">
-        <v>14.8</v>
+        <v>13.2</v>
       </c>
       <c r="H8">
-        <v>14.7</v>
+        <v>15.9</v>
       </c>
       <c r="I8">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>14.4</v>
       </c>
       <c r="K8">
-        <v>8.4</v>
+        <v>11.1</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="M8">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="N8">
-        <v>50.1</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2062,43 +2065,43 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>3.2</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="D9">
-        <v>7.7</v>
+        <v>5.7</v>
       </c>
       <c r="E9">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F9">
-        <v>10.8</v>
+        <v>9.4</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>13.1</v>
       </c>
       <c r="I9">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="J9">
-        <v>9.800000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="K9">
-        <v>7.1</v>
+        <v>11.9</v>
       </c>
       <c r="L9">
-        <v>5.4</v>
+        <v>9.1</v>
       </c>
       <c r="M9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>49.5</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2106,43 +2109,43 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="D10">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="E10">
-        <v>2.9</v>
+        <v>6.1</v>
       </c>
       <c r="F10">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="G10">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>11.8</v>
+        <v>15.9</v>
       </c>
       <c r="J10">
-        <v>18.3</v>
+        <v>16.2</v>
       </c>
       <c r="K10">
-        <v>20.7</v>
+        <v>17.7</v>
       </c>
       <c r="L10">
-        <v>17.4</v>
+        <v>9.9</v>
       </c>
       <c r="M10">
-        <v>6.9</v>
+        <v>1.1</v>
       </c>
       <c r="N10">
-        <v>16.5</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2153,40 +2156,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F11">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="G11">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="H11">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>10.4</v>
+        <v>16.5</v>
       </c>
       <c r="J11">
-        <v>19.5</v>
+        <v>20.2</v>
       </c>
       <c r="K11">
-        <v>22.5</v>
+        <v>21.4</v>
       </c>
       <c r="L11">
-        <v>24.8</v>
+        <v>12.1</v>
       </c>
       <c r="M11">
-        <v>11.2</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>7.1</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2197,40 +2200,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12">
         <v>0.5</v>
       </c>
-      <c r="E12">
-        <v>0.9</v>
-      </c>
       <c r="F12">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H12">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="I12">
-        <v>10.9</v>
+        <v>5.8</v>
       </c>
       <c r="J12">
-        <v>16.9</v>
+        <v>9.4</v>
       </c>
       <c r="K12">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="L12">
-        <v>28.5</v>
+        <v>45.3</v>
       </c>
       <c r="M12">
-        <v>9.4</v>
+        <v>13.3</v>
       </c>
       <c r="N12">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2253,28 +2256,28 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
         <v>0.5</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L13">
-        <v>16.9</v>
+        <v>16.2</v>
       </c>
       <c r="M13">
-        <v>70.5</v>
+        <v>77.8</v>
       </c>
       <c r="N13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -2284,13 +2287,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2318,8 +2321,11 @@
       <c r="J1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2327,380 +2333,416 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C2">
-        <v>64.40000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="D2">
-        <v>64.90000000000001</v>
+        <v>60.7</v>
       </c>
       <c r="E2">
-        <v>72.09999999999999</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="F2">
-        <v>87.09999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="G2">
-        <v>76.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H2">
-        <v>84</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="I2">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="J2">
-        <v>95.89999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="K2">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.7</v>
+        <v>13.7</v>
       </c>
       <c r="C3">
-        <v>4.399999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="D3">
-        <v>78.5</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="E3">
-        <v>92.60000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="F3">
-        <v>85.8</v>
+        <v>86.2</v>
       </c>
       <c r="G3">
-        <v>90.5</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="H3">
-        <v>83.7</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="I3">
-        <v>94.69999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="J3">
-        <v>94.69999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>98.3</v>
+      </c>
+      <c r="K3">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="D4">
+        <v>47.9</v>
+      </c>
+      <c r="E4">
+        <v>63.6</v>
+      </c>
+      <c r="F4">
+        <v>85.5</v>
+      </c>
+      <c r="G4">
+        <v>74.5</v>
+      </c>
+      <c r="H4">
+        <v>88.8</v>
+      </c>
+      <c r="I4">
+        <v>89.3</v>
+      </c>
+      <c r="J4">
+        <v>94.5</v>
+      </c>
+      <c r="K4">
+        <v>95.19999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>94.89999999999999</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>99.8</v>
-      </c>
-      <c r="E4">
-        <v>98.5</v>
-      </c>
-      <c r="F4">
-        <v>97.7</v>
-      </c>
-      <c r="G4">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="H4">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="I4">
-        <v>91.7</v>
-      </c>
-      <c r="J4">
-        <v>93.60000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B5">
-        <v>64.60000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="C5">
-        <v>90.90000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D5">
+        <v>99.7</v>
+      </c>
+      <c r="E5">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F5">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G5">
+        <v>90.2</v>
+      </c>
+      <c r="H5">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="I5">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="J5">
+        <v>85.3</v>
+      </c>
+      <c r="K5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>87.7</v>
+      </c>
+      <c r="C6">
+        <v>24.9</v>
+      </c>
+      <c r="D6">
+        <v>52.90000000000001</v>
+      </c>
+      <c r="E6">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>37.2</v>
+      </c>
+      <c r="G6">
+        <v>49.8</v>
+      </c>
+      <c r="H6">
         <v>41</v>
       </c>
-      <c r="E5">
-        <v>60.2</v>
-      </c>
-      <c r="F5">
-        <v>84.5</v>
-      </c>
-      <c r="G5">
-        <v>74.2</v>
-      </c>
-      <c r="H5">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="I5">
-        <v>89</v>
-      </c>
-      <c r="J5">
-        <v>90.60000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
+      <c r="I6">
+        <v>64.8</v>
+      </c>
+      <c r="J6">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="K6">
+        <v>80.10000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="C6">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="D6">
-        <v>97.7</v>
-      </c>
-      <c r="E6">
-        <v>70</v>
-      </c>
-      <c r="F6">
-        <v>60.2</v>
-      </c>
-      <c r="G6">
-        <v>68.5</v>
-      </c>
-      <c r="H6">
-        <v>50.3</v>
-      </c>
-      <c r="I6">
-        <v>78.2</v>
-      </c>
-      <c r="J6">
-        <v>79.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B7">
-        <v>92.90000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C7">
         <v>95.09999999999999</v>
       </c>
       <c r="D7">
-        <v>97.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E7">
-        <v>89.60000000000001</v>
+        <v>70.5</v>
       </c>
       <c r="F7">
-        <v>95.3</v>
+        <v>60.3</v>
       </c>
       <c r="G7">
-        <v>64.60000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="H7">
-        <v>85.3</v>
+        <v>50.2</v>
       </c>
       <c r="I7">
-        <v>64.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="J7">
-        <v>68.30000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>66.5</v>
+      </c>
+      <c r="K7">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>99.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>93.5</v>
       </c>
       <c r="D8">
-        <v>97.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="E8">
-        <v>80.5</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="F8">
-        <v>49.6</v>
+        <v>51</v>
       </c>
       <c r="G8">
-        <v>65.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="H8">
-        <v>80.30000000000001</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="I8">
-        <v>62.6</v>
+        <v>63</v>
       </c>
       <c r="J8">
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>53.2</v>
+      </c>
+      <c r="K8">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>87.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="C9">
-        <v>26.2</v>
+        <v>95.7</v>
       </c>
       <c r="D9">
-        <v>51.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E9">
-        <v>42.6</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F9">
-        <v>34.1</v>
+        <v>94.3</v>
       </c>
       <c r="G9">
-        <v>50.4</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H9">
-        <v>38.6</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="I9">
-        <v>66.40000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="J9">
-        <v>63.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>49.9</v>
+      </c>
+      <c r="K9">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>49.9</v>
+        <v>50.8</v>
       </c>
       <c r="C10">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="E10">
-        <v>54.90000000000001</v>
+        <v>58.9</v>
       </c>
       <c r="F10">
-        <v>29.3</v>
+        <v>26.9</v>
       </c>
       <c r="G10">
-        <v>39.8</v>
+        <v>38.7</v>
       </c>
       <c r="H10">
-        <v>49.8</v>
+        <v>50.8</v>
       </c>
       <c r="I10">
-        <v>30.2</v>
+        <v>28.3</v>
       </c>
       <c r="J10">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>40.1</v>
+      </c>
+      <c r="K10">
+        <v>41.09999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>20.2</v>
+        <v>21.1</v>
       </c>
       <c r="C11">
-        <v>58.9</v>
+        <v>60.3</v>
       </c>
       <c r="D11">
-        <v>15.3</v>
+        <v>14.1</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>21.4</v>
       </c>
       <c r="F11">
-        <v>41.2</v>
+        <v>42</v>
       </c>
       <c r="G11">
-        <v>36.5</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="I11">
-        <v>14.6</v>
+        <v>13</v>
       </c>
       <c r="J11">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.9</v>
+        <v>11.8</v>
       </c>
       <c r="E12">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="F12">
-        <v>26.9</v>
+        <v>21.7</v>
       </c>
       <c r="G12">
-        <v>37.3</v>
+        <v>38.1</v>
       </c>
       <c r="H12">
-        <v>21.9</v>
+        <v>18.1</v>
       </c>
       <c r="I12">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="J12">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.4</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C13">
-        <v>64.60000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="E13">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="F13">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G13">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H13">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="I13">
-        <v>0.8999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="J13">
-        <v>0.6</v>
+        <v>0.1</v>
+      </c>
+      <c r="K13">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2721,28 +2763,28 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2750,28 +2792,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D2">
-        <v>117.9675</v>
+        <v>118.6266666666667</v>
       </c>
       <c r="E2">
-        <v>943.74</v>
+        <v>1067.64</v>
       </c>
       <c r="F2">
-        <v>95.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2779,173 +2821,173 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>129.945</v>
+        <v>131.5177777777778</v>
       </c>
       <c r="E3">
-        <v>1039.56</v>
+        <v>1183.66</v>
       </c>
       <c r="F3">
-        <v>95.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>124.6075</v>
+        <v>121.4533333333333</v>
       </c>
       <c r="E4">
-        <v>996.8599999999999</v>
+        <v>1093.08</v>
       </c>
       <c r="F4">
-        <v>93</v>
+        <v>96.7</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D5">
-        <v>123.145</v>
+        <v>122.5244444444444</v>
       </c>
       <c r="E5">
-        <v>985.16</v>
+        <v>1102.72</v>
       </c>
       <c r="F5">
-        <v>90.10000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D6">
-        <v>115.135</v>
+        <v>119.26</v>
       </c>
       <c r="E6">
-        <v>921.0799999999999</v>
+        <v>1073.34</v>
       </c>
       <c r="F6">
-        <v>79.7</v>
+        <v>83.7</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D7">
-        <v>117.81</v>
+        <v>113.3155555555555</v>
       </c>
       <c r="E7">
-        <v>942.4799999999999</v>
+        <v>1019.84</v>
       </c>
       <c r="F7">
-        <v>68.10000000000001</v>
+        <v>63.2</v>
       </c>
       <c r="G7">
         <v>0.4</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D8">
-        <v>117.205</v>
+        <v>117.6022222222222</v>
       </c>
       <c r="E8">
-        <v>937.64</v>
+        <v>1058.42</v>
       </c>
       <c r="F8">
-        <v>64.8</v>
+        <v>52.7</v>
       </c>
       <c r="G8">
-        <v>0.6</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2953,28 +2995,28 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D9">
-        <v>120.1075</v>
+        <v>118.3111111111111</v>
       </c>
       <c r="E9">
-        <v>960.86</v>
+        <v>1064.8</v>
       </c>
       <c r="F9">
-        <v>64.5</v>
+        <v>51.2</v>
       </c>
       <c r="G9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2982,28 +3024,28 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D10">
-        <v>112.2575</v>
+        <v>114.0644444444444</v>
       </c>
       <c r="E10">
-        <v>898.0599999999999</v>
+        <v>1026.58</v>
       </c>
       <c r="F10">
-        <v>24.9</v>
+        <v>39.2</v>
       </c>
       <c r="G10">
-        <v>6.9</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3011,28 +3053,28 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>116.0475</v>
+        <v>116.3977777777778</v>
       </c>
       <c r="E11">
-        <v>928.38</v>
+        <v>1047.58</v>
       </c>
       <c r="F11">
-        <v>11.6</v>
+        <v>24.3</v>
       </c>
       <c r="G11">
-        <v>11.2</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3040,28 +3082,28 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>107.11</v>
+        <v>107.6511111111111</v>
       </c>
       <c r="E12">
-        <v>856.88</v>
+        <v>968.86</v>
       </c>
       <c r="F12">
-        <v>10.8</v>
+        <v>4.7</v>
       </c>
       <c r="G12">
-        <v>9.4</v>
+        <v>13.3</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3069,28 +3111,28 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D13">
-        <v>95.2675</v>
+        <v>95.88666666666667</v>
       </c>
       <c r="E13">
-        <v>762.1400000000001</v>
+        <v>862.9800000000001</v>
       </c>
       <c r="F13">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="G13">
-        <v>70.5</v>
+        <v>77.8</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3111,16 +3153,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3128,19 +3170,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3148,19 +3190,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3168,19 +3210,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3188,19 +3230,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3208,19 +3250,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3228,19 +3270,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3248,19 +3290,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3268,19 +3310,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3291,7 +3333,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -3300,7 +3342,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3311,16 +3353,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D11">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3331,16 +3373,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3351,16 +3393,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D13">
         <v>-35</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3370,13 +3412,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
@@ -3402,266 +3444,293 @@
         <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>111</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
         <v>11</v>
-      </c>
-      <c r="I2">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-3</v>
-      </c>
-      <c r="C3">
-        <v>-7</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
       <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
         <v>9</v>
       </c>
-      <c r="H3">
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>-9</v>
+      </c>
+      <c r="E5">
+        <v>-6</v>
+      </c>
+      <c r="F5">
+        <v>-3</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="I3">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
         <v>2</v>
-      </c>
-      <c r="C4">
-        <v>-2</v>
-      </c>
-      <c r="D4">
-        <v>-9</v>
-      </c>
-      <c r="E4">
-        <v>-6</v>
-      </c>
-      <c r="F4">
-        <v>-3</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
       <c r="H7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>-2</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
       <c r="G8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3689,11 +3758,14 @@
       <c r="I10">
         <v>-1</v>
       </c>
-      <c r="J10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3721,11 +3793,14 @@
       <c r="I11">
         <v>-12</v>
       </c>
-      <c r="J11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11">
+        <v>-9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -3753,11 +3828,14 @@
       <c r="I12">
         <v>-12</v>
       </c>
-      <c r="J12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12">
+        <v>-20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3785,8 +3863,11 @@
       <c r="I13">
         <v>-35</v>
       </c>
-      <c r="J13" t="s">
-        <v>102</v>
+      <c r="J13">
+        <v>-35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3877,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3804,25 +3885,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4064,51 +4145,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>-1</v>
       </c>
       <c r="F11">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>-1</v>
-      </c>
-      <c r="F12">
-        <v>-6</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="121">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -60,25 +60,28 @@
     <t>cman</t>
   </si>
   <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -168,6 +171,9 @@
     <t>Week_10</t>
   </si>
   <si>
+    <t>Week_11</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -192,61 +198,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>9.7-4.3</t>
-  </si>
-  <si>
-    <t>9.0-5.0</t>
-  </si>
-  <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>7.6-6.3</t>
-  </si>
-  <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>6.5-7.4</t>
-  </si>
-  <si>
-    <t>6.3-7.6</t>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>9.4-4.6</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>9.1-4.9</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>7.9-6.1</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>6.1-7.8</t>
   </si>
   <si>
     <t>5.8-8.2</t>
   </si>
   <si>
-    <t>4.9-9.0</t>
-  </si>
-  <si>
-    <t>3.7-10.3</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>5.5-8.4</t>
+  </si>
+  <si>
+    <t>3.3-10.7</t>
   </si>
   <si>
     <t>9-5</t>
@@ -276,10 +273,16 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
     <t>Michael  Celoni</t>
   </si>
   <si>
-    <t>Robbie Wilston</t>
+    <t>Colman Closser</t>
   </si>
   <si>
     <t>Chris Carbone</t>
@@ -288,18 +291,12 @@
     <t>Zachary Sparano</t>
   </si>
   <si>
-    <t>Colman Closser</t>
-  </si>
-  <si>
-    <t>Chris Holloway</t>
+    <t>Prahlad Singh</t>
   </si>
   <si>
     <t>Shane Leiphart</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
     <t>Eli Brinker</t>
   </si>
   <si>
@@ -312,25 +309,31 @@
     <t>Louis Rodriguez</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓8</t>
+    <t>↓4</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -358,6 +361,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -815,7 +821,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
@@ -829,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -838,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -850,7 +856,7 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -859,7 +865,7 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -882,7 +888,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -891,16 +897,16 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -911,10 +917,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -923,22 +929,22 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
@@ -949,19 +955,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -973,7 +979,7 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -996,25 +1002,25 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
@@ -1031,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1040,31 +1046,31 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1072,40 +1078,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
         <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1154,7 +1160,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -1163,31 +1169,31 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
         <v>12</v>
       </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1213,22 +1219,22 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1236,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1251,25 +1257,25 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1287,13 +1293,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1304,10 +1310,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3.416666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1315,13 +1321,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3.75</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1329,13 +1335,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1343,13 +1349,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4.25</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1357,13 +1363,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1371,13 +1377,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>4.416666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1385,13 +1391,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4.583333333333333</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1399,10 +1405,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>4.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1413,13 +1419,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>4.75</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1430,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1444,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1458,10 +1464,10 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1479,16 +1485,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1499,10 +1505,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.666666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.333333333333333</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1513,16 +1519,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
       <c r="D3">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1533,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.25</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.75</v>
+        <v>-0.833333333333333</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1547,16 +1553,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>5.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1564,16 +1570,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>5.25</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1581,16 +1587,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-1.583333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1598,16 +1604,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>4.833333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D8">
-        <v>0.833333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1615,16 +1621,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>4.5</v>
-      </c>
-      <c r="D9">
-        <v>1.5</v>
-      </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1635,13 +1641,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>4.416666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D10">
-        <v>0.416666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1652,10 +1658,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3.666666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D11">
-        <v>-1.333333333333333</v>
+        <v>-1.75</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1669,13 +1675,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>3.166666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D12">
-        <v>0.1666666666666665</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1686,13 +1692,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1.75</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.25</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1710,75 +1716,75 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>42.4</v>
+        <v>42.7</v>
       </c>
       <c r="C2">
-        <v>24.5</v>
+        <v>25.9</v>
       </c>
       <c r="D2">
-        <v>15.7</v>
+        <v>14.3</v>
       </c>
       <c r="E2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="F2">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="G2">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1793,42 +1799,42 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>31.9</v>
+        <v>25.1</v>
       </c>
       <c r="C3">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="D3">
-        <v>17.5</v>
+        <v>20.6</v>
       </c>
       <c r="E3">
-        <v>8.4</v>
+        <v>12.3</v>
       </c>
       <c r="F3">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
       <c r="G3">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H3">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1837,51 +1843,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>98.90000000000001</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>16.1</v>
+        <v>17.5</v>
       </c>
       <c r="C4">
-        <v>19.7</v>
+        <v>17.9</v>
       </c>
       <c r="D4">
-        <v>21.1</v>
+        <v>25.4</v>
       </c>
       <c r="E4">
-        <v>15.8</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>12.6</v>
+        <v>11.8</v>
       </c>
       <c r="G4">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="H4">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="I4">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="J4">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>96.7</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1889,307 +1895,307 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4.6</v>
+        <v>12.4</v>
       </c>
       <c r="C5">
-        <v>8.9</v>
+        <v>19.4</v>
       </c>
       <c r="D5">
-        <v>14.1</v>
+        <v>20.4</v>
       </c>
       <c r="E5">
-        <v>17.7</v>
+        <v>22.1</v>
       </c>
       <c r="F5">
-        <v>15.2</v>
+        <v>13.1</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>6.9</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="I5">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="J5">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>85.5</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>8.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="D6">
-        <v>12.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E6">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F6">
-        <v>15.4</v>
+        <v>20.2</v>
       </c>
       <c r="G6">
-        <v>15.3</v>
+        <v>17.1</v>
       </c>
       <c r="H6">
-        <v>13.3</v>
+        <v>15.2</v>
       </c>
       <c r="I6">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J6">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>83.7</v>
+        <v>84.7</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="C7">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="D7">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="E7">
-        <v>9.699999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="F7">
-        <v>14.9</v>
+        <v>16.3</v>
       </c>
       <c r="G7">
-        <v>13.4</v>
+        <v>20.4</v>
       </c>
       <c r="H7">
-        <v>13.8</v>
+        <v>16.8</v>
       </c>
       <c r="I7">
-        <v>15.7</v>
+        <v>12.9</v>
       </c>
       <c r="J7">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>4.7</v>
       </c>
       <c r="L7">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="M7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N7">
-        <v>63.2</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="E8">
-        <v>8.199999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="F8">
-        <v>9.9</v>
+        <v>7.6</v>
       </c>
       <c r="G8">
-        <v>13.2</v>
+        <v>14.4</v>
       </c>
       <c r="H8">
-        <v>15.9</v>
+        <v>14.9</v>
       </c>
       <c r="I8">
-        <v>15.7</v>
+        <v>17.4</v>
       </c>
       <c r="J8">
-        <v>14.4</v>
+        <v>15.3</v>
       </c>
       <c r="K8">
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="L8">
-        <v>5.4</v>
+        <v>12.2</v>
       </c>
       <c r="M8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N8">
-        <v>52.7</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>0.1</v>
       </c>
-      <c r="C9">
-        <v>1.9</v>
-      </c>
       <c r="D9">
-        <v>5.7</v>
+        <v>0.4</v>
       </c>
       <c r="E9">
-        <v>8.699999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="F9">
-        <v>9.4</v>
+        <v>7.9</v>
       </c>
       <c r="G9">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="H9">
-        <v>13.1</v>
+        <v>15.3</v>
       </c>
       <c r="I9">
-        <v>11.9</v>
+        <v>20.1</v>
       </c>
       <c r="J9">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="K9">
-        <v>11.9</v>
+        <v>15.1</v>
       </c>
       <c r="L9">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N9">
-        <v>51.2</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="F10">
         <v>6.2</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="I10">
-        <v>15.9</v>
+        <v>16.3</v>
       </c>
       <c r="J10">
-        <v>16.2</v>
+        <v>21.9</v>
       </c>
       <c r="K10">
-        <v>17.7</v>
+        <v>19.2</v>
       </c>
       <c r="L10">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>39.2</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="F11">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="I11">
-        <v>16.5</v>
+        <v>13.1</v>
       </c>
       <c r="J11">
-        <v>20.2</v>
+        <v>16.8</v>
       </c>
       <c r="K11">
-        <v>21.4</v>
+        <v>23.2</v>
       </c>
       <c r="L11">
-        <v>12.1</v>
+        <v>22.2</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="N11">
-        <v>24.3</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2203,37 +2209,37 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G12">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H12">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="I12">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J12">
-        <v>9.4</v>
+        <v>17</v>
       </c>
       <c r="K12">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="L12">
-        <v>45.3</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>13.3</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>4.7</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2256,28 +2262,28 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.3</v>
+      </c>
+      <c r="J13">
         <v>0.2</v>
       </c>
-      <c r="I13">
-        <v>0.5</v>
-      </c>
-      <c r="J13">
-        <v>1.6</v>
-      </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="L13">
-        <v>16.2</v>
+        <v>4.3</v>
       </c>
       <c r="M13">
-        <v>77.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="N13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2287,462 +2293,501 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>11.9</v>
+      </c>
+      <c r="C2">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="D2">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="E2">
+        <v>92.80000000000001</v>
+      </c>
+      <c r="F2">
+        <v>86.5</v>
+      </c>
+      <c r="G2">
+        <v>90.8</v>
+      </c>
+      <c r="H2">
+        <v>84.3</v>
+      </c>
+      <c r="I2">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="J2">
+        <v>98.3</v>
+      </c>
+      <c r="K2">
+        <v>99.5</v>
+      </c>
+      <c r="L2">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>63.2</v>
+      </c>
+      <c r="C3">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="D3">
+        <v>46.40000000000001</v>
+      </c>
+      <c r="E3">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="F3">
+        <v>84.5</v>
+      </c>
+      <c r="G3">
+        <v>72.3</v>
+      </c>
+      <c r="H3">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="I3">
+        <v>88.8</v>
+      </c>
+      <c r="J3">
+        <v>93.89999999999999</v>
+      </c>
+      <c r="K3">
+        <v>99.2</v>
+      </c>
+      <c r="L3">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C2">
-        <v>65.3</v>
-      </c>
-      <c r="D2">
-        <v>60.7</v>
-      </c>
-      <c r="E2">
-        <v>66.10000000000001</v>
-      </c>
-      <c r="F2">
-        <v>87.3</v>
-      </c>
-      <c r="G2">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="H2">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="I2">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="J2">
+      <c r="B4">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C4">
+        <v>63.5</v>
+      </c>
+      <c r="D4">
+        <v>63.4</v>
+      </c>
+      <c r="E4">
+        <v>67.30000000000001</v>
+      </c>
+      <c r="F4">
+        <v>86.3</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <v>85.8</v>
+      </c>
+      <c r="I4">
+        <v>95.7</v>
+      </c>
+      <c r="J4">
         <v>98.90000000000001</v>
       </c>
-      <c r="K2">
-        <v>99.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>13.7</v>
-      </c>
-      <c r="C3">
-        <v>4.3</v>
-      </c>
-      <c r="D3">
-        <v>78.60000000000001</v>
-      </c>
-      <c r="E3">
-        <v>92.5</v>
-      </c>
-      <c r="F3">
-        <v>86.2</v>
-      </c>
-      <c r="G3">
-        <v>90.10000000000001</v>
-      </c>
-      <c r="H3">
-        <v>81.69999999999999</v>
-      </c>
-      <c r="I3">
-        <v>93.8</v>
-      </c>
-      <c r="J3">
+      <c r="K4">
         <v>98.3</v>
       </c>
-      <c r="K3">
-        <v>98.59999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>63</v>
-      </c>
-      <c r="C4">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>47.9</v>
-      </c>
-      <c r="E4">
-        <v>63.6</v>
-      </c>
-      <c r="F4">
-        <v>85.5</v>
-      </c>
-      <c r="G4">
-        <v>74.5</v>
-      </c>
-      <c r="H4">
-        <v>88.8</v>
-      </c>
-      <c r="I4">
-        <v>89.3</v>
-      </c>
-      <c r="J4">
-        <v>94.5</v>
-      </c>
-      <c r="K4">
-        <v>95.19999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>96.2</v>
+        <v>97.5</v>
       </c>
       <c r="C5">
         <v>99.90000000000001</v>
       </c>
       <c r="D5">
+        <v>99.3</v>
+      </c>
+      <c r="E5">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F5">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G5">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="H5">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="I5">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="J5">
+        <v>88.5</v>
+      </c>
+      <c r="K5">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="L5">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>72.8</v>
+      </c>
+      <c r="C6">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="D6">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E6">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="F6">
+        <v>59.8</v>
+      </c>
+      <c r="G6">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="H6">
+        <v>49.5</v>
+      </c>
+      <c r="I6">
+        <v>81.8</v>
+      </c>
+      <c r="J6">
+        <v>63.3</v>
+      </c>
+      <c r="K6">
+        <v>81.2</v>
+      </c>
+      <c r="L6">
+        <v>84.59999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>38.5</v>
+      </c>
+      <c r="F7">
+        <v>34.4</v>
+      </c>
+      <c r="G7">
+        <v>52.1</v>
+      </c>
+      <c r="H7">
+        <v>39.3</v>
+      </c>
+      <c r="I7">
+        <v>63.9</v>
+      </c>
+      <c r="J7">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="K7">
+        <v>73</v>
+      </c>
+      <c r="L7">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>92.5</v>
+      </c>
+      <c r="C8">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="D8">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="E8">
+        <v>89.3</v>
+      </c>
+      <c r="F8">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="G8">
+        <v>63.9</v>
+      </c>
+      <c r="H8">
+        <v>86.8</v>
+      </c>
+      <c r="I8">
+        <v>65.60000000000001</v>
+      </c>
+      <c r="J8">
+        <v>50.7</v>
+      </c>
+      <c r="K8">
+        <v>42.1</v>
+      </c>
+      <c r="L8">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>20.4</v>
+      </c>
+      <c r="C9">
+        <v>61.6</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>18.6</v>
+      </c>
+      <c r="F9">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>35.2</v>
+      </c>
+      <c r="H9">
+        <v>18.3</v>
+      </c>
+      <c r="I9">
+        <v>12.7</v>
+      </c>
+      <c r="J9">
+        <v>24.1</v>
+      </c>
+      <c r="K9">
+        <v>48.4</v>
+      </c>
+      <c r="L9">
+        <v>39.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
         <v>99.7</v>
       </c>
-      <c r="E5">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="F5">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G5">
-        <v>90.2</v>
-      </c>
-      <c r="H5">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="I5">
-        <v>94.39999999999999</v>
-      </c>
-      <c r="J5">
-        <v>85.3</v>
-      </c>
-      <c r="K5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>87.7</v>
-      </c>
-      <c r="C6">
-        <v>24.9</v>
-      </c>
-      <c r="D6">
-        <v>52.90000000000001</v>
-      </c>
-      <c r="E6">
-        <v>37</v>
-      </c>
-      <c r="F6">
-        <v>37.2</v>
-      </c>
-      <c r="G6">
-        <v>49.8</v>
-      </c>
-      <c r="H6">
-        <v>41</v>
-      </c>
-      <c r="I6">
+      <c r="C10">
+        <v>90.60000000000001</v>
+      </c>
+      <c r="D10">
+        <v>97.3</v>
+      </c>
+      <c r="E10">
+        <v>80.60000000000001</v>
+      </c>
+      <c r="F10">
+        <v>54.3</v>
+      </c>
+      <c r="G10">
+        <v>69.3</v>
+      </c>
+      <c r="H10">
+        <v>81.3</v>
+      </c>
+      <c r="I10">
         <v>64.8</v>
       </c>
-      <c r="J6">
-        <v>82.19999999999999</v>
-      </c>
-      <c r="K6">
-        <v>80.10000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="C7">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="D7">
-        <v>97.2</v>
-      </c>
-      <c r="E7">
-        <v>70.5</v>
-      </c>
-      <c r="F7">
-        <v>60.3</v>
-      </c>
-      <c r="G7">
-        <v>72.7</v>
-      </c>
-      <c r="H7">
-        <v>50.2</v>
-      </c>
-      <c r="I7">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="J7">
-        <v>66.5</v>
-      </c>
-      <c r="K7">
-        <v>67.40000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="C8">
-        <v>93.5</v>
-      </c>
-      <c r="D8">
-        <v>97</v>
-      </c>
-      <c r="E8">
-        <v>80.60000000000001</v>
-      </c>
-      <c r="F8">
-        <v>51</v>
-      </c>
-      <c r="G8">
-        <v>68.5</v>
-      </c>
-      <c r="H8">
-        <v>79.80000000000001</v>
-      </c>
-      <c r="I8">
-        <v>63</v>
-      </c>
-      <c r="J8">
-        <v>53.2</v>
-      </c>
-      <c r="K8">
-        <v>50.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>92.7</v>
-      </c>
-      <c r="C9">
-        <v>95.7</v>
-      </c>
-      <c r="D9">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E9">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="F9">
-        <v>94.3</v>
-      </c>
-      <c r="G9">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="H9">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="I9">
-        <v>63.7</v>
-      </c>
-      <c r="J9">
-        <v>49.9</v>
-      </c>
-      <c r="K9">
-        <v>49.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="J10">
+        <v>52.8</v>
+      </c>
+      <c r="K10">
+        <v>28.1</v>
+      </c>
+      <c r="L10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>50.8</v>
-      </c>
-      <c r="C10">
-        <v>5.4</v>
-      </c>
-      <c r="D10">
+      <c r="B11">
+        <v>50.9</v>
+      </c>
+      <c r="C11">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="D11">
         <v>4.3</v>
       </c>
-      <c r="E10">
-        <v>58.9</v>
-      </c>
-      <c r="F10">
-        <v>26.9</v>
-      </c>
-      <c r="G10">
-        <v>38.7</v>
-      </c>
-      <c r="H10">
-        <v>50.8</v>
-      </c>
-      <c r="I10">
-        <v>28.3</v>
-      </c>
-      <c r="J10">
-        <v>40.1</v>
-      </c>
-      <c r="K10">
-        <v>41.09999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>21.1</v>
-      </c>
-      <c r="C11">
-        <v>60.3</v>
-      </c>
-      <c r="D11">
-        <v>14.1</v>
-      </c>
       <c r="E11">
-        <v>21.4</v>
+        <v>57.9</v>
       </c>
       <c r="F11">
-        <v>42</v>
+        <v>25.8</v>
       </c>
       <c r="G11">
-        <v>34</v>
+        <v>40.7</v>
       </c>
       <c r="H11">
-        <v>21.5</v>
+        <v>49.3</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>26.5</v>
       </c>
       <c r="J11">
+        <v>38.5</v>
+      </c>
+      <c r="K11">
         <v>26</v>
       </c>
-      <c r="K11">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.8</v>
+        <v>10.3</v>
       </c>
       <c r="E12">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="F12">
-        <v>21.7</v>
+        <v>22.8</v>
       </c>
       <c r="G12">
-        <v>38.1</v>
+        <v>37.4</v>
       </c>
       <c r="H12">
-        <v>18.1</v>
+        <v>21</v>
       </c>
       <c r="I12">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="K12">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="L12">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>63.7</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D13">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="E13">
-        <v>15.5</v>
+        <v>16.6</v>
       </c>
       <c r="F13">
-        <v>8.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G13">
         <v>2.6</v>
       </c>
       <c r="H13">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="I13">
-        <v>1.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2760,57 +2805,57 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2">
-        <v>0.7777777777777778</v>
+        <v>0.7</v>
       </c>
       <c r="D2">
-        <v>118.6266666666667</v>
+        <v>130.416</v>
       </c>
       <c r="E2">
-        <v>1067.64</v>
+        <v>1304.16</v>
       </c>
       <c r="F2">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
         <v>74</v>
@@ -2818,60 +2863,60 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
-        <v>131.5177777777778</v>
+        <v>123.998</v>
       </c>
       <c r="E3">
-        <v>1183.66</v>
+        <v>1239.98</v>
       </c>
       <c r="F3">
-        <v>98.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>121.4533333333333</v>
+        <v>116.536</v>
       </c>
       <c r="E4">
-        <v>1093.08</v>
+        <v>1165.36</v>
       </c>
       <c r="F4">
-        <v>96.7</v>
+        <v>98.7</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2879,112 +2924,112 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>122.5244444444444</v>
+        <v>128.512</v>
       </c>
       <c r="E5">
-        <v>1102.72</v>
+        <v>1285.12</v>
       </c>
       <c r="F5">
-        <v>85.5</v>
+        <v>97.7</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>119.26</v>
+        <v>112.298</v>
       </c>
       <c r="E6">
-        <v>1073.34</v>
+        <v>1122.98</v>
       </c>
       <c r="F6">
-        <v>83.7</v>
+        <v>84.7</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>113.3155555555555</v>
+        <v>117.76</v>
       </c>
       <c r="E7">
-        <v>1019.84</v>
+        <v>1177.6</v>
       </c>
       <c r="F7">
-        <v>63.2</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="G7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>117.6022222222222</v>
+        <v>120.762</v>
       </c>
       <c r="E8">
-        <v>1058.42</v>
+        <v>1207.62</v>
       </c>
       <c r="F8">
-        <v>52.7</v>
+        <v>42.5</v>
       </c>
       <c r="G8">
-        <v>0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
         <v>77</v>
@@ -2992,28 +3037,28 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>118.3111111111111</v>
+        <v>117.518</v>
       </c>
       <c r="E9">
-        <v>1064.8</v>
+        <v>1175.18</v>
       </c>
       <c r="F9">
-        <v>51.2</v>
+        <v>39.2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
@@ -3021,60 +3066,60 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>114.0644444444444</v>
+        <v>114.204</v>
       </c>
       <c r="E10">
-        <v>1026.58</v>
+        <v>1142.04</v>
       </c>
       <c r="F10">
-        <v>39.2</v>
+        <v>31.6</v>
       </c>
       <c r="G10">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>116.3977777777778</v>
+        <v>112.602</v>
       </c>
       <c r="E11">
-        <v>1047.58</v>
+        <v>1126.02</v>
       </c>
       <c r="F11">
-        <v>24.3</v>
+        <v>23.4</v>
       </c>
       <c r="G11">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="s">
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3082,28 +3127,28 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <v>107.6511111111111</v>
+        <v>107.186</v>
       </c>
       <c r="E12">
-        <v>968.86</v>
+        <v>1071.86</v>
       </c>
       <c r="F12">
-        <v>4.7</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="G12">
-        <v>13.3</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="s">
         <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3111,28 +3156,28 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>95.88666666666667</v>
+        <v>95.99600000000001</v>
       </c>
       <c r="E13">
-        <v>862.9800000000001</v>
+        <v>959.9600000000002</v>
       </c>
       <c r="F13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>77.8</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="H13" t="s">
         <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3150,19 +3195,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3170,19 +3215,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3190,19 +3235,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3210,19 +3255,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3230,19 +3275,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3250,19 +3295,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3270,19 +3315,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3290,16 +3335,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>100</v>
@@ -3310,16 +3355,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>101</v>
@@ -3333,16 +3378,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3353,16 +3398,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3373,16 +3418,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3393,16 +3438,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>-35</v>
+        <v>-38</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3412,325 +3457,352 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>113</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>11</v>
       </c>
       <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
         <v>14</v>
       </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>-2</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
         <v>18</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>16</v>
       </c>
-      <c r="I4">
+      <c r="I6">
         <v>7</v>
       </c>
-      <c r="J4">
+      <c r="J6">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>-2</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>-9</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>-6</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>-3</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>9</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
         <v>-2</v>
       </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>12</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <v>9</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3761,11 +3833,14 @@
       <c r="J10">
         <v>-1</v>
       </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3796,11 +3871,14 @@
       <c r="J11">
         <v>-9</v>
       </c>
-      <c r="K11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11">
+        <v>-13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -3831,11 +3909,14 @@
       <c r="J12">
         <v>-20</v>
       </c>
-      <c r="K12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12">
+        <v>-21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3866,8 +3947,11 @@
       <c r="J13">
         <v>-35</v>
       </c>
-      <c r="K13" t="s">
-        <v>99</v>
+      <c r="K13">
+        <v>-38</v>
+      </c>
+      <c r="L13" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3885,25 +3969,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3937,22 +4021,22 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
       <c r="E3">
-        <v>4</v>
+        <v>-21</v>
       </c>
       <c r="F3">
-        <v>-17</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -3963,25 +4047,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>-9</v>
-      </c>
       <c r="F4">
-        <v>11</v>
+        <v>-17</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3989,25 +4073,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4015,22 +4099,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -4041,25 +4125,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4067,25 +4151,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4093,25 +4177,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>-6</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
       <c r="G9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4119,25 +4203,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-6</v>
+      </c>
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>-2</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
       <c r="G10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4145,25 +4229,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="123">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -60,28 +60,31 @@
     <t>cman</t>
   </si>
   <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -174,6 +177,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -198,52 +204,55 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>9.4-4.6</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>9.1-4.9</t>
-  </si>
-  <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
-    <t>7.9-6.1</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>6.1-7.8</t>
-  </si>
-  <si>
-    <t>5.8-8.2</t>
-  </si>
-  <si>
-    <t>5.5-8.4</t>
-  </si>
-  <si>
-    <t>3.3-10.7</t>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>9.6-4.3</t>
+  </si>
+  <si>
+    <t>9.6-4.4</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>7.5-6.4</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>6.2-7.7</t>
+  </si>
+  <si>
+    <t>5.6-8.4</t>
+  </si>
+  <si>
+    <t>4.1-9.9</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
@@ -258,10 +267,7 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
-  </si>
-  <si>
-    <t>3-11</t>
+    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -279,21 +285,21 @@
     <t>Chris Holloway</t>
   </si>
   <si>
+    <t>Colman Closser</t>
+  </si>
+  <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
+    <t>Zachary Sparano</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
     <t>Michael  Celoni</t>
   </si>
   <si>
-    <t>Colman Closser</t>
-  </si>
-  <si>
-    <t>Chris Carbone</t>
-  </si>
-  <si>
-    <t>Zachary Sparano</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
     <t>Shane Leiphart</t>
   </si>
   <si>
@@ -309,31 +315,28 @@
     <t>Louis Rodriguez</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓11</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -364,6 +367,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -797,19 +803,19 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -821,7 +827,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
@@ -838,10 +844,10 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -879,10 +885,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -932,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -961,31 +967,31 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
         <v>16</v>
@@ -1002,31 +1008,31 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -1037,40 +1043,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1084,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -1105,10 +1111,10 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
@@ -1125,10 +1131,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1149,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -1160,37 +1166,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>13</v>
       </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
         <v>15</v>
@@ -1201,37 +1207,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="J12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
         <v>17</v>
@@ -1248,13 +1254,13 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1272,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
         <v>15</v>
@@ -1293,13 +1299,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1310,10 +1316,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3.916666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1321,13 +1327,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4.416666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1335,13 +1341,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>4.416666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1349,13 +1355,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>4.583333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1363,13 +1369,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>4.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1377,10 +1383,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4.75</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1394,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1408,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.166666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1419,10 +1425,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1433,13 +1439,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1447,13 +1453,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1461,13 +1467,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1485,16 +1491,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1502,13 +1508,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6.333333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.666666666666667</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1519,16 +1525,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1536,16 +1542,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>6.166666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="D4">
-        <v>-0.833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1553,13 +1559,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>5.666666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="D5">
-        <v>0.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1570,16 +1576,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>5.583333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D6">
-        <v>1.583333333333333</v>
+        <v>-1.75</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1587,16 +1593,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>5.416666666666667</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>-1.583333333333333</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1604,16 +1610,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D8">
-        <v>1.25</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1624,10 +1630,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1638,13 +1644,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4.666666666666667</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D10">
-        <v>0.666666666666667</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -1675,13 +1681,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>3.583333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D12">
-        <v>-0.4166666666666665</v>
+        <v>-0.75</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1692,13 +1698,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1.833333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.1666666666666667</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1716,46 +1722,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1763,28 +1769,28 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>42.7</v>
+        <v>53.5</v>
       </c>
       <c r="C2">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="D2">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="E2">
-        <v>7.8</v>
+        <v>4.8</v>
       </c>
       <c r="F2">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="G2">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1799,36 +1805,36 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>25.1</v>
+        <v>33.3</v>
       </c>
       <c r="C3">
-        <v>29.5</v>
+        <v>34.4</v>
       </c>
       <c r="D3">
-        <v>20.6</v>
+        <v>24.5</v>
       </c>
       <c r="E3">
-        <v>12.3</v>
+        <v>6.3</v>
       </c>
       <c r="F3">
-        <v>7.3</v>
+        <v>1.4</v>
       </c>
       <c r="G3">
-        <v>3.9</v>
+        <v>0.1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1843,39 +1849,39 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>17.5</v>
+        <v>10.6</v>
       </c>
       <c r="C4">
-        <v>17.9</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>25.4</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>11.8</v>
+        <v>7.8</v>
       </c>
       <c r="G4">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="H4">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="I4">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1887,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1895,34 +1901,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>12.4</v>
+        <v>2.6</v>
       </c>
       <c r="C5">
-        <v>19.4</v>
+        <v>10.4</v>
       </c>
       <c r="D5">
-        <v>20.4</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>22.1</v>
+        <v>24.7</v>
       </c>
       <c r="F5">
-        <v>13.1</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>6.9</v>
+        <v>10.1</v>
       </c>
       <c r="H5">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="I5">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="J5">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1931,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>97.7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1939,136 +1945,136 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>9.699999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="E6">
+        <v>15.9</v>
+      </c>
+      <c r="F6">
+        <v>17.4</v>
+      </c>
+      <c r="G6">
+        <v>16.4</v>
+      </c>
+      <c r="H6">
         <v>15.8</v>
       </c>
-      <c r="F6">
-        <v>20.2</v>
-      </c>
-      <c r="G6">
-        <v>17.1</v>
-      </c>
-      <c r="H6">
-        <v>15.2</v>
-      </c>
       <c r="I6">
-        <v>8.300000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="J6">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>8.9</v>
       </c>
       <c r="L6">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>84.7</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>13.2</v>
+      </c>
+      <c r="F7">
+        <v>16.2</v>
+      </c>
+      <c r="G7">
+        <v>16.1</v>
+      </c>
+      <c r="H7">
+        <v>11.7</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K7">
+        <v>6.7</v>
+      </c>
+      <c r="L7">
+        <v>5.6</v>
+      </c>
+      <c r="M7">
         <v>0.3</v>
       </c>
-      <c r="C7">
-        <v>2.2</v>
-      </c>
-      <c r="D7">
-        <v>6.1</v>
-      </c>
-      <c r="E7">
-        <v>10.8</v>
-      </c>
-      <c r="F7">
-        <v>16.3</v>
-      </c>
-      <c r="G7">
-        <v>20.4</v>
-      </c>
-      <c r="H7">
-        <v>16.8</v>
-      </c>
-      <c r="I7">
-        <v>12.9</v>
-      </c>
-      <c r="J7">
-        <v>8.5</v>
-      </c>
-      <c r="K7">
-        <v>4.7</v>
-      </c>
-      <c r="L7">
-        <v>0.9</v>
-      </c>
-      <c r="M7">
-        <v>0.1</v>
-      </c>
       <c r="N7">
-        <v>72.90000000000001</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>3.8</v>
+        <v>6.7</v>
       </c>
       <c r="F8">
-        <v>7.6</v>
+        <v>13.7</v>
       </c>
       <c r="G8">
-        <v>14.4</v>
+        <v>17.1</v>
       </c>
       <c r="H8">
-        <v>14.9</v>
+        <v>19.8</v>
       </c>
       <c r="I8">
-        <v>17.4</v>
+        <v>15.8</v>
       </c>
       <c r="J8">
-        <v>15.3</v>
+        <v>11.7</v>
       </c>
       <c r="K8">
-        <v>12.1</v>
+        <v>9.1</v>
       </c>
       <c r="L8">
-        <v>12.2</v>
+        <v>4.9</v>
       </c>
       <c r="M8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
-        <v>42.5</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2077,42 +2083,42 @@
         <v>0.1</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="E9">
-        <v>3.3</v>
+        <v>6.7</v>
       </c>
       <c r="F9">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>12.2</v>
+        <v>13.3</v>
       </c>
       <c r="H9">
-        <v>15.3</v>
+        <v>13.6</v>
       </c>
       <c r="I9">
-        <v>20.1</v>
+        <v>14.5</v>
       </c>
       <c r="J9">
-        <v>15.3</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>15.1</v>
+        <v>11.8</v>
       </c>
       <c r="L9">
-        <v>9.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="M9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="N9">
-        <v>39.2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2121,86 +2127,86 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F10">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="G10">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="H10">
-        <v>13.8</v>
+        <v>11.3</v>
       </c>
       <c r="I10">
-        <v>16.3</v>
+        <v>10.5</v>
       </c>
       <c r="J10">
-        <v>21.9</v>
+        <v>18.6</v>
       </c>
       <c r="K10">
-        <v>19.2</v>
+        <v>23.4</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N10">
-        <v>31.6</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G11">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>10.7</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="J11">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="K11">
-        <v>23.2</v>
+        <v>20.2</v>
       </c>
       <c r="L11">
-        <v>22.2</v>
+        <v>25.8</v>
       </c>
       <c r="M11">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="N11">
-        <v>23.4</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2212,34 +2218,34 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F12">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="G12">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
       <c r="H12">
-        <v>6.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I12">
-        <v>8.800000000000001</v>
+        <v>14.7</v>
       </c>
       <c r="J12">
-        <v>17</v>
+        <v>17.7</v>
       </c>
       <c r="K12">
-        <v>21.9</v>
+        <v>18.4</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>25.1</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N12">
-        <v>9.699999999999999</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2268,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L13">
-        <v>4.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M13">
-        <v>93.90000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2293,500 +2299,539 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C2">
-        <v>4.399999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="D2">
-        <v>79.90000000000001</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="E2">
-        <v>92.80000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="F2">
-        <v>86.5</v>
+        <v>87</v>
       </c>
       <c r="G2">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="H2">
-        <v>84.3</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="I2">
-        <v>95.09999999999999</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="J2">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="K2">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="L2">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>63.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C3">
-        <v>92.10000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D3">
-        <v>46.40000000000001</v>
+        <v>62.6</v>
       </c>
       <c r="E3">
-        <v>58.59999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F3">
-        <v>84.5</v>
+        <v>86.2</v>
       </c>
       <c r="G3">
-        <v>72.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="H3">
-        <v>87.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I3">
-        <v>88.8</v>
+        <v>96.2</v>
       </c>
       <c r="J3">
-        <v>93.89999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="K3">
+        <v>98.5</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>63.1</v>
+      </c>
+      <c r="C4">
+        <v>90.7</v>
+      </c>
+      <c r="D4">
+        <v>45.1</v>
+      </c>
+      <c r="E4">
+        <v>56.39999999999999</v>
+      </c>
+      <c r="F4">
+        <v>84.89999999999999</v>
+      </c>
+      <c r="G4">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="H4">
+        <v>88</v>
+      </c>
+      <c r="I4">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="J4">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="K4">
         <v>99.2</v>
       </c>
-      <c r="L3">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="C4">
-        <v>63.5</v>
-      </c>
-      <c r="D4">
-        <v>63.4</v>
-      </c>
-      <c r="E4">
-        <v>67.30000000000001</v>
-      </c>
-      <c r="F4">
-        <v>86.3</v>
-      </c>
-      <c r="G4">
-        <v>75</v>
-      </c>
-      <c r="H4">
-        <v>85.8</v>
-      </c>
-      <c r="I4">
-        <v>95.7</v>
-      </c>
-      <c r="J4">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="K4">
-        <v>98.3</v>
-      </c>
       <c r="L4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>98.5</v>
+      </c>
+      <c r="M4">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>97.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C5">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="E5">
         <v>98.59999999999999</v>
       </c>
       <c r="F5">
-        <v>99.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="G5">
-        <v>91.10000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H5">
         <v>96.09999999999999</v>
       </c>
       <c r="I5">
-        <v>93.30000000000001</v>
+        <v>94</v>
       </c>
       <c r="J5">
-        <v>88.5</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K5">
-        <v>95.89999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="L5">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>92.2</v>
+      </c>
+      <c r="M5">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>72.8</v>
+        <v>78.2</v>
       </c>
       <c r="C6">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E6">
-        <v>71.59999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="F6">
-        <v>59.8</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="G6">
-        <v>69.59999999999999</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="H6">
-        <v>49.5</v>
+        <v>47.7</v>
       </c>
       <c r="I6">
-        <v>81.8</v>
+        <v>78.8</v>
       </c>
       <c r="J6">
-        <v>63.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="K6">
-        <v>81.2</v>
+        <v>83.8</v>
       </c>
       <c r="L6">
-        <v>84.59999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>68</v>
+      </c>
+      <c r="M6">
+        <v>75.09999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>91.3</v>
+      </c>
+      <c r="C7">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>98</v>
+      </c>
+      <c r="E7">
+        <v>89.8</v>
+      </c>
+      <c r="F7">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="G7">
+        <v>66.2</v>
+      </c>
+      <c r="H7">
+        <v>85.5</v>
+      </c>
+      <c r="I7">
+        <v>63.7</v>
+      </c>
+      <c r="J7">
+        <v>52.6</v>
+      </c>
+      <c r="K7">
+        <v>40.6</v>
+      </c>
+      <c r="L7">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="M7">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>90</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <v>38.5</v>
-      </c>
-      <c r="F7">
-        <v>34.4</v>
-      </c>
-      <c r="G7">
+      <c r="B8">
+        <v>85.7</v>
+      </c>
+      <c r="C8">
+        <v>26.8</v>
+      </c>
+      <c r="D8">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>41.5</v>
+      </c>
+      <c r="F8">
+        <v>34.1</v>
+      </c>
+      <c r="G8">
+        <v>51.1</v>
+      </c>
+      <c r="H8">
+        <v>43.9</v>
+      </c>
+      <c r="I8">
+        <v>63.7</v>
+      </c>
+      <c r="J8">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="K8">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="L8">
+        <v>60.3</v>
+      </c>
+      <c r="M8">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <v>52.1</v>
       </c>
-      <c r="H7">
-        <v>39.3</v>
-      </c>
-      <c r="I7">
-        <v>63.9</v>
-      </c>
-      <c r="J7">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="K7">
-        <v>73</v>
-      </c>
-      <c r="L7">
-        <v>73.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>92.5</v>
-      </c>
-      <c r="C8">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="D8">
+      <c r="C9">
+        <v>6.2</v>
+      </c>
+      <c r="D9">
+        <v>3.8</v>
+      </c>
+      <c r="E9">
+        <v>56.3</v>
+      </c>
+      <c r="F9">
+        <v>26.2</v>
+      </c>
+      <c r="G9">
+        <v>42</v>
+      </c>
+      <c r="H9">
+        <v>50.5</v>
+      </c>
+      <c r="I9">
+        <v>28.3</v>
+      </c>
+      <c r="J9">
+        <v>38.9</v>
+      </c>
+      <c r="K9">
+        <v>26.5</v>
+      </c>
+      <c r="L9">
+        <v>47.5</v>
+      </c>
+      <c r="M9">
+        <v>47.09999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1.5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>10.2</v>
+      </c>
+      <c r="E10">
+        <v>8.9</v>
+      </c>
+      <c r="F10">
+        <v>26.5</v>
+      </c>
+      <c r="G10">
+        <v>37.4</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>11.5</v>
+      </c>
+      <c r="J10">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="K10">
+        <v>10.1</v>
+      </c>
+      <c r="L10">
+        <v>22.1</v>
+      </c>
+      <c r="M10">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C11">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D11">
         <v>97.39999999999999</v>
       </c>
-      <c r="E8">
-        <v>89.3</v>
-      </c>
-      <c r="F8">
-        <v>95.39999999999999</v>
-      </c>
-      <c r="G8">
-        <v>63.9</v>
-      </c>
-      <c r="H8">
-        <v>86.8</v>
-      </c>
-      <c r="I8">
-        <v>65.60000000000001</v>
-      </c>
-      <c r="J8">
-        <v>50.7</v>
-      </c>
-      <c r="K8">
-        <v>42.1</v>
-      </c>
-      <c r="L8">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
+      <c r="E11">
+        <v>79.2</v>
+      </c>
+      <c r="F11">
+        <v>53.40000000000001</v>
+      </c>
+      <c r="G11">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="H11">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="I11">
+        <v>63.1</v>
+      </c>
+      <c r="J11">
+        <v>54.1</v>
+      </c>
+      <c r="K11">
+        <v>29.2</v>
+      </c>
+      <c r="L11">
+        <v>23.6</v>
+      </c>
+      <c r="M11">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>20.4</v>
-      </c>
-      <c r="C9">
-        <v>61.6</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>18.6</v>
-      </c>
-      <c r="F9">
-        <v>41</v>
-      </c>
-      <c r="G9">
-        <v>35.2</v>
-      </c>
-      <c r="H9">
-        <v>18.3</v>
-      </c>
-      <c r="I9">
-        <v>12.7</v>
-      </c>
-      <c r="J9">
-        <v>24.1</v>
-      </c>
-      <c r="K9">
-        <v>48.4</v>
-      </c>
-      <c r="L9">
-        <v>39.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>99.7</v>
-      </c>
-      <c r="C10">
-        <v>90.60000000000001</v>
-      </c>
-      <c r="D10">
-        <v>97.3</v>
-      </c>
-      <c r="E10">
-        <v>80.60000000000001</v>
-      </c>
-      <c r="F10">
-        <v>54.3</v>
-      </c>
-      <c r="G10">
-        <v>69.3</v>
-      </c>
-      <c r="H10">
-        <v>81.3</v>
-      </c>
-      <c r="I10">
-        <v>64.8</v>
-      </c>
-      <c r="J10">
-        <v>52.8</v>
-      </c>
-      <c r="K10">
-        <v>28.1</v>
-      </c>
-      <c r="L10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>50.9</v>
-      </c>
-      <c r="C11">
-        <v>6.600000000000001</v>
-      </c>
-      <c r="D11">
-        <v>4.3</v>
-      </c>
-      <c r="E11">
-        <v>57.9</v>
-      </c>
-      <c r="F11">
-        <v>25.8</v>
-      </c>
-      <c r="G11">
-        <v>40.7</v>
-      </c>
-      <c r="H11">
-        <v>49.3</v>
-      </c>
-      <c r="I11">
-        <v>26.5</v>
-      </c>
-      <c r="J11">
-        <v>38.5</v>
-      </c>
-      <c r="K11">
-        <v>26</v>
-      </c>
-      <c r="L11">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B12">
-        <v>1.2</v>
+        <v>19.8</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>58.3</v>
       </c>
       <c r="D12">
-        <v>10.3</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>9.6</v>
+        <v>21.2</v>
       </c>
       <c r="F12">
-        <v>22.8</v>
+        <v>42.3</v>
       </c>
       <c r="G12">
-        <v>37.4</v>
+        <v>32.7</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="I12">
-        <v>10.9</v>
+        <v>15.2</v>
       </c>
       <c r="J12">
-        <v>5.7</v>
+        <v>24.4</v>
       </c>
       <c r="K12">
-        <v>8.300000000000001</v>
+        <v>46</v>
       </c>
       <c r="L12">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>23.5</v>
+      </c>
+      <c r="M12">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C13">
-        <v>64.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>40.1</v>
       </c>
       <c r="E13">
-        <v>16.6</v>
+        <v>15.5</v>
       </c>
       <c r="F13">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I13">
-        <v>0.8999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.3</v>
+      </c>
+      <c r="L13">
         <v>0.2</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="M13">
         <v>0</v>
       </c>
     </row>
@@ -2805,31 +2850,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2837,86 +2882,86 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D2">
-        <v>130.416</v>
+        <v>125.2909090909091</v>
       </c>
       <c r="E2">
-        <v>1304.16</v>
+        <v>1378.2</v>
       </c>
       <c r="F2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D3">
-        <v>123.998</v>
+        <v>117.42</v>
       </c>
       <c r="E3">
-        <v>1239.98</v>
+        <v>1291.62</v>
       </c>
       <c r="F3">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D4">
-        <v>116.536</v>
+        <v>122.0654545454545</v>
       </c>
       <c r="E4">
-        <v>1165.36</v>
+        <v>1342.72</v>
       </c>
       <c r="F4">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2924,28 +2969,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D5">
-        <v>128.512</v>
+        <v>124.8927272727273</v>
       </c>
       <c r="E5">
-        <v>1285.12</v>
+        <v>1373.82</v>
       </c>
       <c r="F5">
-        <v>97.7</v>
+        <v>93</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2953,202 +2998,202 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D6">
-        <v>112.298</v>
+        <v>107.8636363636364</v>
       </c>
       <c r="E6">
-        <v>1122.98</v>
+        <v>1186.5</v>
       </c>
       <c r="F6">
-        <v>84.7</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D7">
-        <v>117.76</v>
+        <v>121.4127272727273</v>
       </c>
       <c r="E7">
-        <v>1177.6</v>
+        <v>1335.54</v>
       </c>
       <c r="F7">
-        <v>72.89999999999999</v>
+        <v>62.7</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D8">
+        <v>116.3563636363636</v>
+      </c>
+      <c r="E8">
+        <v>1279.92</v>
+      </c>
+      <c r="F8">
+        <v>58.09999999999999</v>
+      </c>
+      <c r="G8">
         <v>0.4</v>
       </c>
-      <c r="D8">
-        <v>120.762</v>
-      </c>
-      <c r="E8">
-        <v>1207.62</v>
-      </c>
-      <c r="F8">
-        <v>42.5</v>
-      </c>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D9">
-        <v>117.518</v>
+        <v>116.1909090909091</v>
       </c>
       <c r="E9">
-        <v>1175.18</v>
+        <v>1278.1</v>
       </c>
       <c r="F9">
-        <v>39.2</v>
+        <v>47</v>
       </c>
       <c r="G9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D10">
-        <v>114.204</v>
+        <v>107.7418181818182</v>
       </c>
       <c r="E10">
-        <v>1142.04</v>
+        <v>1185.16</v>
       </c>
       <c r="F10">
-        <v>31.6</v>
+        <v>27.7</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D11">
-        <v>112.602</v>
+        <v>114.0309090909091</v>
       </c>
       <c r="E11">
-        <v>1126.02</v>
+        <v>1254.34</v>
       </c>
       <c r="F11">
-        <v>23.4</v>
+        <v>20.9</v>
       </c>
       <c r="G11">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D12">
-        <v>107.186</v>
+        <v>114.7909090909091</v>
       </c>
       <c r="E12">
-        <v>1071.86</v>
+        <v>1262.7</v>
       </c>
       <c r="F12">
-        <v>9.700000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="G12">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3156,28 +3201,28 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D13">
-        <v>95.99600000000001</v>
+        <v>98.49272727272728</v>
       </c>
       <c r="E13">
-        <v>959.9600000000002</v>
+        <v>1083.42</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>93.89999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3195,19 +3240,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3218,16 +3263,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3238,16 +3283,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3255,19 +3300,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3275,19 +3320,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3295,19 +3340,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3315,19 +3360,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3335,19 +3380,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3358,16 +3403,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3378,16 +3423,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3398,16 +3443,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11">
         <v>-13</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3418,16 +3463,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>-21</v>
+        <v>-32</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3438,16 +3483,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>-38</v>
+        <v>-34</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3457,48 +3502,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>115</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3532,11 +3580,14 @@
       <c r="K2">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3570,201 +3621,219 @@
       <c r="K3">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>-9</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <v>-3</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>-2</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
         <v>8</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
-      <c r="D7">
-        <v>-9</v>
-      </c>
-      <c r="E7">
-        <v>-6</v>
-      </c>
-      <c r="F7">
-        <v>-3</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>9</v>
-      </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
       </c>
       <c r="G8">
         <v>9</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3798,11 +3867,14 @@
       <c r="K9">
         <v>-2</v>
       </c>
-      <c r="L9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3836,11 +3908,14 @@
       <c r="K10">
         <v>-7</v>
       </c>
-      <c r="L10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <v>-3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3874,11 +3949,14 @@
       <c r="K11">
         <v>-13</v>
       </c>
-      <c r="L11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11">
+        <v>-13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -3912,11 +3990,14 @@
       <c r="K12">
         <v>-21</v>
       </c>
-      <c r="L12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12">
+        <v>-32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3950,8 +4031,11 @@
       <c r="K13">
         <v>-38</v>
       </c>
-      <c r="L13" t="s">
-        <v>97</v>
+      <c r="L13">
+        <v>-34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3961,7 +4045,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3969,25 +4053,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4021,25 +4105,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>-21</v>
+        <v>-34</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4047,25 +4131,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>-13</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
         <v>4</v>
-      </c>
-      <c r="F4">
-        <v>-17</v>
-      </c>
-      <c r="G4">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4073,25 +4157,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>-21</v>
+      </c>
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>-9</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
       <c r="G5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4099,25 +4183,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>-8</v>
-      </c>
       <c r="F6">
-        <v>8</v>
+        <v>-17</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4125,25 +4209,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4151,25 +4235,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>-8</v>
+      </c>
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4180,22 +4264,22 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4203,22 +4287,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
       <c r="E10">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -4229,25 +4313,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>-3</v>
+      </c>
+      <c r="F12">
         <v>7</v>
       </c>
-      <c r="E11">
-        <v>-2</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="131">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -180,6 +181,63 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
+    <t>PJ Vogric</t>
+  </si>
+  <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
+    <t>Shane Leiphart</t>
+  </si>
+  <si>
+    <t>Eli Brinker</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>Colman Closser</t>
+  </si>
+  <si>
+    <t>Zachary Sparano</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -222,19 +280,16 @@
     <t>3-8</t>
   </si>
   <si>
-    <t>9.6-4.3</t>
-  </si>
-  <si>
     <t>9.6-4.4</t>
   </si>
   <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>7.5-6.4</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
+    <t>8.6-5.3</t>
+  </si>
+  <si>
+    <t>7.6-6.4</t>
+  </si>
+  <si>
+    <t>7.4-6.5</t>
   </si>
   <si>
     <t>6.6-7.4</t>
@@ -243,12 +298,15 @@
     <t>6.4-7.6</t>
   </si>
   <si>
-    <t>6.2-7.7</t>
+    <t>6.2-7.8</t>
   </si>
   <si>
     <t>5.6-8.4</t>
   </si>
   <si>
+    <t>5.5-8.5</t>
+  </si>
+  <si>
     <t>4.1-9.9</t>
   </si>
   <si>
@@ -267,6 +325,9 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
@@ -277,42 +338,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Robbie Wilston</t>
-  </si>
-  <si>
-    <t>Chris Holloway</t>
-  </si>
-  <si>
-    <t>Colman Closser</t>
-  </si>
-  <si>
-    <t>Chris Carbone</t>
-  </si>
-  <si>
-    <t>Zachary Sparano</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Michael  Celoni</t>
-  </si>
-  <si>
-    <t>Shane Leiphart</t>
-  </si>
-  <si>
-    <t>Eli Brinker</t>
-  </si>
-  <si>
-    <t>PJ Vogric</t>
-  </si>
-  <si>
-    <t>Marvin Ta</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
   </si>
   <si>
     <t>↓2</t>
@@ -1289,6 +1314,328 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>-35</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>-34</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>-13</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>-21</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>-17</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>-9</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>-8</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-11</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>-3</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
@@ -1769,25 +2116,25 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>53.5</v>
+        <v>51.6</v>
       </c>
       <c r="C2">
-        <v>25.6</v>
+        <v>24.1</v>
       </c>
       <c r="D2">
-        <v>13.8</v>
+        <v>16.1</v>
       </c>
       <c r="E2">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="F2">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1813,19 +2160,19 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>33.3</v>
+        <v>33.7</v>
       </c>
       <c r="C3">
         <v>34.4</v>
       </c>
       <c r="D3">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="E3">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="F3">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -1857,31 +2204,31 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>10.6</v>
+        <v>11.4</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>27.1</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>17.8</v>
       </c>
       <c r="F4">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G4">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H4">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I4">
         <v>0.7</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1893,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1901,34 +2248,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="C5">
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="E5">
-        <v>24.7</v>
+        <v>26.1</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>18.1</v>
       </c>
       <c r="G5">
-        <v>10.1</v>
+        <v>11.7</v>
       </c>
       <c r="H5">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="J5">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1937,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>93</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1945,43 +2292,43 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D6">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="E6">
-        <v>15.9</v>
+        <v>17.9</v>
       </c>
       <c r="F6">
-        <v>17.4</v>
+        <v>21.5</v>
       </c>
       <c r="G6">
-        <v>16.4</v>
+        <v>14.1</v>
       </c>
       <c r="H6">
-        <v>15.8</v>
+        <v>16.3</v>
       </c>
       <c r="I6">
-        <v>11.6</v>
+        <v>10.1</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="K6">
-        <v>8.9</v>
+        <v>6.5</v>
       </c>
       <c r="L6">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
-        <v>71.90000000000001</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1992,40 +2339,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="E7">
-        <v>13.2</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>16.2</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="H7">
-        <v>11.7</v>
+        <v>13.8</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="J7">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K7">
         <v>6.7</v>
       </c>
       <c r="L7">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="M7">
         <v>0.3</v>
       </c>
       <c r="N7">
-        <v>62.7</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2039,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="E8">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="F8">
-        <v>13.7</v>
+        <v>11.3</v>
       </c>
       <c r="G8">
-        <v>17.1</v>
+        <v>20.3</v>
       </c>
       <c r="H8">
-        <v>19.8</v>
+        <v>17.3</v>
       </c>
       <c r="I8">
-        <v>15.8</v>
+        <v>17</v>
       </c>
       <c r="J8">
-        <v>11.7</v>
+        <v>13.4</v>
       </c>
       <c r="K8">
-        <v>9.1</v>
+        <v>6.8</v>
       </c>
       <c r="L8">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="M8">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="N8">
-        <v>58.1</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2080,40 +2427,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="E9">
+        <v>6.3</v>
+      </c>
+      <c r="F9">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G9">
+        <v>14.7</v>
+      </c>
+      <c r="H9">
+        <v>13.8</v>
+      </c>
+      <c r="I9">
+        <v>15.8</v>
+      </c>
+      <c r="J9">
+        <v>17.2</v>
+      </c>
+      <c r="K9">
+        <v>11.4</v>
+      </c>
+      <c r="L9">
         <v>6.7</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>13.3</v>
-      </c>
-      <c r="H9">
-        <v>13.6</v>
-      </c>
-      <c r="I9">
-        <v>14.5</v>
-      </c>
-      <c r="J9">
-        <v>17</v>
-      </c>
-      <c r="K9">
-        <v>11.8</v>
-      </c>
-      <c r="L9">
-        <v>8.9</v>
       </c>
       <c r="M9">
         <v>0.8</v>
       </c>
       <c r="N9">
-        <v>47</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2127,42 +2474,42 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E10">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="F10">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="G10">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="H10">
-        <v>11.3</v>
+        <v>14</v>
       </c>
       <c r="I10">
-        <v>10.5</v>
+        <v>11.9</v>
       </c>
       <c r="J10">
-        <v>18.6</v>
+        <v>17</v>
       </c>
       <c r="K10">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="L10">
-        <v>19</v>
+        <v>20.4</v>
       </c>
       <c r="M10">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="N10">
-        <v>27.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2171,42 +2518,42 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F11">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="I11">
-        <v>12.3</v>
+        <v>13.5</v>
       </c>
       <c r="J11">
-        <v>17</v>
+        <v>18.9</v>
       </c>
       <c r="K11">
-        <v>20.2</v>
+        <v>21.4</v>
       </c>
       <c r="L11">
-        <v>25.8</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N11">
-        <v>20.9</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2218,34 +2565,34 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="G12">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="H12">
-        <v>9.300000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="I12">
-        <v>14.7</v>
+        <v>11.6</v>
       </c>
       <c r="J12">
+        <v>16.3</v>
+      </c>
+      <c r="K12">
+        <v>20.2</v>
+      </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>4.2</v>
+      </c>
+      <c r="N12">
         <v>17.7</v>
-      </c>
-      <c r="K12">
-        <v>18.4</v>
-      </c>
-      <c r="L12">
-        <v>25.1</v>
-      </c>
-      <c r="M12">
-        <v>4.5</v>
-      </c>
-      <c r="N12">
-        <v>19.6</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2274,19 +2621,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="K13">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L13">
-        <v>8.300000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="M13">
-        <v>89.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2348,34 +2695,34 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12.2</v>
+        <v>12.8</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D2">
-        <v>80.10000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E2">
-        <v>92.7</v>
+        <v>93.2</v>
       </c>
       <c r="F2">
-        <v>87</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G2">
-        <v>90.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="H2">
-        <v>82.89999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I2">
-        <v>95.19999999999999</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="J2">
-        <v>98.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="K2">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -2389,34 +2736,34 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C3">
-        <v>66.40000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="D3">
-        <v>62.6</v>
+        <v>63.9</v>
       </c>
       <c r="E3">
-        <v>70.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F3">
         <v>86.2</v>
       </c>
       <c r="G3">
-        <v>75.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="H3">
-        <v>83.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="I3">
-        <v>96.2</v>
+        <v>95.7</v>
       </c>
       <c r="J3">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="K3">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2430,37 +2777,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>63.1</v>
+        <v>62.2</v>
       </c>
       <c r="C4">
-        <v>90.7</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="D4">
-        <v>45.1</v>
+        <v>44.5</v>
       </c>
       <c r="E4">
-        <v>56.39999999999999</v>
+        <v>60.6</v>
       </c>
       <c r="F4">
-        <v>84.89999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="G4">
-        <v>71.89999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="H4">
-        <v>88</v>
+        <v>88.7</v>
       </c>
       <c r="I4">
-        <v>89.09999999999999</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="J4">
-        <v>94.09999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="K4">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="L4">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="M4">
         <v>99.09999999999999</v>
@@ -2471,40 +2818,40 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>96.09999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E5">
+        <v>98.3</v>
+      </c>
+      <c r="F5">
         <v>99.2</v>
       </c>
-      <c r="E5">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F5">
-        <v>98.7</v>
-      </c>
       <c r="G5">
-        <v>92.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="H5">
-        <v>96.09999999999999</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="I5">
-        <v>94</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="J5">
-        <v>86.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K5">
-        <v>96.89999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="L5">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="M5">
         <v>92.2</v>
-      </c>
-      <c r="M5">
-        <v>93.5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2512,40 +2859,40 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>78.2</v>
+        <v>76.3</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>97.2</v>
       </c>
       <c r="D6">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="E6">
-        <v>69.3</v>
+        <v>67.2</v>
       </c>
       <c r="F6">
-        <v>58.59999999999999</v>
+        <v>56.89999999999999</v>
       </c>
       <c r="G6">
-        <v>70.39999999999999</v>
+        <v>69.39999999999999</v>
       </c>
       <c r="H6">
-        <v>47.7</v>
+        <v>48.7</v>
       </c>
       <c r="I6">
-        <v>78.8</v>
+        <v>79</v>
       </c>
       <c r="J6">
-        <v>64.09999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="K6">
-        <v>83.8</v>
+        <v>83.5</v>
       </c>
       <c r="L6">
-        <v>68</v>
+        <v>67.10000000000001</v>
       </c>
       <c r="M6">
-        <v>75.09999999999999</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2553,40 +2900,40 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>91.3</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="D7">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="E7">
-        <v>89.8</v>
+        <v>91.2</v>
       </c>
       <c r="F7">
-        <v>94.09999999999999</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="G7">
-        <v>66.2</v>
+        <v>67.7</v>
       </c>
       <c r="H7">
         <v>85.5</v>
       </c>
       <c r="I7">
-        <v>63.7</v>
+        <v>60.5</v>
       </c>
       <c r="J7">
-        <v>52.6</v>
+        <v>51.1</v>
       </c>
       <c r="K7">
-        <v>40.6</v>
+        <v>43.8</v>
       </c>
       <c r="L7">
-        <v>64.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="M7">
-        <v>63.5</v>
+        <v>64.60000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2594,40 +2941,40 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>85.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="C8">
-        <v>26.8</v>
+        <v>24.1</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>50.5</v>
       </c>
       <c r="E8">
-        <v>41.5</v>
+        <v>39.5</v>
       </c>
       <c r="F8">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="G8">
-        <v>51.1</v>
+        <v>52.1</v>
       </c>
       <c r="H8">
-        <v>43.9</v>
+        <v>42.3</v>
       </c>
       <c r="I8">
-        <v>63.7</v>
+        <v>64.5</v>
       </c>
       <c r="J8">
-        <v>81.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K8">
-        <v>69.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="L8">
-        <v>60.3</v>
+        <v>58.4</v>
       </c>
       <c r="M8">
-        <v>58.2</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2638,37 +2985,37 @@
         <v>52.1</v>
       </c>
       <c r="C9">
-        <v>6.2</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="D9">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="E9">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="F9">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="G9">
-        <v>42</v>
+        <v>39.6</v>
       </c>
       <c r="H9">
-        <v>50.5</v>
+        <v>47.9</v>
       </c>
       <c r="I9">
-        <v>28.3</v>
+        <v>25.6</v>
       </c>
       <c r="J9">
-        <v>38.9</v>
+        <v>41.9</v>
       </c>
       <c r="K9">
-        <v>26.5</v>
+        <v>23.9</v>
       </c>
       <c r="L9">
-        <v>47.5</v>
+        <v>47.2</v>
       </c>
       <c r="M9">
-        <v>47.09999999999999</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2676,122 +3023,122 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>1.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.2</v>
+        <v>11.6</v>
       </c>
       <c r="E10">
-        <v>8.9</v>
+        <v>10.1</v>
       </c>
       <c r="F10">
-        <v>26.5</v>
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>37.4</v>
+        <v>36.4</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10">
         <v>11.5</v>
       </c>
       <c r="J10">
-        <v>5.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="K10">
-        <v>10.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L10">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="M10">
-        <v>27.3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>99.90000000000001</v>
+        <v>21.6</v>
       </c>
       <c r="C11">
-        <v>91.40000000000001</v>
+        <v>60.7</v>
       </c>
       <c r="D11">
-        <v>97.39999999999999</v>
+        <v>16.3</v>
       </c>
       <c r="E11">
-        <v>79.2</v>
+        <v>20.8</v>
       </c>
       <c r="F11">
-        <v>53.40000000000001</v>
+        <v>41.5</v>
       </c>
       <c r="G11">
-        <v>67.40000000000001</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>80.80000000000001</v>
+        <v>21.9</v>
       </c>
       <c r="I11">
-        <v>63.1</v>
+        <v>14.7</v>
       </c>
       <c r="J11">
-        <v>54.1</v>
+        <v>26.7</v>
       </c>
       <c r="K11">
-        <v>29.2</v>
+        <v>46.1</v>
       </c>
       <c r="L11">
-        <v>23.6</v>
+        <v>22.6</v>
       </c>
       <c r="M11">
-        <v>18.5</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>19.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C12">
-        <v>58.3</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>97.3</v>
       </c>
       <c r="E12">
-        <v>21.2</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="F12">
-        <v>42.3</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="G12">
-        <v>32.7</v>
+        <v>66.3</v>
       </c>
       <c r="H12">
-        <v>21.2</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="I12">
-        <v>15.2</v>
+        <v>67.7</v>
       </c>
       <c r="J12">
-        <v>24.4</v>
+        <v>50.6</v>
       </c>
       <c r="K12">
-        <v>46</v>
+        <v>28.3</v>
       </c>
       <c r="L12">
-        <v>23.5</v>
+        <v>22.3</v>
       </c>
       <c r="M12">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2799,37 +3146,37 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>66</v>
+        <v>62.6</v>
       </c>
       <c r="D13">
-        <v>40.1</v>
+        <v>38.8</v>
       </c>
       <c r="E13">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="G13">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I13">
-        <v>1.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>0.3</v>
-      </c>
-      <c r="L13">
-        <v>0.2</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2849,380 +3196,377 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="D2">
+        <v>116.19</v>
+      </c>
+      <c r="E2">
+        <v>0.455</v>
+      </c>
+      <c r="F2">
+        <v>121.24</v>
+      </c>
+      <c r="G2">
+        <v>0.576</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="C2">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D2">
-        <v>125.2909090909091</v>
-      </c>
-      <c r="E2">
-        <v>1378.2</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D3">
+        <v>125.29</v>
+      </c>
+      <c r="E3">
+        <v>0.727</v>
+      </c>
+      <c r="F3">
+        <v>119.56</v>
+      </c>
+      <c r="G3">
+        <v>0.576</v>
+      </c>
+      <c r="H3">
+        <v>10.3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>107.74</v>
+      </c>
+      <c r="E4">
+        <v>0.455</v>
+      </c>
+      <c r="F4">
+        <v>119.42</v>
+      </c>
+      <c r="G4">
+        <v>0.485</v>
+      </c>
+      <c r="H4">
+        <v>10.3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>124.89</v>
+      </c>
+      <c r="E5">
+        <v>0.545</v>
+      </c>
+      <c r="F5">
+        <v>121.18</v>
+      </c>
+      <c r="G5">
+        <v>0.606</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>122.07</v>
+      </c>
+      <c r="E6">
+        <v>0.636</v>
+      </c>
+      <c r="F6">
+        <v>118.02</v>
+      </c>
+      <c r="G6">
+        <v>0.485</v>
+      </c>
+      <c r="H6">
+        <v>7.7</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <v>121.41</v>
+      </c>
+      <c r="E7">
+        <v>0.455</v>
+      </c>
+      <c r="F7">
+        <v>115.33</v>
+      </c>
+      <c r="G7">
+        <v>0.515</v>
+      </c>
+      <c r="H7">
+        <v>2.7</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>114.03</v>
+      </c>
+      <c r="E8">
+        <v>0.364</v>
+      </c>
+      <c r="F8">
+        <v>113</v>
+      </c>
+      <c r="G8">
+        <v>0.455</v>
+      </c>
+      <c r="H8">
+        <v>-3.3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="D9">
+        <v>117.42</v>
+      </c>
+      <c r="E9">
+        <v>0.727</v>
+      </c>
+      <c r="F9">
+        <v>113.32</v>
+      </c>
+      <c r="G9">
+        <v>0.485</v>
+      </c>
+      <c r="H9">
+        <v>-5.7</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>98.48999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.273</v>
+      </c>
+      <c r="F10">
+        <v>113.88</v>
+      </c>
+      <c r="G10">
+        <v>0.576</v>
+      </c>
+      <c r="H10">
+        <v>-7</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D3">
-        <v>117.42</v>
-      </c>
-      <c r="E3">
-        <v>1291.62</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D4">
-        <v>122.0654545454545</v>
-      </c>
-      <c r="E4">
-        <v>1342.72</v>
-      </c>
-      <c r="F4">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D5">
-        <v>124.8927272727273</v>
-      </c>
-      <c r="E5">
-        <v>1373.82</v>
-      </c>
-      <c r="F5">
-        <v>93</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D11">
+        <v>107.86</v>
+      </c>
+      <c r="E11">
+        <v>0.545</v>
+      </c>
+      <c r="F11">
+        <v>109.1</v>
+      </c>
+      <c r="G11">
+        <v>0.333</v>
+      </c>
+      <c r="H11">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>69</v>
       </c>
-      <c r="I5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="D12">
+        <v>116.36</v>
+      </c>
+      <c r="E12">
+        <v>0.455</v>
+      </c>
+      <c r="F12">
+        <v>112.6</v>
+      </c>
+      <c r="G12">
+        <v>0.455</v>
+      </c>
+      <c r="H12">
+        <v>-10.3</v>
+      </c>
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D6">
-        <v>107.8636363636364</v>
-      </c>
-      <c r="E6">
-        <v>1186.5</v>
-      </c>
-      <c r="F6">
-        <v>71.89999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.2</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D7">
-        <v>121.4127272727273</v>
-      </c>
-      <c r="E7">
-        <v>1335.54</v>
-      </c>
-      <c r="F7">
-        <v>62.7</v>
-      </c>
-      <c r="G7">
-        <v>0.3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D8">
-        <v>116.3563636363636</v>
-      </c>
-      <c r="E8">
-        <v>1279.92</v>
-      </c>
-      <c r="F8">
-        <v>58.09999999999999</v>
-      </c>
-      <c r="G8">
-        <v>0.4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D9">
-        <v>116.1909090909091</v>
-      </c>
-      <c r="E9">
-        <v>1278.1</v>
-      </c>
-      <c r="F9">
-        <v>47</v>
-      </c>
-      <c r="G9">
-        <v>0.8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D10">
-        <v>107.7418181818182</v>
-      </c>
-      <c r="E10">
-        <v>1185.16</v>
-      </c>
-      <c r="F10">
-        <v>27.7</v>
-      </c>
-      <c r="G10">
-        <v>0.8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D11">
-        <v>114.0309090909091</v>
-      </c>
-      <c r="E11">
-        <v>1254.34</v>
-      </c>
-      <c r="F11">
-        <v>20.9</v>
-      </c>
-      <c r="G11">
-        <v>3.8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D12">
-        <v>114.7909090909091</v>
-      </c>
-      <c r="E12">
-        <v>1262.7</v>
-      </c>
-      <c r="F12">
-        <v>19.6</v>
-      </c>
-      <c r="G12">
-        <v>4.5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13">
-        <v>0.2727272727272727</v>
-      </c>
       <c r="D13">
-        <v>98.49272727272728</v>
+        <v>114.79</v>
       </c>
       <c r="E13">
-        <v>1083.42</v>
+        <v>0.364</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>109.88</v>
       </c>
       <c r="G13">
-        <v>89.2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s">
-        <v>81</v>
+        <v>0.455</v>
+      </c>
+      <c r="H13">
+        <v>-15</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3231,6 +3575,396 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D2">
+        <v>125.2909090909091</v>
+      </c>
+      <c r="E2">
+        <v>1378.2</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D3">
+        <v>117.42</v>
+      </c>
+      <c r="E3">
+        <v>1291.62</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D4">
+        <v>122.0654545454545</v>
+      </c>
+      <c r="E4">
+        <v>1342.72</v>
+      </c>
+      <c r="F4">
+        <v>99.2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D5">
+        <v>124.8927272727273</v>
+      </c>
+      <c r="E5">
+        <v>1373.82</v>
+      </c>
+      <c r="F5">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D6">
+        <v>107.8636363636364</v>
+      </c>
+      <c r="E6">
+        <v>1186.5</v>
+      </c>
+      <c r="F6">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D7">
+        <v>121.4127272727273</v>
+      </c>
+      <c r="E7">
+        <v>1335.54</v>
+      </c>
+      <c r="F7">
+        <v>65.2</v>
+      </c>
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D8">
+        <v>116.3563636363636</v>
+      </c>
+      <c r="E8">
+        <v>1279.92</v>
+      </c>
+      <c r="F8">
+        <v>57.49999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D9">
+        <v>116.1909090909091</v>
+      </c>
+      <c r="E9">
+        <v>1278.1</v>
+      </c>
+      <c r="F9">
+        <v>48.1</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D10">
+        <v>107.7418181818182</v>
+      </c>
+      <c r="E10">
+        <v>1185.16</v>
+      </c>
+      <c r="F10">
+        <v>25.3</v>
+      </c>
+      <c r="G10">
+        <v>1.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D11">
+        <v>114.7909090909091</v>
+      </c>
+      <c r="E11">
+        <v>1262.7</v>
+      </c>
+      <c r="F11">
+        <v>18.1</v>
+      </c>
+      <c r="G11">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D12">
+        <v>114.0309090909091</v>
+      </c>
+      <c r="E12">
+        <v>1254.34</v>
+      </c>
+      <c r="F12">
+        <v>17.7</v>
+      </c>
+      <c r="G12">
+        <v>4.2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D13">
+        <v>98.49272727272728</v>
+      </c>
+      <c r="E13">
+        <v>1083.42</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -3243,16 +3977,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3263,7 +3997,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -3272,7 +4006,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3283,7 +4017,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -3292,7 +4026,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3303,7 +4037,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -3312,7 +4046,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3323,7 +4057,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -3332,7 +4066,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3343,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -3352,7 +4086,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3363,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -3372,7 +4106,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3383,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -3392,7 +4126,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3403,7 +4137,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3412,7 +4146,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3423,7 +4157,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>-3</v>
@@ -3432,7 +4166,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3443,7 +4177,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>-13</v>
@@ -3452,7 +4186,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3463,7 +4197,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>-32</v>
@@ -3472,7 +4206,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3483,7 +4217,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>-34</v>
@@ -3492,7 +4226,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +4234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -3510,40 +4244,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3584,7 +4318,7 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3625,7 +4359,7 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3666,7 +4400,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3707,7 +4441,7 @@
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3748,7 +4482,7 @@
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3789,7 +4523,7 @@
         <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3830,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3871,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3912,7 +4646,7 @@
         <v>-3</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3953,7 +4687,7 @@
         <v>-13</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3994,7 +4728,7 @@
         <v>-32</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4035,329 +4769,7 @@
         <v>-34</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>-35</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>-34</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>-13</v>
-      </c>
-      <c r="G4">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>-21</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>-17</v>
-      </c>
-      <c r="G6">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>-9</v>
-      </c>
-      <c r="F7">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>-8</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>-11</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>-1</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>-3</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="130">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -187,7 +187,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -283,7 +283,7 @@
     <t>9.6-4.4</t>
   </si>
   <si>
-    <t>8.6-5.3</t>
+    <t>8.6-5.4</t>
   </si>
   <si>
     <t>7.6-6.4</t>
@@ -301,7 +301,7 @@
     <t>6.2-7.8</t>
   </si>
   <si>
-    <t>5.6-8.4</t>
+    <t>5.7-8.3</t>
   </si>
   <si>
     <t>5.5-8.5</t>
@@ -323,9 +323,6 @@
   </si>
   <si>
     <t>6-8</t>
-  </si>
-  <si>
-    <t>5-9</t>
   </si>
   <si>
     <t>4-10</t>
@@ -1324,25 +1321,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2116,22 +2113,22 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>51.6</v>
+        <v>54.6</v>
       </c>
       <c r="C2">
-        <v>24.1</v>
+        <v>24.8</v>
       </c>
       <c r="D2">
-        <v>16.1</v>
+        <v>11.9</v>
       </c>
       <c r="E2">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="F2">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
         <v>0.1</v>
@@ -2160,22 +2157,22 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>33.7</v>
+        <v>32.3</v>
       </c>
       <c r="C3">
-        <v>34.4</v>
+        <v>35.5</v>
       </c>
       <c r="D3">
-        <v>24.7</v>
+        <v>22.6</v>
       </c>
       <c r="E3">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="F3">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2204,31 +2201,31 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>11.4</v>
+        <v>9.9</v>
       </c>
       <c r="C4">
-        <v>28.7</v>
+        <v>26.5</v>
       </c>
       <c r="D4">
-        <v>27.1</v>
+        <v>28.6</v>
       </c>
       <c r="E4">
-        <v>17.8</v>
+        <v>20.5</v>
       </c>
       <c r="F4">
         <v>8.199999999999999</v>
       </c>
       <c r="G4">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H4">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2240,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2248,43 +2245,43 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C5">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="D5">
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
       <c r="E5">
-        <v>26.1</v>
+        <v>22.7</v>
       </c>
       <c r="F5">
-        <v>18.1</v>
+        <v>16.9</v>
       </c>
       <c r="G5">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I5">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J5">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="K5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>93.3</v>
+        <v>91.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2292,43 +2289,43 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="E6">
-        <v>17.9</v>
+        <v>16.2</v>
       </c>
       <c r="F6">
-        <v>21.5</v>
+        <v>18.4</v>
       </c>
       <c r="G6">
-        <v>14.1</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>16.3</v>
+        <v>19</v>
       </c>
       <c r="I6">
-        <v>10.1</v>
+        <v>11.4</v>
       </c>
       <c r="J6">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="K6">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>75.59999999999999</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2339,40 +2336,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="G7">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>13.8</v>
+        <v>10.2</v>
       </c>
       <c r="I7">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="J7">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K7">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="L7">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="M7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>65.2</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2383,40 +2380,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
         <v>1.3</v>
       </c>
       <c r="E8">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F8">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="G8">
-        <v>20.3</v>
+        <v>16.3</v>
       </c>
       <c r="H8">
-        <v>17.3</v>
+        <v>16.8</v>
       </c>
       <c r="I8">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="J8">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="K8">
-        <v>6.8</v>
+        <v>10.3</v>
       </c>
       <c r="L8">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="M8">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="N8">
-        <v>57.5</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2427,40 +2424,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D9">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="E9">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="F9">
-        <v>9.699999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="G9">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="H9">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="I9">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="J9">
-        <v>17.2</v>
+        <v>15.9</v>
       </c>
       <c r="K9">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="L9">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="M9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="N9">
-        <v>48.1</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2477,34 +2474,34 @@
         <v>0.2</v>
       </c>
       <c r="E10">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="F10">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="G10">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="I10">
-        <v>11.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J10">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="K10">
-        <v>23.9</v>
+        <v>22.1</v>
       </c>
       <c r="L10">
-        <v>20.4</v>
+        <v>21.6</v>
       </c>
       <c r="M10">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="N10">
-        <v>25.3</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2521,34 +2518,34 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="H11">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="I11">
-        <v>13.5</v>
+        <v>15.3</v>
       </c>
       <c r="J11">
-        <v>18.9</v>
+        <v>18.4</v>
       </c>
       <c r="K11">
-        <v>21.4</v>
+        <v>17.7</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="M11">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="N11">
-        <v>18.1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2565,34 +2562,34 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="H12">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="I12">
-        <v>11.6</v>
+        <v>13.2</v>
       </c>
       <c r="J12">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="K12">
-        <v>20.2</v>
+        <v>22.3</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>27.9</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="N12">
-        <v>17.7</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2621,19 +2618,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J13">
+        <v>1.6</v>
+      </c>
+      <c r="K13">
         <v>1.9</v>
-      </c>
-      <c r="K13">
-        <v>2.6</v>
       </c>
       <c r="L13">
         <v>7.1</v>
       </c>
       <c r="M13">
-        <v>88.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2698,31 +2695,31 @@
         <v>12.8</v>
       </c>
       <c r="C2">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="D2">
-        <v>78.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="E2">
-        <v>93.2</v>
+        <v>91.7</v>
       </c>
       <c r="F2">
-        <v>87.40000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G2">
-        <v>89.40000000000001</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="H2">
-        <v>83.59999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="I2">
-        <v>94.39999999999999</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="J2">
-        <v>97.3</v>
+        <v>98.5</v>
       </c>
       <c r="K2">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -2739,34 +2736,34 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C3">
-        <v>65.5</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="D3">
-        <v>63.9</v>
+        <v>65.2</v>
       </c>
       <c r="E3">
-        <v>67.5</v>
+        <v>66.3</v>
       </c>
       <c r="F3">
-        <v>86.2</v>
+        <v>88</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H3">
-        <v>84.5</v>
+        <v>84.2</v>
       </c>
       <c r="I3">
-        <v>95.7</v>
+        <v>96.3</v>
       </c>
       <c r="J3">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="K3">
-        <v>98.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2777,40 +2774,40 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>62.2</v>
+        <v>62.4</v>
       </c>
       <c r="C4">
-        <v>92.30000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="D4">
-        <v>44.5</v>
+        <v>45.7</v>
       </c>
       <c r="E4">
-        <v>60.6</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="F4">
-        <v>85.5</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="G4">
-        <v>74.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="H4">
-        <v>88.7</v>
+        <v>87.8</v>
       </c>
       <c r="I4">
-        <v>91.60000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="J4">
-        <v>94.19999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="K4">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="L4">
-        <v>98.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="M4">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2818,40 +2815,40 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>96.39999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E5">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F5">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="G5">
-        <v>91.2</v>
+        <v>91.5</v>
       </c>
       <c r="H5">
-        <v>94.89999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="I5">
-        <v>93.89999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="J5">
-        <v>85.59999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K5">
-        <v>96.39999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="L5">
-        <v>93.30000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="M5">
-        <v>92.2</v>
+        <v>91.60000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2859,40 +2856,40 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>76.3</v>
+        <v>73.5</v>
       </c>
       <c r="C6">
-        <v>97.2</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="D6">
-        <v>97.2</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="E6">
-        <v>67.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F6">
-        <v>56.89999999999999</v>
+        <v>57.3</v>
       </c>
       <c r="G6">
-        <v>69.39999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H6">
-        <v>48.7</v>
+        <v>50</v>
       </c>
       <c r="I6">
-        <v>79</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="J6">
-        <v>64.5</v>
+        <v>64.3</v>
       </c>
       <c r="K6">
-        <v>83.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="L6">
-        <v>67.10000000000001</v>
+        <v>67.30000000000001</v>
       </c>
       <c r="M6">
-        <v>74.7</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2900,40 +2897,40 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>90.90000000000001</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="C7">
-        <v>95.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D7">
-        <v>98.2</v>
+        <v>97.2</v>
       </c>
       <c r="E7">
-        <v>91.2</v>
+        <v>89.8</v>
       </c>
       <c r="F7">
-        <v>94.89999999999999</v>
+        <v>94</v>
       </c>
       <c r="G7">
-        <v>67.7</v>
+        <v>62.9</v>
       </c>
       <c r="H7">
-        <v>85.5</v>
+        <v>84.5</v>
       </c>
       <c r="I7">
-        <v>60.5</v>
+        <v>64</v>
       </c>
       <c r="J7">
-        <v>51.1</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="K7">
-        <v>43.8</v>
+        <v>42.8</v>
       </c>
       <c r="L7">
-        <v>68.5</v>
+        <v>67</v>
       </c>
       <c r="M7">
-        <v>64.60000000000001</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2941,40 +2938,40 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>86.59999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="C8">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="D8">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="E8">
-        <v>39.5</v>
+        <v>37.1</v>
       </c>
       <c r="F8">
-        <v>34.2</v>
+        <v>37.5</v>
       </c>
       <c r="G8">
-        <v>52.1</v>
+        <v>51.7</v>
       </c>
       <c r="H8">
-        <v>42.3</v>
+        <v>42.5</v>
       </c>
       <c r="I8">
-        <v>64.5</v>
+        <v>66.7</v>
       </c>
       <c r="J8">
         <v>82.8</v>
       </c>
       <c r="K8">
-        <v>72.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="L8">
-        <v>58.4</v>
+        <v>58.2</v>
       </c>
       <c r="M8">
-        <v>59.3</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2982,40 +2979,40 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>52.1</v>
+        <v>54.8</v>
       </c>
       <c r="C9">
-        <v>5.600000000000001</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="D9">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="E9">
-        <v>56.2</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="F9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="H9">
-        <v>47.9</v>
+        <v>48.9</v>
       </c>
       <c r="I9">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="J9">
-        <v>41.9</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="K9">
-        <v>23.9</v>
+        <v>25</v>
       </c>
       <c r="L9">
-        <v>47.2</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>44.1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3023,40 +3020,40 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.6</v>
+        <v>10.6</v>
       </c>
       <c r="E10">
-        <v>10.1</v>
+        <v>8.1</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>26.9</v>
       </c>
       <c r="G10">
-        <v>36.4</v>
+        <v>38.5</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="I10">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="J10">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="K10">
-        <v>9.199999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="L10">
-        <v>22.2</v>
+        <v>21.4</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3064,40 +3061,40 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="C11">
-        <v>60.7</v>
+        <v>59.7</v>
       </c>
       <c r="D11">
-        <v>16.3</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>20.8</v>
+        <v>19.4</v>
       </c>
       <c r="F11">
-        <v>41.5</v>
+        <v>39.1</v>
       </c>
       <c r="G11">
-        <v>34</v>
+        <v>32.2</v>
       </c>
       <c r="H11">
-        <v>21.9</v>
+        <v>23.2</v>
       </c>
       <c r="I11">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="J11">
         <v>26.7</v>
       </c>
       <c r="K11">
-        <v>46.1</v>
+        <v>46.8</v>
       </c>
       <c r="L11">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="M11">
-        <v>20.1</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3105,40 +3102,40 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="C12">
-        <v>93.10000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D12">
-        <v>97.3</v>
+        <v>97.7</v>
       </c>
       <c r="E12">
-        <v>80.30000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="F12">
-        <v>54.40000000000001</v>
+        <v>53.8</v>
       </c>
       <c r="G12">
-        <v>66.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="H12">
-        <v>81.69999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="I12">
-        <v>67.7</v>
+        <v>67.5</v>
       </c>
       <c r="J12">
-        <v>50.6</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="L12">
-        <v>22.3</v>
+        <v>25.3</v>
       </c>
       <c r="M12">
-        <v>17.9</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3146,37 +3143,37 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>62.6</v>
+        <v>64.2</v>
       </c>
       <c r="D13">
-        <v>38.8</v>
+        <v>37.1</v>
       </c>
       <c r="E13">
-        <v>15.1</v>
+        <v>17.3</v>
       </c>
       <c r="F13">
-        <v>8.799999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H13">
-        <v>0.3</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="I13">
-        <v>0.8999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
+        <v>0.1</v>
+      </c>
+      <c r="L13">
         <v>0.4</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0.3</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -3234,8 +3231,8 @@
       <c r="D2">
         <v>116.19</v>
       </c>
-      <c r="E2">
-        <v>0.455</v>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
       <c r="F2">
         <v>121.24</v>
@@ -3263,8 +3260,8 @@
       <c r="D3">
         <v>125.29</v>
       </c>
-      <c r="E3">
-        <v>0.727</v>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
       <c r="F3">
         <v>119.56</v>
@@ -3292,8 +3289,8 @@
       <c r="D4">
         <v>107.74</v>
       </c>
-      <c r="E4">
-        <v>0.455</v>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="F4">
         <v>119.42</v>
@@ -3321,8 +3318,8 @@
       <c r="D5">
         <v>124.89</v>
       </c>
-      <c r="E5">
-        <v>0.545</v>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
       <c r="F5">
         <v>121.18</v>
@@ -3350,8 +3347,8 @@
       <c r="D6">
         <v>122.07</v>
       </c>
-      <c r="E6">
-        <v>0.636</v>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
       <c r="F6">
         <v>118.02</v>
@@ -3379,8 +3376,8 @@
       <c r="D7">
         <v>121.41</v>
       </c>
-      <c r="E7">
-        <v>0.455</v>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7">
         <v>115.33</v>
@@ -3408,8 +3405,8 @@
       <c r="D8">
         <v>114.03</v>
       </c>
-      <c r="E8">
-        <v>0.364</v>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
       <c r="F8">
         <v>113</v>
@@ -3437,8 +3434,8 @@
       <c r="D9">
         <v>117.42</v>
       </c>
-      <c r="E9">
-        <v>0.727</v>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
       <c r="F9">
         <v>113.32</v>
@@ -3466,8 +3463,8 @@
       <c r="D10">
         <v>98.48999999999999</v>
       </c>
-      <c r="E10">
-        <v>0.273</v>
+      <c r="E10" t="s">
+        <v>16</v>
       </c>
       <c r="F10">
         <v>113.88</v>
@@ -3495,8 +3492,8 @@
       <c r="D11">
         <v>107.86</v>
       </c>
-      <c r="E11">
-        <v>0.545</v>
+      <c r="E11" t="s">
+        <v>13</v>
       </c>
       <c r="F11">
         <v>109.1</v>
@@ -3524,8 +3521,8 @@
       <c r="D12">
         <v>116.36</v>
       </c>
-      <c r="E12">
-        <v>0.455</v>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
       <c r="F12">
         <v>112.6</v>
@@ -3553,8 +3550,8 @@
       <c r="D13">
         <v>114.79</v>
       </c>
-      <c r="E13">
-        <v>0.364</v>
+      <c r="E13" t="s">
+        <v>17</v>
       </c>
       <c r="F13">
         <v>109.88</v>
@@ -3686,7 +3683,7 @@
         <v>1342.72</v>
       </c>
       <c r="F4">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3715,7 +3712,7 @@
         <v>1373.82</v>
       </c>
       <c r="F5">
-        <v>93.30000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3744,7 +3741,7 @@
         <v>1186.5</v>
       </c>
       <c r="F6">
-        <v>75.59999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -3753,7 +3750,7 @@
         <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3773,10 +3770,10 @@
         <v>1335.54</v>
       </c>
       <c r="F7">
-        <v>65.2</v>
+        <v>63.5</v>
       </c>
       <c r="G7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H7" t="s">
         <v>89</v>
@@ -3802,10 +3799,10 @@
         <v>1279.92</v>
       </c>
       <c r="F8">
-        <v>57.49999999999999</v>
+        <v>54.7</v>
       </c>
       <c r="G8">
-        <v>0.8999999999999999</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="H8" t="s">
         <v>89</v>
@@ -3831,10 +3828,10 @@
         <v>1278.1</v>
       </c>
       <c r="F9">
-        <v>48.1</v>
+        <v>48.7</v>
       </c>
       <c r="G9">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="H9" t="s">
         <v>90</v>
@@ -3860,10 +3857,10 @@
         <v>1185.16</v>
       </c>
       <c r="F10">
-        <v>25.3</v>
+        <v>28.6</v>
       </c>
       <c r="G10">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="s">
         <v>91</v>
@@ -3889,10 +3886,10 @@
         <v>1262.7</v>
       </c>
       <c r="F11">
-        <v>18.1</v>
+        <v>22</v>
       </c>
       <c r="G11">
-        <v>4.100000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="H11" t="s">
         <v>92</v>
@@ -3918,16 +3915,16 @@
         <v>1254.34</v>
       </c>
       <c r="F12">
-        <v>17.7</v>
+        <v>16.8</v>
       </c>
       <c r="G12">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="s">
         <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3950,13 +3947,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>88.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
         <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3977,16 +3974,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4006,7 +4003,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4026,7 +4023,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4046,7 +4043,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4066,7 +4063,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4086,7 +4083,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4106,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4126,7 +4123,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4146,7 +4143,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4166,7 +4163,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4186,7 +4183,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4206,7 +4203,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4226,7 +4223,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4244,40 +4241,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4318,7 +4315,7 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4359,7 +4356,7 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4400,7 +4397,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4441,7 +4438,7 @@
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4482,7 +4479,7 @@
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4523,7 +4520,7 @@
         <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4564,7 +4561,7 @@
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4605,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4646,7 +4643,7 @@
         <v>-3</v>
       </c>
       <c r="M10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4687,7 +4684,7 @@
         <v>-13</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4728,7 +4725,7 @@
         <v>-32</v>
       </c>
       <c r="M12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4769,7 +4766,7 @@
         <v>-34</v>
       </c>
       <c r="M13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="137">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -61,31 +61,34 @@
     <t>cman</t>
   </si>
   <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -181,6 +184,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -205,36 +211,36 @@
     <t>Chris Carbone</t>
   </si>
   <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
     <t>Michael  Celoni</t>
   </si>
   <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
     <t>PJ Vogric</t>
   </si>
   <si>
-    <t>Robbie Wilston</t>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
   </si>
   <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Chris Holloway</t>
-  </si>
-  <si>
     <t>Shane Leiphart</t>
   </si>
   <si>
+    <t>Colman Closser</t>
+  </si>
+  <si>
     <t>Eli Brinker</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Marvin Ta</t>
-  </si>
-  <si>
-    <t>Colman Closser</t>
-  </si>
-  <si>
     <t>Zachary Sparano</t>
   </si>
   <si>
@@ -262,52 +268,58 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>9.6-4.4</t>
-  </si>
-  <si>
-    <t>8.6-5.4</t>
-  </si>
-  <si>
-    <t>7.6-6.4</t>
-  </si>
-  <si>
-    <t>7.4-6.5</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>6.2-7.8</t>
-  </si>
-  <si>
-    <t>5.7-8.3</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>4.1-9.9</t>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>8.0-5.9</t>
+  </si>
+  <si>
+    <t>8.1-5.9</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>6.9-7.0</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>6.1-7.8</t>
+  </si>
+  <si>
+    <t>5.8-8.2</t>
+  </si>
+  <si>
+    <t>5.1-8.9</t>
+  </si>
+  <si>
+    <t>4.6-9.4</t>
   </si>
   <si>
     <t>10-4</t>
@@ -325,6 +337,9 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
@@ -337,28 +352,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓2</t>
+    <t>↑10</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↑4</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓11</t>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -392,6 +410,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -825,16 +846,16 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -849,10 +870,10 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -863,19 +884,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -884,16 +905,16 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -907,16 +928,16 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -934,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -948,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -960,16 +981,16 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
@@ -986,22 +1007,22 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -1013,10 +1034,10 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1027,19 +1048,19 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
@@ -1051,10 +1072,10 @@
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -1065,40 +1086,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1106,40 +1127,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1147,40 +1168,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1188,40 +1209,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
       </c>
       <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
         <v>13</v>
-      </c>
-      <c r="M11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1229,40 +1250,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
       </c>
       <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
         <v>15</v>
-      </c>
-      <c r="M12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1285,10 +1306,10 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -1313,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1321,25 +1342,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1600,32 +1621,6 @@
       </c>
       <c r="H11" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>-3</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1643,13 +1638,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1660,10 +1655,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1674,10 +1669,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.75</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1688,10 +1683,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>4.833333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1702,7 +1697,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>4.833333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1713,10 +1708,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>5.166666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1727,13 +1722,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>5.333333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1741,13 +1736,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>5.416666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1755,13 +1750,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1772,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1783,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>6.25</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1797,13 +1792,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>6.5</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1814,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>6.916666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1835,16 +1830,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1852,16 +1847,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>6.583333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D2">
-        <v>-0.416666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1869,16 +1864,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>6.5</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D3">
-        <v>-1.5</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1886,16 +1881,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1903,16 +1898,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1920,16 +1915,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>6.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D6">
-        <v>-1.75</v>
+        <v>-2.166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1937,16 +1932,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1954,13 +1949,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>5.666666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D8">
-        <v>0.666666666666667</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1971,16 +1966,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1991,13 +1986,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>5.416666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D10">
-        <v>1.416666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2005,16 +2000,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>4.25</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D11">
-        <v>-1.75</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2022,16 +2017,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>4.25</v>
       </c>
       <c r="D12">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2042,13 +2037,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>2.583333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.4166666666666665</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2066,46 +2061,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2113,25 +2108,25 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>54.6</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C2">
-        <v>24.8</v>
+        <v>12.6</v>
       </c>
       <c r="D2">
-        <v>11.9</v>
+        <v>11.3</v>
       </c>
       <c r="E2">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="F2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2157,22 +2152,22 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>32.3</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>35.5</v>
+        <v>40.2</v>
       </c>
       <c r="D3">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="E3">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="G3">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2198,31 +2193,31 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>9.9</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>26.5</v>
+        <v>24.9</v>
       </c>
       <c r="D4">
-        <v>28.6</v>
+        <v>21.7</v>
       </c>
       <c r="E4">
-        <v>20.5</v>
+        <v>27.1</v>
       </c>
       <c r="F4">
-        <v>8.199999999999999</v>
+        <v>15.3</v>
       </c>
       <c r="G4">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2237,232 +2232,232 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="C5">
-        <v>10.7</v>
+        <v>19.6</v>
       </c>
       <c r="D5">
-        <v>20.5</v>
+        <v>24.7</v>
       </c>
       <c r="E5">
-        <v>22.7</v>
+        <v>27.7</v>
       </c>
       <c r="F5">
-        <v>16.9</v>
+        <v>16.1</v>
       </c>
       <c r="G5">
-        <v>11.3</v>
+        <v>7.6</v>
       </c>
       <c r="H5">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
       <c r="I5">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="J5">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>91.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="D6">
-        <v>4.9</v>
+        <v>11.6</v>
       </c>
       <c r="E6">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="F6">
-        <v>18.4</v>
+        <v>27.6</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>11.4</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>74.3</v>
+        <v>84.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.8</v>
+      </c>
+      <c r="D7">
+        <v>8.5</v>
+      </c>
+      <c r="E7">
+        <v>10.7</v>
+      </c>
+      <c r="F7">
+        <v>18.7</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>16.7</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>7.3</v>
-      </c>
-      <c r="E7">
-        <v>11.2</v>
-      </c>
-      <c r="F7">
-        <v>15.8</v>
-      </c>
-      <c r="G7">
-        <v>18</v>
-      </c>
-      <c r="H7">
-        <v>10.2</v>
-      </c>
-      <c r="I7">
-        <v>14.3</v>
-      </c>
-      <c r="J7">
-        <v>9.699999999999999</v>
-      </c>
       <c r="K7">
-        <v>7.4</v>
+        <v>2.6</v>
       </c>
       <c r="L7">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>63.5</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3.5</v>
+      </c>
+      <c r="F8">
+        <v>10.9</v>
+      </c>
+      <c r="G8">
+        <v>13.1</v>
+      </c>
+      <c r="H8">
+        <v>21.4</v>
+      </c>
+      <c r="I8">
+        <v>16.7</v>
+      </c>
+      <c r="J8">
+        <v>5.5</v>
+      </c>
+      <c r="K8">
+        <v>23.5</v>
+      </c>
+      <c r="L8">
+        <v>5.3</v>
+      </c>
+      <c r="M8">
         <v>0.1</v>
       </c>
-      <c r="D8">
-        <v>1.3</v>
-      </c>
-      <c r="E8">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F8">
-        <v>11.9</v>
-      </c>
-      <c r="G8">
-        <v>16.3</v>
-      </c>
-      <c r="H8">
-        <v>16.8</v>
-      </c>
-      <c r="I8">
-        <v>15.8</v>
-      </c>
-      <c r="J8">
-        <v>13.7</v>
-      </c>
-      <c r="K8">
-        <v>10.3</v>
-      </c>
-      <c r="L8">
-        <v>4.8</v>
-      </c>
-      <c r="M8">
-        <v>0.7</v>
-      </c>
       <c r="N8">
-        <v>54.7</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>5.7</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>15.2</v>
+      </c>
+      <c r="I9">
+        <v>19.9</v>
+      </c>
+      <c r="J9">
+        <v>20.3</v>
+      </c>
+      <c r="K9">
+        <v>13.2</v>
+      </c>
+      <c r="L9">
+        <v>6.6</v>
+      </c>
+      <c r="M9">
         <v>0.6</v>
       </c>
-      <c r="D9">
-        <v>2.7</v>
-      </c>
-      <c r="E9">
-        <v>5.8</v>
-      </c>
-      <c r="F9">
-        <v>11.4</v>
-      </c>
-      <c r="G9">
-        <v>14.6</v>
-      </c>
-      <c r="H9">
-        <v>13.6</v>
-      </c>
-      <c r="I9">
-        <v>15.3</v>
-      </c>
-      <c r="J9">
-        <v>15.9</v>
-      </c>
-      <c r="K9">
-        <v>11.7</v>
-      </c>
-      <c r="L9">
-        <v>7.7</v>
-      </c>
-      <c r="M9">
-        <v>0.7</v>
-      </c>
       <c r="N9">
-        <v>48.7</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2471,42 +2466,42 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
         <v>2.7</v>
       </c>
-      <c r="F10">
-        <v>4.4</v>
-      </c>
       <c r="G10">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="H10">
-        <v>13.8</v>
+        <v>16</v>
       </c>
       <c r="I10">
-        <v>9.300000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="J10">
-        <v>16.5</v>
+        <v>23.1</v>
       </c>
       <c r="K10">
-        <v>22.1</v>
+        <v>12.5</v>
       </c>
       <c r="L10">
-        <v>21.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M10">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>28.6</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2518,39 +2513,39 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
-        <v>7.4</v>
+        <v>1.9</v>
       </c>
       <c r="H11">
-        <v>10.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I11">
-        <v>15.3</v>
+        <v>8.1</v>
       </c>
       <c r="J11">
-        <v>18.4</v>
+        <v>21.9</v>
       </c>
       <c r="K11">
-        <v>17.7</v>
+        <v>22.5</v>
       </c>
       <c r="L11">
-        <v>22.9</v>
+        <v>33.3</v>
       </c>
       <c r="M11">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="N11">
-        <v>22</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2562,34 +2557,34 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H12">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="I12">
-        <v>13.2</v>
+        <v>14.9</v>
       </c>
       <c r="J12">
-        <v>16.1</v>
+        <v>12.2</v>
       </c>
       <c r="K12">
-        <v>22.3</v>
+        <v>19.3</v>
       </c>
       <c r="L12">
-        <v>27.9</v>
+        <v>35.7</v>
       </c>
       <c r="M12">
-        <v>3.7</v>
+        <v>11.1</v>
       </c>
       <c r="N12">
-        <v>16.8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2618,19 +2613,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="K13">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>7.1</v>
+        <v>10.4</v>
       </c>
       <c r="M13">
-        <v>89</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2643,80 +2638,83 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12.8</v>
+        <v>11.5</v>
       </c>
       <c r="C2">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D2">
-        <v>81.3</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="E2">
-        <v>91.7</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="F2">
-        <v>86.59999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="G2">
-        <v>90.10000000000001</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="H2">
-        <v>84.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="I2">
-        <v>93.89999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="J2">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="K2">
         <v>99.3</v>
@@ -2727,8 +2725,11 @@
       <c r="M2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2736,446 +2737,479 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C3">
-        <v>64.40000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="D3">
+        <v>63.5</v>
+      </c>
+      <c r="E3">
+        <v>74</v>
+      </c>
+      <c r="F3">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="G3">
+        <v>76.3</v>
+      </c>
+      <c r="H3">
+        <v>85</v>
+      </c>
+      <c r="I3">
+        <v>95.8</v>
+      </c>
+      <c r="J3">
+        <v>99.2</v>
+      </c>
+      <c r="K3">
+        <v>98.3</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>99.3</v>
+      </c>
+      <c r="E4">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F4">
+        <v>98.3</v>
+      </c>
+      <c r="G4">
+        <v>92</v>
+      </c>
+      <c r="H4">
+        <v>96</v>
+      </c>
+      <c r="I4">
+        <v>92.7</v>
+      </c>
+      <c r="J4">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="K4">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="L4">
+        <v>92.5</v>
+      </c>
+      <c r="M4">
+        <v>98.3</v>
+      </c>
+      <c r="N4">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>63.1</v>
+      </c>
+      <c r="C5">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D5">
+        <v>46.3</v>
+      </c>
+      <c r="E5">
+        <v>59.2</v>
+      </c>
+      <c r="F5">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="G5">
+        <v>72.3</v>
+      </c>
+      <c r="H5">
+        <v>85.2</v>
+      </c>
+      <c r="I5">
+        <v>90.7</v>
+      </c>
+      <c r="J5">
+        <v>93.5</v>
+      </c>
+      <c r="K5">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="L5">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="M5">
+        <v>97.7</v>
+      </c>
+      <c r="N5">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>92.5</v>
+      </c>
+      <c r="C6">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="D6">
+        <v>97.8</v>
+      </c>
+      <c r="E6">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="F6">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="G6">
+        <v>63</v>
+      </c>
+      <c r="H6">
+        <v>86.7</v>
+      </c>
+      <c r="I6">
         <v>65.2</v>
       </c>
-      <c r="E3">
-        <v>66.3</v>
-      </c>
-      <c r="F3">
-        <v>88</v>
-      </c>
-      <c r="G3">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="H3">
-        <v>84.2</v>
-      </c>
-      <c r="I3">
-        <v>96.3</v>
-      </c>
-      <c r="J3">
-        <v>98.7</v>
-      </c>
-      <c r="K3">
-        <v>98.7</v>
-      </c>
-      <c r="L3">
+      <c r="J6">
+        <v>53.90000000000001</v>
+      </c>
+      <c r="K6">
+        <v>40.3</v>
+      </c>
+      <c r="L6">
+        <v>65</v>
+      </c>
+      <c r="M6">
+        <v>83.2</v>
+      </c>
+      <c r="N6">
+        <v>80.80000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>7.1</v>
+      </c>
+      <c r="D7">
+        <v>4.6</v>
+      </c>
+      <c r="E7">
+        <v>53.5</v>
+      </c>
+      <c r="F7">
+        <v>26.9</v>
+      </c>
+      <c r="G7">
+        <v>40.5</v>
+      </c>
+      <c r="H7">
+        <v>50.2</v>
+      </c>
+      <c r="I7">
+        <v>28.3</v>
+      </c>
+      <c r="J7">
+        <v>40.2</v>
+      </c>
+      <c r="K7">
+        <v>25.6</v>
+      </c>
+      <c r="L7">
+        <v>49.8</v>
+      </c>
+      <c r="M7">
+        <v>72</v>
+      </c>
+      <c r="N7">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>77.5</v>
+      </c>
+      <c r="C8">
+        <v>96.5</v>
+      </c>
+      <c r="D8">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="E8">
+        <v>68.2</v>
+      </c>
+      <c r="F8">
+        <v>56.8</v>
+      </c>
+      <c r="G8">
+        <v>71.39999999999999</v>
+      </c>
+      <c r="H8">
+        <v>48.9</v>
+      </c>
+      <c r="I8">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="J8">
+        <v>64</v>
+      </c>
+      <c r="K8">
+        <v>81.39999999999999</v>
+      </c>
+      <c r="L8">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="M8">
+        <v>49.4</v>
+      </c>
+      <c r="N8">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>99.90000000000001</v>
       </c>
-      <c r="M3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>62.4</v>
-      </c>
-      <c r="C4">
-        <v>90.3</v>
-      </c>
-      <c r="D4">
-        <v>45.7</v>
-      </c>
-      <c r="E4">
-        <v>60.09999999999999</v>
-      </c>
-      <c r="F4">
-        <v>82.69999999999999</v>
-      </c>
-      <c r="G4">
-        <v>71.8</v>
-      </c>
-      <c r="H4">
-        <v>87.8</v>
-      </c>
-      <c r="I4">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J4">
-        <v>94.5</v>
-      </c>
-      <c r="K4">
-        <v>99</v>
-      </c>
-      <c r="L4">
-        <v>97.5</v>
-      </c>
-      <c r="M4">
-        <v>99.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>95.5</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>99.3</v>
-      </c>
-      <c r="E5">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F5">
-        <v>98.7</v>
-      </c>
-      <c r="G5">
-        <v>91.5</v>
-      </c>
-      <c r="H5">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="I5">
+      <c r="C9">
         <v>92.5</v>
       </c>
-      <c r="J5">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="K5">
-        <v>95.8</v>
-      </c>
-      <c r="L5">
-        <v>93.2</v>
-      </c>
-      <c r="M5">
-        <v>91.60000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>73.5</v>
-      </c>
-      <c r="C6">
-        <v>96.89999999999999</v>
-      </c>
-      <c r="D6">
-        <v>96.89999999999999</v>
-      </c>
-      <c r="E6">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="F6">
-        <v>57.3</v>
-      </c>
-      <c r="G6">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="J6">
-        <v>64.3</v>
-      </c>
-      <c r="K6">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="L6">
-        <v>67.30000000000001</v>
-      </c>
-      <c r="M6">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>90.60000000000001</v>
-      </c>
-      <c r="C7">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D7">
-        <v>97.2</v>
-      </c>
-      <c r="E7">
-        <v>89.8</v>
-      </c>
-      <c r="F7">
-        <v>94</v>
-      </c>
-      <c r="G7">
-        <v>62.9</v>
-      </c>
-      <c r="H7">
-        <v>84.5</v>
-      </c>
-      <c r="I7">
-        <v>64</v>
-      </c>
-      <c r="J7">
-        <v>52.40000000000001</v>
-      </c>
-      <c r="K7">
-        <v>42.8</v>
-      </c>
-      <c r="L7">
-        <v>67</v>
-      </c>
-      <c r="M7">
-        <v>65.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
+      <c r="D9">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E9">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="F9">
+        <v>54.2</v>
+      </c>
+      <c r="G9">
+        <v>68.7</v>
+      </c>
+      <c r="H9">
+        <v>80.10000000000001</v>
+      </c>
+      <c r="I9">
+        <v>63.4</v>
+      </c>
+      <c r="J9">
+        <v>51.3</v>
+      </c>
+      <c r="K9">
+        <v>30.9</v>
+      </c>
+      <c r="L9">
+        <v>22.9</v>
+      </c>
+      <c r="M9">
+        <v>43.1</v>
+      </c>
+      <c r="N9">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>89.2</v>
-      </c>
-      <c r="C8">
-        <v>25.1</v>
-      </c>
-      <c r="D8">
-        <v>50.6</v>
-      </c>
-      <c r="E8">
-        <v>37.1</v>
-      </c>
-      <c r="F8">
-        <v>37.5</v>
-      </c>
-      <c r="G8">
-        <v>51.7</v>
-      </c>
-      <c r="H8">
-        <v>42.5</v>
-      </c>
-      <c r="I8">
-        <v>66.7</v>
-      </c>
-      <c r="J8">
-        <v>82.8</v>
-      </c>
-      <c r="K8">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L8">
-        <v>58.2</v>
-      </c>
-      <c r="M8">
-        <v>58.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>54.8</v>
-      </c>
-      <c r="C9">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="D9">
-        <v>3.4</v>
-      </c>
-      <c r="E9">
-        <v>56.49999999999999</v>
-      </c>
-      <c r="F9">
-        <v>27</v>
-      </c>
-      <c r="G9">
-        <v>40.1</v>
-      </c>
-      <c r="H9">
-        <v>48.9</v>
-      </c>
-      <c r="I9">
-        <v>25.7</v>
-      </c>
-      <c r="J9">
-        <v>39.90000000000001</v>
-      </c>
-      <c r="K9">
-        <v>25</v>
-      </c>
-      <c r="L9">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>48.3</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>37</v>
+      </c>
+      <c r="G10">
+        <v>51.3</v>
+      </c>
+      <c r="H10">
+        <v>43.6</v>
+      </c>
+      <c r="I10">
+        <v>63.1</v>
+      </c>
+      <c r="J10">
+        <v>80.5</v>
+      </c>
+      <c r="K10">
+        <v>72.2</v>
+      </c>
+      <c r="L10">
+        <v>59</v>
+      </c>
+      <c r="M10">
+        <v>32.1</v>
+      </c>
+      <c r="N10">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>0.8</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>10.6</v>
-      </c>
-      <c r="E10">
-        <v>8.1</v>
-      </c>
-      <c r="F10">
-        <v>26.9</v>
-      </c>
-      <c r="G10">
-        <v>38.5</v>
-      </c>
-      <c r="H10">
-        <v>20.1</v>
-      </c>
-      <c r="I10">
-        <v>11.1</v>
-      </c>
-      <c r="J10">
-        <v>5.4</v>
-      </c>
-      <c r="K10">
-        <v>10.8</v>
-      </c>
-      <c r="L10">
-        <v>21.4</v>
-      </c>
-      <c r="M10">
-        <v>27.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
+      <c r="B11">
+        <v>0.6</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>9.9</v>
+      </c>
+      <c r="E11">
+        <v>7.8</v>
+      </c>
+      <c r="F11">
+        <v>26.4</v>
+      </c>
+      <c r="G11">
+        <v>36.4</v>
+      </c>
+      <c r="H11">
+        <v>20.2</v>
+      </c>
+      <c r="I11">
+        <v>11.2</v>
+      </c>
+      <c r="J11">
+        <v>6.7</v>
+      </c>
+      <c r="K11">
+        <v>10.1</v>
+      </c>
+      <c r="L11">
+        <v>22.9</v>
+      </c>
+      <c r="M11">
+        <v>11.2</v>
+      </c>
+      <c r="N11">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>20.5</v>
-      </c>
-      <c r="C11">
-        <v>59.7</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>19.4</v>
-      </c>
-      <c r="F11">
-        <v>39.1</v>
-      </c>
-      <c r="G11">
-        <v>32.2</v>
-      </c>
-      <c r="H11">
-        <v>23.2</v>
-      </c>
-      <c r="I11">
-        <v>14.5</v>
-      </c>
-      <c r="J11">
-        <v>26.7</v>
-      </c>
-      <c r="K11">
-        <v>46.8</v>
-      </c>
-      <c r="L11">
-        <v>22.8</v>
-      </c>
-      <c r="M11">
-        <v>18.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B12">
-        <v>99.7</v>
+        <v>22.3</v>
       </c>
       <c r="C12">
-        <v>92.40000000000001</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="D12">
-        <v>97.7</v>
+        <v>14.7</v>
       </c>
       <c r="E12">
-        <v>82.5</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>53.8</v>
+        <v>38.8</v>
       </c>
       <c r="G12">
-        <v>67.90000000000001</v>
+        <v>37.9</v>
       </c>
       <c r="H12">
-        <v>78.3</v>
+        <v>20.3</v>
       </c>
       <c r="I12">
-        <v>67.5</v>
+        <v>12.8</v>
       </c>
       <c r="J12">
-        <v>50</v>
+        <v>24.5</v>
       </c>
       <c r="K12">
-        <v>28.7</v>
+        <v>46.5</v>
       </c>
       <c r="L12">
-        <v>25.3</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12.5</v>
+      </c>
+      <c r="N12">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>64.2</v>
+        <v>64.7</v>
       </c>
       <c r="D13">
-        <v>37.1</v>
+        <v>42</v>
       </c>
       <c r="E13">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="F13">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G13">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H13">
         <v>0.7000000000000001</v>
       </c>
       <c r="I13">
-        <v>1.3</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J13">
+        <v>0.4</v>
+      </c>
+      <c r="K13">
         <v>0.2</v>
       </c>
-      <c r="K13">
-        <v>0.1</v>
-      </c>
       <c r="L13">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M13">
+        <v>0.6</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
     </row>
@@ -3194,28 +3228,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3226,25 +3260,25 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>116.19</v>
+        <v>117.97</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>121.24</v>
+        <v>123.02</v>
       </c>
       <c r="G2">
-        <v>0.576</v>
+        <v>0.542</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3252,28 +3286,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <v>121.52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>119.88</v>
+      </c>
+      <c r="G3">
+        <v>0.542</v>
+      </c>
+      <c r="H3">
+        <v>15.5</v>
+      </c>
+      <c r="I3">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <v>125.29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>119.56</v>
-      </c>
-      <c r="G3">
-        <v>0.576</v>
-      </c>
-      <c r="H3">
-        <v>10.3</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3281,28 +3315,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>107.74</v>
+        <v>123.34</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>119.42</v>
+        <v>121.45</v>
       </c>
       <c r="G4">
-        <v>0.485</v>
+        <v>0.625</v>
       </c>
       <c r="H4">
-        <v>10.3</v>
+        <v>13.5</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3313,25 +3347,25 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>124.89</v>
+        <v>124.53</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>121.18</v>
+        <v>120.65</v>
       </c>
       <c r="G5">
-        <v>0.606</v>
+        <v>0.625</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3339,28 +3373,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>122.07</v>
+        <v>108.66</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>118.02</v>
+        <v>118.51</v>
       </c>
       <c r="G6">
-        <v>0.485</v>
+        <v>0.458</v>
       </c>
       <c r="H6">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3368,28 +3402,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>121.41</v>
+        <v>106.14</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>115.33</v>
+        <v>115.54</v>
       </c>
       <c r="G7">
-        <v>0.515</v>
+        <v>0.375</v>
       </c>
       <c r="H7">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3397,28 +3431,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>114.03</v>
+        <v>98.37</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>113</v>
+        <v>116.47</v>
       </c>
       <c r="G8">
-        <v>0.455</v>
+        <v>0.542</v>
       </c>
       <c r="H8">
-        <v>-3.3</v>
+        <v>5.5</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3426,28 +3460,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>117.42</v>
+        <v>121.8</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>113.32</v>
+        <v>115.09</v>
       </c>
       <c r="G9">
-        <v>0.485</v>
+        <v>0.458</v>
       </c>
       <c r="H9">
-        <v>-5.7</v>
+        <v>2.5</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3455,28 +3489,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>98.48999999999999</v>
+        <v>115.86</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>113.88</v>
+        <v>110.36</v>
       </c>
       <c r="G10">
-        <v>0.576</v>
+        <v>0.458</v>
       </c>
       <c r="H10">
-        <v>-7</v>
+        <v>-18</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3484,28 +3518,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>107.86</v>
+        <v>114.58</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>109.1</v>
+        <v>107.12</v>
       </c>
       <c r="G11">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
       <c r="H11">
-        <v>-8.699999999999999</v>
+        <v>-18</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3513,28 +3547,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>116.36</v>
+        <v>118.37</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>112.6</v>
+        <v>110.85</v>
       </c>
       <c r="G12">
-        <v>0.455</v>
+        <v>0.542</v>
       </c>
       <c r="H12">
-        <v>-10.3</v>
+        <v>-22.5</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3545,25 +3579,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <v>114.79</v>
+        <v>115.21</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>109.88</v>
+        <v>107.4</v>
       </c>
       <c r="G13">
-        <v>0.455</v>
+        <v>0.458</v>
       </c>
       <c r="H13">
-        <v>-15</v>
+        <v>-27.5</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3581,31 +3615,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3613,16 +3647,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>125.2909090909091</v>
+        <v>123.3366666666666</v>
       </c>
       <c r="E2">
-        <v>1378.2</v>
+        <v>1480.04</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3631,10 +3665,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3642,16 +3676,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3">
-        <v>0.7272727272727273</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>117.42</v>
+        <v>118.3666666666667</v>
       </c>
       <c r="E3">
-        <v>1291.62</v>
+        <v>1420.4</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3660,271 +3694,271 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D4">
-        <v>122.0654545454545</v>
+        <v>124.5316666666667</v>
       </c>
       <c r="E4">
-        <v>1342.72</v>
+        <v>1494.38</v>
       </c>
       <c r="F4">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D5">
-        <v>124.8927272727273</v>
+        <v>121.7983333333333</v>
       </c>
       <c r="E5">
-        <v>1373.82</v>
+        <v>1461.58</v>
       </c>
       <c r="F5">
-        <v>91.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>107.8636363636364</v>
+        <v>121.515</v>
       </c>
       <c r="E6">
-        <v>1186.5</v>
+        <v>1458.18</v>
       </c>
       <c r="F6">
-        <v>74.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>121.4127272727273</v>
+        <v>117.9683333333333</v>
       </c>
       <c r="E7">
-        <v>1335.54</v>
+        <v>1415.62</v>
       </c>
       <c r="F7">
-        <v>63.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>116.3563636363636</v>
+        <v>106.1433333333333</v>
       </c>
       <c r="E8">
-        <v>1279.92</v>
+        <v>1273.72</v>
       </c>
       <c r="F8">
-        <v>54.7</v>
+        <v>48.9</v>
       </c>
       <c r="G8">
-        <v>0.7000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D9">
-        <v>116.1909090909091</v>
+        <v>115.8583333333333</v>
       </c>
       <c r="E9">
-        <v>1278.1</v>
+        <v>1390.3</v>
       </c>
       <c r="F9">
-        <v>48.7</v>
+        <v>39.4</v>
       </c>
       <c r="G9">
-        <v>0.7000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D10">
-        <v>107.7418181818182</v>
+        <v>114.5783333333333</v>
       </c>
       <c r="E10">
-        <v>1185.16</v>
+        <v>1374.94</v>
       </c>
       <c r="F10">
-        <v>28.6</v>
+        <v>34.8</v>
       </c>
       <c r="G10">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D11">
-        <v>114.7909090909091</v>
+        <v>108.6583333333333</v>
       </c>
       <c r="E11">
-        <v>1262.7</v>
+        <v>1303.9</v>
       </c>
       <c r="F11">
-        <v>22</v>
+        <v>10.3</v>
       </c>
       <c r="G11">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C12">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>114.0309090909091</v>
+        <v>115.215</v>
       </c>
       <c r="E12">
-        <v>1254.34</v>
+        <v>1382.58</v>
       </c>
       <c r="F12">
-        <v>16.8</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="G12">
-        <v>3.7</v>
+        <v>11.1</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3932,28 +3966,28 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>98.49272727272728</v>
+        <v>98.37333333333333</v>
       </c>
       <c r="E13">
-        <v>1083.42</v>
+        <v>1180.48</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>89</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3971,19 +4005,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3991,19 +4025,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4011,19 +4045,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4031,19 +4065,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4051,19 +4085,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4071,19 +4105,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4091,19 +4125,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4111,19 +4145,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4131,19 +4165,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4151,19 +4185,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>-3</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4174,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>-13</v>
@@ -4183,7 +4217,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4194,16 +4228,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>-32</v>
+        <v>-42</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4217,13 +4251,13 @@
         <v>67</v>
       </c>
       <c r="D13">
-        <v>-34</v>
+        <v>-42</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4233,420 +4267,450 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>129</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
         <v>14</v>
       </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>22</v>
-      </c>
-      <c r="L2">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>11</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B4">
         <v>-1</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>-9</v>
+      </c>
+      <c r="E5">
+        <v>-6</v>
+      </c>
+      <c r="F5">
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>-1</v>
       </c>
-      <c r="D4">
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>-2</v>
       </c>
-      <c r="F4">
+      <c r="F7">
         <v>-1</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="J7">
         <v>8</v>
       </c>
-      <c r="K4">
+      <c r="K7">
         <v>11</v>
       </c>
-      <c r="L4">
+      <c r="L7">
         <v>14</v>
       </c>
-      <c r="M4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
+      <c r="M7">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
+      <c r="N7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-      <c r="H5">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>9</v>
-      </c>
-      <c r="L5">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>-2</v>
-      </c>
-      <c r="D6">
-        <v>-9</v>
-      </c>
-      <c r="E6">
-        <v>-6</v>
-      </c>
-      <c r="F6">
-        <v>-3</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>9</v>
-      </c>
-      <c r="J6">
-        <v>9</v>
-      </c>
-      <c r="K6">
-        <v>8</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
-      </c>
-      <c r="M6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7">
-        <v>9</v>
-      </c>
-      <c r="I7">
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>7</v>
-      </c>
-      <c r="M7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>-3</v>
-      </c>
-      <c r="C8">
-        <v>-7</v>
-      </c>
       <c r="D8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>-2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="E9">
+        <v>-9</v>
+      </c>
+      <c r="F9">
+        <v>-5</v>
+      </c>
+      <c r="G9">
+        <v>-6</v>
+      </c>
+      <c r="H9">
+        <v>-6</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>-7</v>
+      </c>
+      <c r="L9">
+        <v>-3</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>-3</v>
+      </c>
+      <c r="C10">
+        <v>-7</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
         <v>13</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <v>15</v>
       </c>
-      <c r="K8">
-        <v>12</v>
-      </c>
-      <c r="L8">
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="M8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>-2</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>-9</v>
-      </c>
-      <c r="F10">
-        <v>-5</v>
-      </c>
-      <c r="G10">
-        <v>-6</v>
-      </c>
-      <c r="H10">
-        <v>-6</v>
-      </c>
-      <c r="I10">
-        <v>-1</v>
-      </c>
-      <c r="J10">
-        <v>-1</v>
-      </c>
-      <c r="K10">
-        <v>-7</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
         <v>-3</v>
       </c>
-      <c r="M10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4683,11 +4747,14 @@
       <c r="L11">
         <v>-13</v>
       </c>
-      <c r="M11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11">
+        <v>-13</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -4724,11 +4791,14 @@
       <c r="L12">
         <v>-32</v>
       </c>
-      <c r="M12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12">
+        <v>-42</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -4765,8 +4835,11 @@
       <c r="L13">
         <v>-34</v>
       </c>
-      <c r="M13" t="s">
-        <v>110</v>
+      <c r="M13">
+        <v>-42</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="137">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -61,34 +61,37 @@
     <t>cman</t>
   </si>
   <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -187,6 +190,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -208,36 +214,36 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
     <t>Chris Carbone</t>
   </si>
   <si>
-    <t>Chris Holloway</t>
-  </si>
-  <si>
-    <t>Michael  Celoni</t>
+    <t>PJ Vogric</t>
+  </si>
+  <si>
+    <t>Shane Leiphart</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Colman Closser</t>
   </si>
   <si>
     <t>Robbie Wilston</t>
   </si>
   <si>
-    <t>PJ Vogric</t>
-  </si>
-  <si>
-    <t>Marvin Ta</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Shane Leiphart</t>
-  </si>
-  <si>
-    <t>Colman Closser</t>
-  </si>
-  <si>
     <t>Eli Brinker</t>
   </si>
   <si>
@@ -268,75 +274,63 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>10.0-4.0</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>8.0-5.9</t>
-  </si>
-  <si>
-    <t>8.1-5.9</t>
-  </si>
-  <si>
-    <t>7.0-7.0</t>
-  </si>
-  <si>
-    <t>6.9-7.0</t>
-  </si>
-  <si>
-    <t>6.8-7.2</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>6.1-7.8</t>
-  </si>
-  <si>
-    <t>5.8-8.2</t>
-  </si>
-  <si>
-    <t>5.1-8.9</t>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>7.6-6.4</t>
+  </si>
+  <si>
+    <t>10.4-3.5</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
   </si>
   <si>
     <t>4.6-9.4</t>
   </si>
   <si>
+    <t>4.3-9.7</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>8-6</t>
+    <t>6-8</t>
   </si>
   <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>5-9</t>
   </si>
   <si>
@@ -352,13 +346,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑10</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑4</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑4</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>0</t>
@@ -367,18 +376,6 @@
     <t>↓8</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -843,16 +843,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -861,19 +861,19 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -884,16 +884,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -902,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -911,10 +911,10 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -925,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -934,7 +934,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -943,19 +943,19 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -969,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -981,16 +981,16 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
@@ -1007,25 +1007,25 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -1034,10 +1034,10 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1048,34 +1048,34 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -1089,16 +1089,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1107,19 +1107,19 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1133,13 +1133,13 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1148,7 +1148,7 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -1160,7 +1160,7 @@
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1171,37 +1171,37 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s">
         <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1218,10 +1218,10 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1230,7 +1230,7 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -1242,7 +1242,7 @@
         <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1250,40 +1250,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
       <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>13</v>
-      </c>
-      <c r="M12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1291,40 +1291,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1472,25 +1472,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
+        <v>-16</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
         <v>4</v>
-      </c>
-      <c r="F6">
-        <v>-17</v>
-      </c>
-      <c r="G6">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1498,25 +1498,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>-9</v>
-      </c>
       <c r="F7">
-        <v>11</v>
+        <v>-17</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1524,25 +1524,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1550,22 +1550,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -1576,25 +1576,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1602,25 +1602,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1638,13 +1638,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1655,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4.666666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1669,10 +1669,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.916666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1683,10 +1683,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>5.333333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1694,13 +1694,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>5.583333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1711,10 +1711,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.666666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.75</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1736,13 +1736,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>5.916666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1750,13 +1750,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>6.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1764,13 +1764,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>6.416666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1781,7 +1781,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6.583333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>7.083333333333333</v>
+        <v>7.75</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1809,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>7.75</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1830,16 +1830,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1847,16 +1847,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>7.25</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D2">
-        <v>1.25</v>
+        <v>0.08333333333333393</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1864,13 +1864,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>7.166666666666667</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D3">
-        <v>0.166666666666667</v>
+        <v>1.083333333333334</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1881,16 +1881,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1898,16 +1898,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-2.583333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1915,16 +1915,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6.833333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D6">
-        <v>-2.166666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1932,16 +1932,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>6.666666666666667</v>
+        <v>7.25</v>
       </c>
       <c r="D7">
-        <v>0.666666666666667</v>
+        <v>-0.75</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1949,16 +1949,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>6.416666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D8">
-        <v>1.416666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1966,16 +1966,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>6.083333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D9">
-        <v>1.083333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1986,13 +1986,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>5.916666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D10">
-        <v>1.916666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2003,13 +2003,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4.583333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D11">
-        <v>-0.416666666666667</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2037,13 +2037,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>2.833333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D13">
-        <v>-1.166666666666667</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2061,72 +2061,72 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>73.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>12.6</v>
+        <v>1.7</v>
       </c>
       <c r="D2">
-        <v>11.3</v>
+        <v>14.4</v>
       </c>
       <c r="E2">
-        <v>2.5</v>
+        <v>36.4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2149,25 +2149,25 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>40.2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>22.2</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2196,28 +2196,28 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>24.9</v>
+        <v>62.4</v>
       </c>
       <c r="D4">
-        <v>21.7</v>
+        <v>24.6</v>
       </c>
       <c r="E4">
-        <v>27.1</v>
+        <v>11.1</v>
       </c>
       <c r="F4">
-        <v>15.3</v>
+        <v>1.9</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2232,36 +2232,36 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>19.6</v>
+        <v>31.6</v>
       </c>
       <c r="D5">
-        <v>24.7</v>
+        <v>43.6</v>
       </c>
       <c r="E5">
-        <v>27.7</v>
+        <v>15.2</v>
       </c>
       <c r="F5">
-        <v>16.1</v>
+        <v>9.6</v>
       </c>
       <c r="G5">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2287,31 +2287,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="D6">
-        <v>11.6</v>
+        <v>17.4</v>
       </c>
       <c r="E6">
-        <v>15.4</v>
+        <v>31.2</v>
       </c>
       <c r="F6">
-        <v>27.6</v>
+        <v>25.3</v>
       </c>
       <c r="G6">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>6.7</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>84.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2331,31 +2331,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>10.7</v>
+        <v>5.2</v>
       </c>
       <c r="F7">
-        <v>18.7</v>
+        <v>15.8</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>16.8</v>
       </c>
       <c r="H7">
-        <v>16.7</v>
+        <v>19.7</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="K7">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2364,12 +2364,12 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>76.40000000000001</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2381,34 +2381,34 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="F8">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="G8">
-        <v>13.1</v>
+        <v>29.2</v>
       </c>
       <c r="H8">
-        <v>21.4</v>
+        <v>14.5</v>
       </c>
       <c r="I8">
-        <v>16.7</v>
+        <v>17.4</v>
       </c>
       <c r="J8">
-        <v>5.5</v>
+        <v>21.6</v>
       </c>
       <c r="K8">
-        <v>23.5</v>
+        <v>5.7</v>
       </c>
       <c r="L8">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>48.9</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2425,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>27.2</v>
       </c>
       <c r="H9">
-        <v>15.2</v>
+        <v>22.3</v>
       </c>
       <c r="I9">
-        <v>19.9</v>
+        <v>16.5</v>
       </c>
       <c r="J9">
-        <v>20.3</v>
+        <v>22.9</v>
       </c>
       <c r="K9">
-        <v>13.2</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>39.4</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2469,39 +2469,39 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>20.3</v>
       </c>
       <c r="I10">
-        <v>18.7</v>
+        <v>19.7</v>
       </c>
       <c r="J10">
-        <v>23.1</v>
+        <v>33.5</v>
       </c>
       <c r="K10">
-        <v>12.5</v>
+        <v>26.5</v>
       </c>
       <c r="L10">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>34.8</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2516,31 +2516,31 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>8.300000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="I11">
-        <v>8.1</v>
+        <v>21.4</v>
       </c>
       <c r="J11">
-        <v>21.9</v>
+        <v>7.5</v>
       </c>
       <c r="K11">
-        <v>22.5</v>
+        <v>56.8</v>
       </c>
       <c r="L11">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.3</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2563,28 +2563,28 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>19.3</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>35.7</v>
+        <v>86.5</v>
       </c>
       <c r="M12">
-        <v>11.1</v>
+        <v>13.5</v>
       </c>
       <c r="N12">
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2616,16 +2616,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>10.4</v>
+        <v>13.5</v>
       </c>
       <c r="M13">
-        <v>82.09999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2638,561 +2638,597 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>62.8</v>
+      </c>
+      <c r="C2">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="D2">
+        <v>43.3</v>
+      </c>
+      <c r="E2">
+        <v>59.9</v>
+      </c>
+      <c r="F2">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="G2">
+        <v>73</v>
+      </c>
+      <c r="H2">
+        <v>87.2</v>
+      </c>
+      <c r="I2">
+        <v>90</v>
+      </c>
+      <c r="J2">
+        <v>95</v>
+      </c>
+      <c r="K2">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="L2">
+        <v>97.5</v>
+      </c>
+      <c r="M2">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="N2">
+        <v>93.89999999999999</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>11.5</v>
-      </c>
-      <c r="C2">
-        <v>4.3</v>
-      </c>
-      <c r="D2">
-        <v>79.60000000000001</v>
-      </c>
-      <c r="E2">
-        <v>93.10000000000001</v>
-      </c>
-      <c r="F2">
-        <v>88.7</v>
-      </c>
-      <c r="G2">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="H2">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="I2">
-        <v>94.5</v>
-      </c>
-      <c r="J2">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="K2">
-        <v>99.3</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B3">
-        <v>99.59999999999999</v>
+        <v>13.4</v>
       </c>
       <c r="C3">
-        <v>64.8</v>
+        <v>3.1</v>
       </c>
       <c r="D3">
-        <v>63.5</v>
+        <v>79.5</v>
       </c>
       <c r="E3">
-        <v>74</v>
+        <v>93.8</v>
       </c>
       <c r="F3">
-        <v>86.40000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G3">
-        <v>76.3</v>
+        <v>91</v>
       </c>
       <c r="H3">
-        <v>85</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I3">
-        <v>95.8</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="J3">
-        <v>99.2</v>
+        <v>98.2</v>
       </c>
       <c r="K3">
-        <v>98.3</v>
+        <v>99.5</v>
       </c>
       <c r="L3">
         <v>100</v>
       </c>
       <c r="M3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>95.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E4">
+        <v>98.5</v>
+      </c>
+      <c r="F4">
         <v>98.59999999999999</v>
       </c>
-      <c r="F4">
-        <v>98.3</v>
-      </c>
       <c r="G4">
-        <v>92</v>
+        <v>91.8</v>
       </c>
       <c r="H4">
-        <v>96</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="I4">
-        <v>92.7</v>
+        <v>93.7</v>
       </c>
       <c r="J4">
-        <v>86.90000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K4">
-        <v>96.09999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="L4">
-        <v>92.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="M4">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="N4">
-        <v>99.90000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C5">
+        <v>62.3</v>
+      </c>
+      <c r="D5">
         <v>63.1</v>
       </c>
-      <c r="C5">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="D5">
-        <v>46.3</v>
-      </c>
       <c r="E5">
-        <v>59.2</v>
+        <v>69.8</v>
       </c>
       <c r="F5">
-        <v>83.59999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="G5">
-        <v>72.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="H5">
-        <v>85.2</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="I5">
-        <v>90.7</v>
+        <v>95</v>
       </c>
       <c r="J5">
-        <v>93.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K5">
-        <v>99.09999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="L5">
-        <v>97.89999999999999</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>97.7</v>
+        <v>100</v>
       </c>
       <c r="N5">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>92.5</v>
+        <v>89.8</v>
       </c>
       <c r="C6">
-        <v>96.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="D6">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E6">
-        <v>89.40000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="F6">
-        <v>94.19999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>62.7</v>
       </c>
       <c r="H6">
-        <v>86.7</v>
+        <v>84.7</v>
       </c>
       <c r="I6">
-        <v>65.2</v>
+        <v>64.2</v>
       </c>
       <c r="J6">
-        <v>53.90000000000001</v>
+        <v>50.8</v>
       </c>
       <c r="K6">
-        <v>40.3</v>
+        <v>42.5</v>
       </c>
       <c r="L6">
-        <v>65</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="M6">
-        <v>83.2</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="N6">
-        <v>80.80000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>92.7</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>51.9</v>
       </c>
       <c r="C7">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="D7">
-        <v>4.6</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="E7">
-        <v>53.5</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="F7">
-        <v>26.9</v>
+        <v>24.1</v>
       </c>
       <c r="G7">
-        <v>40.5</v>
+        <v>38.3</v>
       </c>
       <c r="H7">
-        <v>50.2</v>
+        <v>50.1</v>
       </c>
       <c r="I7">
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="J7">
-        <v>40.2</v>
+        <v>41.6</v>
       </c>
       <c r="K7">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="L7">
-        <v>49.8</v>
+        <v>48.4</v>
       </c>
       <c r="M7">
-        <v>72</v>
+        <v>74.2</v>
       </c>
       <c r="N7">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>56.8</v>
+      </c>
+      <c r="O7">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>77.5</v>
+        <v>88</v>
       </c>
       <c r="C8">
-        <v>96.5</v>
+        <v>27.5</v>
       </c>
       <c r="D8">
-        <v>96.39999999999999</v>
+        <v>49.6</v>
       </c>
       <c r="E8">
-        <v>68.2</v>
+        <v>38.9</v>
       </c>
       <c r="F8">
-        <v>56.8</v>
+        <v>33.4</v>
       </c>
       <c r="G8">
-        <v>71.39999999999999</v>
+        <v>55.3</v>
       </c>
       <c r="H8">
-        <v>48.9</v>
+        <v>43.3</v>
       </c>
       <c r="I8">
-        <v>81.59999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="J8">
-        <v>64</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="K8">
-        <v>81.39999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="L8">
-        <v>65.40000000000001</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="M8">
-        <v>49.4</v>
+        <v>30.9</v>
       </c>
       <c r="N8">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="O8">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C9">
-        <v>92.5</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="D9">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="E9">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="F9">
+        <v>55.50000000000001</v>
+      </c>
+      <c r="G9">
+        <v>63.9</v>
+      </c>
+      <c r="H9">
+        <v>81</v>
+      </c>
+      <c r="I9">
+        <v>66.5</v>
+      </c>
+      <c r="J9">
+        <v>49.1</v>
+      </c>
+      <c r="K9">
+        <v>32</v>
+      </c>
+      <c r="L9">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="N9">
+        <v>50.5</v>
+      </c>
+      <c r="O9">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1.5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>10.1</v>
+      </c>
+      <c r="E10">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F10">
+        <v>26.7</v>
+      </c>
+      <c r="G10">
+        <v>38.1</v>
+      </c>
+      <c r="H10">
+        <v>21.7</v>
+      </c>
+      <c r="I10">
+        <v>10.3</v>
+      </c>
+      <c r="J10">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="K10">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L10">
+        <v>24.4</v>
+      </c>
+      <c r="M10">
+        <v>12.7</v>
+      </c>
+      <c r="N10">
+        <v>21.5</v>
+      </c>
+      <c r="O10">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="C11">
         <v>97.59999999999999</v>
       </c>
-      <c r="E9">
-        <v>81.69999999999999</v>
-      </c>
-      <c r="F9">
-        <v>54.2</v>
-      </c>
-      <c r="G9">
-        <v>68.7</v>
-      </c>
-      <c r="H9">
-        <v>80.10000000000001</v>
-      </c>
-      <c r="I9">
-        <v>63.4</v>
-      </c>
-      <c r="J9">
-        <v>51.3</v>
-      </c>
-      <c r="K9">
-        <v>30.9</v>
-      </c>
-      <c r="L9">
-        <v>22.9</v>
-      </c>
-      <c r="M9">
-        <v>43.1</v>
-      </c>
-      <c r="N9">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>48.3</v>
-      </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>37</v>
-      </c>
-      <c r="G10">
-        <v>51.3</v>
-      </c>
-      <c r="H10">
-        <v>43.6</v>
-      </c>
-      <c r="I10">
-        <v>63.1</v>
-      </c>
-      <c r="J10">
-        <v>80.5</v>
-      </c>
-      <c r="K10">
-        <v>72.2</v>
-      </c>
-      <c r="L10">
-        <v>59</v>
-      </c>
-      <c r="M10">
-        <v>32.1</v>
-      </c>
-      <c r="N10">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>0.6</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
-        <v>9.9</v>
+        <v>97.2</v>
       </c>
       <c r="E11">
-        <v>7.8</v>
+        <v>69.39999999999999</v>
       </c>
       <c r="F11">
-        <v>26.4</v>
+        <v>60.2</v>
       </c>
       <c r="G11">
-        <v>36.4</v>
+        <v>72.7</v>
       </c>
       <c r="H11">
-        <v>20.2</v>
+        <v>48</v>
       </c>
       <c r="I11">
-        <v>11.2</v>
+        <v>80</v>
       </c>
       <c r="J11">
-        <v>6.7</v>
+        <v>66.7</v>
       </c>
       <c r="K11">
-        <v>10.1</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="L11">
-        <v>22.9</v>
+        <v>66.7</v>
       </c>
       <c r="M11">
-        <v>11.2</v>
+        <v>49.7</v>
       </c>
       <c r="N11">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>18.1</v>
+      </c>
+      <c r="O11">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12">
-        <v>22.3</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>56.59999999999999</v>
+        <v>60.3</v>
       </c>
       <c r="D12">
-        <v>14.7</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F12">
-        <v>38.8</v>
+        <v>41.9</v>
       </c>
       <c r="G12">
-        <v>37.9</v>
+        <v>34.9</v>
       </c>
       <c r="H12">
-        <v>20.3</v>
+        <v>19.6</v>
       </c>
       <c r="I12">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="J12">
-        <v>24.5</v>
+        <v>28.4</v>
       </c>
       <c r="K12">
-        <v>46.5</v>
+        <v>46.6</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="M12">
-        <v>12.5</v>
+        <v>11.8</v>
       </c>
       <c r="N12">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C13">
-        <v>64.7</v>
+        <v>61.7</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>41.4</v>
       </c>
       <c r="E13">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F13">
         <v>8.699999999999999</v>
       </c>
       <c r="G13">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H13">
-        <v>0.7000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="I13">
         <v>0.7000000000000001</v>
@@ -3201,15 +3237,18 @@
         <v>0.4</v>
       </c>
       <c r="K13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L13">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M13">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
     </row>
@@ -3228,28 +3267,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3257,28 +3296,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>117.97</v>
+        <v>122.18</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>123.02</v>
+        <v>124.89</v>
       </c>
       <c r="G2">
-        <v>0.542</v>
+        <v>0.615</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3289,25 +3328,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>121.52</v>
+        <v>121.96</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>119.88</v>
+        <v>117.73</v>
       </c>
       <c r="G3">
-        <v>0.542</v>
+        <v>0.462</v>
       </c>
       <c r="H3">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3315,28 +3354,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>123.34</v>
+        <v>117.73</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>121.45</v>
+        <v>121.96</v>
       </c>
       <c r="G4">
-        <v>0.625</v>
+        <v>0.538</v>
       </c>
       <c r="H4">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3344,28 +3383,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>124.53</v>
+        <v>108.29</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>120.65</v>
+        <v>121.07</v>
       </c>
       <c r="G5">
-        <v>0.625</v>
+        <v>0.538</v>
       </c>
       <c r="H5">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3373,28 +3412,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>108.66</v>
+        <v>114.82</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>118.51</v>
+        <v>117.53</v>
       </c>
       <c r="G6">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="H6">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3405,25 +3444,25 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>106.14</v>
+        <v>103.27</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7">
-        <v>115.54</v>
+        <v>113.26</v>
       </c>
       <c r="G7">
-        <v>0.375</v>
+        <v>0.308</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3434,25 +3473,25 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>98.37</v>
+        <v>97.5</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>116.47</v>
+        <v>116.69</v>
       </c>
       <c r="G8">
-        <v>0.542</v>
+        <v>0.615</v>
       </c>
       <c r="H8">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3460,28 +3499,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>121.8</v>
+        <v>117.53</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>115.09</v>
+        <v>114.82</v>
       </c>
       <c r="G9">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="H9">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3489,28 +3528,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>115.86</v>
+        <v>124.89</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>110.36</v>
+        <v>122.18</v>
       </c>
       <c r="G10">
-        <v>0.458</v>
+        <v>0.769</v>
       </c>
       <c r="H10">
-        <v>-18</v>
+        <v>-4</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3518,28 +3557,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>114.58</v>
+        <v>121.07</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>107.12</v>
+        <v>108.29</v>
       </c>
       <c r="G11">
-        <v>0.375</v>
+        <v>0.462</v>
       </c>
       <c r="H11">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3550,25 +3589,25 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>118.37</v>
+        <v>116.69</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12">
-        <v>110.85</v>
+        <v>97.5</v>
       </c>
       <c r="G12">
-        <v>0.542</v>
+        <v>0.308</v>
       </c>
       <c r="H12">
-        <v>-22.5</v>
+        <v>-42</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3579,25 +3618,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>115.21</v>
+        <v>113.26</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>107.4</v>
+        <v>103.27</v>
       </c>
       <c r="G13">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="H13">
-        <v>-27.5</v>
+        <v>-50</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3615,48 +3654,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D2">
-        <v>123.3366666666666</v>
+        <v>121.0661538461538</v>
       </c>
       <c r="E2">
-        <v>1480.04</v>
+        <v>1573.86</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3665,27 +3704,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D3">
-        <v>118.3666666666667</v>
+        <v>122.1830769230769</v>
       </c>
       <c r="E3">
-        <v>1420.4</v>
+        <v>1588.38</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3694,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3705,57 +3744,57 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D4">
-        <v>124.5316666666667</v>
+        <v>124.8938461538462</v>
       </c>
       <c r="E4">
-        <v>1494.38</v>
+        <v>1623.62</v>
       </c>
       <c r="F4">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D5">
-        <v>121.7983333333333</v>
+        <v>116.6876923076923</v>
       </c>
       <c r="E5">
-        <v>1461.58</v>
+        <v>1516.94</v>
       </c>
       <c r="F5">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3763,28 +3802,28 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D6">
-        <v>121.515</v>
+        <v>121.9569230769231</v>
       </c>
       <c r="E6">
-        <v>1458.18</v>
+        <v>1585.44</v>
       </c>
       <c r="F6">
-        <v>84.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3792,57 +3831,57 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D7">
-        <v>117.9683333333333</v>
+        <v>117.7338461538461</v>
       </c>
       <c r="E7">
-        <v>1415.62</v>
+        <v>1530.54</v>
       </c>
       <c r="F7">
-        <v>76.40000000000001</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
-        <v>106.1433333333333</v>
+        <v>117.5338461538461</v>
       </c>
       <c r="E8">
-        <v>1273.72</v>
+        <v>1527.94</v>
       </c>
       <c r="F8">
-        <v>48.9</v>
+        <v>55.3</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3850,86 +3889,86 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D9">
-        <v>115.8583333333333</v>
+        <v>114.8230769230769</v>
       </c>
       <c r="E9">
-        <v>1390.3</v>
+        <v>1492.7</v>
       </c>
       <c r="F9">
-        <v>39.4</v>
+        <v>52.6</v>
       </c>
       <c r="G9">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D10">
-        <v>114.5783333333333</v>
+        <v>108.2861538461539</v>
       </c>
       <c r="E10">
-        <v>1374.94</v>
+        <v>1407.72</v>
       </c>
       <c r="F10">
-        <v>34.8</v>
+        <v>20.3</v>
       </c>
       <c r="G10">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D11">
-        <v>108.6583333333333</v>
+        <v>103.2661538461539</v>
       </c>
       <c r="E11">
-        <v>1303.9</v>
+        <v>1342.46</v>
       </c>
       <c r="F11">
-        <v>10.3</v>
+        <v>14.3</v>
       </c>
       <c r="G11">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3937,28 +3976,28 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D12">
-        <v>115.215</v>
+        <v>113.2630769230769</v>
       </c>
       <c r="E12">
-        <v>1382.58</v>
+        <v>1472.42</v>
       </c>
       <c r="F12">
-        <v>6.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>11.1</v>
+        <v>13.5</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3966,28 +4005,28 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D13">
-        <v>98.37333333333333</v>
+        <v>97.49538461538462</v>
       </c>
       <c r="E13">
-        <v>1180.48</v>
+        <v>1267.44</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.09999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4005,19 +4044,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4028,16 +4067,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4048,16 +4087,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4068,16 +4107,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4085,19 +4124,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
       </c>
       <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4105,19 +4144,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4125,19 +4164,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4145,19 +4184,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4165,19 +4204,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4191,13 +4230,13 @@
         <v>63</v>
       </c>
       <c r="D10">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4208,13 +4247,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>112</v>
@@ -4225,19 +4264,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>-42</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4245,19 +4284,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>-42</v>
+        <v>-50</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4267,54 +4306,57 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4354,11 +4396,14 @@
       <c r="M2">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4398,11 +4443,14 @@
       <c r="M3">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4442,231 +4490,249 @@
       <c r="M4">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>-2</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>-9</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>-6</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>-3</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>9</v>
       </c>
-      <c r="K5">
+      <c r="K7">
         <v>8</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <v>8</v>
       </c>
-      <c r="M5">
+      <c r="M7">
         <v>12</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-7</v>
+      </c>
+      <c r="E8">
+        <v>-9</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8">
+        <v>-6</v>
+      </c>
+      <c r="H8">
+        <v>-6</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>-7</v>
+      </c>
+      <c r="L8">
+        <v>-3</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="I6">
+      <c r="K9">
+        <v>-2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>6</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>7</v>
-      </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-      <c r="N6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>-2</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>11</v>
-      </c>
-      <c r="L7">
-        <v>14</v>
-      </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>-2</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="N8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9">
-        <v>-7</v>
-      </c>
-      <c r="E9">
-        <v>-9</v>
-      </c>
-      <c r="F9">
-        <v>-5</v>
-      </c>
-      <c r="G9">
-        <v>-6</v>
-      </c>
-      <c r="H9">
-        <v>-6</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-      <c r="J9">
-        <v>-1</v>
-      </c>
-      <c r="K9">
-        <v>-7</v>
-      </c>
-      <c r="L9">
-        <v>-3</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -4706,11 +4772,14 @@
       <c r="M10">
         <v>-3</v>
       </c>
-      <c r="N10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10">
+        <v>-4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4750,96 +4819,105 @@
       <c r="M11">
         <v>-13</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11">
+        <v>-16</v>
+      </c>
+      <c r="O11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12">
+        <v>-8</v>
+      </c>
+      <c r="C12">
         <v>-6</v>
       </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
       <c r="D12">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="E12">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="F12">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G12">
-        <v>-17</v>
+        <v>-26</v>
       </c>
       <c r="H12">
-        <v>-17</v>
+        <v>-28</v>
       </c>
       <c r="I12">
-        <v>-12</v>
+        <v>-35</v>
       </c>
       <c r="J12">
-        <v>-20</v>
+        <v>-35</v>
       </c>
       <c r="K12">
-        <v>-21</v>
+        <v>-38</v>
       </c>
       <c r="L12">
-        <v>-32</v>
+        <v>-34</v>
       </c>
       <c r="M12">
         <v>-42</v>
       </c>
-      <c r="N12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12">
+        <v>-42</v>
+      </c>
+      <c r="O12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="C13">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="D13">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="E13">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="F13">
+        <v>-15</v>
+      </c>
+      <c r="G13">
+        <v>-17</v>
+      </c>
+      <c r="H13">
+        <v>-17</v>
+      </c>
+      <c r="I13">
+        <v>-12</v>
+      </c>
+      <c r="J13">
         <v>-20</v>
       </c>
-      <c r="G13">
-        <v>-26</v>
-      </c>
-      <c r="H13">
-        <v>-28</v>
-      </c>
-      <c r="I13">
-        <v>-35</v>
-      </c>
-      <c r="J13">
-        <v>-35</v>
-      </c>
       <c r="K13">
-        <v>-38</v>
+        <v>-21</v>
       </c>
       <c r="L13">
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="M13">
         <v>-42</v>
       </c>
-      <c r="N13" t="s">
-        <v>113</v>
+      <c r="N13">
+        <v>-50</v>
+      </c>
+      <c r="O13" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="131">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -61,37 +61,37 @@
     <t>cman</t>
   </si>
   <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>1-12-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -193,6 +193,9 @@
     <t>Week_14</t>
   </si>
   <si>
+    <t>Week_15</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -214,42 +217,42 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Zachary Sparano</t>
+  </si>
+  <si>
     <t>Michael  Celoni</t>
   </si>
   <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>PJ Vogric</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
+    <t>Shane Leiphart</t>
+  </si>
+  <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Eli Brinker</t>
+  </si>
+  <si>
     <t>Chris Holloway</t>
   </si>
   <si>
-    <t>Chris Carbone</t>
-  </si>
-  <si>
-    <t>PJ Vogric</t>
-  </si>
-  <si>
-    <t>Shane Leiphart</t>
-  </si>
-  <si>
-    <t>Marvin Ta</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
     <t>Colman Closser</t>
   </si>
   <si>
-    <t>Robbie Wilston</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Eli Brinker</t>
-  </si>
-  <si>
-    <t>Zachary Sparano</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -274,67 +277,40 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>7.6-6.4</t>
-  </si>
-  <si>
-    <t>10.4-3.5</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>4.6-9.4</t>
-  </si>
-  <si>
-    <t>4.3-9.7</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>7-7</t>
   </si>
   <si>
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
   </si>
   <si>
     <t>Owners</t>
@@ -346,36 +322,39 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -413,6 +392,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -846,34 +828,34 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -884,37 +866,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -922,10 +904,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -934,25 +916,25 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
         <v>12</v>
@@ -963,40 +945,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
         <v>15</v>
-      </c>
-      <c r="M5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1004,40 +986,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1045,40 +1027,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1089,37 +1071,37 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1127,40 +1109,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
         <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1168,19 +1150,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1189,16 +1171,16 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1212,31 +1194,31 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
@@ -1250,34 +1232,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -1297,19 +1279,19 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1318,10 +1300,10 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
@@ -1342,25 +1324,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1394,22 +1376,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3">
-        <v>-34</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -1423,22 +1405,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>-34</v>
       </c>
       <c r="F4">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1446,25 +1428,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>-21</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>-13</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1472,25 +1454,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>-16</v>
+        <v>-21</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1498,25 +1480,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
+        <v>-16</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
         <v>4</v>
-      </c>
-      <c r="F7">
-        <v>-17</v>
-      </c>
-      <c r="G7">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1524,25 +1506,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>-9</v>
-      </c>
       <c r="F8">
-        <v>11</v>
+        <v>-17</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1550,25 +1532,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1576,22 +1558,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -1602,25 +1584,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1655,10 +1637,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4.833333333333333</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1669,10 +1651,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1683,10 +1665,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>5.583333333333333</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1697,7 +1679,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6.083333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1708,13 +1690,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>6.416666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1722,10 +1704,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>6.416666666666667</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1736,13 +1718,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>6.416666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1753,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.666666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1764,10 +1746,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>6.833333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1781,10 +1763,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.083333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1795,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>7.75</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1809,10 +1791,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>8.416666666666666</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1850,13 +1832,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>8.083333333333334</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D2">
         <v>0.08333333333333393</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1867,10 +1849,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>8.083333333333334</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>1.083333333333334</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1884,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.583333333333333</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D4">
-        <v>0.583333333333333</v>
+        <v>0.08333333333333393</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1898,16 +1880,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>7.416666666666667</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D5">
-        <v>-2.583333333333333</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1915,16 +1897,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>7.333333333333333</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D6">
-        <v>1.333333333333333</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1932,16 +1914,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>7.25</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.75</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1949,16 +1931,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>7.083333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D8">
-        <v>1.083333333333333</v>
+        <v>-2.5</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1975,7 +1957,7 @@
         <v>0.833333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1986,13 +1968,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>6.083333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D10">
-        <v>2.083333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2003,13 +1985,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>5.083333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D11">
-        <v>-0.916666666666667</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2020,13 +2002,13 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>4.25</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D12">
-        <v>-1.75</v>
+        <v>-1.583333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2037,13 +2019,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>2.916666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D13">
-        <v>-1.083333333333333</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2111,22 +2093,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>36.4</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2193,28 +2175,28 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>24.6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2237,22 +2219,22 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>31.6</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>43.6</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2281,28 +2263,28 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>25.3</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2325,7 +2307,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2334,28 +2316,28 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2364,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>57.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2381,25 +2363,25 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>29.2</v>
+        <v>100</v>
       </c>
       <c r="H8">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2408,12 +2390,12 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>55.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2428,36 +2410,36 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>22.3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>22.9</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>52.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2478,16 +2460,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>26.5</v>
+        <v>100</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2496,12 +2478,12 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2522,16 +2504,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7.5</v>
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>56.8</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2540,12 +2522,12 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2578,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>86.5</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>13.5</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2589,7 +2571,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2613,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2622,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>86.5</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2638,13 +2620,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
@@ -2687,90 +2669,96 @@
       <c r="O1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62.8</v>
+        <v>61</v>
       </c>
       <c r="C2">
-        <v>92.30000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="D2">
-        <v>43.3</v>
+        <v>46.6</v>
       </c>
       <c r="E2">
-        <v>59.9</v>
+        <v>58.5</v>
       </c>
       <c r="F2">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>72.5</v>
       </c>
       <c r="H2">
-        <v>87.2</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="I2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J2">
-        <v>95</v>
+        <v>95.8</v>
       </c>
       <c r="K2">
-        <v>98.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="L2">
-        <v>97.5</v>
+        <v>98.3</v>
       </c>
       <c r="M2">
-        <v>98.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="N2">
-        <v>93.89999999999999</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="O2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.4</v>
+        <v>14.5</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>79.5</v>
+        <v>79.7</v>
       </c>
       <c r="E3">
-        <v>93.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F3">
-        <v>84.59999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G3">
-        <v>91</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="H3">
-        <v>83.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>94.89999999999999</v>
       </c>
       <c r="J3">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="K3">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2781,93 +2769,99 @@
       <c r="O3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>53.6</v>
+      </c>
+      <c r="C4">
+        <v>4.2</v>
+      </c>
+      <c r="D4">
+        <v>3.3</v>
+      </c>
+      <c r="E4">
+        <v>54.2</v>
+      </c>
+      <c r="F4">
+        <v>26.5</v>
+      </c>
+      <c r="G4">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="H4">
+        <v>49.5</v>
+      </c>
+      <c r="I4">
+        <v>27.4</v>
+      </c>
+      <c r="J4">
+        <v>40.8</v>
+      </c>
+      <c r="K4">
+        <v>24.9</v>
+      </c>
+      <c r="L4">
+        <v>48</v>
+      </c>
+      <c r="M4">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="N4">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="O4">
+        <v>52.40000000000001</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>96.5</v>
-      </c>
-      <c r="C4">
+      <c r="B5">
+        <v>96.3</v>
+      </c>
+      <c r="C5">
         <v>100</v>
       </c>
-      <c r="D4">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E4">
-        <v>98.5</v>
-      </c>
-      <c r="F4">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G4">
-        <v>91.8</v>
-      </c>
-      <c r="H4">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="I4">
-        <v>93.7</v>
-      </c>
-      <c r="J4">
-        <v>82.5</v>
-      </c>
-      <c r="K4">
-        <v>96.89999999999999</v>
-      </c>
-      <c r="L4">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="M4">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-      <c r="O4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C5">
-        <v>62.3</v>
-      </c>
       <c r="D5">
-        <v>63.1</v>
+        <v>99.3</v>
       </c>
       <c r="E5">
-        <v>69.8</v>
+        <v>98.7</v>
       </c>
       <c r="F5">
-        <v>87.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="G5">
-        <v>74.90000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="H5">
-        <v>84.89999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="I5">
-        <v>95</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="J5">
-        <v>99.09999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K5">
-        <v>97.89999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>93.2</v>
       </c>
       <c r="M5">
-        <v>100</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2875,380 +2869,407 @@
       <c r="O5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>89.8</v>
+        <v>99.7</v>
       </c>
       <c r="C6">
-        <v>96.3</v>
+        <v>65.2</v>
       </c>
       <c r="D6">
-        <v>98.09999999999999</v>
+        <v>61.6</v>
       </c>
       <c r="E6">
-        <v>89.7</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="F6">
-        <v>93.8</v>
+        <v>87.5</v>
       </c>
       <c r="G6">
-        <v>62.7</v>
+        <v>73.8</v>
       </c>
       <c r="H6">
-        <v>84.7</v>
+        <v>84.3</v>
       </c>
       <c r="I6">
-        <v>64.2</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="J6">
-        <v>50.8</v>
+        <v>99.2</v>
       </c>
       <c r="K6">
-        <v>42.5</v>
+        <v>98.7</v>
       </c>
       <c r="L6">
-        <v>66.60000000000001</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>83.89999999999999</v>
+        <v>100</v>
       </c>
       <c r="N6">
-        <v>92.7</v>
+        <v>100</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>51.9</v>
+        <v>93.2</v>
       </c>
       <c r="C7">
-        <v>6.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D7">
-        <v>4.399999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E7">
-        <v>56.10000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="F7">
-        <v>24.1</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="G7">
-        <v>38.3</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H7">
-        <v>50.1</v>
+        <v>85.8</v>
       </c>
       <c r="I7">
-        <v>29.5</v>
+        <v>63.6</v>
       </c>
       <c r="J7">
-        <v>41.6</v>
+        <v>49.9</v>
       </c>
       <c r="K7">
-        <v>25</v>
+        <v>43.3</v>
       </c>
       <c r="L7">
-        <v>48.4</v>
+        <v>65.2</v>
       </c>
       <c r="M7">
-        <v>74.2</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="N7">
-        <v>56.8</v>
+        <v>93</v>
       </c>
       <c r="O7">
-        <v>58.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="C8">
-        <v>27.5</v>
+        <v>25.8</v>
       </c>
       <c r="D8">
-        <v>49.6</v>
+        <v>51.9</v>
       </c>
       <c r="E8">
-        <v>38.9</v>
+        <v>40.1</v>
       </c>
       <c r="F8">
-        <v>33.4</v>
+        <v>34</v>
       </c>
       <c r="G8">
-        <v>55.3</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="H8">
         <v>43.3</v>
       </c>
       <c r="I8">
-        <v>62.5</v>
+        <v>64.5</v>
       </c>
       <c r="J8">
-        <v>82.39999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K8">
-        <v>70.7</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="L8">
-        <v>57.09999999999999</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="M8">
-        <v>30.9</v>
+        <v>29.8</v>
       </c>
       <c r="N8">
-        <v>66.40000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="O8">
-        <v>54.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>18.6</v>
+      </c>
+      <c r="C9">
+        <v>61.6</v>
+      </c>
+      <c r="D9">
+        <v>15.9</v>
+      </c>
+      <c r="E9">
+        <v>19.9</v>
+      </c>
+      <c r="F9">
+        <v>39.7</v>
+      </c>
+      <c r="G9">
+        <v>33.1</v>
+      </c>
+      <c r="H9">
+        <v>20.6</v>
+      </c>
+      <c r="I9">
+        <v>12.2</v>
+      </c>
+      <c r="J9">
+        <v>23.6</v>
+      </c>
+      <c r="K9">
+        <v>47.59999999999999</v>
+      </c>
+      <c r="L9">
+        <v>27.4</v>
+      </c>
+      <c r="M9">
+        <v>11.6</v>
+      </c>
+      <c r="N9">
+        <v>0.1</v>
+      </c>
+      <c r="O9">
+        <v>1.5</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="C10">
+        <v>96.7</v>
+      </c>
+      <c r="D10">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E10">
+        <v>69.39999999999999</v>
+      </c>
+      <c r="F10">
+        <v>59.4</v>
+      </c>
+      <c r="G10">
+        <v>71</v>
+      </c>
+      <c r="H10">
+        <v>48.5</v>
+      </c>
+      <c r="I10">
+        <v>81.8</v>
+      </c>
+      <c r="J10">
+        <v>68</v>
+      </c>
+      <c r="K10">
+        <v>80.10000000000001</v>
+      </c>
+      <c r="L10">
+        <v>67.5</v>
+      </c>
+      <c r="M10">
+        <v>48.7</v>
+      </c>
+      <c r="N10">
+        <v>18</v>
+      </c>
+      <c r="O10">
+        <v>6.3</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1.3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>10.2</v>
+      </c>
+      <c r="E11">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F11">
+        <v>23.8</v>
+      </c>
+      <c r="G11">
+        <v>36.3</v>
+      </c>
+      <c r="H11">
+        <v>18.4</v>
+      </c>
+      <c r="I11">
+        <v>12.2</v>
+      </c>
+      <c r="J11">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="K11">
+        <v>9.6</v>
+      </c>
+      <c r="L11">
+        <v>20.3</v>
+      </c>
+      <c r="M11">
+        <v>13.7</v>
+      </c>
+      <c r="N11">
+        <v>21.9</v>
+      </c>
+      <c r="O11">
+        <v>11.8</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>62.3</v>
+      </c>
+      <c r="D12">
+        <v>39.3</v>
+      </c>
+      <c r="E12">
+        <v>14.4</v>
+      </c>
+      <c r="F12">
+        <v>10.3</v>
+      </c>
+      <c r="G12">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.4</v>
+      </c>
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.4</v>
+      </c>
+      <c r="M12">
+        <v>0.5</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="C9">
-        <v>92.60000000000001</v>
-      </c>
-      <c r="D9">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="E9">
-        <v>80.80000000000001</v>
-      </c>
-      <c r="F9">
-        <v>55.50000000000001</v>
-      </c>
-      <c r="G9">
-        <v>63.9</v>
-      </c>
-      <c r="H9">
-        <v>81</v>
-      </c>
-      <c r="I9">
-        <v>66.5</v>
-      </c>
-      <c r="J9">
-        <v>49.1</v>
-      </c>
-      <c r="K9">
-        <v>32</v>
-      </c>
-      <c r="L9">
-        <v>23</v>
-      </c>
-      <c r="M9">
-        <v>39.90000000000001</v>
-      </c>
-      <c r="N9">
-        <v>50.5</v>
-      </c>
-      <c r="O9">
-        <v>53.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>1.5</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>10.1</v>
-      </c>
-      <c r="E10">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F10">
-        <v>26.7</v>
-      </c>
-      <c r="G10">
-        <v>38.1</v>
-      </c>
-      <c r="H10">
-        <v>21.7</v>
-      </c>
-      <c r="I10">
-        <v>10.3</v>
-      </c>
-      <c r="J10">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="K10">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="L10">
-        <v>24.4</v>
-      </c>
-      <c r="M10">
-        <v>12.7</v>
-      </c>
-      <c r="N10">
-        <v>21.5</v>
-      </c>
-      <c r="O10">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="C11">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="D11">
-        <v>97.2</v>
-      </c>
-      <c r="E11">
-        <v>69.39999999999999</v>
-      </c>
-      <c r="F11">
-        <v>60.2</v>
-      </c>
-      <c r="G11">
-        <v>72.7</v>
-      </c>
-      <c r="H11">
-        <v>48</v>
-      </c>
-      <c r="I11">
-        <v>80</v>
-      </c>
-      <c r="J11">
-        <v>66.7</v>
-      </c>
-      <c r="K11">
-        <v>80.60000000000001</v>
-      </c>
-      <c r="L11">
-        <v>66.7</v>
-      </c>
-      <c r="M11">
-        <v>49.7</v>
-      </c>
-      <c r="N11">
-        <v>18.1</v>
-      </c>
-      <c r="O11">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>60.3</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>19.1</v>
-      </c>
-      <c r="F12">
-        <v>41.9</v>
-      </c>
-      <c r="G12">
-        <v>34.9</v>
-      </c>
-      <c r="H12">
-        <v>19.6</v>
-      </c>
-      <c r="I12">
-        <v>12.7</v>
-      </c>
-      <c r="J12">
-        <v>28.4</v>
-      </c>
-      <c r="K12">
-        <v>46.6</v>
-      </c>
-      <c r="L12">
-        <v>22.5</v>
-      </c>
-      <c r="M12">
-        <v>11.8</v>
-      </c>
-      <c r="N12">
-        <v>0.1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B13">
-        <v>0.7000000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C13">
-        <v>61.7</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="D13">
-        <v>41.4</v>
+        <v>97.5</v>
       </c>
       <c r="E13">
-        <v>15.7</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="F13">
-        <v>8.699999999999999</v>
+        <v>54.90000000000001</v>
       </c>
       <c r="G13">
-        <v>3.4</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="H13">
-        <v>0.3</v>
+        <v>81.39999999999999</v>
       </c>
       <c r="I13">
-        <v>0.7000000000000001</v>
+        <v>62.8</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>51.4</v>
       </c>
       <c r="K13">
-        <v>0.1</v>
+        <v>30.8</v>
       </c>
       <c r="L13">
-        <v>0.4</v>
+        <v>23.3</v>
       </c>
       <c r="M13">
-        <v>0.4</v>
+        <v>44.7</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O13">
+        <v>29.1</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
     </row>
@@ -3270,25 +3291,25 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3296,28 +3317,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>122.18</v>
+        <v>120.56</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>124.89</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3325,28 +3346,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>121.96</v>
+        <v>112.47</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>117.73</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3354,28 +3375,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>117.73</v>
+        <v>119.35</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>121.96</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3383,28 +3404,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>108.29</v>
+        <v>102.26</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>121.07</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3412,28 +3433,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>114.82</v>
+        <v>107.32</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>117.53</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3441,28 +3462,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7">
-        <v>103.27</v>
+        <v>99.14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>113.26</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3470,28 +3491,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>97.5</v>
+        <v>117.52</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8">
-        <v>116.69</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3499,28 +3520,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>117.53</v>
+        <v>112.23</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>114.82</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3531,25 +3552,25 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>124.89</v>
+        <v>126.45</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>122.18</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3557,28 +3578,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>121.07</v>
+        <v>116.66</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11">
-        <v>108.29</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3586,28 +3607,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12">
-        <v>116.69</v>
+        <v>123.05</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3615,28 +3636,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13">
-        <v>113.26</v>
+        <v>118.11</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>103.27</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3657,28 +3678,28 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3686,16 +3707,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D2">
-        <v>121.0661538461538</v>
+        <v>120.5557142857143</v>
       </c>
       <c r="E2">
-        <v>1573.86</v>
+        <v>1687.78</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3704,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3715,16 +3736,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3">
-        <v>0.7692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D3">
-        <v>122.1830769230769</v>
+        <v>119.3471428571428</v>
       </c>
       <c r="E3">
-        <v>1588.38</v>
+        <v>1670.86</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3733,27 +3754,27 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4">
-        <v>0.6153846153846154</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D4">
-        <v>124.8938461538462</v>
+        <v>117.52</v>
       </c>
       <c r="E4">
-        <v>1623.62</v>
+        <v>1645.28</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3762,27 +3783,27 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5">
-        <v>0.6153846153846154</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D5">
-        <v>116.6876923076923</v>
+        <v>126.4485714285714</v>
       </c>
       <c r="E5">
-        <v>1516.94</v>
+        <v>1770.28</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -3791,27 +3812,27 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>121.9569230769231</v>
+        <v>116.6628571428571</v>
       </c>
       <c r="E6">
-        <v>1585.44</v>
+        <v>1633.28</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -3820,39 +3841,39 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7">
-        <v>0.4615384615384616</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D7">
-        <v>117.7338461538461</v>
+        <v>123.05</v>
       </c>
       <c r="E7">
-        <v>1530.54</v>
+        <v>1722.7</v>
       </c>
       <c r="F7">
-        <v>57.49999999999999</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3860,173 +3881,173 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>117.5338461538461</v>
+        <v>118.1057142857143</v>
       </c>
       <c r="E8">
-        <v>1527.94</v>
+        <v>1653.48</v>
       </c>
       <c r="F8">
-        <v>55.3</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C9">
-        <v>0.4615384615384616</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D9">
-        <v>114.8230769230769</v>
+        <v>112.4657142857143</v>
       </c>
       <c r="E9">
-        <v>1492.7</v>
+        <v>1574.52</v>
       </c>
       <c r="F9">
-        <v>52.6</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
       </c>
       <c r="C10">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>108.2861538461539</v>
+        <v>102.2585714285714</v>
       </c>
       <c r="E10">
-        <v>1407.72</v>
+        <v>1431.62</v>
       </c>
       <c r="F10">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
       </c>
       <c r="C11">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D11">
-        <v>103.2661538461539</v>
+        <v>107.3185714285714</v>
       </c>
       <c r="E11">
-        <v>1342.46</v>
+        <v>1502.46</v>
       </c>
       <c r="F11">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12">
-        <v>0.3076923076923077</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D12">
-        <v>113.2630769230769</v>
+        <v>99.14285714285714</v>
       </c>
       <c r="E12">
-        <v>1472.42</v>
+        <v>1388</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>13.5</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
         <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13">
-        <v>0.3076923076923077</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D13">
-        <v>97.49538461538462</v>
+        <v>112.2285714285714</v>
       </c>
       <c r="E13">
-        <v>1267.44</v>
+        <v>1571.2</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>86.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4047,16 +4068,16 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4067,16 +4088,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4087,16 +4108,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4107,16 +4128,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4127,16 +4148,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4147,16 +4168,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4164,19 +4185,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4184,19 +4205,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4207,16 +4228,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4227,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>-4</v>
@@ -4236,7 +4257,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4247,16 +4268,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4270,13 +4291,13 @@
         <v>69</v>
       </c>
       <c r="D12">
-        <v>-42</v>
+        <v>-37</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4287,16 +4308,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>-50</v>
+        <v>-56</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4306,57 +4327,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4399,11 +4423,14 @@
       <c r="N2">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4446,11 +4473,14 @@
       <c r="N3">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4493,11 +4523,14 @@
       <c r="N4">
         <v>24</v>
       </c>
-      <c r="O4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4540,11 +4573,14 @@
       <c r="N5">
         <v>11</v>
       </c>
-      <c r="O5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4587,105 +4623,114 @@
       <c r="N6">
         <v>8</v>
       </c>
-      <c r="O6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-7</v>
+      </c>
+      <c r="E7">
+        <v>-9</v>
+      </c>
+      <c r="F7">
+        <v>-5</v>
+      </c>
+      <c r="G7">
+        <v>-6</v>
+      </c>
+      <c r="H7">
+        <v>-6</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>-7</v>
+      </c>
+      <c r="L7">
+        <v>-3</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-2</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>-9</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>-6</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>-3</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>9</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>8</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>12</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>7</v>
       </c>
-      <c r="O7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>-7</v>
-      </c>
-      <c r="E8">
-        <v>-9</v>
-      </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
-      <c r="G8">
-        <v>-6</v>
-      </c>
-      <c r="H8">
-        <v>-6</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-      <c r="J8">
-        <v>-1</v>
-      </c>
-      <c r="K8">
-        <v>-7</v>
-      </c>
-      <c r="L8">
-        <v>-3</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4728,11 +4773,14 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>-3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -4775,11 +4823,14 @@
       <c r="N10">
         <v>-4</v>
       </c>
-      <c r="O10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>-4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4822,11 +4873,14 @@
       <c r="N11">
         <v>-16</v>
       </c>
-      <c r="O11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>-20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4869,11 +4923,14 @@
       <c r="N12">
         <v>-42</v>
       </c>
-      <c r="O12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>-37</v>
+      </c>
+      <c r="P12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -4916,8 +4973,11 @@
       <c r="N13">
         <v>-50</v>
       </c>
-      <c r="O13" t="s">
-        <v>116</v>
+      <c r="O13">
+        <v>-56</v>
+      </c>
+      <c r="P13" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="139">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -61,198 +61,222 @@
     <t>cman</t>
   </si>
   <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>10-4-1</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>5-9-1</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins Against Schedule</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Zachary Sparano</t>
+  </si>
+  <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>PJ Vogric</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
+    <t>Shane Leiphart</t>
+  </si>
+  <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Eli Brinker</t>
+  </si>
+  <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
+    <t>Colman Closser</t>
+  </si>
+  <si>
     <t>8-6-0</t>
   </si>
   <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
     <t>7-7-0</t>
   </si>
   <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins Against Schedule</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Expected Wins</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>1st Place</t>
-  </si>
-  <si>
-    <t>2nd Place</t>
-  </si>
-  <si>
-    <t>3rd Place</t>
-  </si>
-  <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>9th Place</t>
-  </si>
-  <si>
-    <t>10th Place</t>
-  </si>
-  <si>
-    <t>11th Place</t>
-  </si>
-  <si>
-    <t>12th Place</t>
-  </si>
-  <si>
-    <t>Chance of Making Playoffs</t>
-  </si>
-  <si>
-    <t>Week_1</t>
-  </si>
-  <si>
-    <t>Week_2</t>
-  </si>
-  <si>
-    <t>Week_3</t>
-  </si>
-  <si>
-    <t>Week_4</t>
-  </si>
-  <si>
-    <t>Week_5</t>
-  </si>
-  <si>
-    <t>Week_6</t>
-  </si>
-  <si>
-    <t>Week_7</t>
-  </si>
-  <si>
-    <t>Week_8</t>
-  </si>
-  <si>
-    <t>Week_9</t>
-  </si>
-  <si>
-    <t>Week_10</t>
-  </si>
-  <si>
-    <t>Week_11</t>
-  </si>
-  <si>
-    <t>Week_12</t>
-  </si>
-  <si>
-    <t>Week_13</t>
-  </si>
-  <si>
-    <t>Week_14</t>
-  </si>
-  <si>
-    <t>Week_15</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Avg_Points_For</t>
-  </si>
-  <si>
-    <t>Team_Record</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Points_For</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Win_Pct</t>
-  </si>
-  <si>
-    <t>Avg_Opp_LPI</t>
-  </si>
-  <si>
-    <t>Games_Remaining</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Zachary Sparano</t>
-  </si>
-  <si>
-    <t>Michael  Celoni</t>
-  </si>
-  <si>
-    <t>Marvin Ta</t>
-  </si>
-  <si>
-    <t>PJ Vogric</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Chris Carbone</t>
-  </si>
-  <si>
-    <t>Shane Leiphart</t>
-  </si>
-  <si>
-    <t>Robbie Wilston</t>
-  </si>
-  <si>
-    <t>Eli Brinker</t>
-  </si>
-  <si>
-    <t>Chris Holloway</t>
-  </si>
-  <si>
-    <t>Colman Closser</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -322,39 +346,36 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>↑6</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -395,6 +416,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -831,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -849,13 +873,13 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -872,7 +896,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -890,13 +914,13 @@
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -910,28 +934,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -948,31 +972,31 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
         <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -998,22 +1022,22 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -1036,16 +1060,16 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -1054,10 +1078,10 @@
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
@@ -1071,7 +1095,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -1080,28 +1104,28 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1115,16 +1139,16 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -1136,7 +1160,7 @@
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
         <v>19</v>
@@ -1153,22 +1177,22 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
         <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
@@ -1177,10 +1201,10 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1191,22 +1215,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
@@ -1215,13 +1239,13 @@
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
@@ -1232,25 +1256,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
@@ -1259,13 +1283,13 @@
         <v>21</v>
       </c>
       <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
         <v>17</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1276,34 +1300,34 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
         <v>17</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
@@ -1316,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1324,25 +1348,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1350,25 +1374,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>-35</v>
+        <v>-58</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1376,19 +1400,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>-35</v>
       </c>
       <c r="F3">
-        <v>-37</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>42</v>
@@ -1402,22 +1426,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4">
-        <v>-34</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -1431,22 +1455,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>-34</v>
       </c>
       <c r="F5">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1454,25 +1478,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>-21</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>-13</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1480,25 +1504,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>-16</v>
+        <v>-21</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1506,25 +1530,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
+        <v>-16</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
         <v>4</v>
-      </c>
-      <c r="F8">
-        <v>-17</v>
-      </c>
-      <c r="G8">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1532,25 +1556,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>-9</v>
-      </c>
       <c r="F9">
-        <v>11</v>
+        <v>-17</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1558,25 +1582,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1584,24 +1608,50 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
+        <v>-8</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>-11</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1620,13 +1670,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1637,7 +1687,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1651,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6.25</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1662,13 +1712,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>6.416666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1676,13 +1726,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1690,13 +1740,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>6.75</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1704,13 +1754,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1718,13 +1768,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>7.083333333333333</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1732,13 +1782,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>7.333333333333333</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1746,13 +1796,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>7.333333333333333</v>
+        <v>7.75</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1760,13 +1810,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>7.416666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1774,10 +1824,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>7.833333333333333</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1791,10 +1841,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>9.083333333333334</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1812,16 +1862,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1832,10 +1882,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>9.083333333333334</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>0.08333333333333393</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -1849,13 +1899,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1863,16 +1913,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>8.083333333333334</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D4">
-        <v>0.08333333333333393</v>
+        <v>-0.3333333333333339</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1883,10 +1933,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>7.916666666666667</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D5">
-        <v>0.916666666666667</v>
+        <v>1.583333333333334</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1897,16 +1947,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7.833333333333333</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D6">
-        <v>-0.166666666666667</v>
+        <v>2.333333333333334</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1914,16 +1964,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>7.833333333333333</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D7">
-        <v>1.833333333333333</v>
+        <v>0.08333333333333393</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1934,13 +1984,13 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D8">
-        <v>-2.5</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1951,10 +2001,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.833333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D9">
-        <v>0.833333333333333</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -1968,10 +2018,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>6.5</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D10">
-        <v>1.5</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1985,13 +2035,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>5.333333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D11">
-        <v>-0.666666666666667</v>
+        <v>-1.25</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2002,13 +2052,13 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>4.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D12">
-        <v>-1.583333333333333</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2019,13 +2069,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>3.666666666666667</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D13">
-        <v>-1.333333333333333</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2043,46 +2093,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2628,49 +2678,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2678,43 +2728,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>64.2</v>
       </c>
       <c r="C2">
-        <v>91.3</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="D2">
-        <v>46.6</v>
+        <v>42.1</v>
       </c>
       <c r="E2">
         <v>58.5</v>
       </c>
       <c r="F2">
-        <v>84.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G2">
-        <v>72.5</v>
+        <v>74</v>
       </c>
       <c r="H2">
-        <v>88.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="I2">
-        <v>91</v>
+        <v>88.8</v>
       </c>
       <c r="J2">
-        <v>95.8</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="K2">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="L2">
-        <v>98.3</v>
+        <v>97.3</v>
       </c>
       <c r="M2">
-        <v>97.8</v>
+        <v>96.5</v>
       </c>
       <c r="N2">
-        <v>92.80000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2728,37 +2778,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D3">
-        <v>79.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E3">
         <v>93.40000000000001</v>
       </c>
       <c r="F3">
-        <v>86.59999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="G3">
-        <v>89.90000000000001</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H3">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I3">
-        <v>94.89999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="J3">
-        <v>98.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="K3">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="L3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -2778,46 +2828,46 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>53.6</v>
+        <v>49.5</v>
       </c>
       <c r="C4">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="D4">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="E4">
-        <v>54.2</v>
+        <v>55.1</v>
       </c>
       <c r="F4">
-        <v>26.5</v>
+        <v>25.7</v>
       </c>
       <c r="G4">
-        <v>40.40000000000001</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>49.5</v>
+        <v>46.8</v>
       </c>
       <c r="I4">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="J4">
-        <v>40.8</v>
+        <v>36.8</v>
       </c>
       <c r="K4">
-        <v>24.9</v>
+        <v>25.7</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>50.5</v>
       </c>
       <c r="M4">
-        <v>71.89999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="N4">
-        <v>56.00000000000001</v>
+        <v>54.7</v>
       </c>
       <c r="O4">
-        <v>52.40000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2828,40 +2878,40 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>98.7</v>
       </c>
       <c r="F5">
-        <v>99</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G5">
-        <v>91.90000000000001</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="H5">
-        <v>95.89999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="I5">
-        <v>92.90000000000001</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="J5">
-        <v>85.7</v>
+        <v>86.8</v>
       </c>
       <c r="K5">
-        <v>96.59999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="L5">
-        <v>93.2</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="M5">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2878,34 +2928,34 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C6">
-        <v>65.2</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="D6">
-        <v>61.6</v>
+        <v>65.10000000000001</v>
       </c>
       <c r="E6">
-        <v>73.59999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="F6">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G6">
-        <v>73.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="H6">
-        <v>84.3</v>
+        <v>83.5</v>
       </c>
       <c r="I6">
-        <v>95.19999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="J6">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="K6">
-        <v>98.7</v>
+        <v>97.7</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -2928,43 +2978,43 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>93.2</v>
+        <v>93.5</v>
       </c>
       <c r="C7">
-        <v>96.09999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="D7">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E7">
-        <v>89.2</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F7">
-        <v>93.60000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="G7">
-        <v>64.90000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="H7">
-        <v>85.8</v>
+        <v>85.5</v>
       </c>
       <c r="I7">
-        <v>63.6</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="J7">
-        <v>49.9</v>
+        <v>47.4</v>
       </c>
       <c r="K7">
-        <v>43.3</v>
+        <v>43.9</v>
       </c>
       <c r="L7">
-        <v>65.2</v>
+        <v>67.30000000000001</v>
       </c>
       <c r="M7">
-        <v>82.89999999999999</v>
+        <v>81.39999999999999</v>
       </c>
       <c r="N7">
-        <v>93</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -2978,46 +3028,46 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>86.59999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C8">
-        <v>25.8</v>
+        <v>24.6</v>
       </c>
       <c r="D8">
-        <v>51.9</v>
+        <v>53.2</v>
       </c>
       <c r="E8">
-        <v>40.1</v>
+        <v>41.2</v>
       </c>
       <c r="F8">
-        <v>34</v>
+        <v>35.4</v>
       </c>
       <c r="G8">
-        <v>52.40000000000001</v>
+        <v>49.2</v>
       </c>
       <c r="H8">
-        <v>43.3</v>
+        <v>42</v>
       </c>
       <c r="I8">
-        <v>64.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="J8">
-        <v>81.59999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K8">
-        <v>70.89999999999999</v>
+        <v>68.30000000000001</v>
       </c>
       <c r="L8">
-        <v>56.49999999999999</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="M8">
-        <v>29.8</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="N8">
-        <v>68.2</v>
+        <v>69.5</v>
       </c>
       <c r="O8">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="P8">
         <v>100</v>
@@ -3028,46 +3078,46 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>18.6</v>
+        <v>19.9</v>
       </c>
       <c r="C9">
-        <v>61.6</v>
+        <v>59.3</v>
       </c>
       <c r="D9">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="E9">
-        <v>19.9</v>
+        <v>18.7</v>
       </c>
       <c r="F9">
-        <v>39.7</v>
+        <v>41.8</v>
       </c>
       <c r="G9">
-        <v>33.1</v>
+        <v>36.2</v>
       </c>
       <c r="H9">
-        <v>20.6</v>
+        <v>21.3</v>
       </c>
       <c r="I9">
-        <v>12.2</v>
+        <v>14.3</v>
       </c>
       <c r="J9">
-        <v>23.6</v>
+        <v>27.1</v>
       </c>
       <c r="K9">
-        <v>47.59999999999999</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="L9">
-        <v>27.4</v>
+        <v>21.3</v>
       </c>
       <c r="M9">
-        <v>11.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N9">
         <v>0.1</v>
       </c>
       <c r="O9">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3078,46 +3128,46 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>74.90000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="C10">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>97.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="E10">
-        <v>69.39999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="F10">
-        <v>59.4</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="G10">
-        <v>71</v>
+        <v>69.5</v>
       </c>
       <c r="H10">
-        <v>48.5</v>
+        <v>51.3</v>
       </c>
       <c r="I10">
-        <v>81.8</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="J10">
-        <v>68</v>
+        <v>63.3</v>
       </c>
       <c r="K10">
-        <v>80.10000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="L10">
-        <v>67.5</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="M10">
-        <v>48.7</v>
+        <v>51.7</v>
       </c>
       <c r="N10">
-        <v>18</v>
+        <v>17.1</v>
       </c>
       <c r="O10">
-        <v>6.3</v>
+        <v>8.9</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3128,46 +3178,46 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.2</v>
+        <v>13.1</v>
       </c>
       <c r="E11">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="F11">
-        <v>23.8</v>
+        <v>25.6</v>
       </c>
       <c r="G11">
         <v>36.3</v>
       </c>
       <c r="H11">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="I11">
-        <v>12.2</v>
+        <v>10.8</v>
       </c>
       <c r="J11">
-        <v>5.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="K11">
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="L11">
-        <v>20.3</v>
+        <v>21.8</v>
       </c>
       <c r="M11">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="N11">
-        <v>21.9</v>
+        <v>20</v>
       </c>
       <c r="O11">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3178,40 +3228,40 @@
         <v>5</v>
       </c>
       <c r="B12">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C12">
+        <v>62.9</v>
+      </c>
+      <c r="D12">
+        <v>38.2</v>
+      </c>
+      <c r="E12">
+        <v>16.2</v>
+      </c>
+      <c r="F12">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="G12">
+        <v>3.2</v>
+      </c>
+      <c r="H12">
+        <v>0.8</v>
+      </c>
+      <c r="I12">
+        <v>0.4</v>
+      </c>
+      <c r="J12">
+        <v>0.3</v>
+      </c>
+      <c r="K12">
+        <v>0.2</v>
+      </c>
+      <c r="L12">
         <v>0.5</v>
       </c>
-      <c r="C12">
-        <v>62.3</v>
-      </c>
-      <c r="D12">
-        <v>39.3</v>
-      </c>
-      <c r="E12">
-        <v>14.4</v>
-      </c>
-      <c r="F12">
-        <v>10.3</v>
-      </c>
-      <c r="G12">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="H12">
-        <v>1.4</v>
-      </c>
-      <c r="I12">
-        <v>1.5</v>
-      </c>
-      <c r="J12">
-        <v>0.1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0.4</v>
-      </c>
       <c r="M12">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3228,46 +3278,46 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="C13">
-        <v>92.80000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D13">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="E13">
-        <v>80.30000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="F13">
-        <v>54.90000000000001</v>
+        <v>51.7</v>
       </c>
       <c r="G13">
-        <v>69.69999999999999</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="H13">
-        <v>81.39999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="I13">
-        <v>62.8</v>
+        <v>62.7</v>
       </c>
       <c r="J13">
-        <v>51.4</v>
+        <v>55.1</v>
       </c>
       <c r="K13">
-        <v>30.8</v>
+        <v>29.9</v>
       </c>
       <c r="L13">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>44.7</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="N13">
-        <v>50</v>
+        <v>48.8</v>
       </c>
       <c r="O13">
-        <v>29.1</v>
+        <v>26.5</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3288,28 +3338,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3320,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>120.56</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3349,13 +3399,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>112.47</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3378,13 +3428,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>119.35</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3407,13 +3457,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>102.26</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3436,13 +3486,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>107.32</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3465,13 +3515,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>99.14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3494,13 +3544,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>117.52</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3523,13 +3573,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>112.23</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3552,13 +3602,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10">
         <v>126.45</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3581,13 +3631,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>116.66</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3610,13 +3660,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>123.05</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3639,13 +3689,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>118.11</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3675,31 +3725,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3707,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>0.5714285714285714</v>
@@ -3725,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3736,7 +3786,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -3754,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3765,7 +3815,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>0.4285714285714285</v>
@@ -3783,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3794,7 +3844,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>0.6428571428571429</v>
@@ -3812,10 +3862,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3823,7 +3873,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3841,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3852,7 +3902,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3870,10 +3920,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3881,7 +3931,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -3899,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3910,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C9">
         <v>0.3571428571428572</v>
@@ -3928,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3939,7 +3989,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3957,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3968,7 +4018,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>0.4285714285714285</v>
@@ -3986,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3997,7 +4047,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C12">
         <v>0.3571428571428572</v>
@@ -4015,10 +4065,10 @@
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4026,7 +4076,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>0.4285714285714285</v>
@@ -4044,10 +4094,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4065,19 +4115,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4085,19 +4135,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4105,19 +4155,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4125,19 +4175,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4145,19 +4195,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4165,19 +4215,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4188,16 +4238,16 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4208,16 +4258,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4225,19 +4275,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4245,19 +4295,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4268,16 +4318,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4288,16 +4338,16 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>-37</v>
+        <v>-44</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4308,16 +4358,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>-56</v>
+        <v>-58</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4327,310 +4377,328 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>18</v>
+      </c>
+      <c r="N2">
+        <v>24</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
         <v>9</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
-      </c>
-      <c r="H2">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>14</v>
-      </c>
-      <c r="M2">
-        <v>24</v>
-      </c>
-      <c r="N2">
-        <v>30</v>
-      </c>
-      <c r="O2">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="L3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>30</v>
       </c>
       <c r="O3">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="P3">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>11</v>
       </c>
       <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="K4">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>22</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>32</v>
+      </c>
+      <c r="P4">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>-2</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
         <v>6</v>
       </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>16</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
-      </c>
-      <c r="N4">
-        <v>24</v>
-      </c>
-      <c r="O4">
-        <v>30</v>
-      </c>
-      <c r="P4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>11</v>
+      </c>
+      <c r="O6">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="I5">
+      <c r="P6">
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>7</v>
-      </c>
-      <c r="M5">
-        <v>7</v>
-      </c>
-      <c r="N5">
-        <v>11</v>
-      </c>
-      <c r="O5">
-        <v>9</v>
-      </c>
-      <c r="P5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>-2</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>11</v>
-      </c>
-      <c r="L6">
-        <v>14</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>8</v>
-      </c>
-      <c r="O6">
-        <v>7</v>
-      </c>
-      <c r="P6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4676,11 +4744,14 @@
       <c r="O7">
         <v>5</v>
       </c>
-      <c r="P7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -4726,111 +4797,120 @@
       <c r="O8">
         <v>3</v>
       </c>
-      <c r="P8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="K9">
-        <v>-2</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
       <c r="M9">
+        <v>-3</v>
+      </c>
+      <c r="N9">
+        <v>-4</v>
+      </c>
+      <c r="O9">
+        <v>-4</v>
+      </c>
+      <c r="P9">
+        <v>-5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>-3</v>
-      </c>
-      <c r="P9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>-3</v>
-      </c>
-      <c r="C10">
-        <v>-7</v>
-      </c>
       <c r="D10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>-3</v>
       </c>
-      <c r="N10">
-        <v>-4</v>
-      </c>
-      <c r="O10">
-        <v>-4</v>
-      </c>
-      <c r="P10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-8</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4876,11 +4956,14 @@
       <c r="O11">
         <v>-20</v>
       </c>
-      <c r="P11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11">
+        <v>-23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4926,11 +5009,14 @@
       <c r="O12">
         <v>-37</v>
       </c>
-      <c r="P12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12">
+        <v>-44</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -4976,8 +5062,11 @@
       <c r="O13">
         <v>-56</v>
       </c>
-      <c r="P13" t="s">
-        <v>109</v>
+      <c r="P13">
+        <v>-58</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="140">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -61,43 +61,49 @@
     <t>cman</t>
   </si>
   <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>2-13-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>10-4-1</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>5-9-1</t>
+    <t>8-8-0</t>
+  </si>
+  <si>
+    <t>7-9-0</t>
+  </si>
+  <si>
+    <t>5-11-0</t>
+  </si>
+  <si>
+    <t>4-12-0</t>
+  </si>
+  <si>
+    <t>13-3-0</t>
+  </si>
+  <si>
+    <t>10-6-0</t>
+  </si>
+  <si>
+    <t>11-5-0</t>
+  </si>
+  <si>
+    <t>9-7-0</t>
+  </si>
+  <si>
+    <t>5-10-1</t>
+  </si>
+  <si>
+    <t>3-13-0</t>
+  </si>
+  <si>
+    <t>10-5-1</t>
+  </si>
+  <si>
+    <t>12-4-0</t>
+  </si>
+  <si>
+    <t>6-10-0</t>
+  </si>
+  <si>
+    <t>2-14-0</t>
+  </si>
+  <si>
+    <t>6-9-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -346,36 +352,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑9</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓11</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -849,37 +852,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -890,19 +893,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -920,7 +923,7 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -931,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -940,19 +943,19 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -972,7 +975,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -984,16 +987,16 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -1013,37 +1016,37 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
       <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1054,34 +1057,34 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
@@ -1098,10 +1101,10 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1110,22 +1113,22 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
       <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1136,34 +1139,34 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1177,37 +1180,37 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1218,25 +1221,25 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -1245,10 +1248,10 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1259,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1268,7 +1271,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -1277,16 +1280,16 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
         <v>12</v>
@@ -1297,40 +1300,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1348,25 +1351,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1601,58 +1604,6 @@
       </c>
       <c r="H10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>-8</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>-11</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1670,13 +1621,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1687,10 +1638,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>5.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1698,13 +1649,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>6.666666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1712,13 +1663,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6.75</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1729,10 +1680,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6.833333333333333</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1743,10 +1694,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>7.416666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1754,13 +1705,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1768,13 +1719,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>7.583333333333333</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1782,10 +1733,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>7.666666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1796,13 +1747,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>7.75</v>
+        <v>8.5</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1810,13 +1761,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>8.333333333333334</v>
+        <v>8.5</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1827,7 +1778,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>8.333333333333334</v>
+        <v>8.75</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1841,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>9.916666666666666</v>
+        <v>10.25</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1862,16 +1813,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1882,13 +1833,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1899,13 +1850,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>1.166666666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1916,10 +1867,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>8.666666666666666</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="D4">
-        <v>-0.3333333333333339</v>
+        <v>-0.4166666666666661</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1933,13 +1884,13 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>8.583333333333334</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D5">
-        <v>1.583333333333334</v>
+        <v>1.416666666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1947,16 +1898,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.333333333333334</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D6">
-        <v>2.333333333333334</v>
+        <v>0.6666666666666661</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1964,16 +1915,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>8.083333333333334</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D7">
-        <v>0.08333333333333393</v>
+        <v>2.583333333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1984,10 +1935,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>7.916666666666667</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D8">
-        <v>-2.083333333333333</v>
+        <v>-1.583333333333334</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -2001,13 +1952,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>7.083333333333333</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D9">
-        <v>1.083333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2024,7 +1975,7 @@
         <v>1.583333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2035,13 +1986,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="D11">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2052,10 +2003,10 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>5.083333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D12">
-        <v>-1.916666666666667</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -2069,13 +2020,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>3.833333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D13">
-        <v>-1.166666666666667</v>
+        <v>-0.833333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2093,46 +2044,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2678,49 +2629,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2728,43 +2679,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C2">
         <v>92.80000000000001</v>
       </c>
       <c r="D2">
-        <v>42.1</v>
+        <v>46.5</v>
       </c>
       <c r="E2">
-        <v>58.5</v>
+        <v>60.5</v>
       </c>
       <c r="F2">
-        <v>86.59999999999999</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>75.8</v>
       </c>
       <c r="H2">
-        <v>87</v>
+        <v>88.5</v>
       </c>
       <c r="I2">
-        <v>88.8</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="J2">
-        <v>95.89999999999999</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="K2">
         <v>98.8</v>
       </c>
       <c r="L2">
-        <v>97.3</v>
+        <v>99.3</v>
       </c>
       <c r="M2">
-        <v>96.5</v>
+        <v>97.5</v>
       </c>
       <c r="N2">
-        <v>95.7</v>
+        <v>94.5</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2778,34 +2729,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.5</v>
+        <v>13.6</v>
       </c>
       <c r="C3">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D3">
-        <v>77.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E3">
-        <v>93.40000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F3">
-        <v>88.2</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="G3">
-        <v>88.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="H3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I3">
-        <v>94.19999999999999</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="J3">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="K3">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -2828,46 +2779,46 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>49.5</v>
+        <v>51.7</v>
       </c>
       <c r="C4">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="D4">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="E4">
-        <v>55.1</v>
+        <v>56.89999999999999</v>
       </c>
       <c r="F4">
-        <v>25.7</v>
+        <v>24.3</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="H4">
-        <v>46.8</v>
+        <v>48.8</v>
       </c>
       <c r="I4">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="J4">
-        <v>36.8</v>
+        <v>38.4</v>
       </c>
       <c r="K4">
-        <v>25.7</v>
+        <v>23.5</v>
       </c>
       <c r="L4">
-        <v>50.5</v>
+        <v>49.9</v>
       </c>
       <c r="M4">
-        <v>74.09999999999999</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="N4">
-        <v>54.7</v>
+        <v>58.2</v>
       </c>
       <c r="O4">
-        <v>52.2</v>
+        <v>53</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2878,40 +2829,40 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>96.2</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="E5">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F5">
         <v>98.40000000000001</v>
       </c>
       <c r="G5">
-        <v>92.30000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="H5">
-        <v>95.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="I5">
-        <v>92.80000000000001</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="J5">
-        <v>86.8</v>
+        <v>85.8</v>
       </c>
       <c r="K5">
-        <v>96.39999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="L5">
-        <v>92.10000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="M5">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2928,34 +2879,34 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="C6">
-        <v>66.10000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="D6">
-        <v>65.10000000000001</v>
+        <v>63.4</v>
       </c>
       <c r="E6">
-        <v>69.5</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F6">
-        <v>87.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="G6">
-        <v>74.40000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="H6">
-        <v>83.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="I6">
         <v>96.59999999999999</v>
       </c>
       <c r="J6">
-        <v>98.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="K6">
-        <v>97.7</v>
+        <v>98.5</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -2978,43 +2929,43 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>93.5</v>
+        <v>90.8</v>
       </c>
       <c r="C7">
-        <v>96.39999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D7">
-        <v>97.3</v>
+        <v>97.8</v>
       </c>
       <c r="E7">
-        <v>90.90000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F7">
-        <v>94.3</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="G7">
-        <v>65.8</v>
+        <v>61.8</v>
       </c>
       <c r="H7">
-        <v>85.5</v>
+        <v>83.8</v>
       </c>
       <c r="I7">
-        <v>65.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="J7">
-        <v>47.4</v>
+        <v>50.4</v>
       </c>
       <c r="K7">
-        <v>43.9</v>
+        <v>43.2</v>
       </c>
       <c r="L7">
-        <v>67.30000000000001</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="M7">
-        <v>81.39999999999999</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>94.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -3034,37 +2985,37 @@
         <v>24.6</v>
       </c>
       <c r="D8">
-        <v>53.2</v>
+        <v>50.4</v>
       </c>
       <c r="E8">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="F8">
-        <v>35.4</v>
+        <v>39.1</v>
       </c>
       <c r="G8">
-        <v>49.2</v>
+        <v>51.5</v>
       </c>
       <c r="H8">
-        <v>42</v>
+        <v>42.7</v>
       </c>
       <c r="I8">
-        <v>64.90000000000001</v>
+        <v>61.9</v>
       </c>
       <c r="J8">
-        <v>84.2</v>
+        <v>82.3</v>
       </c>
       <c r="K8">
-        <v>68.30000000000001</v>
+        <v>69.39999999999999</v>
       </c>
       <c r="L8">
-        <v>56.99999999999999</v>
+        <v>56.2</v>
       </c>
       <c r="M8">
-        <v>33.90000000000001</v>
+        <v>32.5</v>
       </c>
       <c r="N8">
-        <v>69.5</v>
+        <v>65</v>
       </c>
       <c r="O8">
         <v>99.09999999999999</v>
@@ -3078,46 +3029,46 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>19.9</v>
+        <v>20.8</v>
       </c>
       <c r="C9">
-        <v>59.3</v>
+        <v>60.6</v>
       </c>
       <c r="D9">
-        <v>15.2</v>
+        <v>16.7</v>
       </c>
       <c r="E9">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="F9">
-        <v>41.8</v>
+        <v>41.4</v>
       </c>
       <c r="G9">
-        <v>36.2</v>
+        <v>33.2</v>
       </c>
       <c r="H9">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="I9">
-        <v>14.3</v>
+        <v>12.2</v>
       </c>
       <c r="J9">
         <v>27.1</v>
       </c>
       <c r="K9">
-        <v>47.09999999999999</v>
+        <v>48.4</v>
       </c>
       <c r="L9">
-        <v>21.3</v>
+        <v>22.7</v>
       </c>
       <c r="M9">
-        <v>9.800000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="N9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3128,46 +3079,46 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>74.2</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C10">
-        <v>95</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D10">
-        <v>98.2</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="E10">
-        <v>70.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F10">
-        <v>56.10000000000001</v>
+        <v>57.7</v>
       </c>
       <c r="G10">
-        <v>69.5</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="H10">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="I10">
-        <v>81.89999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="J10">
-        <v>63.3</v>
+        <v>65.3</v>
       </c>
       <c r="K10">
-        <v>82.3</v>
+        <v>83.7</v>
       </c>
       <c r="L10">
-        <v>69.19999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="M10">
         <v>51.7</v>
       </c>
       <c r="N10">
-        <v>17.1</v>
+        <v>18.4</v>
       </c>
       <c r="O10">
-        <v>8.9</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3178,46 +3129,46 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.1</v>
+        <v>10.4</v>
       </c>
       <c r="E11">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
       <c r="F11">
-        <v>25.6</v>
+        <v>22.6</v>
       </c>
       <c r="G11">
-        <v>36.3</v>
+        <v>37.5</v>
       </c>
       <c r="H11">
-        <v>18.5</v>
+        <v>21.5</v>
       </c>
       <c r="I11">
-        <v>10.8</v>
+        <v>11.7</v>
       </c>
       <c r="J11">
-        <v>5.7</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="K11">
-        <v>10.4</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="L11">
-        <v>21.8</v>
+        <v>22.2</v>
       </c>
       <c r="M11">
+        <v>12.5</v>
+      </c>
+      <c r="N11">
+        <v>19.8</v>
+      </c>
+      <c r="O11">
         <v>12.3</v>
-      </c>
-      <c r="N11">
-        <v>20</v>
-      </c>
-      <c r="O11">
-        <v>11.4</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3228,40 +3179,40 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0.7000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C12">
-        <v>62.9</v>
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>38.2</v>
+        <v>39.4</v>
       </c>
       <c r="E12">
-        <v>16.2</v>
+        <v>14.9</v>
       </c>
       <c r="F12">
-        <v>8.799999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="G12">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H12">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I12">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="J12">
         <v>0.3</v>
       </c>
       <c r="K12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3278,46 +3229,46 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C13">
-        <v>92.90000000000001</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="D13">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="E13">
-        <v>79.40000000000001</v>
+        <v>79</v>
       </c>
       <c r="F13">
-        <v>51.7</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="G13">
-        <v>69.19999999999999</v>
+        <v>69</v>
       </c>
       <c r="H13">
-        <v>81.5</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="I13">
-        <v>62.7</v>
+        <v>63.1</v>
       </c>
       <c r="J13">
-        <v>55.1</v>
+        <v>52.2</v>
       </c>
       <c r="K13">
-        <v>29.9</v>
+        <v>28.2</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>22.1</v>
       </c>
       <c r="M13">
-        <v>41.09999999999999</v>
+        <v>41.5</v>
       </c>
       <c r="N13">
-        <v>48.8</v>
+        <v>51.4</v>
       </c>
       <c r="O13">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3338,28 +3289,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3370,13 +3321,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>120.56</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3399,13 +3350,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>112.47</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3428,13 +3379,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>119.35</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3457,13 +3408,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>102.26</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3486,13 +3437,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>107.32</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3515,13 +3466,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>99.14</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3544,13 +3495,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>117.52</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3573,13 +3524,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>112.23</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3602,13 +3553,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>126.45</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3631,13 +3582,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>116.66</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3660,13 +3611,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>123.05</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3689,13 +3640,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>118.11</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3725,31 +3676,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3757,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>0.5714285714285714</v>
@@ -3775,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3786,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -3804,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3815,7 +3766,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>0.4285714285714285</v>
@@ -3833,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3844,7 +3795,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>0.6428571428571429</v>
@@ -3862,10 +3813,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3873,7 +3824,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3891,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3902,7 +3853,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3920,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3931,7 +3882,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -3949,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3960,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>0.3571428571428572</v>
@@ -3978,10 +3929,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3989,7 +3940,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -4007,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4018,7 +3969,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>0.4285714285714285</v>
@@ -4036,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4047,7 +3998,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C12">
         <v>0.3571428571428572</v>
@@ -4065,10 +4016,10 @@
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4076,7 +4027,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>0.4285714285714285</v>
@@ -4094,10 +4045,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4115,19 +4066,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4135,19 +4086,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4155,19 +4106,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4175,19 +4126,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4198,16 +4149,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4218,16 +4169,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4238,10 +4189,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -4255,16 +4206,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>113</v>
@@ -4275,19 +4226,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4295,19 +4246,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4318,16 +4269,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4338,16 +4289,16 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>-44</v>
+        <v>-47</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4358,10 +4309,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>-58</v>
+        <v>-61</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -4377,13 +4328,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>117</v>
       </c>
@@ -4430,169 +4381,181 @@
         <v>131</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>132</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>32</v>
+      </c>
+      <c r="P2">
+        <v>38</v>
+      </c>
+      <c r="Q2">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>14</v>
-      </c>
-      <c r="L2">
-        <v>16</v>
-      </c>
-      <c r="M2">
-        <v>18</v>
-      </c>
-      <c r="N2">
-        <v>24</v>
-      </c>
-      <c r="O2">
-        <v>30</v>
-      </c>
-      <c r="P2">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>39</v>
+      </c>
+      <c r="Q3">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
         <v>9</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>14</v>
-      </c>
-      <c r="M3">
-        <v>24</v>
-      </c>
-      <c r="N3">
-        <v>30</v>
-      </c>
-      <c r="O3">
-        <v>34</v>
-      </c>
-      <c r="P3">
-        <v>38</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J4">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>30</v>
       </c>
       <c r="O4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P4">
         <v>38</v>
       </c>
-      <c r="Q4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4641,11 +4604,14 @@
       <c r="P5">
         <v>14</v>
       </c>
-      <c r="Q5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -4694,11 +4660,14 @@
       <c r="P6">
         <v>6</v>
       </c>
-      <c r="Q6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4747,170 +4716,182 @@
       <c r="P7">
         <v>4</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>-2</v>
-      </c>
-      <c r="D8">
-        <v>-9</v>
-      </c>
       <c r="E8">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
         <v>-3</v>
       </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>9</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>8</v>
-      </c>
-      <c r="M8">
-        <v>12</v>
-      </c>
       <c r="N8">
+        <v>-4</v>
+      </c>
+      <c r="O8">
+        <v>-4</v>
+      </c>
+      <c r="P8">
+        <v>-5</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>-1</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B9">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
       <c r="I9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K9">
+        <v>-2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>-3</v>
+      </c>
+      <c r="P9">
+        <v>-8</v>
+      </c>
+      <c r="Q9">
+        <v>-9</v>
+      </c>
+      <c r="R9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>-9</v>
+      </c>
+      <c r="E10">
+        <v>-6</v>
+      </c>
+      <c r="F10">
+        <v>-3</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
         <v>12</v>
       </c>
-      <c r="L9">
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
         <v>3</v>
       </c>
-      <c r="M9">
-        <v>-3</v>
-      </c>
-      <c r="N9">
-        <v>-4</v>
-      </c>
-      <c r="O9">
-        <v>-4</v>
-      </c>
-      <c r="P9">
-        <v>-5</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>-2</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>-3</v>
-      </c>
       <c r="P10">
-        <v>-8</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>-1</v>
+      </c>
+      <c r="Q10">
+        <v>-12</v>
+      </c>
+      <c r="R10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4959,11 +4940,14 @@
       <c r="P11">
         <v>-23</v>
       </c>
-      <c r="Q11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="Q11">
+        <v>-24</v>
+      </c>
+      <c r="R11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -5012,11 +4996,14 @@
       <c r="P12">
         <v>-44</v>
       </c>
-      <c r="Q12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="Q12">
+        <v>-47</v>
+      </c>
+      <c r="R12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5065,7 +5052,10 @@
       <c r="P13">
         <v>-58</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13">
+        <v>-61</v>
+      </c>
+      <c r="R13" t="s">
         <v>116</v>
       </c>
     </row>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -2679,43 +2679,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64.09999999999999</v>
+        <v>63.5</v>
       </c>
       <c r="C2">
-        <v>92.80000000000001</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>46.5</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="E2">
-        <v>60.5</v>
+        <v>58.3</v>
       </c>
       <c r="F2">
-        <v>83.89999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="G2">
-        <v>75.8</v>
+        <v>74.3</v>
       </c>
       <c r="H2">
         <v>88.5</v>
       </c>
       <c r="I2">
-        <v>89.60000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="J2">
-        <v>93.89999999999999</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="K2">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="L2">
-        <v>99.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="M2">
-        <v>97.5</v>
+        <v>98.5</v>
       </c>
       <c r="N2">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2729,31 +2729,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.6</v>
+        <v>11.1</v>
       </c>
       <c r="C3">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="D3">
-        <v>76.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="E3">
-        <v>91.40000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F3">
-        <v>87.90000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="G3">
-        <v>90.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="H3">
-        <v>84</v>
+        <v>82.5</v>
       </c>
       <c r="I3">
-        <v>94.69999999999999</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="J3">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="K3">
         <v>99.59999999999999</v>
@@ -2779,46 +2779,46 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>51.7</v>
+        <v>49.6</v>
       </c>
       <c r="C4">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="D4">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="E4">
-        <v>56.89999999999999</v>
+        <v>54.8</v>
       </c>
       <c r="F4">
-        <v>24.3</v>
+        <v>27.3</v>
       </c>
       <c r="G4">
-        <v>41.2</v>
+        <v>40.6</v>
       </c>
       <c r="H4">
-        <v>48.8</v>
+        <v>48.4</v>
       </c>
       <c r="I4">
-        <v>27.9</v>
+        <v>29.2</v>
       </c>
       <c r="J4">
-        <v>38.4</v>
+        <v>40.3</v>
       </c>
       <c r="K4">
-        <v>23.5</v>
+        <v>26.6</v>
       </c>
       <c r="L4">
-        <v>49.9</v>
+        <v>48.1</v>
       </c>
       <c r="M4">
-        <v>70.89999999999999</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="N4">
-        <v>58.2</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="O4">
-        <v>53</v>
+        <v>53.8</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2829,40 +2829,40 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>94.89999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D5">
         <v>99.5</v>
       </c>
       <c r="E5">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F5">
-        <v>98.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G5">
         <v>90.7</v>
       </c>
       <c r="H5">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="I5">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="J5">
+        <v>86</v>
+      </c>
+      <c r="K5">
         <v>96.09999999999999</v>
       </c>
-      <c r="I5">
-        <v>94.69999999999999</v>
-      </c>
-      <c r="J5">
-        <v>85.8</v>
-      </c>
-      <c r="K5">
-        <v>96.89999999999999</v>
-      </c>
       <c r="L5">
-        <v>93.5</v>
+        <v>91.7</v>
       </c>
       <c r="M5">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2882,31 +2882,31 @@
         <v>99.3</v>
       </c>
       <c r="C6">
-        <v>66.2</v>
+        <v>65.5</v>
       </c>
       <c r="D6">
-        <v>63.4</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="E6">
-        <v>71.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="F6">
-        <v>84.3</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="G6">
-        <v>74.59999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="H6">
-        <v>82.09999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="I6">
-        <v>96.59999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="J6">
-        <v>99.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="K6">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -2929,40 +2929,40 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>90.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C7">
-        <v>96.7</v>
+        <v>95.7</v>
       </c>
       <c r="D7">
-        <v>97.8</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="E7">
-        <v>90.40000000000001</v>
+        <v>90</v>
       </c>
       <c r="F7">
-        <v>95.39999999999999</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="G7">
-        <v>61.8</v>
+        <v>63.4</v>
       </c>
       <c r="H7">
-        <v>83.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="I7">
-        <v>66.5</v>
+        <v>65.10000000000001</v>
       </c>
       <c r="J7">
-        <v>50.4</v>
+        <v>48.3</v>
       </c>
       <c r="K7">
-        <v>43.2</v>
+        <v>41.9</v>
       </c>
       <c r="L7">
-        <v>66.10000000000001</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="M7">
-        <v>84</v>
+        <v>82.8</v>
       </c>
       <c r="N7">
         <v>92.7</v>
@@ -2979,46 +2979,46 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>88.59999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="C8">
-        <v>24.6</v>
+        <v>23.5</v>
       </c>
       <c r="D8">
-        <v>50.4</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="E8">
-        <v>39.4</v>
+        <v>41.5</v>
       </c>
       <c r="F8">
-        <v>39.1</v>
+        <v>32.3</v>
       </c>
       <c r="G8">
-        <v>51.5</v>
+        <v>50.7</v>
       </c>
       <c r="H8">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="I8">
-        <v>61.9</v>
+        <v>64</v>
       </c>
       <c r="J8">
         <v>82.3</v>
       </c>
       <c r="K8">
-        <v>69.39999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="L8">
-        <v>56.2</v>
+        <v>57.7</v>
       </c>
       <c r="M8">
-        <v>32.5</v>
+        <v>31.1</v>
       </c>
       <c r="N8">
-        <v>65</v>
+        <v>65.2</v>
       </c>
       <c r="O8">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="P8">
         <v>100</v>
@@ -3029,46 +3029,46 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>20.8</v>
+        <v>20.1</v>
       </c>
       <c r="C9">
-        <v>60.6</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="D9">
-        <v>16.7</v>
+        <v>14.1</v>
       </c>
       <c r="E9">
-        <v>19.5</v>
+        <v>21.3</v>
       </c>
       <c r="F9">
-        <v>41.4</v>
+        <v>38.1</v>
       </c>
       <c r="G9">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="H9">
-        <v>21.8</v>
+        <v>23.9</v>
       </c>
       <c r="I9">
-        <v>12.2</v>
+        <v>13.1</v>
       </c>
       <c r="J9">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="K9">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="L9">
-        <v>22.7</v>
+        <v>23.3</v>
       </c>
       <c r="M9">
-        <v>10.7</v>
+        <v>12.3</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O9">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3079,46 +3079,46 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>74.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="C10">
-        <v>95.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D10">
-        <v>97.89999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E10">
-        <v>69.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="F10">
-        <v>57.7</v>
+        <v>60.3</v>
       </c>
       <c r="G10">
-        <v>70.89999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H10">
-        <v>51</v>
+        <v>48.6</v>
       </c>
       <c r="I10">
-        <v>79.7</v>
+        <v>77.3</v>
       </c>
       <c r="J10">
-        <v>65.3</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="K10">
-        <v>83.7</v>
+        <v>82.5</v>
       </c>
       <c r="L10">
-        <v>67.5</v>
+        <v>68.7</v>
       </c>
       <c r="M10">
-        <v>51.7</v>
+        <v>49.6</v>
       </c>
       <c r="N10">
-        <v>18.4</v>
+        <v>17.4</v>
       </c>
       <c r="O10">
-        <v>7.399999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3129,46 +3129,46 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.4</v>
+        <v>9.1</v>
       </c>
       <c r="E11">
-        <v>8.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F11">
-        <v>22.6</v>
+        <v>25.6</v>
       </c>
       <c r="G11">
-        <v>37.5</v>
+        <v>36.1</v>
       </c>
       <c r="H11">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="I11">
+        <v>12.8</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L11">
+        <v>22.7</v>
+      </c>
+      <c r="M11">
         <v>11.7</v>
       </c>
-      <c r="J11">
-        <v>6.600000000000001</v>
-      </c>
-      <c r="K11">
-        <v>9.700000000000001</v>
-      </c>
-      <c r="L11">
-        <v>22.2</v>
-      </c>
-      <c r="M11">
-        <v>12.5</v>
-      </c>
       <c r="N11">
-        <v>19.8</v>
+        <v>21.2</v>
       </c>
       <c r="O11">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3179,28 +3179,28 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="C12">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12">
-        <v>39.4</v>
+        <v>38.7</v>
       </c>
       <c r="E12">
-        <v>14.9</v>
+        <v>17.3</v>
       </c>
       <c r="F12">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G12">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H12">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I12">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0.3</v>
@@ -3209,10 +3209,10 @@
         <v>0.1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3229,46 +3229,46 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C13">
-        <v>91.60000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D13">
-        <v>97.2</v>
+        <v>97.8</v>
       </c>
       <c r="E13">
-        <v>79</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="F13">
-        <v>55.60000000000001</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="G13">
-        <v>69</v>
+        <v>70.7</v>
       </c>
       <c r="H13">
-        <v>79.10000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="I13">
-        <v>63.1</v>
+        <v>63.9</v>
       </c>
       <c r="J13">
-        <v>52.2</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="K13">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
       <c r="L13">
-        <v>22.1</v>
+        <v>22.6</v>
       </c>
       <c r="M13">
-        <v>41.5</v>
+        <v>42.2</v>
       </c>
       <c r="N13">
-        <v>51.4</v>
+        <v>50.3</v>
       </c>
       <c r="O13">
-        <v>26.4</v>
+        <v>25.8</v>
       </c>
       <c r="P13">
         <v>0</v>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="143">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -61,49 +61,55 @@
     <t>cman</t>
   </si>
   <si>
-    <t>8-8-0</t>
-  </si>
-  <si>
-    <t>7-9-0</t>
-  </si>
-  <si>
-    <t>5-11-0</t>
-  </si>
-  <si>
-    <t>4-12-0</t>
-  </si>
-  <si>
-    <t>13-3-0</t>
-  </si>
-  <si>
-    <t>10-6-0</t>
-  </si>
-  <si>
-    <t>11-5-0</t>
-  </si>
-  <si>
-    <t>9-7-0</t>
-  </si>
-  <si>
-    <t>5-10-1</t>
-  </si>
-  <si>
-    <t>3-13-0</t>
-  </si>
-  <si>
-    <t>10-5-1</t>
-  </si>
-  <si>
-    <t>12-4-0</t>
-  </si>
-  <si>
-    <t>6-10-0</t>
-  </si>
-  <si>
-    <t>2-14-0</t>
-  </si>
-  <si>
-    <t>6-9-1</t>
+    <t>8-8-1</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>6-10-1</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>11-5-1</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>5-10-2</t>
+  </si>
+  <si>
+    <t>7-9-1</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -343,85 +349,88 @@
     <t>5.0-9.0</t>
   </si>
   <si>
-    <t>Owners</t>
-  </si>
-  <si>
-    <t>Louie Power Index (LPI)</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
-    <t>Week 15</t>
-  </si>
-  <si>
-    <t>Week 16</t>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>Week</t>
@@ -852,37 +861,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -893,22 +902,22 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -917,13 +926,13 @@
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -931,40 +940,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -972,13 +981,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -987,25 +996,25 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1013,37 +1022,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
@@ -1054,40 +1063,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
       <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1098,37 +1107,37 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1139,37 +1148,37 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1177,40 +1186,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="K10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1218,40 +1227,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1259,40 +1268,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
       </c>
       <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
         <v>18</v>
       </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1300,40 +1309,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
         <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1351,25 +1360,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1455,25 +1464,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>-34</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1484,22 +1493,22 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>-34</v>
       </c>
       <c r="F6">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1507,25 +1516,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>-21</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>-13</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1533,25 +1542,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>-16</v>
+        <v>-21</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1559,25 +1568,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
+        <v>-16</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
         <v>4</v>
-      </c>
-      <c r="F9">
-        <v>-17</v>
-      </c>
-      <c r="G9">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1585,24 +1594,50 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-9</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>11</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>20</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1621,13 +1656,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1638,10 +1673,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>5.833333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1652,10 +1687,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>6.833333333333333</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1663,13 +1698,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7.583333333333333</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1680,10 +1715,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>7.583333333333333</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1694,10 +1729,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>7.75</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1705,13 +1740,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>7.833333333333333</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1722,10 +1757,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>8.083333333333334</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1736,10 +1771,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.333333333333334</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1750,10 +1785,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1764,10 +1799,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1778,10 +1813,10 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1792,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1813,16 +1848,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1833,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.1666666666666661</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1850,13 +1885,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>10.16666666666667</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="D3">
-        <v>1.166666666666666</v>
+        <v>1.583333333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1867,13 +1902,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>9.583333333333334</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.4166666666666661</v>
+        <v>0.1666666666666661</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1881,13 +1916,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>9.416666666666666</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="D5">
-        <v>1.416666666666666</v>
+        <v>1.583333333333334</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1898,16 +1933,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>8.666666666666666</v>
+        <v>9.5</v>
       </c>
       <c r="D6">
-        <v>0.6666666666666661</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1915,16 +1950,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>8.583333333333334</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D7">
-        <v>2.583333333333334</v>
+        <v>1.416666666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1935,13 +1970,13 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>8.416666666666666</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="D8">
-        <v>-1.583333333333334</v>
+        <v>-1.833333333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1952,13 +1987,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>7.583333333333333</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D9">
-        <v>0.583333333333333</v>
+        <v>0.1666666666666661</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1969,13 +2004,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>6.583333333333333</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D10">
-        <v>1.583333333333333</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1986,13 +2021,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>6.5</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D11">
-        <v>-1.5</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2003,10 +2038,10 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>5.166666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D12">
-        <v>-1.833333333333333</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -2020,13 +2055,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>4.166666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D13">
-        <v>-0.833333333333333</v>
+        <v>-0.75</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2044,46 +2079,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2629,49 +2664,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2679,43 +2714,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>63.5</v>
+        <v>61.3</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="D2">
-        <v>47.09999999999999</v>
+        <v>47.9</v>
       </c>
       <c r="E2">
-        <v>58.3</v>
+        <v>61</v>
       </c>
       <c r="F2">
-        <v>83.7</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="G2">
-        <v>74.3</v>
+        <v>74.8</v>
       </c>
       <c r="H2">
-        <v>88.5</v>
+        <v>85.5</v>
       </c>
       <c r="I2">
-        <v>88.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="J2">
-        <v>94.39999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="K2">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="L2">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="M2">
-        <v>98.5</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="N2">
-        <v>95.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2729,31 +2764,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="C3">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>78.10000000000001</v>
       </c>
       <c r="E3">
-        <v>93.40000000000001</v>
+        <v>92</v>
       </c>
       <c r="F3">
-        <v>88.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G3">
-        <v>89.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="H3">
-        <v>82.5</v>
+        <v>85.5</v>
       </c>
       <c r="I3">
-        <v>95.19999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J3">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="K3">
         <v>99.59999999999999</v>
@@ -2779,46 +2814,46 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>49.6</v>
+        <v>51.4</v>
       </c>
       <c r="C4">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="D4">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="E4">
-        <v>54.8</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="F4">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="G4">
-        <v>40.6</v>
+        <v>42.8</v>
       </c>
       <c r="H4">
-        <v>48.4</v>
+        <v>50.9</v>
       </c>
       <c r="I4">
-        <v>29.2</v>
+        <v>26.7</v>
       </c>
       <c r="J4">
-        <v>40.3</v>
+        <v>37.6</v>
       </c>
       <c r="K4">
-        <v>26.6</v>
+        <v>23.5</v>
       </c>
       <c r="L4">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="M4">
-        <v>72.89999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="N4">
-        <v>57.59999999999999</v>
+        <v>55.40000000000001</v>
       </c>
       <c r="O4">
-        <v>53.8</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="P4">
         <v>100</v>
@@ -2829,40 +2864,40 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="C5">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E5">
-        <v>98.3</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="F5">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G5">
-        <v>90.7</v>
+        <v>91</v>
       </c>
       <c r="H5">
-        <v>95.39999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="I5">
-        <v>94.09999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="J5">
-        <v>86</v>
+        <v>87.5</v>
       </c>
       <c r="K5">
-        <v>96.09999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="L5">
-        <v>91.7</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="M5">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -2879,34 +2914,34 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="C6">
-        <v>65.5</v>
+        <v>67.10000000000001</v>
       </c>
       <c r="D6">
-        <v>65.60000000000001</v>
+        <v>61.6</v>
       </c>
       <c r="E6">
-        <v>68</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F6">
-        <v>86.09999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="G6">
-        <v>74.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="H6">
-        <v>84.09999999999999</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="I6">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="J6">
-        <v>98.8</v>
+        <v>99.2</v>
       </c>
       <c r="K6">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -2929,43 +2964,43 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>91.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C7">
-        <v>95.7</v>
+        <v>96.5</v>
       </c>
       <c r="D7">
-        <v>97.39999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>89.8</v>
       </c>
       <c r="F7">
-        <v>94.39999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="G7">
-        <v>63.4</v>
+        <v>63.1</v>
       </c>
       <c r="H7">
-        <v>84.59999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="I7">
-        <v>65.10000000000001</v>
+        <v>66</v>
       </c>
       <c r="J7">
-        <v>48.3</v>
+        <v>52.1</v>
       </c>
       <c r="K7">
-        <v>41.9</v>
+        <v>43.7</v>
       </c>
       <c r="L7">
-        <v>66.60000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="M7">
-        <v>82.8</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="N7">
-        <v>92.7</v>
+        <v>93.7</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -2979,43 +3014,43 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>89.3</v>
+        <v>86.3</v>
       </c>
       <c r="C8">
-        <v>23.5</v>
+        <v>26.2</v>
       </c>
       <c r="D8">
-        <v>52.40000000000001</v>
+        <v>48.2</v>
       </c>
       <c r="E8">
-        <v>41.5</v>
+        <v>40.7</v>
       </c>
       <c r="F8">
-        <v>32.3</v>
+        <v>35.4</v>
       </c>
       <c r="G8">
-        <v>50.7</v>
+        <v>51.9</v>
       </c>
       <c r="H8">
-        <v>42.8</v>
+        <v>41.9</v>
       </c>
       <c r="I8">
-        <v>64</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="J8">
-        <v>82.3</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K8">
-        <v>70.59999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="L8">
-        <v>57.7</v>
+        <v>58.4</v>
       </c>
       <c r="M8">
         <v>31.1</v>
       </c>
       <c r="N8">
-        <v>65.2</v>
+        <v>65</v>
       </c>
       <c r="O8">
         <v>99.2</v>
@@ -3029,40 +3064,40 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>20.1</v>
+        <v>21.6</v>
       </c>
       <c r="C9">
-        <v>57.99999999999999</v>
+        <v>61.8</v>
       </c>
       <c r="D9">
+        <v>16.6</v>
+      </c>
+      <c r="E9">
+        <v>17.9</v>
+      </c>
+      <c r="F9">
+        <v>41.2</v>
+      </c>
+      <c r="G9">
+        <v>35.2</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>13.3</v>
+      </c>
+      <c r="J9">
+        <v>26.7</v>
+      </c>
+      <c r="K9">
+        <v>46.6</v>
+      </c>
+      <c r="L9">
+        <v>23.4</v>
+      </c>
+      <c r="M9">
         <v>14.1</v>
-      </c>
-      <c r="E9">
-        <v>21.3</v>
-      </c>
-      <c r="F9">
-        <v>38.1</v>
-      </c>
-      <c r="G9">
-        <v>33.3</v>
-      </c>
-      <c r="H9">
-        <v>23.9</v>
-      </c>
-      <c r="I9">
-        <v>13.1</v>
-      </c>
-      <c r="J9">
-        <v>26.8</v>
-      </c>
-      <c r="K9">
-        <v>48.8</v>
-      </c>
-      <c r="L9">
-        <v>23.3</v>
-      </c>
-      <c r="M9">
-        <v>12.3</v>
       </c>
       <c r="N9">
         <v>0.1</v>
@@ -3079,46 +3114,46 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C10">
-        <v>97.09999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D10">
-        <v>97.09999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="E10">
-        <v>69</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F10">
-        <v>60.3</v>
+        <v>59.9</v>
       </c>
       <c r="G10">
-        <v>73.40000000000001</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="H10">
-        <v>48.6</v>
+        <v>47.8</v>
       </c>
       <c r="I10">
-        <v>77.3</v>
+        <v>78.8</v>
       </c>
       <c r="J10">
-        <v>64.60000000000001</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="K10">
-        <v>82.5</v>
+        <v>79.7</v>
       </c>
       <c r="L10">
-        <v>68.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="M10">
-        <v>49.6</v>
+        <v>52.2</v>
       </c>
       <c r="N10">
-        <v>17.4</v>
+        <v>19.5</v>
       </c>
       <c r="O10">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3129,46 +3164,46 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.1</v>
+        <v>11.8</v>
       </c>
       <c r="E11">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="F11">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="G11">
-        <v>36.1</v>
+        <v>37.8</v>
       </c>
       <c r="H11">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="I11">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K11">
-        <v>8.699999999999999</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="L11">
+        <v>24.5</v>
+      </c>
+      <c r="M11">
+        <v>11.2</v>
+      </c>
+      <c r="N11">
         <v>22.7</v>
       </c>
-      <c r="M11">
-        <v>11.7</v>
-      </c>
-      <c r="N11">
-        <v>21.2</v>
-      </c>
       <c r="O11">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3179,40 +3214,40 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>61.4</v>
       </c>
       <c r="D12">
-        <v>38.7</v>
+        <v>41.3</v>
       </c>
       <c r="E12">
-        <v>17.3</v>
+        <v>15.4</v>
       </c>
       <c r="F12">
-        <v>9.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="G12">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H12">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J12">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
         <v>0.1</v>
       </c>
       <c r="L12">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3229,46 +3264,46 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="C13">
-        <v>92.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="D13">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="E13">
-        <v>79.80000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="F13">
-        <v>55.90000000000001</v>
+        <v>50.4</v>
       </c>
       <c r="G13">
-        <v>70.7</v>
+        <v>66.5</v>
       </c>
       <c r="H13">
-        <v>80.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="I13">
-        <v>63.9</v>
+        <v>63.6</v>
       </c>
       <c r="J13">
-        <v>54.50000000000001</v>
+        <v>50.6</v>
       </c>
       <c r="K13">
-        <v>27.6</v>
+        <v>32.9</v>
       </c>
       <c r="L13">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="M13">
-        <v>42.2</v>
+        <v>38.9</v>
       </c>
       <c r="N13">
-        <v>50.3</v>
+        <v>49</v>
       </c>
       <c r="O13">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3289,28 +3324,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3321,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>120.56</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3350,13 +3385,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>112.47</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3379,13 +3414,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>119.35</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3408,13 +3443,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <v>102.26</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3437,13 +3472,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>107.32</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3466,13 +3501,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>99.14</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3495,13 +3530,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>117.52</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3524,13 +3559,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>112.23</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3553,13 +3588,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10">
         <v>126.45</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3582,13 +3617,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>116.66</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3611,13 +3646,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>123.05</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3640,13 +3675,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D13">
         <v>118.11</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3676,31 +3711,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3708,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>0.5714285714285714</v>
@@ -3726,10 +3761,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3737,7 +3772,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -3755,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3766,7 +3801,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4">
         <v>0.4285714285714285</v>
@@ -3784,10 +3819,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3795,7 +3830,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>0.6428571428571429</v>
@@ -3813,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3824,7 +3859,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3842,10 +3877,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3853,7 +3888,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3871,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3882,7 +3917,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -3900,10 +3935,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3911,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9">
         <v>0.3571428571428572</v>
@@ -3929,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3940,7 +3975,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3958,10 +3993,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3969,7 +4004,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C11">
         <v>0.4285714285714285</v>
@@ -3987,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3998,7 +4033,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>0.3571428571428572</v>
@@ -4016,10 +4051,10 @@
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4027,7 +4062,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <v>0.4285714285714285</v>
@@ -4045,10 +4080,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4057,276 +4092,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9">
-        <v>-9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10">
-        <v>-12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11">
-        <v>-24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12">
-        <v>-47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13">
-        <v>-61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R13"/>
   <sheetViews>
@@ -4336,55 +4101,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4439,8 +4204,8 @@
       <c r="Q2">
         <v>41</v>
       </c>
-      <c r="R2" t="s">
-        <v>109</v>
+      <c r="R2">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4495,8 +4260,8 @@
       <c r="Q3">
         <v>40</v>
       </c>
-      <c r="R3" t="s">
-        <v>110</v>
+      <c r="R3">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4551,120 +4316,120 @@
       <c r="Q4">
         <v>33</v>
       </c>
-      <c r="R4" t="s">
-        <v>111</v>
+      <c r="R4">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>-2</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5">
-        <v>14</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
-      </c>
-      <c r="N5">
-        <v>8</v>
-      </c>
-      <c r="O5">
-        <v>7</v>
-      </c>
-      <c r="P5">
-        <v>14</v>
-      </c>
       <c r="Q5">
-        <v>20</v>
-      </c>
-      <c r="R5" t="s">
-        <v>112</v>
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="J6">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="I6">
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="M6">
         <v>6</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
         <v>7</v>
       </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-      <c r="N6">
-        <v>11</v>
-      </c>
-      <c r="O6">
-        <v>9</v>
-      </c>
       <c r="P6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q6">
-        <v>10</v>
-      </c>
-      <c r="R6" t="s">
-        <v>113</v>
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4719,8 +4484,8 @@
       <c r="Q7">
         <v>10</v>
       </c>
-      <c r="R7" t="s">
-        <v>112</v>
+      <c r="R7">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4775,8 +4540,8 @@
       <c r="Q8">
         <v>-1</v>
       </c>
-      <c r="R8" t="s">
-        <v>113</v>
+      <c r="R8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4831,8 +4596,8 @@
       <c r="Q9">
         <v>-9</v>
       </c>
-      <c r="R9" t="s">
-        <v>114</v>
+      <c r="R9">
+        <v>-9</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4887,8 +4652,8 @@
       <c r="Q10">
         <v>-12</v>
       </c>
-      <c r="R10" t="s">
-        <v>115</v>
+      <c r="R10">
+        <v>-17</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4943,8 +4708,8 @@
       <c r="Q11">
         <v>-24</v>
       </c>
-      <c r="R11" t="s">
-        <v>114</v>
+      <c r="R11">
+        <v>-26</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4999,8 +4764,8 @@
       <c r="Q12">
         <v>-47</v>
       </c>
-      <c r="R12" t="s">
-        <v>116</v>
+      <c r="R12">
+        <v>-56</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -5055,8 +4820,785 @@
       <c r="Q13">
         <v>-61</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13">
+        <v>-68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>116</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>32</v>
+      </c>
+      <c r="P2">
+        <v>38</v>
+      </c>
+      <c r="Q2">
+        <v>41</v>
+      </c>
+      <c r="R2">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>39</v>
+      </c>
+      <c r="Q3">
+        <v>40</v>
+      </c>
+      <c r="R3">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>34</v>
+      </c>
+      <c r="P4">
+        <v>38</v>
+      </c>
+      <c r="Q4">
+        <v>33</v>
+      </c>
+      <c r="R4">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>21</v>
+      </c>
+      <c r="S5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <v>14</v>
+      </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>18</v>
+      </c>
+      <c r="S6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-7</v>
+      </c>
+      <c r="E7">
+        <v>-9</v>
+      </c>
+      <c r="F7">
+        <v>-5</v>
+      </c>
+      <c r="G7">
+        <v>-6</v>
+      </c>
+      <c r="H7">
+        <v>-6</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>-7</v>
+      </c>
+      <c r="L7">
+        <v>-3</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>-3</v>
+      </c>
+      <c r="N8">
+        <v>-4</v>
+      </c>
+      <c r="O8">
+        <v>-4</v>
+      </c>
+      <c r="P8">
+        <v>-5</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>-2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>-3</v>
+      </c>
+      <c r="P9">
+        <v>-8</v>
+      </c>
+      <c r="Q9">
+        <v>-9</v>
+      </c>
+      <c r="R9">
+        <v>-9</v>
+      </c>
+      <c r="S9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>-9</v>
+      </c>
+      <c r="E10">
+        <v>-6</v>
+      </c>
+      <c r="F10">
+        <v>-3</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>-1</v>
+      </c>
+      <c r="Q10">
+        <v>-12</v>
+      </c>
+      <c r="R10">
+        <v>-17</v>
+      </c>
+      <c r="S10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <v>-9</v>
+      </c>
+      <c r="D11">
+        <v>-11</v>
+      </c>
+      <c r="E11">
+        <v>-8</v>
+      </c>
+      <c r="F11">
+        <v>-8</v>
+      </c>
+      <c r="G11">
+        <v>-12</v>
+      </c>
+      <c r="H11">
+        <v>-15</v>
+      </c>
+      <c r="I11">
+        <v>-12</v>
+      </c>
+      <c r="J11">
+        <v>-9</v>
+      </c>
+      <c r="K11">
+        <v>-13</v>
+      </c>
+      <c r="L11">
+        <v>-13</v>
+      </c>
+      <c r="M11">
+        <v>-13</v>
+      </c>
+      <c r="N11">
+        <v>-16</v>
+      </c>
+      <c r="O11">
+        <v>-20</v>
+      </c>
+      <c r="P11">
+        <v>-23</v>
+      </c>
+      <c r="Q11">
+        <v>-24</v>
+      </c>
+      <c r="R11">
+        <v>-26</v>
+      </c>
+      <c r="S11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>-8</v>
+      </c>
+      <c r="C12">
+        <v>-6</v>
+      </c>
+      <c r="D12">
+        <v>-14</v>
+      </c>
+      <c r="E12">
+        <v>-19</v>
+      </c>
+      <c r="F12">
+        <v>-20</v>
+      </c>
+      <c r="G12">
+        <v>-26</v>
+      </c>
+      <c r="H12">
+        <v>-28</v>
+      </c>
+      <c r="I12">
+        <v>-35</v>
+      </c>
+      <c r="J12">
+        <v>-35</v>
+      </c>
+      <c r="K12">
+        <v>-38</v>
+      </c>
+      <c r="L12">
+        <v>-34</v>
+      </c>
+      <c r="M12">
+        <v>-42</v>
+      </c>
+      <c r="N12">
+        <v>-42</v>
+      </c>
+      <c r="O12">
+        <v>-37</v>
+      </c>
+      <c r="P12">
+        <v>-44</v>
+      </c>
+      <c r="Q12">
+        <v>-47</v>
+      </c>
+      <c r="R12">
+        <v>-56</v>
+      </c>
+      <c r="S12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>-6</v>
+      </c>
+      <c r="C13">
+        <v>-2</v>
+      </c>
+      <c r="D13">
+        <v>-7</v>
+      </c>
+      <c r="E13">
+        <v>-17</v>
+      </c>
+      <c r="F13">
+        <v>-15</v>
+      </c>
+      <c r="G13">
+        <v>-17</v>
+      </c>
+      <c r="H13">
+        <v>-17</v>
+      </c>
+      <c r="I13">
+        <v>-12</v>
+      </c>
+      <c r="J13">
+        <v>-20</v>
+      </c>
+      <c r="K13">
+        <v>-21</v>
+      </c>
+      <c r="L13">
+        <v>-32</v>
+      </c>
+      <c r="M13">
+        <v>-42</v>
+      </c>
+      <c r="N13">
+        <v>-50</v>
+      </c>
+      <c r="O13">
+        <v>-56</v>
+      </c>
+      <c r="P13">
+        <v>-58</v>
+      </c>
+      <c r="Q13">
+        <v>-61</v>
+      </c>
+      <c r="R13">
+        <v>-68</v>
+      </c>
+      <c r="S13" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Pennoni Younglings 2025.xlsx
+++ b/leagues/Pennoni Younglings 2025.xlsx
@@ -10,16 +10,20 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
-    <sheet name="LPI By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Biggest Upsets" sheetId="6" r:id="rId6"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="145">
   <si>
     <t>Daddy's Finally Home</t>
   </si>
@@ -126,6 +130,225 @@
     <t>Difference</t>
   </si>
   <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Zachary Sparano</t>
+  </si>
+  <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>PJ Vogric</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
+    <t>Shane Leiphart</t>
+  </si>
+  <si>
+    <t>Robbie Wilston</t>
+  </si>
+  <si>
+    <t>Eli Brinker</t>
+  </si>
+  <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
+    <t>Colman Closser</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -133,42 +356,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Robbie Wilston</t>
-  </si>
-  <si>
-    <t>Chris Holloway</t>
-  </si>
-  <si>
-    <t>Chris Carbone</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Colman Closser</t>
-  </si>
-  <si>
-    <t>Eli Brinker</t>
-  </si>
-  <si>
-    <t>Michael  Celoni</t>
-  </si>
-  <si>
-    <t>Shane Leiphart</t>
-  </si>
-  <si>
-    <t>Zachary Sparano</t>
-  </si>
-  <si>
-    <t>PJ Vogric</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
-    <t>Marvin Ta</t>
   </si>
   <si>
     <t>↑6</t>
@@ -1169,6 +1356,302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-58</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>-35</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>-37</v>
+      </c>
+      <c r="G4">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>-34</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>-13</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>-21</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-16</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>-9</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
@@ -1594,6 +2077,2028 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>62.6</v>
+      </c>
+      <c r="C2">
+        <v>92.7</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>60.2</v>
+      </c>
+      <c r="F2">
+        <v>87</v>
+      </c>
+      <c r="G2">
+        <v>74.3</v>
+      </c>
+      <c r="H2">
+        <v>87.3</v>
+      </c>
+      <c r="I2">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="J2">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="K2">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="L2">
+        <v>98.3</v>
+      </c>
+      <c r="M2">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="N2">
+        <v>93.7</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12.8</v>
+      </c>
+      <c r="C3">
+        <v>4.2</v>
+      </c>
+      <c r="D3">
+        <v>79.80000000000001</v>
+      </c>
+      <c r="E3">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="F3">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="G3">
+        <v>89</v>
+      </c>
+      <c r="H3">
+        <v>84.2</v>
+      </c>
+      <c r="I3">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="J3">
+        <v>98</v>
+      </c>
+      <c r="K3">
+        <v>99.5</v>
+      </c>
+      <c r="L3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>51.7</v>
+      </c>
+      <c r="C4">
+        <v>5.2</v>
+      </c>
+      <c r="D4">
+        <v>3.7</v>
+      </c>
+      <c r="E4">
+        <v>55.1</v>
+      </c>
+      <c r="F4">
+        <v>26.5</v>
+      </c>
+      <c r="G4">
+        <v>39.8</v>
+      </c>
+      <c r="H4">
+        <v>49.6</v>
+      </c>
+      <c r="I4">
+        <v>26.7</v>
+      </c>
+      <c r="J4">
+        <v>39.8</v>
+      </c>
+      <c r="K4">
+        <v>24.1</v>
+      </c>
+      <c r="L4">
+        <v>49.6</v>
+      </c>
+      <c r="M4">
+        <v>74.7</v>
+      </c>
+      <c r="N4">
+        <v>55.2</v>
+      </c>
+      <c r="O4">
+        <v>54.6</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>96.5</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>99.5</v>
+      </c>
+      <c r="E5">
+        <v>98.2</v>
+      </c>
+      <c r="F5">
+        <v>97.7</v>
+      </c>
+      <c r="G5">
+        <v>91.5</v>
+      </c>
+      <c r="H5">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="I5">
+        <v>94.3</v>
+      </c>
+      <c r="J5">
+        <v>86.7</v>
+      </c>
+      <c r="K5">
+        <v>96.7</v>
+      </c>
+      <c r="L5">
+        <v>93.89999999999999</v>
+      </c>
+      <c r="M5">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>65.3</v>
+      </c>
+      <c r="E6">
+        <v>68.7</v>
+      </c>
+      <c r="F6">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="G6">
+        <v>76</v>
+      </c>
+      <c r="H6">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="I6">
+        <v>94.3</v>
+      </c>
+      <c r="J6">
+        <v>99.2</v>
+      </c>
+      <c r="K6">
+        <v>98.2</v>
+      </c>
+      <c r="L6">
+        <v>99.7</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>91.5</v>
+      </c>
+      <c r="C7">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="D7">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="E7">
+        <v>89.7</v>
+      </c>
+      <c r="F7">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="G7">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="H7">
+        <v>83.5</v>
+      </c>
+      <c r="I7">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="J7">
+        <v>52.6</v>
+      </c>
+      <c r="K7">
+        <v>43.8</v>
+      </c>
+      <c r="L7">
+        <v>66.7</v>
+      </c>
+      <c r="M7">
+        <v>84.3</v>
+      </c>
+      <c r="N7">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="C8">
+        <v>25.6</v>
+      </c>
+      <c r="D8">
+        <v>51.9</v>
+      </c>
+      <c r="E8">
+        <v>41.5</v>
+      </c>
+      <c r="F8">
+        <v>35.9</v>
+      </c>
+      <c r="G8">
+        <v>48.7</v>
+      </c>
+      <c r="H8">
+        <v>43.9</v>
+      </c>
+      <c r="I8">
+        <v>63.4</v>
+      </c>
+      <c r="J8">
+        <v>83.2</v>
+      </c>
+      <c r="K8">
+        <v>68.7</v>
+      </c>
+      <c r="L8">
+        <v>58.09999999999999</v>
+      </c>
+      <c r="M8">
+        <v>32.2</v>
+      </c>
+      <c r="N8">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="O8">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>20.5</v>
+      </c>
+      <c r="C9">
+        <v>61.6</v>
+      </c>
+      <c r="D9">
+        <v>15.9</v>
+      </c>
+      <c r="E9">
+        <v>19.2</v>
+      </c>
+      <c r="F9">
+        <v>40.3</v>
+      </c>
+      <c r="G9">
+        <v>35.4</v>
+      </c>
+      <c r="H9">
+        <v>23.2</v>
+      </c>
+      <c r="I9">
+        <v>13.3</v>
+      </c>
+      <c r="J9">
+        <v>25.5</v>
+      </c>
+      <c r="K9">
+        <v>50.8</v>
+      </c>
+      <c r="L9">
+        <v>23.6</v>
+      </c>
+      <c r="M9">
+        <v>12.8</v>
+      </c>
+      <c r="N9">
+        <v>0.1</v>
+      </c>
+      <c r="O9">
+        <v>1.3</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C10">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="D10">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="E10">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F10">
+        <v>57.7</v>
+      </c>
+      <c r="G10">
+        <v>71.5</v>
+      </c>
+      <c r="H10">
+        <v>50.9</v>
+      </c>
+      <c r="I10">
+        <v>79.10000000000001</v>
+      </c>
+      <c r="J10">
+        <v>65.8</v>
+      </c>
+      <c r="K10">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="L10">
+        <v>64.5</v>
+      </c>
+      <c r="M10">
+        <v>49.1</v>
+      </c>
+      <c r="N10">
+        <v>21.1</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1.1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>8.5</v>
+      </c>
+      <c r="F11">
+        <v>27.8</v>
+      </c>
+      <c r="G11">
+        <v>35.09999999999999</v>
+      </c>
+      <c r="H11">
+        <v>18.5</v>
+      </c>
+      <c r="I11">
+        <v>9.9</v>
+      </c>
+      <c r="J11">
+        <v>5.4</v>
+      </c>
+      <c r="K11">
+        <v>8.4</v>
+      </c>
+      <c r="L11">
+        <v>23.4</v>
+      </c>
+      <c r="M11">
+        <v>11.9</v>
+      </c>
+      <c r="N11">
+        <v>20.6</v>
+      </c>
+      <c r="O11">
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C12">
+        <v>62.6</v>
+      </c>
+      <c r="D12">
+        <v>38.3</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>7.8</v>
+      </c>
+      <c r="G12">
+        <v>3.5</v>
+      </c>
+      <c r="H12">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="I12">
+        <v>1.8</v>
+      </c>
+      <c r="J12">
+        <v>0.6</v>
+      </c>
+      <c r="K12">
+        <v>0.1</v>
+      </c>
+      <c r="L12">
+        <v>0.1</v>
+      </c>
+      <c r="M12">
+        <v>0.8</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C13">
+        <v>91.8</v>
+      </c>
+      <c r="D13">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E13">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="F13">
+        <v>50.4</v>
+      </c>
+      <c r="G13">
+        <v>70.3</v>
+      </c>
+      <c r="H13">
+        <v>79.5</v>
+      </c>
+      <c r="I13">
+        <v>66.5</v>
+      </c>
+      <c r="J13">
+        <v>48.6</v>
+      </c>
+      <c r="K13">
+        <v>28.2</v>
+      </c>
+      <c r="L13">
+        <v>22.2</v>
+      </c>
+      <c r="M13">
+        <v>39</v>
+      </c>
+      <c r="N13">
+        <v>47.5</v>
+      </c>
+      <c r="O13">
+        <v>26</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>120.56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <v>112.47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>119.35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>102.26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>107.32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>99.14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>117.52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>112.23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>126.45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11">
+        <v>116.66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>123.05</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>118.11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D2">
+        <v>120.5557142857143</v>
+      </c>
+      <c r="E2">
+        <v>1687.78</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D3">
+        <v>119.3471428571428</v>
+      </c>
+      <c r="E3">
+        <v>1670.86</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D4">
+        <v>117.52</v>
+      </c>
+      <c r="E4">
+        <v>1645.28</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D5">
+        <v>126.4485714285714</v>
+      </c>
+      <c r="E5">
+        <v>1770.28</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D6">
+        <v>116.6628571428571</v>
+      </c>
+      <c r="E6">
+        <v>1633.28</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D7">
+        <v>123.05</v>
+      </c>
+      <c r="E7">
+        <v>1722.7</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>118.1057142857143</v>
+      </c>
+      <c r="E8">
+        <v>1653.48</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D9">
+        <v>112.4657142857143</v>
+      </c>
+      <c r="E9">
+        <v>1574.52</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D10">
+        <v>102.2585714285714</v>
+      </c>
+      <c r="E10">
+        <v>1431.62</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D11">
+        <v>107.3185714285714</v>
+      </c>
+      <c r="E11">
+        <v>1502.46</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D12">
+        <v>99.14285714285714</v>
+      </c>
+      <c r="E12">
+        <v>1388</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D13">
+        <v>112.2285714285714</v>
+      </c>
+      <c r="E13">
+        <v>1571.2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1605,16 +4110,16 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1625,7 +4130,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>47</v>
@@ -1634,7 +4139,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1645,7 +4150,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>41</v>
@@ -1654,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1665,7 +4170,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>33</v>
@@ -1674,7 +4179,7 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1685,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -1694,7 +4199,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1705,7 +4210,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -1714,7 +4219,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,7 +4230,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>14</v>
@@ -1734,7 +4239,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1745,7 +4250,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1754,7 +4259,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1765,7 +4270,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>-9</v>
@@ -1774,7 +4279,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1785,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>-17</v>
@@ -1794,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1805,7 +4310,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>-26</v>
@@ -1814,7 +4319,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1825,7 +4330,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>-56</v>
@@ -1834,7 +4339,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1845,7 +4350,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>-68</v>
@@ -1854,7 +4359,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +4367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -1872,58 +4377,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1982,7 +4487,7 @@
         <v>47</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2041,7 +4546,7 @@
         <v>41</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2100,7 +4605,7 @@
         <v>33</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2159,7 +4664,7 @@
         <v>21</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2218,7 +4723,7 @@
         <v>18</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2277,7 +4782,7 @@
         <v>14</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2336,7 +4841,7 @@
         <v>2</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2395,7 +4900,7 @@
         <v>-9</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2454,7 +4959,7 @@
         <v>-17</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2513,7 +5018,7 @@
         <v>-26</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2572,7 +5077,7 @@
         <v>-56</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2631,303 +5136,7 @@
         <v>-68</v>
       </c>
       <c r="S13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>-58</v>
-      </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
-      <c r="G2">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>-35</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>-37</v>
-      </c>
-      <c r="G4">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>41</v>
-      </c>
-      <c r="G5">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>-34</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>-13</v>
-      </c>
-      <c r="G7">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>-21</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>-16</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>-17</v>
-      </c>
-      <c r="G10">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>-9</v>
-      </c>
-      <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
